--- a/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
+++ b/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21010" windowHeight="11350"/>
+    <workbookView windowWidth="16510" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Axis" sheetId="1" r:id="rId1"/>
@@ -2283,9 +2283,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2354,63 +2354,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2432,14 +2377,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2452,23 +2412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2483,18 +2436,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2513,7 +2513,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,7 +2657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,13 +2669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,115 +2681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2675,25 +2693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,65 +2796,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2875,6 +2816,65 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2901,10 +2901,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2913,133 +2913,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3652,13 +3652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q707"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B162" sqref="$A162:$XFD162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3705,7 +3705,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" hidden="1" spans="1:17">
+    <row r="2" spans="1:17">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3724,7 +3724,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" hidden="1" spans="1:17">
+    <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:17">
+    <row r="4" spans="1:17">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3798,7 +3798,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" hidden="1" spans="1:17">
+    <row r="5" spans="1:17">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:17">
+    <row r="6" spans="1:17">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -3895,7 +3895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:17">
+    <row r="7" spans="1:17">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -3941,7 +3941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:17">
+    <row r="8" spans="1:17">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -4031,7 +4031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:17">
+    <row r="10" spans="1:17">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -4077,7 +4077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:17">
+    <row r="11" spans="1:17">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -4123,7 +4123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:17">
+    <row r="12" spans="1:17">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -4169,7 +4169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:17">
+    <row r="13" spans="1:17">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -4215,7 +4215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:17">
+    <row r="14" spans="1:17">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -4261,7 +4261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:17">
+    <row r="15" spans="1:17">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -4307,7 +4307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:17">
+    <row r="16" spans="1:17">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -4353,7 +4353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:17">
+    <row r="17" spans="1:17">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
@@ -4399,7 +4399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:17">
+    <row r="18" spans="1:17">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -4445,7 +4445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:17">
+    <row r="19" spans="1:17">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -4535,7 +4535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:17">
+    <row r="21" spans="1:17">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
@@ -4581,7 +4581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:17">
+    <row r="22" spans="1:17">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -4627,7 +4627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:17">
+    <row r="23" spans="1:17">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -4673,7 +4673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:17">
+    <row r="24" spans="1:17">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
@@ -4719,7 +4719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:17">
+    <row r="25" spans="1:17">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
@@ -4765,7 +4765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:17">
+    <row r="26" spans="1:17">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -5559,7 +5559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:17">
+    <row r="44" spans="1:17">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
@@ -5605,7 +5605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:17">
+    <row r="45" spans="1:17">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
@@ -5651,7 +5651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:17">
+    <row r="46" spans="1:17">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
@@ -5697,7 +5697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:17">
+    <row r="47" spans="1:17">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
@@ -5743,7 +5743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:17">
+    <row r="48" spans="1:17">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -5789,7 +5789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:17">
+    <row r="49" spans="1:17">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
@@ -5835,7 +5835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:17">
+    <row r="50" spans="1:17">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -5881,7 +5881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:17">
+    <row r="51" spans="1:17">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
@@ -5927,7 +5927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:17">
+    <row r="52" spans="1:17">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
@@ -5973,7 +5973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:17">
+    <row r="53" spans="1:17">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
@@ -6019,7 +6019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:17">
+    <row r="54" spans="1:17">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
@@ -6065,7 +6065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:17">
+    <row r="55" spans="1:17">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -6111,7 +6111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:17">
+    <row r="56" spans="1:17">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
@@ -6157,7 +6157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:17">
+    <row r="57" spans="1:17">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
@@ -6203,7 +6203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:17">
+    <row r="58" spans="1:17">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
@@ -6249,7 +6249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:17">
+    <row r="59" spans="1:17">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
@@ -6295,7 +6295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:17">
+    <row r="60" spans="1:17">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -6429,7 +6429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:17">
+    <row r="63" spans="1:17">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -6475,7 +6475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:17">
+    <row r="64" spans="1:17">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
@@ -6749,7 +6749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:17">
+    <row r="70" spans="1:17">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -6795,7 +6795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:17">
+    <row r="71" spans="1:17">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
@@ -6841,7 +6841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:17">
+    <row r="72" spans="1:17">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
@@ -6887,7 +6887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:17">
+    <row r="73" spans="1:17">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
@@ -6933,7 +6933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:17">
+    <row r="74" spans="1:17">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
@@ -6979,7 +6979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:17">
+    <row r="75" spans="1:17">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -7025,7 +7025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:17">
+    <row r="76" spans="1:17">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -7071,7 +7071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:17">
+    <row r="77" spans="1:17">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="20"/>
@@ -7117,7 +7117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:17">
+    <row r="78" spans="1:17">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="20"/>
@@ -7163,7 +7163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:17">
+    <row r="79" spans="1:17">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
@@ -7209,7 +7209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:17">
+    <row r="80" spans="1:17">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
@@ -7255,7 +7255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:17">
+    <row r="81" spans="1:17">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="20"/>
@@ -7345,7 +7345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:17">
+    <row r="83" spans="1:17">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="20"/>
@@ -7391,7 +7391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:17">
+    <row r="84" spans="1:17">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="20"/>
@@ -7701,7 +7701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:17">
+    <row r="91" spans="1:17">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="20"/>
@@ -7747,7 +7747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" ht="39" hidden="1" spans="1:17">
+    <row r="92" ht="39" spans="1:17">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="20"/>
@@ -7793,7 +7793,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:17">
+    <row r="93" spans="1:17">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="20"/>
@@ -8059,7 +8059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:17">
+    <row r="99" spans="1:17">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="20"/>
@@ -8105,7 +8105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:17">
+    <row r="100" spans="1:17">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="20"/>
@@ -8151,7 +8151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:17">
+    <row r="101" spans="1:17">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="20"/>
@@ -8197,7 +8197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:17">
+    <row r="102" spans="1:17">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="20"/>
@@ -8243,7 +8243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:17">
+    <row r="103" spans="1:17">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="20"/>
@@ -8289,7 +8289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:17">
+    <row r="104" spans="1:17">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="20"/>
@@ -8379,7 +8379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:17">
+    <row r="106" spans="1:17">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="20"/>
@@ -8425,7 +8425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:17">
+    <row r="107" spans="1:17">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="20"/>
@@ -8471,7 +8471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:17">
+    <row r="108" spans="1:17">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="20"/>
@@ -8517,7 +8517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:17">
+    <row r="109" spans="1:17">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="20"/>
@@ -8607,7 +8607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:17">
+    <row r="111" spans="1:17">
       <c r="A111" s="15">
         <v>2</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:17">
+    <row r="112" spans="1:17">
       <c r="A112" s="15"/>
       <c r="B112" s="19"/>
       <c r="C112" s="20"/>
@@ -8701,7 +8701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:17">
+    <row r="113" spans="1:17">
       <c r="A113" s="15"/>
       <c r="B113" s="19"/>
       <c r="C113" s="20"/>
@@ -8747,7 +8747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:17">
+    <row r="114" spans="1:17">
       <c r="A114" s="15"/>
       <c r="B114" s="19"/>
       <c r="C114" s="20"/>
@@ -8793,7 +8793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:17">
+    <row r="115" spans="1:17">
       <c r="A115" s="15"/>
       <c r="B115" s="19"/>
       <c r="C115" s="20"/>
@@ -9017,7 +9017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:17">
+    <row r="120" spans="1:17">
       <c r="A120" s="15"/>
       <c r="B120" s="32"/>
       <c r="C120" s="20"/>
@@ -9063,7 +9063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:17">
+    <row r="121" spans="1:17">
       <c r="A121" s="15"/>
       <c r="B121" s="32"/>
       <c r="C121" s="20"/>
@@ -9109,7 +9109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:17">
+    <row r="122" spans="1:17">
       <c r="A122" s="15"/>
       <c r="B122" s="32"/>
       <c r="C122" s="20"/>
@@ -9155,7 +9155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:17">
+    <row r="123" spans="1:17">
       <c r="A123" s="15"/>
       <c r="B123" s="32"/>
       <c r="C123" s="20"/>
@@ -9201,7 +9201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:17">
+    <row r="124" spans="1:17">
       <c r="A124" s="15"/>
       <c r="B124" s="32"/>
       <c r="C124" s="20"/>
@@ -9247,7 +9247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:17">
+    <row r="125" spans="1:17">
       <c r="A125" s="15"/>
       <c r="B125" s="32"/>
       <c r="C125" s="20"/>
@@ -9293,7 +9293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:17">
+    <row r="126" spans="1:17">
       <c r="A126" s="15"/>
       <c r="B126" s="32"/>
       <c r="C126" s="20"/>
@@ -9339,7 +9339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:17">
+    <row r="127" spans="1:17">
       <c r="A127" s="15"/>
       <c r="B127" s="32"/>
       <c r="C127" s="20"/>
@@ -9385,7 +9385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:17">
+    <row r="128" spans="1:17">
       <c r="A128" s="15"/>
       <c r="B128" s="32"/>
       <c r="C128" s="20"/>
@@ -9431,7 +9431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:17">
+    <row r="129" spans="1:17">
       <c r="A129" s="15"/>
       <c r="B129" s="32"/>
       <c r="C129" s="20"/>
@@ -9477,7 +9477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:17">
+    <row r="130" spans="1:17">
       <c r="A130" s="15"/>
       <c r="B130" s="32"/>
       <c r="C130" s="20"/>
@@ -9523,7 +9523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:17">
+    <row r="131" spans="1:17">
       <c r="A131" s="15"/>
       <c r="B131" s="32"/>
       <c r="C131" s="20"/>
@@ -9569,7 +9569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:17">
+    <row r="132" spans="1:17">
       <c r="A132" s="15"/>
       <c r="B132" s="32"/>
       <c r="C132" s="20"/>
@@ -9615,7 +9615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:17">
+    <row r="133" spans="1:17">
       <c r="A133" s="15"/>
       <c r="B133" s="32"/>
       <c r="C133" s="20"/>
@@ -9661,7 +9661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:17">
+    <row r="134" spans="1:17">
       <c r="A134" s="15"/>
       <c r="B134" s="32"/>
       <c r="C134" s="20"/>
@@ -9707,7 +9707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:17">
+    <row r="135" spans="1:17">
       <c r="A135" s="15"/>
       <c r="B135" s="32"/>
       <c r="C135" s="20"/>
@@ -9753,7 +9753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:17">
+    <row r="136" spans="1:17">
       <c r="A136" s="15"/>
       <c r="B136" s="32"/>
       <c r="C136" s="20"/>
@@ -9799,7 +9799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:17">
+    <row r="137" spans="1:17">
       <c r="A137" s="15"/>
       <c r="B137" s="32"/>
       <c r="C137" s="20"/>
@@ -9845,7 +9845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:17">
+    <row r="138" spans="1:17">
       <c r="A138" s="15"/>
       <c r="B138" s="32"/>
       <c r="C138" s="20"/>
@@ -9891,7 +9891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:17">
+    <row r="139" spans="1:17">
       <c r="A139" s="15"/>
       <c r="B139" s="32"/>
       <c r="C139" s="20"/>
@@ -9937,7 +9937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:17">
+    <row r="140" spans="1:17">
       <c r="A140" s="15"/>
       <c r="B140" s="32"/>
       <c r="C140" s="20"/>
@@ -9992,7 +9992,7 @@
         <v>148</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F141" s="22"/>
       <c r="G141" s="18" t="s">
@@ -10033,10 +10033,10 @@
       <c r="C142" s="20"/>
       <c r="D142" s="15">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F142" s="22"/>
       <c r="G142" s="18" t="s">
@@ -10077,7 +10077,7 @@
       <c r="C143" s="20"/>
       <c r="D143" s="15">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>41</v>
@@ -10115,13 +10115,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:17">
+    <row r="144" spans="1:17">
       <c r="A144" s="15"/>
       <c r="B144" s="32"/>
       <c r="C144" s="20"/>
       <c r="D144" s="15">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>41</v>
@@ -10161,13 +10161,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" ht="52" hidden="1" spans="1:17">
+    <row r="145" ht="52" spans="1:17">
       <c r="A145" s="15"/>
       <c r="B145" s="32"/>
       <c r="C145" s="20"/>
       <c r="D145" s="15">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E145" s="16" t="s">
         <v>41</v>
@@ -10207,13 +10207,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:17">
+    <row r="146" spans="1:17">
       <c r="A146" s="15"/>
       <c r="B146" s="32"/>
       <c r="C146" s="20"/>
       <c r="D146" s="15">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E146" s="16" t="s">
         <v>41</v>
@@ -10253,13 +10253,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:17">
+    <row r="147" spans="1:17">
       <c r="A147" s="15"/>
       <c r="B147" s="32"/>
       <c r="C147" s="20"/>
       <c r="D147" s="15">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E147" s="16" t="s">
         <v>41</v>
@@ -10299,13 +10299,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:17">
+    <row r="148" spans="1:17">
       <c r="A148" s="15"/>
       <c r="B148" s="32"/>
       <c r="C148" s="20"/>
       <c r="D148" s="15">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>41</v>
@@ -10345,13 +10345,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:17">
+    <row r="149" spans="1:17">
       <c r="A149" s="15"/>
       <c r="B149" s="32"/>
       <c r="C149" s="20"/>
       <c r="D149" s="15">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>41</v>
@@ -10397,7 +10397,7 @@
       <c r="C150" s="20"/>
       <c r="D150" s="15">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>41</v>
@@ -10435,13 +10435,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:17">
+    <row r="151" spans="1:17">
       <c r="A151" s="15"/>
       <c r="B151" s="32"/>
       <c r="C151" s="20"/>
       <c r="D151" s="15">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E151" s="16" t="s">
         <v>41</v>
@@ -10481,13 +10481,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:17">
+    <row r="152" spans="1:17">
       <c r="A152" s="15"/>
       <c r="B152" s="32"/>
       <c r="C152" s="20"/>
       <c r="D152" s="15">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E152" s="16" t="s">
         <v>41</v>
@@ -10533,7 +10533,7 @@
       <c r="C153" s="20"/>
       <c r="D153" s="15">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E153" s="16" t="s">
         <v>41</v>
@@ -10577,7 +10577,7 @@
       <c r="C154" s="20"/>
       <c r="D154" s="15">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E154" s="16" t="s">
         <v>41</v>
@@ -10615,13 +10615,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" ht="39" hidden="1" spans="1:17">
+    <row r="155" ht="39" spans="1:17">
       <c r="A155" s="15"/>
       <c r="B155" s="32"/>
       <c r="C155" s="20"/>
       <c r="D155" s="15">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E155" s="16" t="s">
         <v>41</v>
@@ -10661,13 +10661,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:17">
+    <row r="156" spans="1:17">
       <c r="A156" s="15"/>
       <c r="B156" s="32"/>
       <c r="C156" s="20"/>
       <c r="D156" s="15">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E156" s="16" t="s">
         <v>251</v>
@@ -10707,13 +10707,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:17">
+    <row r="157" spans="1:17">
       <c r="A157" s="15"/>
       <c r="B157" s="32"/>
       <c r="C157" s="20"/>
       <c r="D157" s="15">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E157" s="16" t="s">
         <v>251</v>
@@ -10753,13 +10753,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:17">
+    <row r="158" spans="1:17">
       <c r="A158" s="15"/>
       <c r="B158" s="32"/>
       <c r="C158" s="20"/>
       <c r="D158" s="15">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>41</v>
@@ -10805,7 +10805,7 @@
       <c r="C159" s="20"/>
       <c r="D159" s="15">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>41</v>
@@ -10843,13 +10843,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:17">
+    <row r="160" spans="1:17">
       <c r="A160" s="15"/>
       <c r="B160" s="32"/>
       <c r="C160" s="20"/>
       <c r="D160" s="15">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E160" s="16" t="s">
         <v>22</v>
@@ -10889,13 +10889,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:17">
+    <row r="161" spans="1:17">
       <c r="A161" s="15"/>
       <c r="B161" s="32"/>
       <c r="C161" s="20"/>
       <c r="D161" s="15">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E161" s="16" t="s">
         <v>22</v>
@@ -10941,7 +10941,7 @@
       <c r="C162" s="20"/>
       <c r="D162" s="15">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>41</v>
@@ -10979,13 +10979,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:17">
+    <row r="163" spans="1:17">
       <c r="A163" s="15"/>
       <c r="B163" s="32"/>
       <c r="C163" s="20"/>
       <c r="D163" s="15">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E163" s="16" t="s">
         <v>41</v>
@@ -11025,13 +11025,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:17">
+    <row r="164" spans="1:17">
       <c r="A164" s="15"/>
       <c r="B164" s="32"/>
       <c r="C164" s="20"/>
       <c r="D164" s="15">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E164" s="16" t="s">
         <v>41</v>
@@ -11071,13 +11071,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:17">
+    <row r="165" spans="1:17">
       <c r="A165" s="15"/>
       <c r="B165" s="32"/>
       <c r="C165" s="20"/>
       <c r="D165" s="15">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>41</v>
@@ -11123,7 +11123,7 @@
       <c r="C166" s="20"/>
       <c r="D166" s="15">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E166" s="16" t="s">
         <v>41</v>
@@ -11167,7 +11167,7 @@
       <c r="C167" s="20"/>
       <c r="D167" s="15">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E167" s="16" t="s">
         <v>41</v>
@@ -11211,7 +11211,7 @@
       <c r="C168" s="20"/>
       <c r="D168" s="15">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>41</v>
@@ -11255,7 +11255,7 @@
       <c r="C169" s="20"/>
       <c r="D169" s="15">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>41</v>
@@ -11293,13 +11293,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:17">
+    <row r="170" spans="1:17">
       <c r="A170" s="15"/>
       <c r="B170" s="32"/>
       <c r="C170" s="20"/>
       <c r="D170" s="15">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>251</v>
@@ -11339,13 +11339,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:17">
+    <row r="171" spans="1:17">
       <c r="A171" s="15"/>
       <c r="B171" s="32"/>
       <c r="C171" s="20"/>
       <c r="D171" s="15">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>251</v>
@@ -11385,13 +11385,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:17">
+    <row r="172" spans="1:17">
       <c r="A172" s="15"/>
       <c r="B172" s="32"/>
       <c r="C172" s="20"/>
       <c r="D172" s="15">
         <f t="shared" si="2"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>251</v>
@@ -11431,13 +11431,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:17">
+    <row r="173" spans="1:17">
       <c r="A173" s="15"/>
       <c r="B173" s="32"/>
       <c r="C173" s="20"/>
       <c r="D173" s="15">
         <f t="shared" si="2"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>251</v>
@@ -11477,13 +11477,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:17">
+    <row r="174" spans="1:17">
       <c r="A174" s="15"/>
       <c r="B174" s="32"/>
       <c r="C174" s="20"/>
       <c r="D174" s="15">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>251</v>
@@ -11523,13 +11523,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:17">
+    <row r="175" spans="1:17">
       <c r="A175" s="15"/>
       <c r="B175" s="32"/>
       <c r="C175" s="20"/>
       <c r="D175" s="15">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>251</v>
@@ -11569,13 +11569,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:17">
+    <row r="176" spans="1:17">
       <c r="A176" s="15"/>
       <c r="B176" s="32"/>
       <c r="C176" s="20"/>
       <c r="D176" s="15">
         <f t="shared" si="2"/>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>251</v>
@@ -11615,13 +11615,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:17">
+    <row r="177" spans="1:17">
       <c r="A177" s="15"/>
       <c r="B177" s="32"/>
       <c r="C177" s="20"/>
       <c r="D177" s="15">
         <f t="shared" si="2"/>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>251</v>
@@ -11661,13 +11661,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:17">
+    <row r="178" spans="1:17">
       <c r="A178" s="15"/>
       <c r="B178" s="32"/>
       <c r="C178" s="20"/>
       <c r="D178" s="15">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>251</v>
@@ -11707,13 +11707,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:17">
+    <row r="179" spans="1:17">
       <c r="A179" s="15"/>
       <c r="B179" s="32"/>
       <c r="C179" s="20"/>
       <c r="D179" s="15">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>251</v>
@@ -11753,13 +11753,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:17">
+    <row r="180" spans="1:17">
       <c r="A180" s="15"/>
       <c r="B180" s="32"/>
       <c r="C180" s="20"/>
       <c r="D180" s="15">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>251</v>
@@ -11799,13 +11799,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:17">
+    <row r="181" spans="1:17">
       <c r="A181" s="15"/>
       <c r="B181" s="32"/>
       <c r="C181" s="20"/>
       <c r="D181" s="15">
         <f t="shared" si="2"/>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>251</v>
@@ -11845,13 +11845,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:17">
+    <row r="182" spans="1:17">
       <c r="A182" s="15"/>
       <c r="B182" s="32"/>
       <c r="C182" s="20"/>
       <c r="D182" s="15">
         <f t="shared" si="2"/>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E182" s="16" t="s">
         <v>251</v>
@@ -11891,13 +11891,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:17">
+    <row r="183" spans="1:17">
       <c r="A183" s="15"/>
       <c r="B183" s="32"/>
       <c r="C183" s="20"/>
       <c r="D183" s="15">
         <f t="shared" si="2"/>
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E183" s="16" t="s">
         <v>251</v>
@@ -11937,13 +11937,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:17">
+    <row r="184" spans="1:17">
       <c r="A184" s="15"/>
       <c r="B184" s="32"/>
       <c r="C184" s="20"/>
       <c r="D184" s="15">
         <f t="shared" si="2"/>
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E184" s="16" t="s">
         <v>251</v>
@@ -11983,13 +11983,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:17">
+    <row r="185" spans="1:17">
       <c r="A185" s="15"/>
       <c r="B185" s="32"/>
       <c r="C185" s="20"/>
       <c r="D185" s="15">
         <f t="shared" si="2"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>251</v>
@@ -12035,7 +12035,7 @@
       <c r="C186" s="20"/>
       <c r="D186" s="15">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E186" s="16" t="s">
         <v>41</v>
@@ -12073,13 +12073,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:17">
+    <row r="187" spans="1:17">
       <c r="A187" s="15"/>
       <c r="B187" s="32"/>
       <c r="C187" s="20"/>
       <c r="D187" s="15">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E187" s="16" t="s">
         <v>41</v>
@@ -12119,13 +12119,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:17">
+    <row r="188" spans="1:17">
       <c r="A188" s="15"/>
       <c r="B188" s="32"/>
       <c r="C188" s="20"/>
       <c r="D188" s="15">
         <f t="shared" si="2"/>
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>251</v>
@@ -12165,13 +12165,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:17">
+    <row r="189" spans="1:17">
       <c r="A189" s="15"/>
       <c r="B189" s="32"/>
       <c r="C189" s="36"/>
       <c r="D189" s="15">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E189" s="16" t="s">
         <v>251</v>
@@ -12211,13 +12211,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:17">
+    <row r="190" spans="1:17">
       <c r="A190" s="15"/>
       <c r="B190" s="32"/>
       <c r="C190" s="37"/>
       <c r="D190" s="15">
         <f t="shared" si="2"/>
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E190" s="16" t="s">
         <v>251</v>
@@ -12257,13 +12257,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:17">
+    <row r="191" spans="1:17">
       <c r="A191" s="15"/>
       <c r="B191" s="32"/>
       <c r="C191" s="15"/>
       <c r="D191" s="15">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E191" s="16" t="s">
         <v>251</v>
@@ -12303,13 +12303,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:17">
+    <row r="192" spans="1:17">
       <c r="A192" s="15"/>
       <c r="B192" s="32"/>
       <c r="C192" s="15"/>
       <c r="D192" s="15">
         <f t="shared" si="2"/>
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E192" s="16" t="s">
         <v>251</v>
@@ -12349,13 +12349,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:17">
+    <row r="193" spans="1:17">
       <c r="A193" s="15"/>
       <c r="B193" s="32"/>
       <c r="C193" s="15"/>
       <c r="D193" s="15">
         <f t="shared" si="2"/>
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E193" s="16" t="s">
         <v>251</v>
@@ -12395,13 +12395,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:17">
+    <row r="194" spans="1:17">
       <c r="A194" s="15"/>
       <c r="B194" s="32"/>
       <c r="C194" s="15"/>
       <c r="D194" s="15">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>251</v>
@@ -12441,13 +12441,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:17">
+    <row r="195" spans="1:17">
       <c r="A195" s="15"/>
       <c r="B195" s="32"/>
       <c r="C195" s="15"/>
       <c r="D195" s="15">
         <f t="shared" si="2"/>
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>251</v>
@@ -12493,7 +12493,7 @@
       <c r="C196" s="15"/>
       <c r="D196" s="15">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>41</v>
@@ -12531,13 +12531,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:17">
+    <row r="197" spans="1:17">
       <c r="A197" s="15"/>
       <c r="B197" s="32"/>
       <c r="C197" s="15"/>
       <c r="D197" s="15">
         <f t="shared" si="2"/>
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>41</v>
@@ -12577,13 +12577,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:17">
+    <row r="198" spans="1:17">
       <c r="A198" s="15"/>
       <c r="B198" s="32"/>
       <c r="C198" s="15"/>
       <c r="D198" s="15">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>324</v>
@@ -12629,7 +12629,7 @@
       <c r="C199" s="15"/>
       <c r="D199" s="15">
         <f t="shared" ref="D199:D262" si="3">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E199" s="16" t="s">
         <v>41</v>
@@ -12667,13 +12667,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:17">
+    <row r="200" spans="1:17">
       <c r="A200" s="15"/>
       <c r="B200" s="32"/>
       <c r="C200" s="15"/>
       <c r="D200" s="15">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>41</v>
@@ -12713,13 +12713,13 @@
         <v>330</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:17">
+    <row r="201" spans="1:17">
       <c r="A201" s="15"/>
       <c r="B201" s="32"/>
       <c r="C201" s="15"/>
       <c r="D201" s="15">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>41</v>
@@ -12765,7 +12765,7 @@
       <c r="C202" s="15"/>
       <c r="D202" s="15">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>41</v>
@@ -12803,13 +12803,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:17">
+    <row r="203" spans="1:17">
       <c r="A203" s="15"/>
       <c r="B203" s="32"/>
       <c r="C203" s="15"/>
       <c r="D203" s="15">
         <f t="shared" si="3"/>
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E203" s="16" t="s">
         <v>41</v>
@@ -12849,13 +12849,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:17">
+    <row r="204" spans="1:17">
       <c r="A204" s="15"/>
       <c r="B204" s="32"/>
       <c r="C204" s="15"/>
       <c r="D204" s="15">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E204" s="16" t="s">
         <v>41</v>
@@ -12901,7 +12901,7 @@
       <c r="C205" s="15"/>
       <c r="D205" s="15">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>41</v>
@@ -12939,13 +12939,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" ht="52" hidden="1" spans="1:17">
+    <row r="206" ht="52" spans="1:17">
       <c r="A206" s="15"/>
       <c r="B206" s="32"/>
       <c r="C206" s="15"/>
       <c r="D206" s="15">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>41</v>
@@ -12985,13 +12985,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:17">
+    <row r="207" spans="1:17">
       <c r="A207" s="15"/>
       <c r="B207" s="32"/>
       <c r="C207" s="15"/>
       <c r="D207" s="15">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E207" s="16" t="s">
         <v>41</v>
@@ -13031,13 +13031,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:17">
+    <row r="208" spans="1:17">
       <c r="A208" s="15"/>
       <c r="B208" s="32"/>
       <c r="C208" s="15"/>
       <c r="D208" s="15">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E208" s="16" t="s">
         <v>41</v>
@@ -13077,13 +13077,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" ht="39" hidden="1" spans="1:17">
+    <row r="209" ht="39" spans="1:17">
       <c r="A209" s="15"/>
       <c r="B209" s="32"/>
       <c r="C209" s="15"/>
       <c r="D209" s="15">
         <f t="shared" si="3"/>
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>41</v>
@@ -13129,7 +13129,7 @@
       <c r="C210" s="15"/>
       <c r="D210" s="15">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E210" s="16" t="s">
         <v>41</v>
@@ -13173,7 +13173,7 @@
       <c r="C211" s="15"/>
       <c r="D211" s="15">
         <f t="shared" si="3"/>
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E211" s="16" t="s">
         <v>41</v>
@@ -13219,7 +13219,7 @@
       <c r="C212" s="15"/>
       <c r="D212" s="15">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E212" s="16" t="s">
         <v>41</v>
@@ -13265,7 +13265,7 @@
       <c r="C213" s="15"/>
       <c r="D213" s="15">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E213" s="16" t="s">
         <v>41</v>
@@ -13311,7 +13311,7 @@
       <c r="C214" s="15"/>
       <c r="D214" s="15">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E214" s="16" t="s">
         <v>41</v>
@@ -13355,7 +13355,7 @@
       <c r="C215" s="15"/>
       <c r="D215" s="15">
         <f t="shared" si="3"/>
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>41</v>
@@ -13399,7 +13399,7 @@
       <c r="C216" s="15"/>
       <c r="D216" s="15">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>41</v>
@@ -13443,7 +13443,7 @@
       <c r="C217" s="15"/>
       <c r="D217" s="15">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E217" s="16" t="s">
         <v>41</v>
@@ -13487,7 +13487,7 @@
       <c r="C218" s="15"/>
       <c r="D218" s="15">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E218" s="16" t="s">
         <v>41</v>
@@ -13531,7 +13531,7 @@
       <c r="C219" s="15"/>
       <c r="D219" s="15">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E219" s="16" t="s">
         <v>41</v>
@@ -13575,7 +13575,7 @@
       <c r="C220" s="15"/>
       <c r="D220" s="15">
         <f t="shared" si="3"/>
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E220" s="16" t="s">
         <v>41</v>
@@ -13619,7 +13619,7 @@
       <c r="C221" s="15"/>
       <c r="D221" s="15">
         <f t="shared" si="3"/>
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E221" s="16" t="s">
         <v>41</v>
@@ -13657,13 +13657,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:17">
+    <row r="222" spans="1:17">
       <c r="A222" s="15"/>
       <c r="B222" s="32"/>
       <c r="C222" s="15"/>
       <c r="D222" s="15">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E222" s="16" t="s">
         <v>324</v>
@@ -13703,13 +13703,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:17">
+    <row r="223" spans="1:17">
       <c r="A223" s="15"/>
       <c r="B223" s="32"/>
       <c r="C223" s="15"/>
       <c r="D223" s="15">
         <f t="shared" si="3"/>
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E223" s="16" t="s">
         <v>324</v>
@@ -13749,13 +13749,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:17">
+    <row r="224" spans="1:17">
       <c r="A224" s="15"/>
       <c r="B224" s="32"/>
       <c r="C224" s="15"/>
       <c r="D224" s="15">
         <f t="shared" si="3"/>
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E224" s="16" t="s">
         <v>324</v>
@@ -13795,13 +13795,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:17">
+    <row r="225" spans="1:17">
       <c r="A225" s="15"/>
       <c r="B225" s="32"/>
       <c r="C225" s="15"/>
       <c r="D225" s="15">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E225" s="16" t="s">
         <v>324</v>
@@ -13841,13 +13841,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:17">
+    <row r="226" spans="1:17">
       <c r="A226" s="15"/>
       <c r="B226" s="32"/>
       <c r="C226" s="15"/>
       <c r="D226" s="15">
         <f t="shared" si="3"/>
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E226" s="16" t="s">
         <v>324</v>
@@ -13887,13 +13887,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:17">
+    <row r="227" spans="1:17">
       <c r="A227" s="15"/>
       <c r="B227" s="32"/>
       <c r="C227" s="15"/>
       <c r="D227" s="15">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E227" s="16" t="s">
         <v>324</v>
@@ -13933,13 +13933,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:17">
+    <row r="228" spans="1:17">
       <c r="A228" s="15"/>
       <c r="B228" s="32"/>
       <c r="C228" s="15"/>
       <c r="D228" s="15">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E228" s="16" t="s">
         <v>324</v>
@@ -13979,13 +13979,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:17">
+    <row r="229" spans="1:17">
       <c r="A229" s="15"/>
       <c r="B229" s="32"/>
       <c r="C229" s="15"/>
       <c r="D229" s="15">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E229" s="16" t="s">
         <v>324</v>
@@ -14025,13 +14025,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:17">
+    <row r="230" spans="1:17">
       <c r="A230" s="15"/>
       <c r="B230" s="32"/>
       <c r="C230" s="15"/>
       <c r="D230" s="15">
         <f t="shared" si="3"/>
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E230" s="16" t="s">
         <v>324</v>
@@ -14071,13 +14071,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:17">
+    <row r="231" spans="1:17">
       <c r="A231" s="15"/>
       <c r="B231" s="32"/>
       <c r="C231" s="15"/>
       <c r="D231" s="15">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E231" s="16" t="s">
         <v>324</v>
@@ -14117,13 +14117,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:17">
+    <row r="232" spans="1:17">
       <c r="A232" s="15"/>
       <c r="B232" s="32"/>
       <c r="C232" s="15"/>
       <c r="D232" s="15">
         <f t="shared" si="3"/>
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E232" s="16" t="s">
         <v>324</v>
@@ -14163,13 +14163,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:17">
+    <row r="233" spans="1:17">
       <c r="A233" s="15"/>
       <c r="B233" s="32"/>
       <c r="C233" s="15"/>
       <c r="D233" s="15">
         <f t="shared" si="3"/>
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E233" s="16" t="s">
         <v>324</v>
@@ -14209,13 +14209,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:17">
+    <row r="234" spans="1:17">
       <c r="A234" s="15"/>
       <c r="B234" s="32"/>
       <c r="C234" s="15"/>
       <c r="D234" s="15">
         <f t="shared" si="3"/>
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E234" s="16" t="s">
         <v>324</v>
@@ -14255,13 +14255,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:17">
+    <row r="235" spans="1:17">
       <c r="A235" s="15"/>
       <c r="B235" s="32"/>
       <c r="C235" s="15"/>
       <c r="D235" s="15">
         <f t="shared" si="3"/>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E235" s="16" t="s">
         <v>324</v>
@@ -14301,13 +14301,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:17">
+    <row r="236" spans="1:17">
       <c r="A236" s="15"/>
       <c r="B236" s="32"/>
       <c r="C236" s="15"/>
       <c r="D236" s="15">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E236" s="16" t="s">
         <v>324</v>
@@ -14347,13 +14347,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:17">
+    <row r="237" spans="1:17">
       <c r="A237" s="15"/>
       <c r="B237" s="32"/>
       <c r="C237" s="15"/>
       <c r="D237" s="15">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E237" s="16" t="s">
         <v>324</v>
@@ -14393,13 +14393,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:17">
+    <row r="238" spans="1:17">
       <c r="A238" s="15"/>
       <c r="B238" s="32"/>
       <c r="C238" s="15"/>
       <c r="D238" s="15">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E238" s="16" t="s">
         <v>41</v>
@@ -14439,13 +14439,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:17">
+    <row r="239" spans="1:17">
       <c r="A239" s="15"/>
       <c r="B239" s="32"/>
       <c r="C239" s="15"/>
       <c r="D239" s="15">
         <f t="shared" si="3"/>
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E239" s="16" t="s">
         <v>41</v>
@@ -14485,13 +14485,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:17">
+    <row r="240" spans="1:17">
       <c r="A240" s="15"/>
       <c r="B240" s="32"/>
       <c r="C240" s="15"/>
       <c r="D240" s="15">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E240" s="16" t="s">
         <v>41</v>
@@ -14531,13 +14531,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:17">
+    <row r="241" spans="1:17">
       <c r="A241" s="15"/>
       <c r="B241" s="32"/>
       <c r="C241" s="15"/>
       <c r="D241" s="15">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E241" s="16" t="s">
         <v>41</v>
@@ -14577,13 +14577,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:17">
+    <row r="242" spans="1:17">
       <c r="A242" s="15"/>
       <c r="B242" s="32"/>
       <c r="C242" s="15"/>
       <c r="D242" s="15">
         <f t="shared" si="3"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E242" s="16" t="s">
         <v>41</v>
@@ -14623,13 +14623,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:17">
+    <row r="243" spans="1:17">
       <c r="A243" s="15"/>
       <c r="B243" s="32"/>
       <c r="C243" s="15"/>
       <c r="D243" s="15">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E243" s="16" t="s">
         <v>41</v>
@@ -14669,13 +14669,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:17">
+    <row r="244" spans="1:17">
       <c r="A244" s="15"/>
       <c r="B244" s="32"/>
       <c r="C244" s="15"/>
       <c r="D244" s="15">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E244" s="16" t="s">
         <v>41</v>
@@ -14715,13 +14715,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:17">
+    <row r="245" spans="1:17">
       <c r="A245" s="15"/>
       <c r="B245" s="32"/>
       <c r="C245" s="15"/>
       <c r="D245" s="15">
         <f t="shared" si="3"/>
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E245" s="16" t="s">
         <v>41</v>
@@ -14761,13 +14761,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:17">
+    <row r="246" spans="1:17">
       <c r="A246" s="15"/>
       <c r="B246" s="32"/>
       <c r="C246" s="15"/>
       <c r="D246" s="15">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E246" s="16" t="s">
         <v>41</v>
@@ -14807,13 +14807,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:17">
+    <row r="247" spans="1:17">
       <c r="A247" s="15"/>
       <c r="B247" s="32"/>
       <c r="C247" s="15"/>
       <c r="D247" s="15">
         <f t="shared" si="3"/>
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E247" s="16" t="s">
         <v>41</v>
@@ -14853,13 +14853,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:17">
+    <row r="248" spans="1:17">
       <c r="A248" s="15"/>
       <c r="B248" s="32"/>
       <c r="C248" s="15"/>
       <c r="D248" s="15">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E248" s="16" t="s">
         <v>41</v>
@@ -14899,13 +14899,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:17">
+    <row r="249" spans="1:17">
       <c r="A249" s="15"/>
       <c r="B249" s="32"/>
       <c r="C249" s="15"/>
       <c r="D249" s="15">
         <f t="shared" si="3"/>
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E249" s="16" t="s">
         <v>41</v>
@@ -14945,13 +14945,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:17">
+    <row r="250" spans="1:17">
       <c r="A250" s="15"/>
       <c r="B250" s="32"/>
       <c r="C250" s="15"/>
       <c r="D250" s="15">
         <f t="shared" si="3"/>
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E250" s="16" t="s">
         <v>41</v>
@@ -14991,13 +14991,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:17">
+    <row r="251" spans="1:17">
       <c r="A251" s="15"/>
       <c r="B251" s="32"/>
       <c r="C251" s="15"/>
       <c r="D251" s="15">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E251" s="16" t="s">
         <v>41</v>
@@ -15037,13 +15037,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:17">
+    <row r="252" spans="1:17">
       <c r="A252" s="15"/>
       <c r="B252" s="32"/>
       <c r="C252" s="15"/>
       <c r="D252" s="15">
         <f t="shared" si="3"/>
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E252" s="16" t="s">
         <v>41</v>
@@ -15083,13 +15083,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:17">
+    <row r="253" spans="1:17">
       <c r="A253" s="15"/>
       <c r="B253" s="32"/>
       <c r="C253" s="15"/>
       <c r="D253" s="15">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E253" s="16" t="s">
         <v>41</v>
@@ -15129,13 +15129,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:17">
+    <row r="254" spans="1:17">
       <c r="A254" s="15"/>
       <c r="B254" s="32"/>
       <c r="C254" s="15"/>
       <c r="D254" s="15">
         <f t="shared" si="3"/>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E254" s="16" t="s">
         <v>41</v>
@@ -15175,13 +15175,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:17">
+    <row r="255" spans="1:17">
       <c r="A255" s="15"/>
       <c r="B255" s="32"/>
       <c r="C255" s="15"/>
       <c r="D255" s="15">
         <f t="shared" si="3"/>
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E255" s="16" t="s">
         <v>41</v>
@@ -15221,13 +15221,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:17">
+    <row r="256" spans="1:17">
       <c r="A256" s="15"/>
       <c r="B256" s="32"/>
       <c r="C256" s="15"/>
       <c r="D256" s="15">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E256" s="16" t="s">
         <v>41</v>
@@ -15267,13 +15267,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:17">
+    <row r="257" spans="1:17">
       <c r="A257" s="15"/>
       <c r="B257" s="32"/>
       <c r="C257" s="15"/>
       <c r="D257" s="15">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E257" s="16" t="s">
         <v>41</v>
@@ -15313,13 +15313,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:17">
+    <row r="258" spans="1:17">
       <c r="A258" s="15"/>
       <c r="B258" s="32"/>
       <c r="C258" s="15"/>
       <c r="D258" s="15">
         <f t="shared" si="3"/>
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E258" s="16" t="s">
         <v>41</v>
@@ -15359,13 +15359,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:17">
+    <row r="259" spans="1:17">
       <c r="A259" s="15"/>
       <c r="B259" s="32"/>
       <c r="C259" s="15"/>
       <c r="D259" s="15">
         <f t="shared" si="3"/>
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E259" s="16" t="s">
         <v>41</v>
@@ -15405,13 +15405,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:17">
+    <row r="260" spans="1:17">
       <c r="A260" s="15"/>
       <c r="B260" s="32"/>
       <c r="C260" s="15"/>
       <c r="D260" s="15">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E260" s="16" t="s">
         <v>41</v>
@@ -15451,13 +15451,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:17">
+    <row r="261" spans="1:17">
       <c r="A261" s="15"/>
       <c r="B261" s="32"/>
       <c r="C261" s="15"/>
       <c r="D261" s="15">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E261" s="16" t="s">
         <v>41</v>
@@ -15497,13 +15497,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:17">
+    <row r="262" spans="1:17">
       <c r="A262" s="15"/>
       <c r="B262" s="32"/>
       <c r="C262" s="15"/>
       <c r="D262" s="15">
         <f t="shared" si="3"/>
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E262" s="16" t="s">
         <v>41</v>
@@ -15543,13 +15543,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:17">
+    <row r="263" spans="1:17">
       <c r="A263" s="15"/>
       <c r="B263" s="32"/>
       <c r="C263" s="15"/>
       <c r="D263" s="15">
         <f t="shared" ref="D263:D326" si="4">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E263" s="16" t="s">
         <v>41</v>
@@ -15589,13 +15589,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:17">
+    <row r="264" spans="1:17">
       <c r="A264" s="15"/>
       <c r="B264" s="32"/>
       <c r="C264" s="15"/>
       <c r="D264" s="15">
         <f t="shared" si="4"/>
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E264" s="16" t="s">
         <v>41</v>
@@ -15635,13 +15635,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:17">
+    <row r="265" spans="1:17">
       <c r="A265" s="15"/>
       <c r="B265" s="32"/>
       <c r="C265" s="15"/>
       <c r="D265" s="15">
         <f t="shared" si="4"/>
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E265" s="16" t="s">
         <v>41</v>
@@ -15681,13 +15681,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:17">
+    <row r="266" spans="1:17">
       <c r="A266" s="15"/>
       <c r="B266" s="32"/>
       <c r="C266" s="15"/>
       <c r="D266" s="15">
         <f t="shared" si="4"/>
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E266" s="16" t="s">
         <v>41</v>
@@ -15727,13 +15727,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:17">
+    <row r="267" spans="1:17">
       <c r="A267" s="15"/>
       <c r="B267" s="32"/>
       <c r="C267" s="15"/>
       <c r="D267" s="15">
         <f t="shared" si="4"/>
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E267" s="16" t="s">
         <v>41</v>
@@ -15773,13 +15773,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:17">
+    <row r="268" spans="1:17">
       <c r="A268" s="15"/>
       <c r="B268" s="32"/>
       <c r="C268" s="15"/>
       <c r="D268" s="15">
         <f t="shared" si="4"/>
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E268" s="16" t="s">
         <v>41</v>
@@ -15819,13 +15819,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:17">
+    <row r="269" spans="1:17">
       <c r="A269" s="15"/>
       <c r="B269" s="32"/>
       <c r="C269" s="15"/>
       <c r="D269" s="15">
         <f t="shared" si="4"/>
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E269" s="16" t="s">
         <v>41</v>
@@ -15871,7 +15871,7 @@
       <c r="C270" s="15"/>
       <c r="D270" s="15">
         <f t="shared" si="4"/>
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E270" s="16" t="s">
         <v>41</v>
@@ -15915,7 +15915,7 @@
       <c r="C271" s="15"/>
       <c r="D271" s="15">
         <f t="shared" si="4"/>
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E271" s="16" t="s">
         <v>41</v>
@@ -15959,7 +15959,7 @@
       <c r="C272" s="15"/>
       <c r="D272" s="15">
         <f t="shared" si="4"/>
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E272" s="16" t="s">
         <v>41</v>
@@ -16003,7 +16003,7 @@
       <c r="C273" s="15"/>
       <c r="D273" s="15">
         <f t="shared" si="4"/>
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E273" s="16" t="s">
         <v>41</v>
@@ -16047,7 +16047,7 @@
       <c r="C274" s="15"/>
       <c r="D274" s="15">
         <f t="shared" si="4"/>
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E274" s="16" t="s">
         <v>41</v>
@@ -16091,7 +16091,7 @@
       <c r="C275" s="15"/>
       <c r="D275" s="15">
         <f t="shared" si="4"/>
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E275" s="16" t="s">
         <v>41</v>
@@ -16135,7 +16135,7 @@
       <c r="C276" s="15"/>
       <c r="D276" s="15">
         <f t="shared" si="4"/>
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E276" s="16" t="s">
         <v>41</v>
@@ -16179,7 +16179,7 @@
       <c r="C277" s="15"/>
       <c r="D277" s="15">
         <f t="shared" si="4"/>
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E277" s="16" t="s">
         <v>41</v>
@@ -16223,7 +16223,7 @@
       <c r="C278" s="15"/>
       <c r="D278" s="15">
         <f t="shared" si="4"/>
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E278" s="16" t="s">
         <v>41</v>
@@ -16267,7 +16267,7 @@
       <c r="C279" s="15"/>
       <c r="D279" s="15">
         <f t="shared" si="4"/>
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E279" s="16" t="s">
         <v>41</v>
@@ -16311,7 +16311,7 @@
       <c r="C280" s="15"/>
       <c r="D280" s="15">
         <f t="shared" si="4"/>
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E280" s="16" t="s">
         <v>41</v>
@@ -16355,7 +16355,7 @@
       <c r="C281" s="15"/>
       <c r="D281" s="15">
         <f t="shared" si="4"/>
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E281" s="16" t="s">
         <v>41</v>
@@ -16399,7 +16399,7 @@
       <c r="C282" s="15"/>
       <c r="D282" s="15">
         <f t="shared" si="4"/>
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E282" s="16" t="s">
         <v>41</v>
@@ -16443,7 +16443,7 @@
       <c r="C283" s="15"/>
       <c r="D283" s="15">
         <f t="shared" si="4"/>
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
         <v>41</v>
@@ -16487,7 +16487,7 @@
       <c r="C284" s="15"/>
       <c r="D284" s="15">
         <f t="shared" si="4"/>
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E284" s="16" t="s">
         <v>41</v>
@@ -16531,7 +16531,7 @@
       <c r="C285" s="15"/>
       <c r="D285" s="15">
         <f t="shared" si="4"/>
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E285" s="16" t="s">
         <v>41</v>
@@ -16575,7 +16575,7 @@
       <c r="C286" s="15"/>
       <c r="D286" s="15">
         <f t="shared" si="4"/>
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E286" s="16" t="s">
         <v>41</v>
@@ -16619,7 +16619,7 @@
       <c r="C287" s="15"/>
       <c r="D287" s="15">
         <f t="shared" si="4"/>
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E287" s="16" t="s">
         <v>41</v>
@@ -16663,7 +16663,7 @@
       <c r="C288" s="15"/>
       <c r="D288" s="15">
         <f t="shared" si="4"/>
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E288" s="16" t="s">
         <v>41</v>
@@ -16707,7 +16707,7 @@
       <c r="C289" s="15"/>
       <c r="D289" s="15">
         <f t="shared" si="4"/>
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E289" s="16" t="s">
         <v>41</v>
@@ -16751,7 +16751,7 @@
       <c r="C290" s="15"/>
       <c r="D290" s="15">
         <f t="shared" si="4"/>
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E290" s="16" t="s">
         <v>41</v>
@@ -16795,7 +16795,7 @@
       <c r="C291" s="15"/>
       <c r="D291" s="15">
         <f t="shared" si="4"/>
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E291" s="16" t="s">
         <v>41</v>
@@ -16839,7 +16839,7 @@
       <c r="C292" s="15"/>
       <c r="D292" s="15">
         <f t="shared" si="4"/>
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E292" s="16" t="s">
         <v>41</v>
@@ -16883,7 +16883,7 @@
       <c r="C293" s="15"/>
       <c r="D293" s="15">
         <f t="shared" si="4"/>
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E293" s="16" t="s">
         <v>41</v>
@@ -16927,7 +16927,7 @@
       <c r="C294" s="15"/>
       <c r="D294" s="15">
         <f t="shared" si="4"/>
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E294" s="16" t="s">
         <v>41</v>
@@ -16965,13 +16965,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:17">
+    <row r="295" spans="1:17">
       <c r="A295" s="15"/>
       <c r="B295" s="32"/>
       <c r="C295" s="15"/>
       <c r="D295" s="15">
         <f t="shared" si="4"/>
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E295" s="16" t="s">
         <v>450</v>
@@ -17011,13 +17011,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:17">
+    <row r="296" spans="1:17">
       <c r="A296" s="15"/>
       <c r="B296" s="32"/>
       <c r="C296" s="15"/>
       <c r="D296" s="15">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E296" s="16" t="s">
         <v>450</v>
@@ -17057,13 +17057,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:17">
+    <row r="297" spans="1:17">
       <c r="A297" s="15"/>
       <c r="B297" s="32"/>
       <c r="C297" s="15"/>
       <c r="D297" s="15">
         <f t="shared" si="4"/>
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E297" s="16" t="s">
         <v>450</v>
@@ -17103,13 +17103,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:17">
+    <row r="298" spans="1:17">
       <c r="A298" s="15"/>
       <c r="B298" s="32"/>
       <c r="C298" s="15"/>
       <c r="D298" s="15">
         <f t="shared" si="4"/>
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E298" s="16" t="s">
         <v>450</v>
@@ -17149,13 +17149,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:17">
+    <row r="299" spans="1:17">
       <c r="A299" s="15"/>
       <c r="B299" s="32"/>
       <c r="C299" s="15"/>
       <c r="D299" s="15">
         <f t="shared" si="4"/>
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E299" s="16" t="s">
         <v>450</v>
@@ -17195,13 +17195,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:17">
+    <row r="300" spans="1:17">
       <c r="A300" s="15"/>
       <c r="B300" s="32"/>
       <c r="C300" s="15"/>
       <c r="D300" s="15">
         <f t="shared" si="4"/>
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E300" s="16" t="s">
         <v>450</v>
@@ -17241,13 +17241,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:17">
+    <row r="301" spans="1:17">
       <c r="A301" s="15"/>
       <c r="B301" s="32"/>
       <c r="C301" s="15"/>
       <c r="D301" s="15">
         <f t="shared" si="4"/>
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E301" s="16" t="s">
         <v>450</v>
@@ -17287,13 +17287,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:17">
+    <row r="302" spans="1:17">
       <c r="A302" s="15"/>
       <c r="B302" s="32"/>
       <c r="C302" s="15"/>
       <c r="D302" s="15">
         <f t="shared" si="4"/>
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E302" s="16" t="s">
         <v>450</v>
@@ -17333,13 +17333,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:17">
+    <row r="303" spans="1:17">
       <c r="A303" s="15"/>
       <c r="B303" s="32"/>
       <c r="C303" s="15"/>
       <c r="D303" s="15">
         <f t="shared" si="4"/>
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E303" s="16" t="s">
         <v>450</v>
@@ -17379,13 +17379,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:17">
+    <row r="304" spans="1:17">
       <c r="A304" s="15"/>
       <c r="B304" s="32"/>
       <c r="C304" s="15"/>
       <c r="D304" s="15">
         <f t="shared" si="4"/>
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E304" s="16" t="s">
         <v>450</v>
@@ -17425,13 +17425,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:17">
+    <row r="305" spans="1:17">
       <c r="A305" s="15"/>
       <c r="B305" s="32"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15">
         <f t="shared" si="4"/>
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E305" s="16" t="s">
         <v>450</v>
@@ -17471,13 +17471,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:17">
+    <row r="306" spans="1:17">
       <c r="A306" s="15"/>
       <c r="B306" s="32"/>
       <c r="C306" s="15"/>
       <c r="D306" s="15">
         <f t="shared" si="4"/>
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E306" s="16" t="s">
         <v>450</v>
@@ -17517,13 +17517,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:17">
+    <row r="307" spans="1:17">
       <c r="A307" s="15"/>
       <c r="B307" s="32"/>
       <c r="C307" s="15"/>
       <c r="D307" s="15">
         <f t="shared" si="4"/>
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E307" s="16" t="s">
         <v>450</v>
@@ -17563,13 +17563,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:17">
+    <row r="308" spans="1:17">
       <c r="A308" s="15"/>
       <c r="B308" s="32"/>
       <c r="C308" s="15"/>
       <c r="D308" s="15">
         <f t="shared" si="4"/>
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E308" s="16" t="s">
         <v>450</v>
@@ -17609,13 +17609,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:17">
+    <row r="309" spans="1:17">
       <c r="A309" s="15"/>
       <c r="B309" s="32"/>
       <c r="C309" s="15"/>
       <c r="D309" s="15">
         <f t="shared" si="4"/>
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E309" s="16" t="s">
         <v>450</v>
@@ -17655,13 +17655,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:17">
+    <row r="310" spans="1:17">
       <c r="A310" s="15"/>
       <c r="B310" s="32"/>
       <c r="C310" s="15"/>
       <c r="D310" s="15">
         <f t="shared" si="4"/>
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E310" s="16" t="s">
         <v>450</v>
@@ -17707,7 +17707,7 @@
       <c r="C311" s="15"/>
       <c r="D311" s="15">
         <f t="shared" si="4"/>
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E311" s="16" t="s">
         <v>41</v>
@@ -17751,7 +17751,7 @@
       <c r="C312" s="15"/>
       <c r="D312" s="15">
         <f t="shared" si="4"/>
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E312" s="16" t="s">
         <v>41</v>
@@ -17795,7 +17795,7 @@
       <c r="C313" s="15"/>
       <c r="D313" s="15">
         <f t="shared" si="4"/>
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E313" s="16" t="s">
         <v>41</v>
@@ -17839,7 +17839,7 @@
       <c r="C314" s="15"/>
       <c r="D314" s="15">
         <f t="shared" si="4"/>
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E314" s="16" t="s">
         <v>41</v>
@@ -17883,7 +17883,7 @@
       <c r="C315" s="15"/>
       <c r="D315" s="15">
         <f t="shared" si="4"/>
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E315" s="16" t="s">
         <v>41</v>
@@ -17927,7 +17927,7 @@
       <c r="C316" s="15"/>
       <c r="D316" s="15">
         <f t="shared" si="4"/>
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E316" s="16" t="s">
         <v>41</v>
@@ -17971,7 +17971,7 @@
       <c r="C317" s="15"/>
       <c r="D317" s="15">
         <f t="shared" si="4"/>
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E317" s="16" t="s">
         <v>41</v>
@@ -18015,7 +18015,7 @@
       <c r="C318" s="15"/>
       <c r="D318" s="15">
         <f t="shared" si="4"/>
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E318" s="16" t="s">
         <v>41</v>
@@ -18059,7 +18059,7 @@
       <c r="C319" s="15"/>
       <c r="D319" s="15">
         <f t="shared" si="4"/>
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E319" s="16" t="s">
         <v>41</v>
@@ -18103,7 +18103,7 @@
       <c r="C320" s="15"/>
       <c r="D320" s="15">
         <f t="shared" si="4"/>
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E320" s="16" t="s">
         <v>41</v>
@@ -18147,7 +18147,7 @@
       <c r="C321" s="15"/>
       <c r="D321" s="15">
         <f t="shared" si="4"/>
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E321" s="16" t="s">
         <v>41</v>
@@ -18191,7 +18191,7 @@
       <c r="C322" s="15"/>
       <c r="D322" s="15">
         <f t="shared" si="4"/>
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E322" s="16" t="s">
         <v>41</v>
@@ -18235,7 +18235,7 @@
       <c r="C323" s="15"/>
       <c r="D323" s="15">
         <f t="shared" si="4"/>
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E323" s="16" t="s">
         <v>41</v>
@@ -18279,7 +18279,7 @@
       <c r="C324" s="15"/>
       <c r="D324" s="15">
         <f t="shared" si="4"/>
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E324" s="16" t="s">
         <v>41</v>
@@ -18323,7 +18323,7 @@
       <c r="C325" s="15"/>
       <c r="D325" s="15">
         <f t="shared" si="4"/>
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E325" s="16" t="s">
         <v>41</v>
@@ -18367,7 +18367,7 @@
       <c r="C326" s="15"/>
       <c r="D326" s="15">
         <f t="shared" si="4"/>
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E326" s="16" t="s">
         <v>41</v>
@@ -18411,7 +18411,7 @@
       <c r="C327" s="15"/>
       <c r="D327" s="15">
         <f t="shared" ref="D327:D390" si="5">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E327" s="16" t="s">
         <v>41</v>
@@ -18455,7 +18455,7 @@
       <c r="C328" s="15"/>
       <c r="D328" s="15">
         <f t="shared" si="5"/>
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E328" s="16" t="s">
         <v>41</v>
@@ -18499,7 +18499,7 @@
       <c r="C329" s="15"/>
       <c r="D329" s="15">
         <f t="shared" si="5"/>
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E329" s="16" t="s">
         <v>41</v>
@@ -18543,7 +18543,7 @@
       <c r="C330" s="15"/>
       <c r="D330" s="15">
         <f t="shared" si="5"/>
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E330" s="16" t="s">
         <v>41</v>
@@ -18587,7 +18587,7 @@
       <c r="C331" s="15"/>
       <c r="D331" s="15">
         <f t="shared" si="5"/>
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E331" s="16" t="s">
         <v>41</v>
@@ -18631,7 +18631,7 @@
       <c r="C332" s="15"/>
       <c r="D332" s="15">
         <f t="shared" si="5"/>
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E332" s="16" t="s">
         <v>41</v>
@@ -18675,7 +18675,7 @@
       <c r="C333" s="15"/>
       <c r="D333" s="15">
         <f t="shared" si="5"/>
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E333" s="16" t="s">
         <v>41</v>
@@ -18719,7 +18719,7 @@
       <c r="C334" s="15"/>
       <c r="D334" s="15">
         <f t="shared" si="5"/>
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E334" s="16" t="s">
         <v>41</v>
@@ -18763,7 +18763,7 @@
       <c r="C335" s="15"/>
       <c r="D335" s="15">
         <f t="shared" si="5"/>
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E335" s="16" t="s">
         <v>41</v>
@@ -18807,7 +18807,7 @@
       <c r="C336" s="15"/>
       <c r="D336" s="15">
         <f t="shared" si="5"/>
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E336" s="16" t="s">
         <v>41</v>
@@ -18851,7 +18851,7 @@
       <c r="C337" s="15"/>
       <c r="D337" s="15">
         <f t="shared" si="5"/>
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E337" s="16" t="s">
         <v>41</v>
@@ -18895,7 +18895,7 @@
       <c r="C338" s="15"/>
       <c r="D338" s="15">
         <f t="shared" si="5"/>
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E338" s="16" t="s">
         <v>41</v>
@@ -18939,7 +18939,7 @@
       <c r="C339" s="15"/>
       <c r="D339" s="15">
         <f t="shared" si="5"/>
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E339" s="16" t="s">
         <v>41</v>
@@ -18983,7 +18983,7 @@
       <c r="C340" s="15"/>
       <c r="D340" s="15">
         <f t="shared" si="5"/>
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E340" s="16" t="s">
         <v>41</v>
@@ -19027,7 +19027,7 @@
       <c r="C341" s="15"/>
       <c r="D341" s="15">
         <f t="shared" si="5"/>
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E341" s="16" t="s">
         <v>41</v>
@@ -19071,7 +19071,7 @@
       <c r="C342" s="15"/>
       <c r="D342" s="15">
         <f t="shared" si="5"/>
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E342" s="16" t="s">
         <v>41</v>
@@ -19115,7 +19115,7 @@
       <c r="C343" s="15"/>
       <c r="D343" s="15">
         <f t="shared" si="5"/>
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E343" s="16" t="s">
         <v>41</v>
@@ -19159,7 +19159,7 @@
       <c r="C344" s="15"/>
       <c r="D344" s="15">
         <f t="shared" si="5"/>
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E344" s="16" t="s">
         <v>41</v>
@@ -19203,7 +19203,7 @@
       <c r="C345" s="15"/>
       <c r="D345" s="15">
         <f t="shared" si="5"/>
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E345" s="16" t="s">
         <v>41</v>
@@ -19247,7 +19247,7 @@
       <c r="C346" s="15"/>
       <c r="D346" s="15">
         <f t="shared" si="5"/>
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E346" s="16" t="s">
         <v>41</v>
@@ -19291,7 +19291,7 @@
       <c r="C347" s="15"/>
       <c r="D347" s="15">
         <f t="shared" si="5"/>
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E347" s="16" t="s">
         <v>41</v>
@@ -19335,7 +19335,7 @@
       <c r="C348" s="15"/>
       <c r="D348" s="15">
         <f t="shared" si="5"/>
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E348" s="16" t="s">
         <v>41</v>
@@ -19379,7 +19379,7 @@
       <c r="C349" s="15"/>
       <c r="D349" s="15">
         <f t="shared" si="5"/>
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E349" s="16" t="s">
         <v>41</v>
@@ -19423,7 +19423,7 @@
       <c r="C350" s="15"/>
       <c r="D350" s="15">
         <f t="shared" si="5"/>
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E350" s="16" t="s">
         <v>41</v>
@@ -19467,7 +19467,7 @@
       <c r="C351" s="15"/>
       <c r="D351" s="15">
         <f t="shared" si="5"/>
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E351" s="16" t="s">
         <v>41</v>
@@ -19511,7 +19511,7 @@
       <c r="C352" s="15"/>
       <c r="D352" s="15">
         <f t="shared" si="5"/>
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E352" s="16" t="s">
         <v>41</v>
@@ -19555,7 +19555,7 @@
       <c r="C353" s="15"/>
       <c r="D353" s="15">
         <f t="shared" si="5"/>
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E353" s="16" t="s">
         <v>41</v>
@@ -19599,7 +19599,7 @@
       <c r="C354" s="15"/>
       <c r="D354" s="15">
         <f t="shared" si="5"/>
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E354" s="16" t="s">
         <v>41</v>
@@ -19643,7 +19643,7 @@
       <c r="C355" s="15"/>
       <c r="D355" s="15">
         <f t="shared" si="5"/>
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E355" s="16" t="s">
         <v>41</v>
@@ -19687,7 +19687,7 @@
       <c r="C356" s="15"/>
       <c r="D356" s="15">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>41</v>
@@ -19731,7 +19731,7 @@
       <c r="C357" s="15"/>
       <c r="D357" s="15">
         <f t="shared" si="5"/>
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E357" s="16" t="s">
         <v>41</v>
@@ -19775,7 +19775,7 @@
       <c r="C358" s="15"/>
       <c r="D358" s="15">
         <f t="shared" si="5"/>
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E358" s="16" t="s">
         <v>41</v>
@@ -19819,7 +19819,7 @@
       <c r="C359" s="15"/>
       <c r="D359" s="15">
         <f t="shared" si="5"/>
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E359" s="16" t="s">
         <v>41</v>
@@ -19863,7 +19863,7 @@
       <c r="C360" s="15"/>
       <c r="D360" s="15">
         <f t="shared" si="5"/>
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E360" s="16" t="s">
         <v>41</v>
@@ -19907,7 +19907,7 @@
       <c r="C361" s="15"/>
       <c r="D361" s="15">
         <f t="shared" si="5"/>
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E361" s="16" t="s">
         <v>41</v>
@@ -19951,7 +19951,7 @@
       <c r="C362" s="15"/>
       <c r="D362" s="15">
         <f t="shared" si="5"/>
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E362" s="16" t="s">
         <v>41</v>
@@ -19995,7 +19995,7 @@
       <c r="C363" s="15"/>
       <c r="D363" s="15">
         <f t="shared" si="5"/>
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E363" s="16" t="s">
         <v>41</v>
@@ -20039,7 +20039,7 @@
       <c r="C364" s="15"/>
       <c r="D364" s="15">
         <f t="shared" si="5"/>
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E364" s="16" t="s">
         <v>41</v>
@@ -20083,7 +20083,7 @@
       <c r="C365" s="15"/>
       <c r="D365" s="15">
         <f t="shared" si="5"/>
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E365" s="16" t="s">
         <v>41</v>
@@ -20127,7 +20127,7 @@
       <c r="C366" s="15"/>
       <c r="D366" s="15">
         <f t="shared" si="5"/>
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E366" s="16" t="s">
         <v>41</v>
@@ -20171,7 +20171,7 @@
       <c r="C367" s="15"/>
       <c r="D367" s="15">
         <f t="shared" si="5"/>
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E367" s="16" t="s">
         <v>41</v>
@@ -20215,7 +20215,7 @@
       <c r="C368" s="15"/>
       <c r="D368" s="15">
         <f t="shared" si="5"/>
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E368" s="16" t="s">
         <v>41</v>
@@ -20259,7 +20259,7 @@
       <c r="C369" s="15"/>
       <c r="D369" s="15">
         <f t="shared" si="5"/>
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E369" s="16" t="s">
         <v>41</v>
@@ -20303,7 +20303,7 @@
       <c r="C370" s="15"/>
       <c r="D370" s="15">
         <f t="shared" si="5"/>
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E370" s="16" t="s">
         <v>41</v>
@@ -20347,7 +20347,7 @@
       <c r="C371" s="15"/>
       <c r="D371" s="15">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E371" s="16" t="s">
         <v>41</v>
@@ -20391,7 +20391,7 @@
       <c r="C372" s="15"/>
       <c r="D372" s="15">
         <f t="shared" si="5"/>
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E372" s="16" t="s">
         <v>41</v>
@@ -20435,7 +20435,7 @@
       <c r="C373" s="15"/>
       <c r="D373" s="15">
         <f t="shared" si="5"/>
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E373" s="16" t="s">
         <v>41</v>
@@ -20479,7 +20479,7 @@
       <c r="C374" s="15"/>
       <c r="D374" s="15">
         <f t="shared" si="5"/>
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E374" s="16" t="s">
         <v>41</v>
@@ -20523,7 +20523,7 @@
       <c r="C375" s="15"/>
       <c r="D375" s="15">
         <f t="shared" si="5"/>
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E375" s="16" t="s">
         <v>41</v>
@@ -20567,7 +20567,7 @@
       <c r="C376" s="15"/>
       <c r="D376" s="15">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E376" s="16" t="s">
         <v>41</v>
@@ -20611,7 +20611,7 @@
       <c r="C377" s="15"/>
       <c r="D377" s="15">
         <f t="shared" si="5"/>
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E377" s="16" t="s">
         <v>41</v>
@@ -20655,7 +20655,7 @@
       <c r="C378" s="15"/>
       <c r="D378" s="15">
         <f t="shared" si="5"/>
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E378" s="16" t="s">
         <v>41</v>
@@ -20699,7 +20699,7 @@
       <c r="C379" s="15"/>
       <c r="D379" s="15">
         <f t="shared" si="5"/>
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E379" s="16" t="s">
         <v>41</v>
@@ -20743,7 +20743,7 @@
       <c r="C380" s="15"/>
       <c r="D380" s="15">
         <f t="shared" si="5"/>
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E380" s="16" t="s">
         <v>41</v>
@@ -20787,7 +20787,7 @@
       <c r="C381" s="15"/>
       <c r="D381" s="15">
         <f t="shared" si="5"/>
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E381" s="16" t="s">
         <v>41</v>
@@ -20831,7 +20831,7 @@
       <c r="C382" s="15"/>
       <c r="D382" s="15">
         <f t="shared" si="5"/>
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E382" s="16" t="s">
         <v>41</v>
@@ -20875,7 +20875,7 @@
       <c r="C383" s="15"/>
       <c r="D383" s="15">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E383" s="16" t="s">
         <v>41</v>
@@ -20919,7 +20919,7 @@
       <c r="C384" s="15"/>
       <c r="D384" s="15">
         <f t="shared" si="5"/>
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E384" s="16" t="s">
         <v>41</v>
@@ -20963,7 +20963,7 @@
       <c r="C385" s="15"/>
       <c r="D385" s="15">
         <f t="shared" si="5"/>
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E385" s="16" t="s">
         <v>41</v>
@@ -21007,7 +21007,7 @@
       <c r="C386" s="15"/>
       <c r="D386" s="15">
         <f t="shared" si="5"/>
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E386" s="16" t="s">
         <v>41</v>
@@ -21051,7 +21051,7 @@
       <c r="C387" s="15"/>
       <c r="D387" s="15">
         <f t="shared" si="5"/>
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E387" s="16" t="s">
         <v>41</v>
@@ -21095,7 +21095,7 @@
       <c r="C388" s="15"/>
       <c r="D388" s="15">
         <f t="shared" si="5"/>
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E388" s="16" t="s">
         <v>41</v>
@@ -21139,7 +21139,7 @@
       <c r="C389" s="15"/>
       <c r="D389" s="15">
         <f t="shared" si="5"/>
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E389" s="16" t="s">
         <v>41</v>
@@ -21183,7 +21183,7 @@
       <c r="C390" s="15"/>
       <c r="D390" s="15">
         <f t="shared" si="5"/>
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E390" s="16" t="s">
         <v>41</v>
@@ -21227,7 +21227,7 @@
       <c r="C391" s="15"/>
       <c r="D391" s="15">
         <f t="shared" ref="D391:D454" si="6">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E391" s="16" t="s">
         <v>41</v>
@@ -21271,7 +21271,7 @@
       <c r="C392" s="15"/>
       <c r="D392" s="15">
         <f t="shared" si="6"/>
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E392" s="16" t="s">
         <v>41</v>
@@ -21315,7 +21315,7 @@
       <c r="C393" s="15"/>
       <c r="D393" s="15">
         <f t="shared" si="6"/>
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E393" s="16" t="s">
         <v>41</v>
@@ -21359,7 +21359,7 @@
       <c r="C394" s="15"/>
       <c r="D394" s="15">
         <f t="shared" si="6"/>
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E394" s="16" t="s">
         <v>41</v>
@@ -21403,7 +21403,7 @@
       <c r="C395" s="15"/>
       <c r="D395" s="15">
         <f t="shared" si="6"/>
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E395" s="16" t="s">
         <v>41</v>
@@ -21447,7 +21447,7 @@
       <c r="C396" s="15"/>
       <c r="D396" s="15">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E396" s="16" t="s">
         <v>41</v>
@@ -21491,7 +21491,7 @@
       <c r="C397" s="15"/>
       <c r="D397" s="15">
         <f t="shared" si="6"/>
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E397" s="16" t="s">
         <v>41</v>
@@ -21535,7 +21535,7 @@
       <c r="C398" s="15"/>
       <c r="D398" s="15">
         <f t="shared" si="6"/>
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E398" s="16" t="s">
         <v>41</v>
@@ -21579,7 +21579,7 @@
       <c r="C399" s="15"/>
       <c r="D399" s="15">
         <f t="shared" si="6"/>
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E399" s="16" t="s">
         <v>41</v>
@@ -21623,7 +21623,7 @@
       <c r="C400" s="15"/>
       <c r="D400" s="15">
         <f t="shared" si="6"/>
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E400" s="16" t="s">
         <v>41</v>
@@ -21667,7 +21667,7 @@
       <c r="C401" s="15"/>
       <c r="D401" s="15">
         <f t="shared" si="6"/>
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E401" s="16" t="s">
         <v>41</v>
@@ -21711,7 +21711,7 @@
       <c r="C402" s="15"/>
       <c r="D402" s="15">
         <f t="shared" si="6"/>
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E402" s="16" t="s">
         <v>41</v>
@@ -21755,7 +21755,7 @@
       <c r="C403" s="15"/>
       <c r="D403" s="15">
         <f t="shared" si="6"/>
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E403" s="16" t="s">
         <v>41</v>
@@ -21799,7 +21799,7 @@
       <c r="C404" s="15"/>
       <c r="D404" s="15">
         <f t="shared" si="6"/>
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E404" s="16" t="s">
         <v>41</v>
@@ -21843,7 +21843,7 @@
       <c r="C405" s="15"/>
       <c r="D405" s="15">
         <f t="shared" si="6"/>
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E405" s="16" t="s">
         <v>41</v>
@@ -21887,7 +21887,7 @@
       <c r="C406" s="15"/>
       <c r="D406" s="15">
         <f t="shared" si="6"/>
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E406" s="16" t="s">
         <v>41</v>
@@ -21931,7 +21931,7 @@
       <c r="C407" s="15"/>
       <c r="D407" s="15">
         <f t="shared" si="6"/>
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E407" s="16" t="s">
         <v>41</v>
@@ -21975,7 +21975,7 @@
       <c r="C408" s="15"/>
       <c r="D408" s="15">
         <f t="shared" si="6"/>
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E408" s="16" t="s">
         <v>41</v>
@@ -22019,7 +22019,7 @@
       <c r="C409" s="15"/>
       <c r="D409" s="15">
         <f t="shared" si="6"/>
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E409" s="16" t="s">
         <v>41</v>
@@ -22063,7 +22063,7 @@
       <c r="C410" s="15"/>
       <c r="D410" s="15">
         <f t="shared" si="6"/>
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E410" s="16" t="s">
         <v>41</v>
@@ -22107,7 +22107,7 @@
       <c r="C411" s="15"/>
       <c r="D411" s="15">
         <f t="shared" si="6"/>
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E411" s="16" t="s">
         <v>41</v>
@@ -22151,7 +22151,7 @@
       <c r="C412" s="15"/>
       <c r="D412" s="15">
         <f t="shared" si="6"/>
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E412" s="16" t="s">
         <v>41</v>
@@ -22195,7 +22195,7 @@
       <c r="C413" s="15"/>
       <c r="D413" s="15">
         <f t="shared" si="6"/>
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E413" s="16" t="s">
         <v>41</v>
@@ -22239,7 +22239,7 @@
       <c r="C414" s="15"/>
       <c r="D414" s="15">
         <f t="shared" si="6"/>
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E414" s="16" t="s">
         <v>41</v>
@@ -22283,7 +22283,7 @@
       <c r="C415" s="15"/>
       <c r="D415" s="15">
         <f t="shared" si="6"/>
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E415" s="16" t="s">
         <v>41</v>
@@ -22327,7 +22327,7 @@
       <c r="C416" s="15"/>
       <c r="D416" s="15">
         <f t="shared" si="6"/>
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E416" s="16" t="s">
         <v>41</v>
@@ -22371,7 +22371,7 @@
       <c r="C417" s="15"/>
       <c r="D417" s="15">
         <f t="shared" si="6"/>
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E417" s="16" t="s">
         <v>41</v>
@@ -22415,7 +22415,7 @@
       <c r="C418" s="15"/>
       <c r="D418" s="15">
         <f t="shared" si="6"/>
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E418" s="16" t="s">
         <v>41</v>
@@ -22459,7 +22459,7 @@
       <c r="C419" s="15"/>
       <c r="D419" s="15">
         <f t="shared" si="6"/>
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E419" s="16" t="s">
         <v>41</v>
@@ -22503,7 +22503,7 @@
       <c r="C420" s="15"/>
       <c r="D420" s="15">
         <f t="shared" si="6"/>
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E420" s="16" t="s">
         <v>41</v>
@@ -22547,7 +22547,7 @@
       <c r="C421" s="15"/>
       <c r="D421" s="15">
         <f t="shared" si="6"/>
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E421" s="16" t="s">
         <v>41</v>
@@ -22591,7 +22591,7 @@
       <c r="C422" s="15"/>
       <c r="D422" s="15">
         <f t="shared" si="6"/>
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E422" s="16" t="s">
         <v>41</v>
@@ -22635,7 +22635,7 @@
       <c r="C423" s="15"/>
       <c r="D423" s="15">
         <f t="shared" si="6"/>
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E423" s="16" t="s">
         <v>41</v>
@@ -22679,7 +22679,7 @@
       <c r="C424" s="15"/>
       <c r="D424" s="15">
         <f t="shared" si="6"/>
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E424" s="16" t="s">
         <v>41</v>
@@ -22723,7 +22723,7 @@
       <c r="C425" s="15"/>
       <c r="D425" s="15">
         <f t="shared" si="6"/>
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E425" s="16" t="s">
         <v>41</v>
@@ -22767,7 +22767,7 @@
       <c r="C426" s="15"/>
       <c r="D426" s="15">
         <f t="shared" si="6"/>
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E426" s="16" t="s">
         <v>41</v>
@@ -22811,7 +22811,7 @@
       <c r="C427" s="15"/>
       <c r="D427" s="15">
         <f t="shared" si="6"/>
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E427" s="16" t="s">
         <v>41</v>
@@ -22855,7 +22855,7 @@
       <c r="C428" s="15"/>
       <c r="D428" s="15">
         <f t="shared" si="6"/>
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E428" s="16" t="s">
         <v>41</v>
@@ -22899,7 +22899,7 @@
       <c r="C429" s="15"/>
       <c r="D429" s="15">
         <f t="shared" si="6"/>
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E429" s="16" t="s">
         <v>41</v>
@@ -22943,7 +22943,7 @@
       <c r="C430" s="15"/>
       <c r="D430" s="15">
         <f t="shared" si="6"/>
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E430" s="16" t="s">
         <v>41</v>
@@ -22987,7 +22987,7 @@
       <c r="C431" s="15"/>
       <c r="D431" s="15">
         <f t="shared" si="6"/>
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E431" s="16" t="s">
         <v>41</v>
@@ -23031,7 +23031,7 @@
       <c r="C432" s="15"/>
       <c r="D432" s="15">
         <f t="shared" si="6"/>
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E432" s="16" t="s">
         <v>41</v>
@@ -23075,7 +23075,7 @@
       <c r="C433" s="15"/>
       <c r="D433" s="15">
         <f t="shared" si="6"/>
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E433" s="16" t="s">
         <v>41</v>
@@ -23119,7 +23119,7 @@
       <c r="C434" s="15"/>
       <c r="D434" s="15">
         <f t="shared" si="6"/>
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E434" s="16" t="s">
         <v>41</v>
@@ -23163,7 +23163,7 @@
       <c r="C435" s="15"/>
       <c r="D435" s="15">
         <f t="shared" si="6"/>
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E435" s="16" t="s">
         <v>41</v>
@@ -23207,7 +23207,7 @@
       <c r="C436" s="15"/>
       <c r="D436" s="15">
         <f t="shared" si="6"/>
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E436" s="16" t="s">
         <v>41</v>
@@ -23251,7 +23251,7 @@
       <c r="C437" s="15"/>
       <c r="D437" s="15">
         <f t="shared" si="6"/>
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E437" s="16" t="s">
         <v>41</v>
@@ -23295,7 +23295,7 @@
       <c r="C438" s="15"/>
       <c r="D438" s="15">
         <f t="shared" si="6"/>
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E438" s="16" t="s">
         <v>41</v>
@@ -23339,7 +23339,7 @@
       <c r="C439" s="15"/>
       <c r="D439" s="15">
         <f t="shared" si="6"/>
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E439" s="16" t="s">
         <v>41</v>
@@ -23383,7 +23383,7 @@
       <c r="C440" s="15"/>
       <c r="D440" s="15">
         <f t="shared" si="6"/>
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E440" s="16" t="s">
         <v>41</v>
@@ -23427,7 +23427,7 @@
       <c r="C441" s="15"/>
       <c r="D441" s="15">
         <f t="shared" si="6"/>
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E441" s="16" t="s">
         <v>41</v>
@@ -23471,7 +23471,7 @@
       <c r="C442" s="15"/>
       <c r="D442" s="15">
         <f t="shared" si="6"/>
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E442" s="16" t="s">
         <v>41</v>
@@ -23515,7 +23515,7 @@
       <c r="C443" s="15"/>
       <c r="D443" s="15">
         <f t="shared" si="6"/>
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E443" s="16" t="s">
         <v>41</v>
@@ -23559,7 +23559,7 @@
       <c r="C444" s="15"/>
       <c r="D444" s="15">
         <f t="shared" si="6"/>
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E444" s="16" t="s">
         <v>41</v>
@@ -23603,7 +23603,7 @@
       <c r="C445" s="15"/>
       <c r="D445" s="15">
         <f t="shared" si="6"/>
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E445" s="16" t="s">
         <v>41</v>
@@ -23647,7 +23647,7 @@
       <c r="C446" s="15"/>
       <c r="D446" s="15">
         <f t="shared" si="6"/>
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E446" s="16" t="s">
         <v>41</v>
@@ -23691,7 +23691,7 @@
       <c r="C447" s="15"/>
       <c r="D447" s="15">
         <f t="shared" si="6"/>
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E447" s="16" t="s">
         <v>41</v>
@@ -23735,7 +23735,7 @@
       <c r="C448" s="15"/>
       <c r="D448" s="15">
         <f t="shared" si="6"/>
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E448" s="16" t="s">
         <v>41</v>
@@ -23779,7 +23779,7 @@
       <c r="C449" s="15"/>
       <c r="D449" s="15">
         <f t="shared" si="6"/>
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E449" s="16" t="s">
         <v>41</v>
@@ -23823,7 +23823,7 @@
       <c r="C450" s="15"/>
       <c r="D450" s="15">
         <f t="shared" si="6"/>
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E450" s="16" t="s">
         <v>41</v>
@@ -23867,7 +23867,7 @@
       <c r="C451" s="15"/>
       <c r="D451" s="15">
         <f t="shared" si="6"/>
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E451" s="16" t="s">
         <v>41</v>
@@ -23911,7 +23911,7 @@
       <c r="C452" s="15"/>
       <c r="D452" s="15">
         <f t="shared" si="6"/>
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E452" s="16" t="s">
         <v>41</v>
@@ -23955,7 +23955,7 @@
       <c r="C453" s="15"/>
       <c r="D453" s="15">
         <f t="shared" si="6"/>
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E453" s="16" t="s">
         <v>41</v>
@@ -23999,7 +23999,7 @@
       <c r="C454" s="15"/>
       <c r="D454" s="15">
         <f t="shared" si="6"/>
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E454" s="16" t="s">
         <v>41</v>
@@ -24043,7 +24043,7 @@
       <c r="C455" s="15"/>
       <c r="D455" s="15">
         <f t="shared" ref="D455:D518" si="7">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E455" s="16" t="s">
         <v>41</v>
@@ -24087,7 +24087,7 @@
       <c r="C456" s="15"/>
       <c r="D456" s="15">
         <f t="shared" si="7"/>
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E456" s="16" t="s">
         <v>41</v>
@@ -24131,7 +24131,7 @@
       <c r="C457" s="15"/>
       <c r="D457" s="15">
         <f t="shared" si="7"/>
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E457" s="16" t="s">
         <v>41</v>
@@ -24175,7 +24175,7 @@
       <c r="C458" s="15"/>
       <c r="D458" s="15">
         <f t="shared" si="7"/>
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E458" s="16" t="s">
         <v>41</v>
@@ -24219,7 +24219,7 @@
       <c r="C459" s="15"/>
       <c r="D459" s="15">
         <f t="shared" si="7"/>
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E459" s="16" t="s">
         <v>41</v>
@@ -24263,7 +24263,7 @@
       <c r="C460" s="15"/>
       <c r="D460" s="15">
         <f t="shared" si="7"/>
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E460" s="16" t="s">
         <v>41</v>
@@ -24307,7 +24307,7 @@
       <c r="C461" s="15"/>
       <c r="D461" s="15">
         <f t="shared" si="7"/>
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E461" s="16" t="s">
         <v>41</v>
@@ -24351,7 +24351,7 @@
       <c r="C462" s="15"/>
       <c r="D462" s="15">
         <f t="shared" si="7"/>
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E462" s="16" t="s">
         <v>41</v>
@@ -24395,7 +24395,7 @@
       <c r="C463" s="15"/>
       <c r="D463" s="15">
         <f t="shared" si="7"/>
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E463" s="16" t="s">
         <v>41</v>
@@ -24439,7 +24439,7 @@
       <c r="C464" s="15"/>
       <c r="D464" s="15">
         <f t="shared" si="7"/>
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E464" s="16" t="s">
         <v>41</v>
@@ -24483,7 +24483,7 @@
       <c r="C465" s="15"/>
       <c r="D465" s="15">
         <f t="shared" si="7"/>
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E465" s="16" t="s">
         <v>41</v>
@@ -24521,13 +24521,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:17">
+    <row r="466" spans="1:17">
       <c r="A466" s="15"/>
       <c r="B466" s="32"/>
       <c r="C466" s="15"/>
       <c r="D466" s="15">
         <f t="shared" si="7"/>
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E466" s="16" t="s">
         <v>41</v>
@@ -24567,13 +24567,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:17">
+    <row r="467" spans="1:17">
       <c r="A467" s="15"/>
       <c r="B467" s="32"/>
       <c r="C467" s="15"/>
       <c r="D467" s="15">
         <f t="shared" si="7"/>
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E467" s="16" t="s">
         <v>41</v>
@@ -24613,13 +24613,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:17">
+    <row r="468" spans="1:17">
       <c r="A468" s="15"/>
       <c r="B468" s="32"/>
       <c r="C468" s="15"/>
       <c r="D468" s="15">
         <f t="shared" si="7"/>
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E468" s="16" t="s">
         <v>41</v>
@@ -24659,13 +24659,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:17">
+    <row r="469" spans="1:17">
       <c r="A469" s="15"/>
       <c r="B469" s="32"/>
       <c r="C469" s="15"/>
       <c r="D469" s="15">
         <f t="shared" si="7"/>
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E469" s="16" t="s">
         <v>41</v>
@@ -24705,13 +24705,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:17">
+    <row r="470" spans="1:17">
       <c r="A470" s="15"/>
       <c r="B470" s="32"/>
       <c r="C470" s="15"/>
       <c r="D470" s="15">
         <f t="shared" si="7"/>
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E470" s="16" t="s">
         <v>41</v>
@@ -24751,13 +24751,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:17">
+    <row r="471" spans="1:17">
       <c r="A471" s="15"/>
       <c r="B471" s="32"/>
       <c r="C471" s="15"/>
       <c r="D471" s="15">
         <f t="shared" si="7"/>
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E471" s="16" t="s">
         <v>41</v>
@@ -24797,13 +24797,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:17">
+    <row r="472" spans="1:17">
       <c r="A472" s="15"/>
       <c r="B472" s="32"/>
       <c r="C472" s="15"/>
       <c r="D472" s="15">
         <f t="shared" si="7"/>
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E472" s="16" t="s">
         <v>41</v>
@@ -24843,13 +24843,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:17">
+    <row r="473" spans="1:17">
       <c r="A473" s="15"/>
       <c r="B473" s="32"/>
       <c r="C473" s="15"/>
       <c r="D473" s="15">
         <f t="shared" si="7"/>
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E473" s="16" t="s">
         <v>41</v>
@@ -24889,13 +24889,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:17">
+    <row r="474" spans="1:17">
       <c r="A474" s="15"/>
       <c r="B474" s="32"/>
       <c r="C474" s="15"/>
       <c r="D474" s="15">
         <f t="shared" si="7"/>
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E474" s="16" t="s">
         <v>41</v>
@@ -24935,13 +24935,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:17">
+    <row r="475" spans="1:17">
       <c r="A475" s="15"/>
       <c r="B475" s="32"/>
       <c r="C475" s="15"/>
       <c r="D475" s="15">
         <f t="shared" si="7"/>
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E475" s="16" t="s">
         <v>41</v>
@@ -24981,13 +24981,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:17">
+    <row r="476" spans="1:17">
       <c r="A476" s="15"/>
       <c r="B476" s="32"/>
       <c r="C476" s="15"/>
       <c r="D476" s="15">
         <f t="shared" si="7"/>
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E476" s="16" t="s">
         <v>41</v>
@@ -25027,13 +25027,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:17">
+    <row r="477" spans="1:17">
       <c r="A477" s="15"/>
       <c r="B477" s="32"/>
       <c r="C477" s="15"/>
       <c r="D477" s="15">
         <f t="shared" si="7"/>
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E477" s="16" t="s">
         <v>41</v>
@@ -25073,13 +25073,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:17">
+    <row r="478" spans="1:17">
       <c r="A478" s="15"/>
       <c r="B478" s="32"/>
       <c r="C478" s="15"/>
       <c r="D478" s="15">
         <f t="shared" si="7"/>
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E478" s="16" t="s">
         <v>41</v>
@@ -25119,13 +25119,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:17">
+    <row r="479" spans="1:17">
       <c r="A479" s="15"/>
       <c r="B479" s="32"/>
       <c r="C479" s="15"/>
       <c r="D479" s="15">
         <f t="shared" si="7"/>
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E479" s="16" t="s">
         <v>41</v>
@@ -25165,13 +25165,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:17">
+    <row r="480" spans="1:17">
       <c r="A480" s="15"/>
       <c r="B480" s="32"/>
       <c r="C480" s="15"/>
       <c r="D480" s="15">
         <f t="shared" si="7"/>
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E480" s="16" t="s">
         <v>41</v>
@@ -25211,13 +25211,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:17">
+    <row r="481" spans="1:17">
       <c r="A481" s="15"/>
       <c r="B481" s="32"/>
       <c r="C481" s="15"/>
       <c r="D481" s="15">
         <f t="shared" si="7"/>
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E481" s="16" t="s">
         <v>41</v>
@@ -25257,13 +25257,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:17">
+    <row r="482" spans="1:17">
       <c r="A482" s="15"/>
       <c r="B482" s="32"/>
       <c r="C482" s="15"/>
       <c r="D482" s="15">
         <f t="shared" si="7"/>
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E482" s="16" t="s">
         <v>22</v>
@@ -25303,13 +25303,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:17">
+    <row r="483" spans="1:17">
       <c r="A483" s="15"/>
       <c r="B483" s="32"/>
       <c r="C483" s="15"/>
       <c r="D483" s="15">
         <f t="shared" si="7"/>
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E483" s="16" t="s">
         <v>22</v>
@@ -25349,13 +25349,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:17">
+    <row r="484" spans="1:17">
       <c r="A484" s="15"/>
       <c r="B484" s="32"/>
       <c r="C484" s="15"/>
       <c r="D484" s="15">
         <f t="shared" si="7"/>
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E484" s="16" t="s">
         <v>22</v>
@@ -25395,13 +25395,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:17">
+    <row r="485" spans="1:17">
       <c r="A485" s="15"/>
       <c r="B485" s="32"/>
       <c r="C485" s="15"/>
       <c r="D485" s="15">
         <f t="shared" si="7"/>
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E485" s="16" t="s">
         <v>22</v>
@@ -25441,13 +25441,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:17">
+    <row r="486" spans="1:17">
       <c r="A486" s="15"/>
       <c r="B486" s="32"/>
       <c r="C486" s="15"/>
       <c r="D486" s="15">
         <f t="shared" si="7"/>
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E486" s="16" t="s">
         <v>22</v>
@@ -25487,13 +25487,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:17">
+    <row r="487" spans="1:17">
       <c r="A487" s="15"/>
       <c r="B487" s="32"/>
       <c r="C487" s="15"/>
       <c r="D487" s="15">
         <f t="shared" si="7"/>
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E487" s="16" t="s">
         <v>22</v>
@@ -25533,13 +25533,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:17">
+    <row r="488" spans="1:17">
       <c r="A488" s="15"/>
       <c r="B488" s="32"/>
       <c r="C488" s="15"/>
       <c r="D488" s="15">
         <f t="shared" si="7"/>
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E488" s="16" t="s">
         <v>22</v>
@@ -25579,13 +25579,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:17">
+    <row r="489" spans="1:17">
       <c r="A489" s="15"/>
       <c r="B489" s="32"/>
       <c r="C489" s="15"/>
       <c r="D489" s="15">
         <f t="shared" si="7"/>
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E489" s="16" t="s">
         <v>22</v>
@@ -25625,13 +25625,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:17">
+    <row r="490" spans="1:17">
       <c r="A490" s="15"/>
       <c r="B490" s="32"/>
       <c r="C490" s="15"/>
       <c r="D490" s="15">
         <f t="shared" si="7"/>
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E490" s="16" t="s">
         <v>22</v>
@@ -25671,13 +25671,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:17">
+    <row r="491" spans="1:17">
       <c r="A491" s="15"/>
       <c r="B491" s="32"/>
       <c r="C491" s="15"/>
       <c r="D491" s="15">
         <f t="shared" si="7"/>
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E491" s="16" t="s">
         <v>22</v>
@@ -25717,13 +25717,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:17">
+    <row r="492" spans="1:17">
       <c r="A492" s="15"/>
       <c r="B492" s="32"/>
       <c r="C492" s="15"/>
       <c r="D492" s="15">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E492" s="16" t="s">
         <v>22</v>
@@ -25763,13 +25763,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:17">
+    <row r="493" spans="1:17">
       <c r="A493" s="15"/>
       <c r="B493" s="32"/>
       <c r="C493" s="15"/>
       <c r="D493" s="15">
         <f t="shared" si="7"/>
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E493" s="16" t="s">
         <v>22</v>
@@ -25809,13 +25809,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:17">
+    <row r="494" spans="1:17">
       <c r="A494" s="15"/>
       <c r="B494" s="32"/>
       <c r="C494" s="15"/>
       <c r="D494" s="15">
         <f t="shared" si="7"/>
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E494" s="16" t="s">
         <v>22</v>
@@ -25855,13 +25855,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:17">
+    <row r="495" spans="1:17">
       <c r="A495" s="15"/>
       <c r="B495" s="32"/>
       <c r="C495" s="15"/>
       <c r="D495" s="15">
         <f t="shared" si="7"/>
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E495" s="16" t="s">
         <v>22</v>
@@ -25901,13 +25901,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:17">
+    <row r="496" spans="1:17">
       <c r="A496" s="15"/>
       <c r="B496" s="32"/>
       <c r="C496" s="15"/>
       <c r="D496" s="15">
         <f t="shared" si="7"/>
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E496" s="16" t="s">
         <v>22</v>
@@ -25947,13 +25947,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:17">
+    <row r="497" spans="1:17">
       <c r="A497" s="15"/>
       <c r="B497" s="32"/>
       <c r="C497" s="15"/>
       <c r="D497" s="15">
         <f t="shared" si="7"/>
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E497" s="16" t="s">
         <v>22</v>
@@ -25999,7 +25999,7 @@
       <c r="C498" s="15"/>
       <c r="D498" s="15">
         <f t="shared" si="7"/>
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E498" s="16" t="s">
         <v>41</v>
@@ -26037,13 +26037,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:17">
+    <row r="499" spans="1:17">
       <c r="A499" s="15"/>
       <c r="B499" s="32"/>
       <c r="C499" s="15"/>
       <c r="D499" s="15">
         <f t="shared" si="7"/>
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E499" s="16" t="s">
         <v>22</v>
@@ -26089,7 +26089,7 @@
       <c r="C500" s="15"/>
       <c r="D500" s="15">
         <f t="shared" si="7"/>
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E500" s="16" t="s">
         <v>41</v>
@@ -26127,13 +26127,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:17">
+    <row r="501" spans="1:17">
       <c r="A501" s="15"/>
       <c r="B501" s="32"/>
       <c r="C501" s="15"/>
       <c r="D501" s="15">
         <f t="shared" si="7"/>
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E501" s="16" t="s">
         <v>41</v>
@@ -26173,13 +26173,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:17">
+    <row r="502" spans="1:17">
       <c r="A502" s="15"/>
       <c r="B502" s="32"/>
       <c r="C502" s="15"/>
       <c r="D502" s="15">
         <f t="shared" si="7"/>
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E502" s="16" t="s">
         <v>41</v>
@@ -26225,7 +26225,7 @@
       <c r="C503" s="15"/>
       <c r="D503" s="15">
         <f t="shared" si="7"/>
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E503" s="16" t="s">
         <v>41</v>
@@ -26263,13 +26263,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:17">
+    <row r="504" spans="1:17">
       <c r="A504" s="15"/>
       <c r="B504" s="32"/>
       <c r="C504" s="15"/>
       <c r="D504" s="15">
         <f t="shared" si="7"/>
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E504" s="16" t="s">
         <v>450</v>
@@ -26309,13 +26309,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:17">
+    <row r="505" spans="1:17">
       <c r="A505" s="15"/>
       <c r="B505" s="32"/>
       <c r="C505" s="15"/>
       <c r="D505" s="15">
         <f t="shared" si="7"/>
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E505" s="16" t="s">
         <v>450</v>
@@ -26355,13 +26355,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:17">
+    <row r="506" spans="1:17">
       <c r="A506" s="15"/>
       <c r="B506" s="32"/>
       <c r="C506" s="15"/>
       <c r="D506" s="15">
         <f t="shared" si="7"/>
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E506" s="16" t="s">
         <v>450</v>
@@ -26407,7 +26407,7 @@
       <c r="C507" s="15"/>
       <c r="D507" s="15">
         <f t="shared" si="7"/>
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E507" s="16" t="s">
         <v>41</v>
@@ -26445,13 +26445,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:17">
+    <row r="508" spans="1:17">
       <c r="A508" s="15"/>
       <c r="B508" s="32"/>
       <c r="C508" s="15"/>
       <c r="D508" s="15">
         <f t="shared" si="7"/>
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E508" s="16" t="s">
         <v>450</v>
@@ -26491,13 +26491,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:17">
+    <row r="509" spans="1:17">
       <c r="A509" s="15"/>
       <c r="B509" s="32"/>
       <c r="C509" s="15"/>
       <c r="D509" s="15">
         <f t="shared" si="7"/>
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E509" s="16" t="s">
         <v>450</v>
@@ -26537,13 +26537,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:17">
+    <row r="510" spans="1:17">
       <c r="A510" s="15"/>
       <c r="B510" s="32"/>
       <c r="C510" s="15"/>
       <c r="D510" s="15">
         <f t="shared" si="7"/>
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E510" s="16" t="s">
         <v>450</v>
@@ -26583,13 +26583,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:17">
+    <row r="511" spans="1:17">
       <c r="A511" s="15"/>
       <c r="B511" s="32"/>
       <c r="C511" s="15"/>
       <c r="D511" s="15">
         <f t="shared" si="7"/>
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E511" s="16" t="s">
         <v>41</v>
@@ -26629,13 +26629,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:17">
+    <row r="512" spans="1:17">
       <c r="A512" s="15"/>
       <c r="B512" s="32"/>
       <c r="C512" s="15"/>
       <c r="D512" s="15">
         <f t="shared" si="7"/>
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E512" s="16" t="s">
         <v>41</v>
@@ -26675,13 +26675,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:17">
+    <row r="513" spans="1:17">
       <c r="A513" s="15"/>
       <c r="B513" s="32"/>
       <c r="C513" s="15"/>
       <c r="D513" s="15">
         <f t="shared" si="7"/>
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E513" s="16" t="s">
         <v>41</v>
@@ -26727,7 +26727,7 @@
       <c r="C514" s="15"/>
       <c r="D514" s="15">
         <f t="shared" si="7"/>
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E514" s="16" t="s">
         <v>41</v>
@@ -26771,7 +26771,7 @@
       <c r="C515" s="15"/>
       <c r="D515" s="15">
         <f t="shared" si="7"/>
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E515" s="16" t="s">
         <v>41</v>
@@ -26815,7 +26815,7 @@
       <c r="C516" s="15"/>
       <c r="D516" s="15">
         <f t="shared" si="7"/>
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E516" s="16" t="s">
         <v>41</v>
@@ -26859,7 +26859,7 @@
       <c r="C517" s="15"/>
       <c r="D517" s="15">
         <f t="shared" si="7"/>
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E517" s="16" t="s">
         <v>41</v>
@@ -26903,7 +26903,7 @@
       <c r="C518" s="15"/>
       <c r="D518" s="15">
         <f t="shared" si="7"/>
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E518" s="16" t="s">
         <v>41</v>
@@ -26947,7 +26947,7 @@
       <c r="C519" s="15"/>
       <c r="D519" s="15">
         <f t="shared" ref="D519:D582" si="8">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E519" s="16" t="s">
         <v>41</v>
@@ -26985,13 +26985,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:17">
+    <row r="520" spans="1:17">
       <c r="A520" s="15"/>
       <c r="B520" s="32"/>
       <c r="C520" s="15"/>
       <c r="D520" s="15">
         <f t="shared" si="8"/>
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E520" s="16" t="s">
         <v>41</v>
@@ -27031,13 +27031,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:17">
+    <row r="521" spans="1:17">
       <c r="A521" s="15"/>
       <c r="B521" s="32"/>
       <c r="C521" s="15"/>
       <c r="D521" s="15">
         <f t="shared" si="8"/>
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E521" s="16" t="s">
         <v>41</v>
@@ -27077,13 +27077,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:17">
+    <row r="522" spans="1:17">
       <c r="A522" s="15"/>
       <c r="B522" s="32"/>
       <c r="C522" s="15"/>
       <c r="D522" s="15">
         <f t="shared" si="8"/>
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E522" s="16" t="s">
         <v>450</v>
@@ -27123,13 +27123,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:17">
+    <row r="523" spans="1:17">
       <c r="A523" s="15"/>
       <c r="B523" s="32"/>
       <c r="C523" s="15"/>
       <c r="D523" s="15">
         <f t="shared" si="8"/>
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E523" s="16" t="s">
         <v>450</v>
@@ -27169,13 +27169,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:17">
+    <row r="524" spans="1:17">
       <c r="A524" s="15"/>
       <c r="B524" s="32"/>
       <c r="C524" s="15"/>
       <c r="D524" s="15">
         <f t="shared" si="8"/>
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E524" s="16" t="s">
         <v>450</v>
@@ -27215,13 +27215,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:17">
+    <row r="525" spans="1:17">
       <c r="A525" s="15"/>
       <c r="B525" s="32"/>
       <c r="C525" s="15"/>
       <c r="D525" s="15">
         <f t="shared" si="8"/>
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E525" s="16" t="s">
         <v>450</v>
@@ -27261,13 +27261,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:17">
+    <row r="526" spans="1:17">
       <c r="A526" s="15"/>
       <c r="B526" s="32"/>
       <c r="C526" s="15"/>
       <c r="D526" s="15">
         <f t="shared" si="8"/>
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E526" s="16" t="s">
         <v>450</v>
@@ -27313,7 +27313,7 @@
       <c r="C527" s="15"/>
       <c r="D527" s="15">
         <f t="shared" si="8"/>
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E527" s="16" t="s">
         <v>41</v>
@@ -27357,7 +27357,7 @@
       <c r="C528" s="15"/>
       <c r="D528" s="15">
         <f t="shared" si="8"/>
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E528" s="16" t="s">
         <v>41</v>
@@ -27401,7 +27401,7 @@
       <c r="C529" s="15"/>
       <c r="D529" s="15">
         <f t="shared" si="8"/>
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E529" s="16" t="s">
         <v>41</v>
@@ -27445,7 +27445,7 @@
       <c r="C530" s="15"/>
       <c r="D530" s="15">
         <f t="shared" si="8"/>
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E530" s="16" t="s">
         <v>41</v>
@@ -27489,7 +27489,7 @@
       <c r="C531" s="15"/>
       <c r="D531" s="15">
         <f t="shared" si="8"/>
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E531" s="16" t="s">
         <v>41</v>
@@ -27527,13 +27527,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:17">
+    <row r="532" spans="1:17">
       <c r="A532" s="15"/>
       <c r="B532" s="32"/>
       <c r="C532" s="15"/>
       <c r="D532" s="15">
         <f t="shared" si="8"/>
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E532" s="16" t="s">
         <v>251</v>
@@ -27573,13 +27573,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:17">
+    <row r="533" spans="1:17">
       <c r="A533" s="15"/>
       <c r="B533" s="32"/>
       <c r="C533" s="15"/>
       <c r="D533" s="15">
         <f t="shared" si="8"/>
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E533" s="16" t="s">
         <v>251</v>
@@ -27619,13 +27619,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:17">
+    <row r="534" spans="1:17">
       <c r="A534" s="15"/>
       <c r="B534" s="32"/>
       <c r="C534" s="15"/>
       <c r="D534" s="15">
         <f t="shared" si="8"/>
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E534" s="16" t="s">
         <v>324</v>
@@ -27665,13 +27665,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="1:17">
+    <row r="535" spans="1:17">
       <c r="A535" s="15"/>
       <c r="B535" s="32"/>
       <c r="C535" s="15"/>
       <c r="D535" s="15">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E535" s="16" t="s">
         <v>324</v>
@@ -27711,13 +27711,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:17">
+    <row r="536" spans="1:17">
       <c r="A536" s="15"/>
       <c r="B536" s="32"/>
       <c r="C536" s="15"/>
       <c r="D536" s="15">
         <f t="shared" si="8"/>
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E536" s="16" t="s">
         <v>450</v>
@@ -27757,13 +27757,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:17">
+    <row r="537" spans="1:17">
       <c r="A537" s="15"/>
       <c r="B537" s="32"/>
       <c r="C537" s="15"/>
       <c r="D537" s="15">
         <f t="shared" si="8"/>
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E537" s="16" t="s">
         <v>450</v>
@@ -27809,7 +27809,7 @@
       <c r="C538" s="15"/>
       <c r="D538" s="15">
         <f t="shared" si="8"/>
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E538" s="16" t="s">
         <v>41</v>
@@ -27853,7 +27853,7 @@
       <c r="C539" s="15"/>
       <c r="D539" s="15">
         <f t="shared" si="8"/>
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E539" s="16" t="s">
         <v>41</v>
@@ -27897,7 +27897,7 @@
       <c r="C540" s="15"/>
       <c r="D540" s="15">
         <f t="shared" si="8"/>
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E540" s="16" t="s">
         <v>41</v>
@@ -27941,7 +27941,7 @@
       <c r="C541" s="15"/>
       <c r="D541" s="15">
         <f t="shared" si="8"/>
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E541" s="16" t="s">
         <v>41</v>
@@ -27985,7 +27985,7 @@
       <c r="C542" s="15"/>
       <c r="D542" s="15">
         <f t="shared" si="8"/>
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E542" s="16" t="s">
         <v>41</v>
@@ -28029,7 +28029,7 @@
       <c r="C543" s="15"/>
       <c r="D543" s="15">
         <f t="shared" si="8"/>
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E543" s="16" t="s">
         <v>41</v>
@@ -28075,7 +28075,7 @@
       <c r="C544" s="15"/>
       <c r="D544" s="15">
         <f t="shared" si="8"/>
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E544" s="16" t="s">
         <v>41</v>
@@ -28121,7 +28121,7 @@
       <c r="C545" s="15"/>
       <c r="D545" s="15">
         <f t="shared" si="8"/>
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E545" s="16" t="s">
         <v>41</v>
@@ -28167,7 +28167,7 @@
       <c r="C546" s="15"/>
       <c r="D546" s="15">
         <f t="shared" si="8"/>
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E546" s="16" t="s">
         <v>41</v>
@@ -28213,7 +28213,7 @@
       <c r="C547" s="15"/>
       <c r="D547" s="15">
         <f t="shared" si="8"/>
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E547" s="16" t="s">
         <v>41</v>
@@ -28257,7 +28257,7 @@
       <c r="C548" s="15"/>
       <c r="D548" s="15">
         <f t="shared" si="8"/>
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E548" s="16" t="s">
         <v>41</v>
@@ -28301,7 +28301,7 @@
       <c r="C549" s="15"/>
       <c r="D549" s="15">
         <f t="shared" si="8"/>
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E549" s="16" t="s">
         <v>41</v>
@@ -28345,7 +28345,7 @@
       <c r="C550" s="15"/>
       <c r="D550" s="15">
         <f t="shared" si="8"/>
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E550" s="16" t="s">
         <v>41</v>
@@ -28389,7 +28389,7 @@
       <c r="C551" s="15"/>
       <c r="D551" s="15">
         <f t="shared" si="8"/>
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E551" s="16" t="s">
         <v>41</v>
@@ -28433,7 +28433,7 @@
       <c r="C552" s="15"/>
       <c r="D552" s="15">
         <f t="shared" si="8"/>
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E552" s="16" t="s">
         <v>41</v>
@@ -28477,7 +28477,7 @@
       <c r="C553" s="15"/>
       <c r="D553" s="15">
         <f t="shared" si="8"/>
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E553" s="16" t="s">
         <v>41</v>
@@ -28521,7 +28521,7 @@
       <c r="C554" s="15"/>
       <c r="D554" s="15">
         <f t="shared" si="8"/>
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E554" s="16" t="s">
         <v>41</v>
@@ -28565,7 +28565,7 @@
       <c r="C555" s="15"/>
       <c r="D555" s="15">
         <f t="shared" si="8"/>
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E555" s="16" t="s">
         <v>41</v>
@@ -28609,7 +28609,7 @@
       <c r="C556" s="15"/>
       <c r="D556" s="15">
         <f t="shared" si="8"/>
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E556" s="16" t="s">
         <v>41</v>
@@ -28653,7 +28653,7 @@
       <c r="C557" s="15"/>
       <c r="D557" s="15">
         <f t="shared" si="8"/>
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E557" s="16" t="s">
         <v>41</v>
@@ -28697,7 +28697,7 @@
       <c r="C558" s="15"/>
       <c r="D558" s="15">
         <f t="shared" si="8"/>
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E558" s="16" t="s">
         <v>41</v>
@@ -28741,7 +28741,7 @@
       <c r="C559" s="15"/>
       <c r="D559" s="15">
         <f t="shared" si="8"/>
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E559" s="16" t="s">
         <v>41</v>
@@ -28785,7 +28785,7 @@
       <c r="C560" s="15"/>
       <c r="D560" s="15">
         <f t="shared" si="8"/>
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E560" s="16" t="s">
         <v>41</v>
@@ -28829,7 +28829,7 @@
       <c r="C561" s="15"/>
       <c r="D561" s="15">
         <f t="shared" si="8"/>
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E561" s="16" t="s">
         <v>41</v>
@@ -28873,7 +28873,7 @@
       <c r="C562" s="15"/>
       <c r="D562" s="15">
         <f t="shared" si="8"/>
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E562" s="16" t="s">
         <v>41</v>
@@ -28917,7 +28917,7 @@
       <c r="C563" s="15"/>
       <c r="D563" s="15">
         <f t="shared" si="8"/>
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E563" s="16" t="s">
         <v>41</v>
@@ -28961,7 +28961,7 @@
       <c r="C564" s="15"/>
       <c r="D564" s="15">
         <f t="shared" si="8"/>
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E564" s="16" t="s">
         <v>41</v>
@@ -29005,7 +29005,7 @@
       <c r="C565" s="15"/>
       <c r="D565" s="15">
         <f t="shared" si="8"/>
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E565" s="16" t="s">
         <v>41</v>
@@ -29049,7 +29049,7 @@
       <c r="C566" s="15"/>
       <c r="D566" s="15">
         <f t="shared" si="8"/>
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E566" s="16" t="s">
         <v>41</v>
@@ -29093,7 +29093,7 @@
       <c r="C567" s="15"/>
       <c r="D567" s="15">
         <f t="shared" si="8"/>
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E567" s="16" t="s">
         <v>41</v>
@@ -29137,7 +29137,7 @@
       <c r="C568" s="15"/>
       <c r="D568" s="15">
         <f t="shared" si="8"/>
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E568" s="16" t="s">
         <v>41</v>
@@ -29181,7 +29181,7 @@
       <c r="C569" s="15"/>
       <c r="D569" s="15">
         <f t="shared" si="8"/>
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E569" s="16" t="s">
         <v>41</v>
@@ -29225,7 +29225,7 @@
       <c r="C570" s="15"/>
       <c r="D570" s="15">
         <f t="shared" si="8"/>
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E570" s="16" t="s">
         <v>41</v>
@@ -29269,7 +29269,7 @@
       <c r="C571" s="15"/>
       <c r="D571" s="15">
         <f t="shared" si="8"/>
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E571" s="16" t="s">
         <v>41</v>
@@ -29313,7 +29313,7 @@
       <c r="C572" s="15"/>
       <c r="D572" s="15">
         <f t="shared" si="8"/>
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E572" s="16" t="s">
         <v>41</v>
@@ -29357,7 +29357,7 @@
       <c r="C573" s="15"/>
       <c r="D573" s="15">
         <f t="shared" si="8"/>
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E573" s="16" t="s">
         <v>41</v>
@@ -29401,7 +29401,7 @@
       <c r="C574" s="15"/>
       <c r="D574" s="15">
         <f t="shared" si="8"/>
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E574" s="16" t="s">
         <v>41</v>
@@ -29445,7 +29445,7 @@
       <c r="C575" s="15"/>
       <c r="D575" s="15">
         <f t="shared" si="8"/>
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E575" s="16" t="s">
         <v>41</v>
@@ -29489,7 +29489,7 @@
       <c r="C576" s="15"/>
       <c r="D576" s="15">
         <f t="shared" si="8"/>
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E576" s="16" t="s">
         <v>41</v>
@@ -29533,7 +29533,7 @@
       <c r="C577" s="15"/>
       <c r="D577" s="15">
         <f t="shared" si="8"/>
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E577" s="16" t="s">
         <v>41</v>
@@ -29577,7 +29577,7 @@
       <c r="C578" s="15"/>
       <c r="D578" s="15">
         <f t="shared" si="8"/>
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E578" s="16" t="s">
         <v>41</v>
@@ -29621,7 +29621,7 @@
       <c r="C579" s="15"/>
       <c r="D579" s="15">
         <f t="shared" si="8"/>
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E579" s="16" t="s">
         <v>41</v>
@@ -29665,7 +29665,7 @@
       <c r="C580" s="15"/>
       <c r="D580" s="15">
         <f t="shared" si="8"/>
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E580" s="16" t="s">
         <v>41</v>
@@ -29709,7 +29709,7 @@
       <c r="C581" s="15"/>
       <c r="D581" s="15">
         <f t="shared" si="8"/>
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E581" s="16" t="s">
         <v>41</v>
@@ -29753,7 +29753,7 @@
       <c r="C582" s="15"/>
       <c r="D582" s="15">
         <f t="shared" si="8"/>
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E582" s="16" t="s">
         <v>41</v>
@@ -29797,7 +29797,7 @@
       <c r="C583" s="15"/>
       <c r="D583" s="15">
         <f t="shared" ref="D583:D646" si="9">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E583" s="16" t="s">
         <v>41</v>
@@ -29841,7 +29841,7 @@
       <c r="C584" s="15"/>
       <c r="D584" s="15">
         <f t="shared" si="9"/>
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E584" s="16" t="s">
         <v>41</v>
@@ -29885,7 +29885,7 @@
       <c r="C585" s="15"/>
       <c r="D585" s="15">
         <f t="shared" si="9"/>
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E585" s="16" t="s">
         <v>41</v>
@@ -29929,7 +29929,7 @@
       <c r="C586" s="15"/>
       <c r="D586" s="15">
         <f t="shared" si="9"/>
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E586" s="16" t="s">
         <v>41</v>
@@ -29973,7 +29973,7 @@
       <c r="C587" s="15"/>
       <c r="D587" s="15">
         <f t="shared" si="9"/>
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E587" s="16" t="s">
         <v>41</v>
@@ -30017,7 +30017,7 @@
       <c r="C588" s="15"/>
       <c r="D588" s="15">
         <f t="shared" si="9"/>
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E588" s="16" t="s">
         <v>41</v>
@@ -30061,7 +30061,7 @@
       <c r="C589" s="15"/>
       <c r="D589" s="15">
         <f t="shared" si="9"/>
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E589" s="16" t="s">
         <v>41</v>
@@ -30105,7 +30105,7 @@
       <c r="C590" s="15"/>
       <c r="D590" s="15">
         <f t="shared" si="9"/>
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E590" s="16" t="s">
         <v>41</v>
@@ -30149,7 +30149,7 @@
       <c r="C591" s="15"/>
       <c r="D591" s="15">
         <f t="shared" si="9"/>
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E591" s="16" t="s">
         <v>41</v>
@@ -30193,7 +30193,7 @@
       <c r="C592" s="15"/>
       <c r="D592" s="15">
         <f t="shared" si="9"/>
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E592" s="16" t="s">
         <v>41</v>
@@ -30237,7 +30237,7 @@
       <c r="C593" s="15"/>
       <c r="D593" s="15">
         <f t="shared" si="9"/>
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E593" s="16" t="s">
         <v>41</v>
@@ -30281,7 +30281,7 @@
       <c r="C594" s="15"/>
       <c r="D594" s="15">
         <f t="shared" si="9"/>
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E594" s="16" t="s">
         <v>41</v>
@@ -30325,7 +30325,7 @@
       <c r="C595" s="15"/>
       <c r="D595" s="15">
         <f t="shared" si="9"/>
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E595" s="16" t="s">
         <v>41</v>
@@ -30369,7 +30369,7 @@
       <c r="C596" s="15"/>
       <c r="D596" s="15">
         <f t="shared" si="9"/>
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E596" s="16" t="s">
         <v>41</v>
@@ -30413,7 +30413,7 @@
       <c r="C597" s="15"/>
       <c r="D597" s="15">
         <f t="shared" si="9"/>
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E597" s="16" t="s">
         <v>41</v>
@@ -30457,7 +30457,7 @@
       <c r="C598" s="15"/>
       <c r="D598" s="15">
         <f t="shared" si="9"/>
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E598" s="16" t="s">
         <v>41</v>
@@ -30501,7 +30501,7 @@
       <c r="C599" s="15"/>
       <c r="D599" s="15">
         <f t="shared" si="9"/>
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E599" s="16" t="s">
         <v>41</v>
@@ -30545,7 +30545,7 @@
       <c r="C600" s="15"/>
       <c r="D600" s="15">
         <f t="shared" si="9"/>
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E600" s="16" t="s">
         <v>41</v>
@@ -30589,7 +30589,7 @@
       <c r="C601" s="15"/>
       <c r="D601" s="15">
         <f t="shared" si="9"/>
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E601" s="16" t="s">
         <v>41</v>
@@ -30633,7 +30633,7 @@
       <c r="C602" s="15"/>
       <c r="D602" s="15">
         <f t="shared" si="9"/>
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E602" s="16" t="s">
         <v>41</v>
@@ -30677,7 +30677,7 @@
       <c r="C603" s="15"/>
       <c r="D603" s="15">
         <f t="shared" si="9"/>
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E603" s="16" t="s">
         <v>41</v>
@@ -30721,7 +30721,7 @@
       <c r="C604" s="15"/>
       <c r="D604" s="15">
         <f t="shared" si="9"/>
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E604" s="16" t="s">
         <v>41</v>
@@ -30765,7 +30765,7 @@
       <c r="C605" s="15"/>
       <c r="D605" s="15">
         <f t="shared" si="9"/>
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E605" s="16" t="s">
         <v>41</v>
@@ -30809,7 +30809,7 @@
       <c r="C606" s="15"/>
       <c r="D606" s="15">
         <f t="shared" si="9"/>
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E606" s="16" t="s">
         <v>41</v>
@@ -30853,7 +30853,7 @@
       <c r="C607" s="15"/>
       <c r="D607" s="15">
         <f t="shared" si="9"/>
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E607" s="16" t="s">
         <v>41</v>
@@ -30897,7 +30897,7 @@
       <c r="C608" s="15"/>
       <c r="D608" s="15">
         <f t="shared" si="9"/>
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E608" s="16" t="s">
         <v>41</v>
@@ -30941,7 +30941,7 @@
       <c r="C609" s="15"/>
       <c r="D609" s="15">
         <f t="shared" si="9"/>
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E609" s="16" t="s">
         <v>41</v>
@@ -30985,7 +30985,7 @@
       <c r="C610" s="15"/>
       <c r="D610" s="15">
         <f t="shared" si="9"/>
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E610" s="16" t="s">
         <v>41</v>
@@ -31029,7 +31029,7 @@
       <c r="C611" s="15"/>
       <c r="D611" s="15">
         <f t="shared" si="9"/>
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E611" s="16" t="s">
         <v>41</v>
@@ -31073,7 +31073,7 @@
       <c r="C612" s="15"/>
       <c r="D612" s="15">
         <f t="shared" si="9"/>
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E612" s="16" t="s">
         <v>41</v>
@@ -31117,7 +31117,7 @@
       <c r="C613" s="15"/>
       <c r="D613" s="15">
         <f t="shared" si="9"/>
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E613" s="16" t="s">
         <v>41</v>
@@ -31161,7 +31161,7 @@
       <c r="C614" s="15"/>
       <c r="D614" s="15">
         <f t="shared" si="9"/>
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E614" s="16" t="s">
         <v>41</v>
@@ -31205,7 +31205,7 @@
       <c r="C615" s="15"/>
       <c r="D615" s="15">
         <f t="shared" si="9"/>
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E615" s="16" t="s">
         <v>41</v>
@@ -31249,7 +31249,7 @@
       <c r="C616" s="15"/>
       <c r="D616" s="15">
         <f t="shared" si="9"/>
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E616" s="16" t="s">
         <v>41</v>
@@ -31293,7 +31293,7 @@
       <c r="C617" s="15"/>
       <c r="D617" s="15">
         <f t="shared" si="9"/>
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E617" s="16" t="s">
         <v>41</v>
@@ -31337,7 +31337,7 @@
       <c r="C618" s="15"/>
       <c r="D618" s="15">
         <f t="shared" si="9"/>
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E618" s="16" t="s">
         <v>41</v>
@@ -31381,7 +31381,7 @@
       <c r="C619" s="15"/>
       <c r="D619" s="15">
         <f t="shared" si="9"/>
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E619" s="16" t="s">
         <v>41</v>
@@ -31425,7 +31425,7 @@
       <c r="C620" s="15"/>
       <c r="D620" s="15">
         <f t="shared" si="9"/>
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E620" s="16" t="s">
         <v>41</v>
@@ -31469,7 +31469,7 @@
       <c r="C621" s="15"/>
       <c r="D621" s="15">
         <f t="shared" si="9"/>
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E621" s="16" t="s">
         <v>41</v>
@@ -31513,7 +31513,7 @@
       <c r="C622" s="15"/>
       <c r="D622" s="15">
         <f t="shared" si="9"/>
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E622" s="16" t="s">
         <v>41</v>
@@ -31557,7 +31557,7 @@
       <c r="C623" s="15"/>
       <c r="D623" s="15">
         <f t="shared" si="9"/>
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E623" s="16" t="s">
         <v>41</v>
@@ -31601,7 +31601,7 @@
       <c r="C624" s="15"/>
       <c r="D624" s="15">
         <f t="shared" si="9"/>
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E624" s="16" t="s">
         <v>41</v>
@@ -31645,7 +31645,7 @@
       <c r="C625" s="15"/>
       <c r="D625" s="15">
         <f t="shared" si="9"/>
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E625" s="16" t="s">
         <v>41</v>
@@ -31689,7 +31689,7 @@
       <c r="C626" s="15"/>
       <c r="D626" s="15">
         <f t="shared" si="9"/>
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E626" s="16" t="s">
         <v>41</v>
@@ -31733,7 +31733,7 @@
       <c r="C627" s="15"/>
       <c r="D627" s="15">
         <f t="shared" si="9"/>
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E627" s="16" t="s">
         <v>41</v>
@@ -31777,7 +31777,7 @@
       <c r="C628" s="15"/>
       <c r="D628" s="15">
         <f t="shared" si="9"/>
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E628" s="16" t="s">
         <v>41</v>
@@ -31821,7 +31821,7 @@
       <c r="C629" s="15"/>
       <c r="D629" s="15">
         <f t="shared" si="9"/>
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E629" s="16" t="s">
         <v>41</v>
@@ -31865,7 +31865,7 @@
       <c r="C630" s="15"/>
       <c r="D630" s="15">
         <f t="shared" si="9"/>
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E630" s="16" t="s">
         <v>41</v>
@@ -31909,7 +31909,7 @@
       <c r="C631" s="15"/>
       <c r="D631" s="15">
         <f t="shared" si="9"/>
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E631" s="16" t="s">
         <v>41</v>
@@ -31953,7 +31953,7 @@
       <c r="C632" s="15"/>
       <c r="D632" s="15">
         <f t="shared" si="9"/>
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E632" s="16" t="s">
         <v>41</v>
@@ -31997,7 +31997,7 @@
       <c r="C633" s="15"/>
       <c r="D633" s="15">
         <f t="shared" si="9"/>
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E633" s="16" t="s">
         <v>41</v>
@@ -32041,7 +32041,7 @@
       <c r="C634" s="15"/>
       <c r="D634" s="15">
         <f t="shared" si="9"/>
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E634" s="16" t="s">
         <v>41</v>
@@ -32085,7 +32085,7 @@
       <c r="C635" s="15"/>
       <c r="D635" s="15">
         <f t="shared" si="9"/>
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E635" s="16" t="s">
         <v>41</v>
@@ -32129,7 +32129,7 @@
       <c r="C636" s="15"/>
       <c r="D636" s="15">
         <f t="shared" si="9"/>
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E636" s="16" t="s">
         <v>41</v>
@@ -32173,7 +32173,7 @@
       <c r="C637" s="15"/>
       <c r="D637" s="15">
         <f t="shared" si="9"/>
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E637" s="16" t="s">
         <v>41</v>
@@ -32217,7 +32217,7 @@
       <c r="C638" s="15"/>
       <c r="D638" s="15">
         <f t="shared" si="9"/>
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E638" s="16" t="s">
         <v>41</v>
@@ -32261,7 +32261,7 @@
       <c r="C639" s="15"/>
       <c r="D639" s="15">
         <f t="shared" si="9"/>
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E639" s="16" t="s">
         <v>41</v>
@@ -32305,7 +32305,7 @@
       <c r="C640" s="15"/>
       <c r="D640" s="15">
         <f t="shared" si="9"/>
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E640" s="16" t="s">
         <v>41</v>
@@ -32349,7 +32349,7 @@
       <c r="C641" s="15"/>
       <c r="D641" s="15">
         <f t="shared" si="9"/>
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E641" s="16" t="s">
         <v>41</v>
@@ -32393,7 +32393,7 @@
       <c r="C642" s="15"/>
       <c r="D642" s="15">
         <f t="shared" si="9"/>
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E642" s="16" t="s">
         <v>41</v>
@@ -32437,7 +32437,7 @@
       <c r="C643" s="15"/>
       <c r="D643" s="15">
         <f t="shared" si="9"/>
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E643" s="16" t="s">
         <v>41</v>
@@ -32481,7 +32481,7 @@
       <c r="C644" s="15"/>
       <c r="D644" s="15">
         <f t="shared" si="9"/>
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E644" s="16" t="s">
         <v>41</v>
@@ -32525,7 +32525,7 @@
       <c r="C645" s="15"/>
       <c r="D645" s="15">
         <f t="shared" si="9"/>
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E645" s="16" t="s">
         <v>41</v>
@@ -32569,7 +32569,7 @@
       <c r="C646" s="15"/>
       <c r="D646" s="15">
         <f t="shared" si="9"/>
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E646" s="16" t="s">
         <v>41</v>
@@ -32613,7 +32613,7 @@
       <c r="C647" s="15"/>
       <c r="D647" s="15">
         <f t="shared" ref="D647:D705" si="10">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E647" s="16" t="s">
         <v>41</v>
@@ -32657,7 +32657,7 @@
       <c r="C648" s="15"/>
       <c r="D648" s="15">
         <f t="shared" si="10"/>
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E648" s="16" t="s">
         <v>41</v>
@@ -32701,7 +32701,7 @@
       <c r="C649" s="15"/>
       <c r="D649" s="15">
         <f t="shared" si="10"/>
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E649" s="16" t="s">
         <v>41</v>
@@ -32745,7 +32745,7 @@
       <c r="C650" s="15"/>
       <c r="D650" s="15">
         <f t="shared" si="10"/>
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E650" s="16" t="s">
         <v>41</v>
@@ -32789,7 +32789,7 @@
       <c r="C651" s="15"/>
       <c r="D651" s="15">
         <f t="shared" si="10"/>
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E651" s="16" t="s">
         <v>41</v>
@@ -32833,7 +32833,7 @@
       <c r="C652" s="15"/>
       <c r="D652" s="15">
         <f t="shared" si="10"/>
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E652" s="16" t="s">
         <v>41</v>
@@ -32877,7 +32877,7 @@
       <c r="C653" s="15"/>
       <c r="D653" s="15">
         <f t="shared" si="10"/>
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E653" s="16" t="s">
         <v>41</v>
@@ -32921,7 +32921,7 @@
       <c r="C654" s="15"/>
       <c r="D654" s="15">
         <f t="shared" si="10"/>
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E654" s="16" t="s">
         <v>41</v>
@@ -32965,7 +32965,7 @@
       <c r="C655" s="15"/>
       <c r="D655" s="15">
         <f t="shared" si="10"/>
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E655" s="16" t="s">
         <v>41</v>
@@ -33009,7 +33009,7 @@
       <c r="C656" s="15"/>
       <c r="D656" s="15">
         <f t="shared" si="10"/>
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E656" s="16" t="s">
         <v>41</v>
@@ -33053,7 +33053,7 @@
       <c r="C657" s="15"/>
       <c r="D657" s="15">
         <f t="shared" si="10"/>
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E657" s="16" t="s">
         <v>41</v>
@@ -33097,7 +33097,7 @@
       <c r="C658" s="15"/>
       <c r="D658" s="15">
         <f t="shared" si="10"/>
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E658" s="16" t="s">
         <v>41</v>
@@ -33141,7 +33141,7 @@
       <c r="C659" s="15"/>
       <c r="D659" s="15">
         <f t="shared" si="10"/>
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E659" s="16" t="s">
         <v>41</v>
@@ -33185,7 +33185,7 @@
       <c r="C660" s="15"/>
       <c r="D660" s="15">
         <f t="shared" si="10"/>
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E660" s="16" t="s">
         <v>41</v>
@@ -33229,7 +33229,7 @@
       <c r="C661" s="15"/>
       <c r="D661" s="15">
         <f t="shared" si="10"/>
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E661" s="16" t="s">
         <v>41</v>
@@ -33273,7 +33273,7 @@
       <c r="C662" s="15"/>
       <c r="D662" s="15">
         <f t="shared" si="10"/>
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E662" s="16" t="s">
         <v>41</v>
@@ -33317,7 +33317,7 @@
       <c r="C663" s="15"/>
       <c r="D663" s="15">
         <f t="shared" si="10"/>
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E663" s="16" t="s">
         <v>41</v>
@@ -33361,7 +33361,7 @@
       <c r="C664" s="15"/>
       <c r="D664" s="15">
         <f t="shared" si="10"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E664" s="16" t="s">
         <v>41</v>
@@ -33405,7 +33405,7 @@
       <c r="C665" s="15"/>
       <c r="D665" s="15">
         <f t="shared" si="10"/>
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E665" s="16" t="s">
         <v>41</v>
@@ -33449,7 +33449,7 @@
       <c r="C666" s="15"/>
       <c r="D666" s="15">
         <f t="shared" si="10"/>
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E666" s="16" t="s">
         <v>41</v>
@@ -33493,7 +33493,7 @@
       <c r="C667" s="15"/>
       <c r="D667" s="15">
         <f t="shared" si="10"/>
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E667" s="16" t="s">
         <v>41</v>
@@ -33537,7 +33537,7 @@
       <c r="C668" s="15"/>
       <c r="D668" s="15">
         <f t="shared" si="10"/>
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E668" s="16" t="s">
         <v>41</v>
@@ -33581,7 +33581,7 @@
       <c r="C669" s="15"/>
       <c r="D669" s="15">
         <f t="shared" si="10"/>
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E669" s="16" t="s">
         <v>41</v>
@@ -33625,7 +33625,7 @@
       <c r="C670" s="15"/>
       <c r="D670" s="15">
         <f t="shared" si="10"/>
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E670" s="16" t="s">
         <v>41</v>
@@ -33669,7 +33669,7 @@
       <c r="C671" s="15"/>
       <c r="D671" s="15">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E671" s="16" t="s">
         <v>41</v>
@@ -33713,7 +33713,7 @@
       <c r="C672" s="15"/>
       <c r="D672" s="15">
         <f t="shared" si="10"/>
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E672" s="16" t="s">
         <v>41</v>
@@ -33757,7 +33757,7 @@
       <c r="C673" s="15"/>
       <c r="D673" s="15">
         <f t="shared" si="10"/>
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E673" s="16" t="s">
         <v>41</v>
@@ -33801,7 +33801,7 @@
       <c r="C674" s="15"/>
       <c r="D674" s="15">
         <f t="shared" si="10"/>
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E674" s="16" t="s">
         <v>41</v>
@@ -33845,7 +33845,7 @@
       <c r="C675" s="15"/>
       <c r="D675" s="15">
         <f t="shared" si="10"/>
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E675" s="16" t="s">
         <v>41</v>
@@ -33889,7 +33889,7 @@
       <c r="C676" s="15"/>
       <c r="D676" s="15">
         <f t="shared" si="10"/>
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E676" s="16" t="s">
         <v>41</v>
@@ -33933,7 +33933,7 @@
       <c r="C677" s="15"/>
       <c r="D677" s="15">
         <f t="shared" si="10"/>
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E677" s="16" t="s">
         <v>41</v>
@@ -33977,7 +33977,7 @@
       <c r="C678" s="15"/>
       <c r="D678" s="15">
         <f t="shared" si="10"/>
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E678" s="16" t="s">
         <v>41</v>
@@ -34021,7 +34021,7 @@
       <c r="C679" s="15"/>
       <c r="D679" s="15">
         <f t="shared" si="10"/>
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E679" s="16" t="s">
         <v>41</v>
@@ -34065,7 +34065,7 @@
       <c r="C680" s="15"/>
       <c r="D680" s="15">
         <f t="shared" si="10"/>
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E680" s="16" t="s">
         <v>41</v>
@@ -34109,7 +34109,7 @@
       <c r="C681" s="15"/>
       <c r="D681" s="15">
         <f t="shared" si="10"/>
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E681" s="16" t="s">
         <v>41</v>
@@ -34153,7 +34153,7 @@
       <c r="C682" s="15"/>
       <c r="D682" s="15">
         <f t="shared" si="10"/>
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E682" s="16" t="s">
         <v>41</v>
@@ -34197,7 +34197,7 @@
       <c r="C683" s="15"/>
       <c r="D683" s="15">
         <f t="shared" si="10"/>
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E683" s="16" t="s">
         <v>41</v>
@@ -34241,7 +34241,7 @@
       <c r="C684" s="15"/>
       <c r="D684" s="15">
         <f t="shared" si="10"/>
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E684" s="16" t="s">
         <v>41</v>
@@ -34285,7 +34285,7 @@
       <c r="C685" s="15"/>
       <c r="D685" s="15">
         <f t="shared" si="10"/>
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E685" s="16" t="s">
         <v>41</v>
@@ -34329,7 +34329,7 @@
       <c r="C686" s="15"/>
       <c r="D686" s="15">
         <f t="shared" si="10"/>
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E686" s="16" t="s">
         <v>41</v>
@@ -34373,7 +34373,7 @@
       <c r="C687" s="15"/>
       <c r="D687" s="15">
         <f t="shared" si="10"/>
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E687" s="16" t="s">
         <v>41</v>
@@ -34417,7 +34417,7 @@
       <c r="C688" s="15"/>
       <c r="D688" s="15">
         <f t="shared" si="10"/>
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E688" s="16" t="s">
         <v>41</v>
@@ -34461,7 +34461,7 @@
       <c r="C689" s="15"/>
       <c r="D689" s="15">
         <f t="shared" si="10"/>
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E689" s="16" t="s">
         <v>41</v>
@@ -34505,7 +34505,7 @@
       <c r="C690" s="15"/>
       <c r="D690" s="15">
         <f t="shared" si="10"/>
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E690" s="16" t="s">
         <v>41</v>
@@ -34549,7 +34549,7 @@
       <c r="C691" s="15"/>
       <c r="D691" s="15">
         <f t="shared" si="10"/>
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E691" s="16" t="s">
         <v>41</v>
@@ -34593,7 +34593,7 @@
       <c r="C692" s="15"/>
       <c r="D692" s="15">
         <f t="shared" si="10"/>
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E692" s="16" t="s">
         <v>41</v>
@@ -34637,7 +34637,7 @@
       <c r="C693" s="15"/>
       <c r="D693" s="15">
         <f t="shared" si="10"/>
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E693" s="16" t="s">
         <v>41</v>
@@ -34681,7 +34681,7 @@
       <c r="C694" s="15"/>
       <c r="D694" s="15">
         <f t="shared" si="10"/>
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E694" s="16" t="s">
         <v>41</v>
@@ -34725,7 +34725,7 @@
       <c r="C695" s="15"/>
       <c r="D695" s="15">
         <f t="shared" si="10"/>
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E695" s="16" t="s">
         <v>41</v>
@@ -34769,7 +34769,7 @@
       <c r="C696" s="15"/>
       <c r="D696" s="15">
         <f t="shared" si="10"/>
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E696" s="16" t="s">
         <v>41</v>
@@ -34813,7 +34813,7 @@
       <c r="C697" s="15"/>
       <c r="D697" s="15">
         <f t="shared" si="10"/>
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E697" s="16" t="s">
         <v>41</v>
@@ -34857,7 +34857,7 @@
       <c r="C698" s="15"/>
       <c r="D698" s="15">
         <f t="shared" si="10"/>
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E698" s="16" t="s">
         <v>41</v>
@@ -34901,7 +34901,7 @@
       <c r="C699" s="15"/>
       <c r="D699" s="15">
         <f t="shared" si="10"/>
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E699" s="16" t="s">
         <v>41</v>
@@ -34945,7 +34945,7 @@
       <c r="C700" s="15"/>
       <c r="D700" s="15">
         <f t="shared" si="10"/>
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E700" s="16" t="s">
         <v>41</v>
@@ -34989,7 +34989,7 @@
       <c r="C701" s="15"/>
       <c r="D701" s="15">
         <f t="shared" si="10"/>
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E701" s="16" t="s">
         <v>41</v>
@@ -35033,7 +35033,7 @@
       <c r="C702" s="15"/>
       <c r="D702" s="15">
         <f t="shared" si="10"/>
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E702" s="16" t="s">
         <v>41</v>
@@ -35077,7 +35077,7 @@
       <c r="C703" s="15"/>
       <c r="D703" s="15">
         <f t="shared" si="10"/>
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E703" s="16" t="s">
         <v>41</v>
@@ -35121,7 +35121,7 @@
       <c r="C704" s="15"/>
       <c r="D704" s="15">
         <f t="shared" si="10"/>
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E704" s="16" t="s">
         <v>41</v>
@@ -35165,7 +35165,7 @@
       <c r="C705" s="15"/>
       <c r="D705" s="15">
         <f t="shared" si="10"/>
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E705" s="16" t="s">
         <v>41</v>
@@ -35203,21 +35203,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="17:17">
+    <row r="706" spans="17:17">
       <c r="Q706" s="7"/>
     </row>
-    <row r="707" hidden="1" spans="17:17">
+    <row r="707" spans="17:17">
       <c r="Q707" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:Q707">
-    <filterColumn colId="12">
-      <customFilters>
-        <customFilter operator="equal" val="保留"/>
-      </customFilters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <mergeCells count="19">
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="A3:A4"/>
@@ -35318,23 +35310,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N69 N155 N156 N157 N158 N159 N160 N161 N162 N163 N164 N197 N198 N199 N200 N201 N202 N203 N204 N205 N206 N207 N208 N209 N210 N503 N507 N5:N21 N22:N41 N42:N43 N44:N60 N61:N62 N63:N68 N70:N81 N82:N89 N90:N110 N111:N154 N165:N196 N211:N333 N334:N502 N504:N506 N508:N696 N697:N705">
-      <formula1>"Admin,User,Anyone"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E9 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E197 E198 E199 E200 E201 E202 E203 E204 E205 E206 E207 E208 E209 E210 E503 E507 E6:E8 E10:E17 E18:E27 E28:E30 E31:E35 E36:E66 E67:E91 E92:E98 E99:E104 E105:E154 E165:E196 E211:E333 E334:E481 E482:E497 E498:E502 E504:E506 E508:E521 E522:E526 E527:E531 E532:E546 E547:E696 E697:E705">
       <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M69 M110 M150 M158 M159 M162 M197 M198 M199 M202 M205 M206 M207 M208 M209 M210 M222 M223 M224 M225 M226 M227 M228 M229 M230 M231 M232 M233 M234 M235 M236 M503 M507 M15:M43 M44:M60 M61:M62 M63:M68 M70:M81 M82:M89 M90:M98 M99:M105 M106:M109 M111:M116 M117:M119 M120:M140 M141:M143 M144:M149 M151:M152 M153:M154 M155:M157 M160:M161 M163:M165 M166:M169 M170:M185 M186:M196 M200:M201 M203:M204 M211:M213 M214:M221 M237:M269 M270:M294 M295:M310 M311:M333 M334:M465 M466:M483 M484:M495 M496:M497 M498:M502 M504:M506 M508:M696 M697:M705">
       <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L705">
+      <formula1>"无效,仅上限,仅下限,上下限"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J196 J197 J198 J199 J200 J201 J202 J203 J204 J205 J206 J207 J208 J209 J210 J211 J212 J503 J504 J505 J506 J507 J521 J522 J523 J524 J5:J68 J70:J81 J82:J89 J90:J102 J103:J104 J105:J154 J165:J169 J170:J185 J186:J187 J188:J195 J213:J333 J334:J502 J508:J513 J514:J520 J525:J696 J697:J705">
       <formula1>Unit!$A$2:$A$61</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N69 N155 N156 N157 N158 N159 N160 N161 N162 N163 N164 N197 N198 N199 N200 N201 N202 N203 N204 N205 N206 N207 N208 N209 N210 N503 N507 N5:N21 N22:N41 N42:N43 N44:N60 N61:N62 N63:N68 N70:N81 N82:N89 N90:N110 N111:N154 N165:N196 N211:N333 N334:N502 N504:N506 N508:N696 N697:N705">
+      <formula1>"Admin,User,Anyone"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K155 K156 K157 K158 K159 K162 K197 K198 K199 K202 K205 K206 K207 K208 K209 K210 K222 K223 K224 K225 K226 K227 K228 K229 K230 K231 K232 K233 K234 K235 K236 K503 K507 K5:K43 K44:K60 K61:K69 K70:K81 K82:K89 K90:K101 K102:K104 K105:K119 K120:K140 K141:K150 K151:K152 K153:K154 K160:K161 K163:K165 K166:K169 K170:K185 K186:K196 K200:K201 K203:K204 K211:K213 K214:K221 K237:K269 K270:K294 K295:K310 K311:K333 K334:K502 K504:K506 K508:K696 K697:K705">
       <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L705">
-      <formula1>"无效,仅上限,仅下限,上下限"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>

--- a/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
+++ b/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$D$1:$Q$253</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Axis!$D$1:$Q$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Axis!$D$1:$Q$269</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="774">
   <si>
     <r>
       <rPr>
@@ -1450,19 +1450,22 @@
     <t>u16PosLoopKp</t>
   </si>
   <si>
-    <t>‰</t>
-  </si>
-  <si>
     <t>位置环增益系数</t>
   </si>
   <si>
     <t>u16PosLoopKi</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>位置环积分系数</t>
   </si>
   <si>
     <t>u16PosLoopKd</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>位置环微分系数</t>
@@ -1592,9 +1595,66 @@
     <t>控制模式</t>
   </si>
   <si>
-    <t>0-位置模式
-1-速度模式
-2-转矩模式</t>
+    <r>
+      <t>0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位置模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速度模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转矩模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3-DS402(ECAT/COP)</t>
+    </r>
   </si>
   <si>
     <t>u16CtrlCmdSrc</t>
@@ -1863,6 +1923,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>0-</t>
     </r>
     <r>
@@ -1972,6 +2038,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>0-</t>
     </r>
     <r>
@@ -2458,13 +2530,19 @@
     <t>开环电角度自增量</t>
   </si>
   <si>
-    <t>s16OpenUdRef</t>
+    <t>s16OpenUqRef</t>
   </si>
   <si>
     <t>16000</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>开环</t>
     </r>
     <r>
@@ -2487,7 +2565,7 @@
     </r>
   </si>
   <si>
-    <t>s16OpenUqRef</t>
+    <t>s16OpenUdRef</t>
   </si>
   <si>
     <t>开环Q轴指令</t>
@@ -2617,6 +2695,9 @@
   </si>
   <si>
     <t>s16UserTrqRef</t>
+  </si>
+  <si>
+    <t>‰</t>
   </si>
   <si>
     <t>用户转矩指令</t>
@@ -2864,10 +2945,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2938,7 +3019,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2952,8 +3115,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2968,113 +3155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3095,7 +3176,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3107,7 +3200,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3119,7 +3302,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3131,85 +3332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,61 +3356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3409,17 +3490,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3439,6 +3535,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3448,28 +3559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3485,24 +3579,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3514,10 +3595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3526,133 +3607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16948,23 +17029,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L31 L38 L83 L84 L85 L86 L87 L88 L89 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L176 L177 L209 L210 L211 L212 L233 L234 L235 L236 L237 L247 L248 L253 L5:L27 L28:L30 L32:L37 L39:L45 L46:L82 L90:L91 L174:L175 L178:L208 L213:L227 L228:L230 L231:L232 L238:L246 L249:L252">
-      <formula1>"无效,仅上限,仅下限,上下限"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E9 E28 E31 E38 E45 E83 E84 E85 E86 E87 E88 E89 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E151 E155 E168 E169 E170 E171 E172 E173 E176 E177 E209 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E237 E247 E248 E253 E6:E8 E10:E17 E18:E27 E29:E30 E32:E35 E36:E37 E39:E44 E46:E82 E90:E91 E148:E150 E152:E154 E156:E162 E163:E165 E166:E167 E174:E175 E178:E192 E193:E208 E238:E246 E249:E252">
       <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M31 M38 M50 M83 M84 M85 M86 M87 M88 M89 M92 M93 M94 M95 M96 M97 M98 M99 M100 M101 M102 M103 M104 M105 M106 M107 M108 M109 M110 M111 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M152 M153 M154 M155 M156 M157 M158 M159 M160 M161 M162 M163 M164 M165 M166 M167 M168 M169 M170 M171 M172 M173 M176 M177 M209 M210 M211 M212 M216 M220 M233 M234 M235 M236 M237 M247 M248 M253 M15:M27 M28:M30 M32:M37 M39:M45 M46:M49 M51:M56 M57:M59 M60:M80 M81:M82 M90:M91 M174:M175 M178:M194 M195:M206 M207:M208 M213:M215 M217:M219 M221:M227 M228:M230 M231:M232 M238:M246 M249:M252">
+      <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N31 N38 N83 N84 N85 N86 N87 N88 N89 N92 N93 N94 N95 N96 N97 N98 N99 N100 N101 N102 N103 N104 N105 N106 N107 N108 N109 N110 N111 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N126 N127 N128 N129 N130 N131 N132 N133 N134 N135 N136 N137 N138 N139 N140 N141 N142 N143 N144 N145 N146 N147 N148 N149 N150 N151 N152 N153 N154 N155 N156 N157 N158 N159 N160 N161 N162 N163 N164 N165 N166 N167 N168 N169 N170 N171 N172 N173 N176 N177 N209 N210 N211 N212 N216 N220 N233 N234 N235 N236 N237 N247 N248 N253 N5:N21 N22:N27 N28:N30 N32:N37 N39:N45 N46:N50 N51:N82 N90:N91 N174:N175 N178:N208 N213:N215 N217:N219 N221:N227 N228:N230 N231:N232 N238:N246 N249:N252">
       <formula1>"Admin,User,Anyone"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M31 M38 M50 M83 M84 M85 M86 M87 M88 M89 M92 M93 M94 M95 M96 M97 M98 M99 M100 M101 M102 M103 M104 M105 M106 M107 M108 M109 M110 M111 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M152 M153 M154 M155 M156 M157 M158 M159 M160 M161 M162 M163 M164 M165 M166 M167 M168 M169 M170 M171 M172 M173 M176 M177 M209 M210 M211 M212 M216 M220 M233 M234 M235 M236 M237 M247 M248 M253 M15:M27 M28:M30 M32:M37 M39:M45 M46:M49 M51:M56 M57:M59 M60:M80 M81:M82 M90:M91 M174:M175 M178:M194 M195:M206 M207:M208 M213:M215 M217:M219 M221:M227 M228:M230 M231:M232 M238:M246 M249:M252">
-      <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J31 J38 J45 J83 J84 J85 J86 J87 J88 J89 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J176 J177 J209 J210 J211 J212 J216 J217 J218 J219 J220 J227 J230 J233 J234 J235 J236 J237 J238 J247 J248 J253 J5:J27 J28:J30 J32:J37 J39:J42 J43:J44 J46:J82 J90:J91 J174:J175 J178:J208 J213:J215 J221:J226 J228:J229 J231:J232 J239:J246 J249:J252">
       <formula1>Unit!$A$2:$A$62</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31 K38 K45 K83 K84 K85 K86 K87 K88 K89 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K152 K153 K154 K155 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K170 K171 K172 K173 K176 K177 K209 K210 K211 K212 K216 K220 K233 K234 K235 K236 K237 K247 K248 K253 K5:K27 K28:K30 K32:K37 K39:K41 K42:K44 K46:K59 K60:K80 K81:K82 K90:K91 K174:K175 K178:K208 K213:K215 K217:K219 K221:K227 K228:K230 K231:K232 K238:K246 K249:K252">
       <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L31 L38 L83 L84 L85 L86 L87 L88 L89 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L176 L177 L209 L210 L211 L212 L233 L234 L235 L236 L237 L247 L248 L253 L5:L27 L28:L30 L32:L37 L39:L45 L46:L82 L90:L91 L174:L175 L178:L208 L213:L227 L228:L230 L231:L232 L238:L246 L249:L252">
+      <formula1>"无效,仅上限,仅下限,上下限"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16977,10 +17058,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S272"/>
+  <dimension ref="A1:S269"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:P59"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18924,7 +19005,7 @@
         <v>377</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>75</v>
@@ -18933,7 +19014,7 @@
         <v>76</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>77</v>
@@ -18949,7 +19030,7 @@
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q45" s="27"/>
       <c r="R45" s="28"/>
@@ -18966,10 +19047,10 @@
         <v>40</v>
       </c>
       <c r="F46" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" s="16" t="s">
         <v>380</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>75</v>
@@ -18978,7 +19059,7 @@
         <v>76</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>77</v>
@@ -19014,7 +19095,7 @@
         <v>382</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>75</v>
@@ -19023,7 +19104,7 @@
         <v>76</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>77</v>
@@ -19039,7 +19120,7 @@
       </c>
       <c r="O47" s="12"/>
       <c r="P47" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q47" s="27"/>
       <c r="R47" s="28"/>
@@ -19056,10 +19137,10 @@
         <v>40</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>75</v>
@@ -19068,7 +19149,7 @@
         <v>76</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>77</v>
@@ -19084,7 +19165,7 @@
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q48" s="27"/>
       <c r="R48" s="28"/>
@@ -19101,10 +19182,10 @@
         <v>40</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>75</v>
@@ -19113,7 +19194,7 @@
         <v>76</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>77</v>
@@ -19129,7 +19210,7 @@
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q49" s="27"/>
       <c r="R49" s="28"/>
@@ -19146,10 +19227,10 @@
         <v>40</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>75</v>
@@ -19158,7 +19239,7 @@
         <v>76</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>77</v>
@@ -19174,7 +19255,7 @@
       </c>
       <c r="O50" s="12"/>
       <c r="P50" s="27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q50" s="27"/>
       <c r="R50" s="28"/>
@@ -19191,10 +19272,10 @@
         <v>40</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>75</v>
@@ -19203,7 +19284,7 @@
         <v>76</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>77</v>
@@ -19219,7 +19300,7 @@
       </c>
       <c r="O51" s="12"/>
       <c r="P51" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q51" s="27"/>
       <c r="R51" s="28"/>
@@ -19236,10 +19317,10 @@
         <v>40</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>75</v>
@@ -19248,7 +19329,7 @@
         <v>76</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>77</v>
@@ -19264,7 +19345,7 @@
       </c>
       <c r="O52" s="12"/>
       <c r="P52" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q52" s="27"/>
       <c r="R52" s="28"/>
@@ -19281,10 +19362,10 @@
         <v>40</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>75</v>
@@ -19293,7 +19374,7 @@
         <v>76</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>77</v>
@@ -19309,7 +19390,7 @@
       </c>
       <c r="O53" s="18"/>
       <c r="P53" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q53" s="27"/>
       <c r="R53" s="28"/>
@@ -19326,10 +19407,10 @@
         <v>40</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>75</v>
@@ -19338,7 +19419,7 @@
         <v>76</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>77</v>
@@ -19354,7 +19435,7 @@
       </c>
       <c r="O54" s="18"/>
       <c r="P54" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q54" s="26"/>
       <c r="R54" s="28"/>
@@ -19371,10 +19452,10 @@
         <v>40</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>75</v>
@@ -19383,7 +19464,7 @@
         <v>76</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>77</v>
@@ -19399,7 +19480,7 @@
       </c>
       <c r="O55" s="18"/>
       <c r="P55" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q55" s="26"/>
       <c r="R55" s="28"/>
@@ -19416,10 +19497,10 @@
         <v>40</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>75</v>
@@ -19428,7 +19509,7 @@
         <v>76</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>77</v>
@@ -19444,7 +19525,7 @@
       </c>
       <c r="O56" s="18"/>
       <c r="P56" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q56" s="26"/>
       <c r="R56" s="28"/>
@@ -19748,16 +19829,16 @@
         <v>40</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>25</v>
@@ -19776,10 +19857,10 @@
       </c>
       <c r="O64" s="27"/>
       <c r="P64" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q64" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R64" s="28"/>
     </row>
@@ -19795,7 +19876,7 @@
         <v>40</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>24</v>
@@ -19823,14 +19904,14 @@
       </c>
       <c r="O65" s="27"/>
       <c r="P65" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q65" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R65" s="28"/>
     </row>
-    <row r="66" ht="39" spans="1:18">
+    <row r="66" ht="52" spans="1:18">
       <c r="A66" s="12"/>
       <c r="B66" s="23"/>
       <c r="C66" s="17"/>
@@ -19842,16 +19923,16 @@
         <v>40</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J66" s="12" t="s">
         <v>25</v>
@@ -19870,10 +19951,10 @@
       </c>
       <c r="O66" s="27"/>
       <c r="P66" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q66" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R66" s="28"/>
     </row>
@@ -19889,7 +19970,7 @@
         <v>40</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>24</v>
@@ -19917,7 +19998,7 @@
       </c>
       <c r="O67" s="27"/>
       <c r="P67" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q67" s="27"/>
       <c r="R67" s="28"/>
@@ -19934,7 +20015,7 @@
         <v>40</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>24</v>
@@ -19958,11 +20039,11 @@
         <v>101</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O68" s="27"/>
       <c r="P68" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q68" s="27"/>
       <c r="R68" s="28"/>
@@ -19979,13 +20060,13 @@
         <v>22</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>319</v>
@@ -20007,10 +20088,10 @@
       </c>
       <c r="O69" s="27"/>
       <c r="P69" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q69" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R69" s="28"/>
     </row>
@@ -20067,7 +20148,7 @@
         <v>40</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>24</v>
@@ -20095,7 +20176,7 @@
       </c>
       <c r="O71" s="12"/>
       <c r="P71" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q71" s="27"/>
       <c r="R71" s="28"/>
@@ -20112,7 +20193,7 @@
         <v>40</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>24</v>
@@ -20140,7 +20221,7 @@
       </c>
       <c r="O72" s="12"/>
       <c r="P72" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q72" s="27"/>
       <c r="R72" s="28"/>
@@ -20239,7 +20320,7 @@
         <v>40</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>24</v>
@@ -20267,10 +20348,10 @@
       </c>
       <c r="O75" s="12"/>
       <c r="P75" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q75" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R75" s="28"/>
     </row>
@@ -20286,7 +20367,7 @@
         <v>284</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>24</v>
@@ -20301,7 +20382,7 @@
         <v>288</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L76" s="14" t="s">
         <v>27</v>
@@ -20314,7 +20395,7 @@
       </c>
       <c r="O76" s="12"/>
       <c r="P76" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q76" s="27"/>
       <c r="R76" s="28"/>
@@ -20331,7 +20412,7 @@
         <v>284</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>24</v>
@@ -20346,7 +20427,7 @@
         <v>288</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L77" s="14" t="s">
         <v>27</v>
@@ -20359,7 +20440,7 @@
       </c>
       <c r="O77" s="12"/>
       <c r="P77" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q77" s="27"/>
       <c r="R77" s="28"/>
@@ -20376,7 +20457,7 @@
         <v>40</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>24</v>
@@ -20404,7 +20485,7 @@
       </c>
       <c r="O78" s="12"/>
       <c r="P78" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q78" s="27"/>
       <c r="R78" s="28"/>
@@ -20462,7 +20543,7 @@
         <v>22</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>24</v>
@@ -20477,7 +20558,7 @@
         <v>25</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L80" s="14" t="s">
         <v>27</v>
@@ -20490,7 +20571,7 @@
       </c>
       <c r="O80" s="12"/>
       <c r="P80" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q80" s="27"/>
       <c r="R80" s="28"/>
@@ -20507,7 +20588,7 @@
         <v>22</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>24</v>
@@ -20522,7 +20603,7 @@
         <v>25</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L81" s="14" t="s">
         <v>27</v>
@@ -20535,7 +20616,7 @@
       </c>
       <c r="O81" s="12"/>
       <c r="P81" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q81" s="26"/>
       <c r="R81" s="28"/>
@@ -20593,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>24</v>
@@ -20608,7 +20689,7 @@
         <v>25</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L83" s="14" t="s">
         <v>27</v>
@@ -20621,7 +20702,7 @@
       </c>
       <c r="O83" s="12"/>
       <c r="P83" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q83" s="26"/>
       <c r="R83" s="28"/>
@@ -20638,7 +20719,7 @@
         <v>40</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>24</v>
@@ -20653,7 +20734,7 @@
         <v>25</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L84" s="14" t="s">
         <v>27</v>
@@ -20666,7 +20747,7 @@
       </c>
       <c r="O84" s="12"/>
       <c r="P84" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q84" s="26"/>
       <c r="R84" s="28"/>
@@ -20683,7 +20764,7 @@
         <v>40</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>24</v>
@@ -20698,7 +20779,7 @@
         <v>25</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L85" s="14" t="s">
         <v>27</v>
@@ -20711,7 +20792,7 @@
       </c>
       <c r="O85" s="12"/>
       <c r="P85" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q85" s="26"/>
       <c r="R85" s="28"/>
@@ -20769,7 +20850,7 @@
         <v>284</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>24</v>
@@ -20797,7 +20878,7 @@
       </c>
       <c r="O87" s="12"/>
       <c r="P87" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q87" s="26"/>
       <c r="R87" s="28"/>
@@ -20814,7 +20895,7 @@
         <v>284</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>24</v>
@@ -20842,7 +20923,7 @@
       </c>
       <c r="O88" s="12"/>
       <c r="P88" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q88" s="26"/>
       <c r="R88" s="28"/>
@@ -20859,7 +20940,7 @@
         <v>284</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>24</v>
@@ -20887,7 +20968,7 @@
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q89" s="26"/>
       <c r="R89" s="28"/>
@@ -20904,7 +20985,7 @@
         <v>284</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>24</v>
@@ -20932,7 +21013,7 @@
       </c>
       <c r="O90" s="12"/>
       <c r="P90" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q90" s="26"/>
       <c r="R90" s="28"/>
@@ -20949,7 +21030,7 @@
         <v>284</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>24</v>
@@ -20977,7 +21058,7 @@
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q91" s="26"/>
       <c r="R91" s="28"/>
@@ -20994,7 +21075,7 @@
         <v>284</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G92" s="16" t="s">
         <v>24</v>
@@ -21022,7 +21103,7 @@
       </c>
       <c r="O92" s="12"/>
       <c r="P92" s="18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q92" s="26"/>
       <c r="R92" s="28"/>
@@ -21039,7 +21120,7 @@
         <v>284</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>24</v>
@@ -21067,7 +21148,7 @@
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q93" s="26"/>
       <c r="R93" s="28"/>
@@ -21084,7 +21165,7 @@
         <v>284</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>24</v>
@@ -21112,7 +21193,7 @@
       </c>
       <c r="O94" s="12"/>
       <c r="P94" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q94" s="26"/>
       <c r="R94" s="28"/>
@@ -21129,7 +21210,7 @@
         <v>284</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>24</v>
@@ -21157,7 +21238,7 @@
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q95" s="26"/>
       <c r="R95" s="28"/>
@@ -21174,7 +21255,7 @@
         <v>284</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>24</v>
@@ -21202,7 +21283,7 @@
       </c>
       <c r="O96" s="12"/>
       <c r="P96" s="18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q96" s="26"/>
       <c r="R96" s="28"/>
@@ -21219,7 +21300,7 @@
         <v>284</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>24</v>
@@ -21247,7 +21328,7 @@
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q97" s="26"/>
       <c r="R97" s="28"/>
@@ -21264,7 +21345,7 @@
         <v>284</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>24</v>
@@ -21292,7 +21373,7 @@
       </c>
       <c r="O98" s="12"/>
       <c r="P98" s="18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q98" s="26"/>
       <c r="R98" s="28"/>
@@ -21309,7 +21390,7 @@
         <v>284</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>24</v>
@@ -21337,7 +21418,7 @@
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q99" s="26"/>
       <c r="R99" s="28"/>
@@ -21354,7 +21435,7 @@
         <v>284</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>24</v>
@@ -21382,7 +21463,7 @@
       </c>
       <c r="O100" s="12"/>
       <c r="P100" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q100" s="26"/>
       <c r="R100" s="28"/>
@@ -21399,7 +21480,7 @@
         <v>284</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>24</v>
@@ -21427,7 +21508,7 @@
       </c>
       <c r="O101" s="12"/>
       <c r="P101" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q101" s="26"/>
       <c r="R101" s="28"/>
@@ -21444,7 +21525,7 @@
         <v>284</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>24</v>
@@ -21472,7 +21553,7 @@
       </c>
       <c r="O102" s="12"/>
       <c r="P102" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q102" s="26"/>
       <c r="R102" s="28"/>
@@ -21976,7 +22057,7 @@
         <v>40</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>24</v>
@@ -22004,7 +22085,7 @@
       </c>
       <c r="O114" s="18"/>
       <c r="P114" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q114" s="18"/>
       <c r="R114" s="28"/>
@@ -22021,7 +22102,7 @@
         <v>358</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>24</v>
@@ -22033,10 +22114,10 @@
         <v>24</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L115" s="14" t="s">
         <v>27</v>
@@ -22049,7 +22130,7 @@
       </c>
       <c r="O115" s="18"/>
       <c r="P115" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q115" s="18"/>
       <c r="R115" s="28"/>
@@ -22107,7 +22188,7 @@
         <v>40</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>24</v>
@@ -22135,10 +22216,10 @@
       </c>
       <c r="O117" s="18"/>
       <c r="P117" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q117" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R117" s="28"/>
     </row>
@@ -22154,7 +22235,7 @@
         <v>40</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G118" s="16" t="s">
         <v>24</v>
@@ -22182,10 +22263,10 @@
       </c>
       <c r="O118" s="18"/>
       <c r="P118" s="18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q118" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R118" s="28"/>
     </row>
@@ -22242,7 +22323,7 @@
         <v>40</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G120" s="16" t="s">
         <v>24</v>
@@ -22254,10 +22335,10 @@
         <v>24</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L120" s="14" t="s">
         <v>27</v>
@@ -22270,7 +22351,7 @@
       </c>
       <c r="O120" s="18"/>
       <c r="P120" s="18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q120" s="18"/>
       <c r="R120" s="28"/>
@@ -22287,7 +22368,7 @@
         <v>40</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>24</v>
@@ -22302,7 +22383,7 @@
         <v>115</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L121" s="14" t="s">
         <v>27</v>
@@ -22315,7 +22396,7 @@
       </c>
       <c r="O121" s="18"/>
       <c r="P121" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q121" s="18"/>
       <c r="R121" s="28"/>
@@ -22361,7 +22442,7 @@
       <c r="Q122" s="18"/>
       <c r="R122" s="28"/>
     </row>
-    <row r="123" ht="52" spans="1:18">
+    <row r="123" ht="39" spans="1:18">
       <c r="A123" s="12"/>
       <c r="B123" s="31"/>
       <c r="C123" s="12"/>
@@ -22373,7 +22454,7 @@
         <v>40</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>24</v>
@@ -22401,10 +22482,10 @@
       </c>
       <c r="O123" s="18"/>
       <c r="P123" s="18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q123" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="R123" s="28"/>
     </row>
@@ -22420,7 +22501,7 @@
         <v>40</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>24</v>
@@ -22432,7 +22513,7 @@
         <v>24</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K124" s="12" t="s">
         <v>26</v>
@@ -22448,7 +22529,7 @@
       </c>
       <c r="O124" s="18"/>
       <c r="P124" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q124" s="18"/>
       <c r="R124" s="28"/>
@@ -22465,7 +22546,7 @@
         <v>40</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G125" s="16" t="s">
         <v>24</v>
@@ -22477,7 +22558,7 @@
         <v>24</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K125" s="12" t="s">
         <v>26</v>
@@ -22493,7 +22574,7 @@
       </c>
       <c r="O125" s="18"/>
       <c r="P125" s="18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q125" s="18"/>
       <c r="R125" s="28"/>
@@ -22510,7 +22591,7 @@
         <v>40</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>24</v>
@@ -22538,10 +22619,10 @@
       </c>
       <c r="O126" s="18"/>
       <c r="P126" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q126" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="R126" s="28"/>
     </row>
@@ -22598,7 +22679,7 @@
         <v>40</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>24</v>
@@ -22610,10 +22691,10 @@
         <v>24</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L128" s="14" t="s">
         <v>27</v>
@@ -22641,22 +22722,22 @@
         <v>40</v>
       </c>
       <c r="F129" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J129" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="G129" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I129" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>501</v>
-      </c>
       <c r="K129" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L129" s="14" t="s">
         <v>27</v>
@@ -22684,7 +22765,7 @@
         <v>40</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G130" s="16" t="s">
         <v>24</v>
@@ -22696,10 +22777,10 @@
         <v>24</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L130" s="14" t="s">
         <v>27</v>
@@ -23055,19 +23136,19 @@
         <v>358</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H139" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K139" s="12" t="s">
         <v>77</v>
@@ -23083,7 +23164,7 @@
       </c>
       <c r="O139" s="18"/>
       <c r="P139" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q139" s="18"/>
       <c r="R139" s="28"/>
@@ -23100,19 +23181,19 @@
         <v>358</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K140" s="12" t="s">
         <v>77</v>
@@ -23128,7 +23209,7 @@
       </c>
       <c r="O140" s="18"/>
       <c r="P140" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q140" s="18"/>
       <c r="R140" s="28"/>
@@ -23145,19 +23226,19 @@
         <v>358</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G141" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H141" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I141" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>77</v>
@@ -23173,7 +23254,7 @@
       </c>
       <c r="O141" s="18"/>
       <c r="P141" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q141" s="18"/>
       <c r="R141" s="28"/>
@@ -23190,19 +23271,19 @@
         <v>358</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K142" s="12" t="s">
         <v>77</v>
@@ -23218,7 +23299,7 @@
       </c>
       <c r="O142" s="18"/>
       <c r="P142" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q142" s="18"/>
       <c r="R142" s="28"/>
@@ -23235,19 +23316,19 @@
         <v>358</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K143" s="12" t="s">
         <v>77</v>
@@ -23263,7 +23344,7 @@
       </c>
       <c r="O143" s="18"/>
       <c r="P143" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q143" s="18"/>
       <c r="R143" s="28"/>
@@ -23280,19 +23361,19 @@
         <v>358</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G144" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K144" s="12" t="s">
         <v>77</v>
@@ -23308,7 +23389,7 @@
       </c>
       <c r="O144" s="18"/>
       <c r="P144" s="18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q144" s="18"/>
       <c r="R144" s="28"/>
@@ -23325,19 +23406,19 @@
         <v>358</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K145" s="12" t="s">
         <v>77</v>
@@ -23353,7 +23434,7 @@
       </c>
       <c r="O145" s="18"/>
       <c r="P145" s="18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q145" s="18"/>
       <c r="R145" s="28"/>
@@ -23370,19 +23451,19 @@
         <v>358</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G146" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H146" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K146" s="12" t="s">
         <v>77</v>
@@ -23398,7 +23479,7 @@
       </c>
       <c r="O146" s="18"/>
       <c r="P146" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q146" s="18"/>
       <c r="R146" s="28"/>
@@ -23415,19 +23496,19 @@
         <v>358</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G147" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H147" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K147" s="12" t="s">
         <v>77</v>
@@ -23443,7 +23524,7 @@
       </c>
       <c r="O147" s="18"/>
       <c r="P147" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q147" s="18"/>
       <c r="R147" s="28"/>
@@ -23460,19 +23541,19 @@
         <v>358</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G148" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K148" s="12" t="s">
         <v>77</v>
@@ -23488,7 +23569,7 @@
       </c>
       <c r="O148" s="18"/>
       <c r="P148" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q148" s="18"/>
       <c r="R148" s="28"/>
@@ -23505,19 +23586,19 @@
         <v>358</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G149" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H149" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K149" s="12" t="s">
         <v>77</v>
@@ -23533,7 +23614,7 @@
       </c>
       <c r="O149" s="18"/>
       <c r="P149" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q149" s="18"/>
       <c r="R149" s="28"/>
@@ -23550,19 +23631,19 @@
         <v>358</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G150" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H150" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K150" s="12" t="s">
         <v>77</v>
@@ -23578,7 +23659,7 @@
       </c>
       <c r="O150" s="18"/>
       <c r="P150" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q150" s="18"/>
       <c r="R150" s="28"/>
@@ -23595,19 +23676,19 @@
         <v>358</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G151" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K151" s="12" t="s">
         <v>77</v>
@@ -23623,7 +23704,7 @@
       </c>
       <c r="O151" s="18"/>
       <c r="P151" s="18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q151" s="18"/>
       <c r="R151" s="28"/>
@@ -23640,19 +23721,19 @@
         <v>358</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G152" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K152" s="12" t="s">
         <v>77</v>
@@ -23668,7 +23749,7 @@
       </c>
       <c r="O152" s="18"/>
       <c r="P152" s="18" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q152" s="18"/>
       <c r="R152" s="28"/>
@@ -23685,19 +23766,19 @@
         <v>358</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G153" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K153" s="12" t="s">
         <v>77</v>
@@ -23713,7 +23794,7 @@
       </c>
       <c r="O153" s="18"/>
       <c r="P153" s="18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q153" s="18"/>
       <c r="R153" s="28"/>
@@ -23730,19 +23811,19 @@
         <v>358</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G154" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H154" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K154" s="12" t="s">
         <v>77</v>
@@ -23758,7 +23839,7 @@
       </c>
       <c r="O154" s="18"/>
       <c r="P154" s="18" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q154" s="18"/>
       <c r="R154" s="28"/>
@@ -23775,7 +23856,7 @@
         <v>40</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G155" s="16" t="s">
         <v>24</v>
@@ -23803,10 +23884,10 @@
       </c>
       <c r="O155" s="18"/>
       <c r="P155" s="18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q155" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R155" s="28"/>
     </row>
@@ -23822,7 +23903,7 @@
         <v>40</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>24</v>
@@ -23850,10 +23931,10 @@
       </c>
       <c r="O156" s="18"/>
       <c r="P156" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q156" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R156" s="28"/>
     </row>
@@ -23869,7 +23950,7 @@
         <v>40</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G157" s="16" t="s">
         <v>24</v>
@@ -23897,10 +23978,10 @@
       </c>
       <c r="O157" s="18"/>
       <c r="P157" s="18" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q157" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R157" s="28"/>
     </row>
@@ -23916,7 +23997,7 @@
         <v>40</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G158" s="16" t="s">
         <v>24</v>
@@ -23944,10 +24025,10 @@
       </c>
       <c r="O158" s="18"/>
       <c r="P158" s="18" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q158" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R158" s="28"/>
     </row>
@@ -23963,7 +24044,7 @@
         <v>40</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>24</v>
@@ -23991,10 +24072,10 @@
       </c>
       <c r="O159" s="18"/>
       <c r="P159" s="18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q159" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R159" s="28"/>
     </row>
@@ -24010,7 +24091,7 @@
         <v>40</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>24</v>
@@ -24038,10 +24119,10 @@
       </c>
       <c r="O160" s="18"/>
       <c r="P160" s="18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q160" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R160" s="28"/>
     </row>
@@ -24057,7 +24138,7 @@
         <v>40</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>24</v>
@@ -24085,10 +24166,10 @@
       </c>
       <c r="O161" s="18"/>
       <c r="P161" s="18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q161" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R161" s="28"/>
     </row>
@@ -24104,7 +24185,7 @@
         <v>40</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>24</v>
@@ -24132,10 +24213,10 @@
       </c>
       <c r="O162" s="18"/>
       <c r="P162" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q162" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R162" s="28"/>
     </row>
@@ -24151,7 +24232,7 @@
         <v>40</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>24</v>
@@ -24179,10 +24260,10 @@
       </c>
       <c r="O163" s="18"/>
       <c r="P163" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q163" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R163" s="28"/>
     </row>
@@ -24198,7 +24279,7 @@
         <v>40</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>24</v>
@@ -24226,10 +24307,10 @@
       </c>
       <c r="O164" s="18"/>
       <c r="P164" s="18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q164" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R164" s="28"/>
     </row>
@@ -24245,7 +24326,7 @@
         <v>40</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G165" s="16" t="s">
         <v>24</v>
@@ -24273,10 +24354,10 @@
       </c>
       <c r="O165" s="18"/>
       <c r="P165" s="18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q165" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R165" s="28"/>
     </row>
@@ -24292,7 +24373,7 @@
         <v>40</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>24</v>
@@ -24320,10 +24401,10 @@
       </c>
       <c r="O166" s="18"/>
       <c r="P166" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q166" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R166" s="28"/>
     </row>
@@ -24339,7 +24420,7 @@
         <v>40</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G167" s="16" t="s">
         <v>24</v>
@@ -24367,10 +24448,10 @@
       </c>
       <c r="O167" s="18"/>
       <c r="P167" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q167" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R167" s="28"/>
     </row>
@@ -24386,7 +24467,7 @@
         <v>40</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>24</v>
@@ -24414,10 +24495,10 @@
       </c>
       <c r="O168" s="18"/>
       <c r="P168" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q168" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R168" s="28"/>
     </row>
@@ -24433,7 +24514,7 @@
         <v>40</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>24</v>
@@ -24461,10 +24542,10 @@
       </c>
       <c r="O169" s="18"/>
       <c r="P169" s="18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q169" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R169" s="28"/>
     </row>
@@ -24480,7 +24561,7 @@
         <v>40</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>24</v>
@@ -24508,10 +24589,10 @@
       </c>
       <c r="O170" s="18"/>
       <c r="P170" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q170" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R170" s="28"/>
     </row>
@@ -24527,7 +24608,7 @@
         <v>40</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>24</v>
@@ -24555,10 +24636,10 @@
       </c>
       <c r="O171" s="18"/>
       <c r="P171" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q171" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R171" s="28"/>
     </row>
@@ -24574,7 +24655,7 @@
         <v>40</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G172" s="16" t="s">
         <v>24</v>
@@ -24602,10 +24683,10 @@
       </c>
       <c r="O172" s="18"/>
       <c r="P172" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q172" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R172" s="28"/>
     </row>
@@ -24621,7 +24702,7 @@
         <v>40</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>24</v>
@@ -24649,10 +24730,10 @@
       </c>
       <c r="O173" s="18"/>
       <c r="P173" s="18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q173" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R173" s="28"/>
     </row>
@@ -24668,7 +24749,7 @@
         <v>40</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G174" s="16" t="s">
         <v>24</v>
@@ -24696,10 +24777,10 @@
       </c>
       <c r="O174" s="18"/>
       <c r="P174" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q174" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R174" s="28"/>
     </row>
@@ -24715,7 +24796,7 @@
         <v>40</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G175" s="16" t="s">
         <v>24</v>
@@ -24743,10 +24824,10 @@
       </c>
       <c r="O175" s="18"/>
       <c r="P175" s="18" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q175" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R175" s="28"/>
     </row>
@@ -24762,7 +24843,7 @@
         <v>40</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G176" s="16" t="s">
         <v>24</v>
@@ -24790,10 +24871,10 @@
       </c>
       <c r="O176" s="18"/>
       <c r="P176" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q176" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R176" s="28"/>
     </row>
@@ -24809,7 +24890,7 @@
         <v>40</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G177" s="16" t="s">
         <v>24</v>
@@ -24837,10 +24918,10 @@
       </c>
       <c r="O177" s="18"/>
       <c r="P177" s="18" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q177" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R177" s="28"/>
     </row>
@@ -24856,7 +24937,7 @@
         <v>40</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G178" s="16" t="s">
         <v>24</v>
@@ -24884,10 +24965,10 @@
       </c>
       <c r="O178" s="18"/>
       <c r="P178" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q178" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R178" s="28"/>
     </row>
@@ -24903,7 +24984,7 @@
         <v>40</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G179" s="16" t="s">
         <v>24</v>
@@ -24931,10 +25012,10 @@
       </c>
       <c r="O179" s="18"/>
       <c r="P179" s="18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q179" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R179" s="28"/>
     </row>
@@ -24950,7 +25031,7 @@
         <v>40</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>24</v>
@@ -24978,10 +25059,10 @@
       </c>
       <c r="O180" s="18"/>
       <c r="P180" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q180" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R180" s="28"/>
     </row>
@@ -24997,7 +25078,7 @@
         <v>40</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>24</v>
@@ -25025,10 +25106,10 @@
       </c>
       <c r="O181" s="18"/>
       <c r="P181" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q181" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R181" s="28"/>
     </row>
@@ -25044,7 +25125,7 @@
         <v>40</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>24</v>
@@ -25072,10 +25153,10 @@
       </c>
       <c r="O182" s="18"/>
       <c r="P182" s="18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q182" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R182" s="28"/>
     </row>
@@ -25091,7 +25172,7 @@
         <v>40</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>24</v>
@@ -25119,10 +25200,10 @@
       </c>
       <c r="O183" s="18"/>
       <c r="P183" s="18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q183" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R183" s="28"/>
     </row>
@@ -25138,7 +25219,7 @@
         <v>40</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>24</v>
@@ -25166,10 +25247,10 @@
       </c>
       <c r="O184" s="18"/>
       <c r="P184" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q184" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R184" s="28"/>
     </row>
@@ -25185,7 +25266,7 @@
         <v>40</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G185" s="16" t="s">
         <v>24</v>
@@ -25213,10 +25294,10 @@
       </c>
       <c r="O185" s="18"/>
       <c r="P185" s="18" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q185" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R185" s="28"/>
     </row>
@@ -25232,7 +25313,7 @@
         <v>40</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G186" s="16" t="s">
         <v>24</v>
@@ -25260,10 +25341,10 @@
       </c>
       <c r="O186" s="18"/>
       <c r="P186" s="18" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q186" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R186" s="28"/>
     </row>
@@ -25525,7 +25606,7 @@
         <v>40</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>24</v>
@@ -25553,7 +25634,7 @@
       </c>
       <c r="O193" s="18"/>
       <c r="P193" s="18" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q193" s="18"/>
       <c r="R193" s="28"/>
@@ -25570,7 +25651,7 @@
         <v>40</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>24</v>
@@ -25598,7 +25679,7 @@
       </c>
       <c r="O194" s="18"/>
       <c r="P194" s="18" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q194" s="18"/>
       <c r="R194" s="28"/>
@@ -25615,7 +25696,7 @@
         <v>40</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>24</v>
@@ -25643,7 +25724,7 @@
       </c>
       <c r="O195" s="18"/>
       <c r="P195" s="18" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q195" s="18"/>
       <c r="R195" s="28"/>
@@ -25660,7 +25741,7 @@
         <v>40</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>24</v>
@@ -25688,7 +25769,7 @@
       </c>
       <c r="O196" s="18"/>
       <c r="P196" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q196" s="18"/>
       <c r="R196" s="28"/>
@@ -25705,7 +25786,7 @@
         <v>40</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>24</v>
@@ -25733,7 +25814,7 @@
       </c>
       <c r="O197" s="18"/>
       <c r="P197" s="18" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q197" s="18"/>
       <c r="R197" s="28"/>
@@ -25750,7 +25831,7 @@
         <v>40</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>24</v>
@@ -25778,7 +25859,7 @@
       </c>
       <c r="O198" s="18"/>
       <c r="P198" s="18" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q198" s="18"/>
       <c r="R198" s="28"/>
@@ -25795,7 +25876,7 @@
         <v>40</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>24</v>
@@ -25823,7 +25904,7 @@
       </c>
       <c r="O199" s="18"/>
       <c r="P199" s="18" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q199" s="18"/>
       <c r="R199" s="28"/>
@@ -25840,7 +25921,7 @@
         <v>40</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>24</v>
@@ -25868,7 +25949,7 @@
       </c>
       <c r="O200" s="18"/>
       <c r="P200" s="18" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q200" s="18"/>
       <c r="R200" s="28"/>
@@ -25885,7 +25966,7 @@
         <v>40</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>24</v>
@@ -25913,7 +25994,7 @@
       </c>
       <c r="O201" s="18"/>
       <c r="P201" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q201" s="18"/>
       <c r="R201" s="28"/>
@@ -25930,7 +26011,7 @@
         <v>40</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>24</v>
@@ -25958,7 +26039,7 @@
       </c>
       <c r="O202" s="18"/>
       <c r="P202" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q202" s="18"/>
       <c r="R202" s="28"/>
@@ -25975,7 +26056,7 @@
         <v>40</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>24</v>
@@ -26003,7 +26084,7 @@
       </c>
       <c r="O203" s="18"/>
       <c r="P203" s="18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q203" s="18"/>
       <c r="R203" s="28"/>
@@ -26020,7 +26101,7 @@
         <v>40</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>24</v>
@@ -26048,7 +26129,7 @@
       </c>
       <c r="O204" s="18"/>
       <c r="P204" s="18" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q204" s="18"/>
       <c r="R204" s="28"/>
@@ -26065,7 +26146,7 @@
         <v>40</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G205" s="16" t="s">
         <v>24</v>
@@ -26093,7 +26174,7 @@
       </c>
       <c r="O205" s="18"/>
       <c r="P205" s="18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q205" s="18"/>
       <c r="R205" s="28"/>
@@ -26110,7 +26191,7 @@
         <v>40</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>24</v>
@@ -26138,7 +26219,7 @@
       </c>
       <c r="O206" s="18"/>
       <c r="P206" s="18" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q206" s="18"/>
       <c r="R206" s="28"/>
@@ -26155,7 +26236,7 @@
         <v>40</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>24</v>
@@ -26183,7 +26264,7 @@
       </c>
       <c r="O207" s="18"/>
       <c r="P207" s="18" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q207" s="18"/>
       <c r="R207" s="28"/>
@@ -26200,7 +26281,7 @@
         <v>40</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>24</v>
@@ -26228,7 +26309,7 @@
       </c>
       <c r="O208" s="18"/>
       <c r="P208" s="18" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q208" s="18"/>
       <c r="R208" s="28"/>
@@ -26368,10 +26449,10 @@
         <v>40</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H212" s="16" t="s">
         <v>75</v>
@@ -26380,10 +26461,10 @@
         <v>76</v>
       </c>
       <c r="J212" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K212" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L212" s="14" t="s">
         <v>27</v>
@@ -26396,10 +26477,10 @@
       </c>
       <c r="O212" s="18"/>
       <c r="P212" s="18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Q212" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R212" s="28"/>
     </row>
@@ -26415,7 +26496,7 @@
         <v>170</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>24</v>
@@ -26427,10 +26508,10 @@
         <v>253</v>
       </c>
       <c r="J213" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K213" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L213" s="14" t="s">
         <v>27</v>
@@ -26443,10 +26524,10 @@
       </c>
       <c r="O213" s="18"/>
       <c r="P213" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q213" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R213" s="28"/>
     </row>
@@ -26462,22 +26543,22 @@
         <v>170</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I214" s="16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J214" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K214" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L214" s="14" t="s">
         <v>27</v>
@@ -26490,10 +26571,10 @@
       </c>
       <c r="O214" s="18"/>
       <c r="P214" s="18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Q214" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R214" s="28"/>
     </row>
@@ -26509,10 +26590,10 @@
         <v>170</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H215" s="16" t="s">
         <v>252</v>
@@ -26524,7 +26605,7 @@
         <v>254</v>
       </c>
       <c r="K215" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L215" s="14" t="s">
         <v>27</v>
@@ -26537,10 +26618,10 @@
       </c>
       <c r="O215" s="18"/>
       <c r="P215" s="18" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q215" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R215" s="28"/>
     </row>
@@ -26556,7 +26637,7 @@
         <v>170</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>24</v>
@@ -26571,7 +26652,7 @@
         <v>254</v>
       </c>
       <c r="K216" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L216" s="14" t="s">
         <v>27</v>
@@ -26584,10 +26665,10 @@
       </c>
       <c r="O216" s="18"/>
       <c r="P216" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q216" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R216" s="28"/>
     </row>
@@ -26972,7 +27053,7 @@
         <v>40</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>24</v>
@@ -27000,7 +27081,7 @@
       </c>
       <c r="O226" s="18"/>
       <c r="P226" s="18" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Q226" s="18"/>
       <c r="R226" s="28"/>
@@ -27181,7 +27262,7 @@
         <v>358</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>24</v>
@@ -27193,7 +27274,7 @@
         <v>24</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K231" s="12" t="s">
         <v>26</v>
@@ -27209,7 +27290,7 @@
       </c>
       <c r="O231" s="18"/>
       <c r="P231" s="18" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Q231" s="18"/>
       <c r="R231" s="28"/>
@@ -27226,7 +27307,7 @@
         <v>358</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>24</v>
@@ -27238,7 +27319,7 @@
         <v>24</v>
       </c>
       <c r="J232" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K232" s="12" t="s">
         <v>26</v>
@@ -27254,7 +27335,7 @@
       </c>
       <c r="O232" s="18"/>
       <c r="P232" s="18" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Q232" s="18"/>
       <c r="R232" s="28"/>
@@ -27394,7 +27475,7 @@
         <v>40</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G236" s="16" t="s">
         <v>24</v>
@@ -27409,7 +27490,7 @@
         <v>25</v>
       </c>
       <c r="K236" s="34" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L236" s="14" t="s">
         <v>27</v>
@@ -27422,7 +27503,7 @@
       </c>
       <c r="O236" s="18"/>
       <c r="P236" s="18" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q236" s="18"/>
       <c r="R236" s="28"/>
@@ -27603,7 +27684,7 @@
         <v>170</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>24</v>
@@ -27618,7 +27699,7 @@
         <v>25</v>
       </c>
       <c r="K241" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L241" s="14" t="s">
         <v>27</v>
@@ -27631,7 +27712,7 @@
       </c>
       <c r="O241" s="18"/>
       <c r="P241" s="18" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Q241" s="18"/>
       <c r="R241" s="28"/>
@@ -27648,7 +27729,7 @@
         <v>170</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>24</v>
@@ -27663,7 +27744,7 @@
         <v>25</v>
       </c>
       <c r="K242" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L242" s="14" t="s">
         <v>27</v>
@@ -27676,7 +27757,7 @@
       </c>
       <c r="O242" s="18"/>
       <c r="P242" s="18" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q242" s="18"/>
       <c r="R242" s="28"/>
@@ -27693,7 +27774,7 @@
         <v>170</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>24</v>
@@ -27721,7 +27802,7 @@
       </c>
       <c r="O243" s="18"/>
       <c r="P243" s="18" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Q243" s="18"/>
       <c r="R243" s="28"/>
@@ -27738,7 +27819,7 @@
         <v>170</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>24</v>
@@ -27766,7 +27847,7 @@
       </c>
       <c r="O244" s="18"/>
       <c r="P244" s="18" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q244" s="18"/>
       <c r="R244" s="28"/>
@@ -27783,7 +27864,7 @@
         <v>40</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>24</v>
@@ -27792,7 +27873,7 @@
         <v>24</v>
       </c>
       <c r="I245" s="16" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J245" s="12" t="s">
         <v>25</v>
@@ -27811,7 +27892,7 @@
       </c>
       <c r="O245" s="18"/>
       <c r="P245" s="18" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Q245" s="18"/>
       <c r="R245" s="28"/>
@@ -27828,7 +27909,7 @@
         <v>40</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G246" s="16" t="s">
         <v>24</v>
@@ -27856,7 +27937,7 @@
       </c>
       <c r="O246" s="18"/>
       <c r="P246" s="18" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Q246" s="18"/>
       <c r="R246" s="28"/>
@@ -27873,7 +27954,7 @@
         <v>40</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G247" s="16" t="s">
         <v>24</v>
@@ -27901,7 +27982,7 @@
       </c>
       <c r="O247" s="18"/>
       <c r="P247" s="18" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q247" s="18"/>
       <c r="R247" s="28"/>
@@ -27918,7 +27999,7 @@
         <v>40</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>24</v>
@@ -27946,7 +28027,7 @@
       </c>
       <c r="O248" s="18"/>
       <c r="P248" s="18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Q248" s="18"/>
       <c r="R248" s="28"/>
@@ -28250,7 +28331,7 @@
         <v>170</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>24</v>
@@ -28262,7 +28343,7 @@
         <v>253</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K256" s="12" t="s">
         <v>26</v>
@@ -28278,7 +28359,7 @@
       </c>
       <c r="O256" s="12"/>
       <c r="P256" s="18" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q256" s="26"/>
       <c r="R256" s="28"/>
@@ -28295,7 +28376,7 @@
         <v>170</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G257" s="16" t="s">
         <v>24</v>
@@ -28307,7 +28388,7 @@
         <v>253</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K257" s="12" t="s">
         <v>26</v>
@@ -28323,7 +28404,7 @@
       </c>
       <c r="O257" s="12"/>
       <c r="P257" s="18" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Q257" s="26"/>
       <c r="R257" s="28"/>
@@ -28340,7 +28421,7 @@
         <v>170</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>24</v>
@@ -28352,7 +28433,7 @@
         <v>253</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K258" s="12" t="s">
         <v>26</v>
@@ -28368,7 +28449,7 @@
       </c>
       <c r="O258" s="12"/>
       <c r="P258" s="18" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q258" s="26"/>
       <c r="R258" s="28"/>
@@ -28426,7 +28507,7 @@
         <v>284</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>24</v>
@@ -28454,7 +28535,7 @@
       </c>
       <c r="O260" s="12"/>
       <c r="P260" s="35" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q260" s="26"/>
       <c r="R260" s="28"/>
@@ -28471,7 +28552,7 @@
         <v>284</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>24</v>
@@ -28499,7 +28580,7 @@
       </c>
       <c r="O261" s="12"/>
       <c r="P261" s="35" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q261" s="26"/>
       <c r="R261" s="28"/>
@@ -28516,7 +28597,7 @@
         <v>358</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>24</v>
@@ -28528,7 +28609,7 @@
         <v>24</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K262" s="12" t="s">
         <v>26</v>
@@ -28544,7 +28625,7 @@
       </c>
       <c r="O262" s="12"/>
       <c r="P262" s="35" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q262" s="26"/>
       <c r="R262" s="28"/>
@@ -28561,7 +28642,7 @@
         <v>358</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G263" s="16" t="s">
         <v>24</v>
@@ -28573,7 +28654,7 @@
         <v>24</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K263" s="12" t="s">
         <v>26</v>
@@ -28589,7 +28670,7 @@
       </c>
       <c r="O263" s="12"/>
       <c r="P263" s="35" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Q263" s="26"/>
       <c r="R263" s="28"/>
@@ -28606,7 +28687,7 @@
         <v>170</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G264" s="16" t="s">
         <v>24</v>
@@ -28618,7 +28699,7 @@
         <v>24</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>378</v>
+        <v>693</v>
       </c>
       <c r="K264" s="12" t="s">
         <v>26</v>
@@ -28634,7 +28715,7 @@
       </c>
       <c r="O264" s="12"/>
       <c r="P264" s="35" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Q264" s="26"/>
       <c r="R264" s="28"/>
@@ -28651,19 +28732,19 @@
         <v>170</v>
       </c>
       <c r="F265" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="G265" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H265" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I265" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J265" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="G265" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H265" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I265" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J265" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="K265" s="12" t="s">
         <v>26</v>
@@ -28679,7 +28760,7 @@
       </c>
       <c r="O265" s="12"/>
       <c r="P265" s="35" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="Q265" s="26"/>
       <c r="R265" s="28"/>
@@ -28847,129 +28928,6 @@
       <c r="P269" s="26"/>
       <c r="Q269" s="26"/>
       <c r="R269" s="28"/>
-    </row>
-    <row r="270" spans="1:18">
-      <c r="A270" s="12"/>
-      <c r="B270" s="31"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>679</v>
-      </c>
-      <c r="E270" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F270" s="20"/>
-      <c r="G270" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H270" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I270" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J270" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K270" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L270" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M270" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N270" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O270" s="12"/>
-      <c r="P270" s="26"/>
-      <c r="Q270" s="26"/>
-      <c r="R270" s="28"/>
-    </row>
-    <row r="271" spans="1:18">
-      <c r="A271" s="12"/>
-      <c r="B271" s="31"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>680</v>
-      </c>
-      <c r="E271" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F271" s="20"/>
-      <c r="G271" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H271" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I271" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J271" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K271" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L271" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M271" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N271" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O271" s="12"/>
-      <c r="P271" s="26"/>
-      <c r="Q271" s="26"/>
-      <c r="R271" s="28"/>
-    </row>
-    <row r="272" spans="1:18">
-      <c r="A272" s="12"/>
-      <c r="B272" s="31"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>681</v>
-      </c>
-      <c r="E272" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F272" s="20"/>
-      <c r="G272" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H272" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I272" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J272" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K272" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L272" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M272" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N272" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O272" s="12"/>
-      <c r="P272" s="26"/>
-      <c r="Q272" s="26"/>
-      <c r="R272" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -28996,336 +28954,613 @@
     <mergeCell ref="D1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" priority="44" operator="equal">
+    <cfRule type="cellIs" priority="154" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="153" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="152" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="41" operator="equal">
+    <cfRule type="cellIs" priority="151" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="149" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="148" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="147" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="146" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="145" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="133" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsBlanks" dxfId="6" priority="34">
+    <cfRule type="containsBlanks" dxfId="6" priority="144">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="7" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="136" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="135" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="134" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="139" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="138" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="137" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="143" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="140" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="15" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="142" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="141" operator="equal">
       <formula>"User"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsBlanks" dxfId="6" priority="188">
+    <cfRule type="containsBlanks" dxfId="6" priority="298">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="9" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="288" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="289" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="290" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="12" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="291" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="292" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="293" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="14" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="294" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="297" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="16" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="295" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="296" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsBlanks" dxfId="6" priority="177">
+    <cfRule type="containsBlanks" dxfId="6" priority="287">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsBlanks" dxfId="6" priority="199">
+    <cfRule type="containsBlanks" dxfId="6" priority="309">
       <formula>LEN(TRIM(F43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="9" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="299" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="300" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="301" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="12" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="302" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="303" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="304" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" dxfId="14" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="305" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="308" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="16" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="306" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="307" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsBlanks" dxfId="6" priority="176">
+    <cfRule type="containsBlanks" dxfId="6" priority="286">
       <formula>LEN(TRIM(F58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="9" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="276" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="277" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="278" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="cellIs" dxfId="12" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="279" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="280" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="281" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58">
-    <cfRule type="cellIs" dxfId="14" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="282" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="285" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58">
-    <cfRule type="cellIs" dxfId="16" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="283" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="284" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="22" operator="equal">
+    <cfRule type="cellIs" priority="132" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="131" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="130" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal">
+    <cfRule type="cellIs" priority="129" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="128" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="126" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="125" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="124" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="123" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="111" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsBlanks" dxfId="6" priority="12">
+    <cfRule type="containsBlanks" dxfId="6" priority="122">
       <formula>LEN(TRIM(F59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="114" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="113" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="112" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="117" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="116" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="115" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="121" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="118" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="120" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="119" operator="equal">
       <formula>"User"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="5" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="376" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="388" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="389" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="390" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="391" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="392" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="393" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="284" operator="equal">
+    <cfRule type="cellIs" priority="394" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="395" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="396" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="287" operator="equal">
+    <cfRule type="cellIs" priority="397" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsBlanks" dxfId="6" priority="165">
+    <cfRule type="containsBlanks" dxfId="6" priority="275">
       <formula>LEN(TRIM(F60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
+    <cfRule type="cellIs" dxfId="9" priority="265" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="266" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="267" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60">
+    <cfRule type="cellIs" dxfId="12" priority="268" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="269" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="270" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60">
+    <cfRule type="cellIs" dxfId="14" priority="271" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="274" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="cellIs" dxfId="16" priority="272" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="273" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="5" priority="398" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="410" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="411" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="412" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="413" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="414" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="415" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="416" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="417" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="418" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="419" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="containsBlanks" dxfId="6" priority="409">
+      <formula>LEN(TRIM(F61))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="cellIs" dxfId="9" priority="399" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="400" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="401" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61">
+    <cfRule type="cellIs" dxfId="12" priority="402" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="403" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="404" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61">
+    <cfRule type="cellIs" dxfId="14" priority="405" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="408" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N61">
+    <cfRule type="cellIs" dxfId="16" priority="406" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="407" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F213">
+    <cfRule type="containsBlanks" dxfId="6" priority="242">
+      <formula>LEN(TRIM(F213))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="cellIs" dxfId="9" priority="232" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="233" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="234" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L213">
+    <cfRule type="cellIs" dxfId="12" priority="235" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="236" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="237" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M213">
+    <cfRule type="cellIs" dxfId="14" priority="238" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="241" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N213">
+    <cfRule type="cellIs" dxfId="16" priority="239" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="240" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E217">
+    <cfRule type="cellIs" dxfId="5" priority="210" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="222" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="223" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="224" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="225" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="226" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="227" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="228" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="229" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="230" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="231" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F217">
+    <cfRule type="containsBlanks" dxfId="6" priority="221">
+      <formula>LEN(TRIM(F217))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K217">
+    <cfRule type="cellIs" dxfId="9" priority="211" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="212" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="213" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L217">
+    <cfRule type="cellIs" dxfId="12" priority="214" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="215" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="216" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M217">
+    <cfRule type="cellIs" dxfId="14" priority="217" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="220" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N217">
+    <cfRule type="cellIs" dxfId="16" priority="218" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="219" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218">
+    <cfRule type="cellIs" dxfId="5" priority="188" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="200" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="201" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="202" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="203" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="204" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="205" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="206" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="207" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="208" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="209" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F218">
+    <cfRule type="containsBlanks" dxfId="6" priority="165">
+      <formula>LEN(TRIM(F218))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218">
     <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
@@ -29336,7 +29571,7 @@
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
+  <conditionalFormatting sqref="L218">
     <cfRule type="cellIs" dxfId="12" priority="158" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
@@ -29347,7 +29582,7 @@
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M60">
+  <conditionalFormatting sqref="M218">
     <cfRule type="cellIs" dxfId="14" priority="161" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
@@ -29355,7 +29590,7 @@
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
+  <conditionalFormatting sqref="N218">
     <cfRule type="cellIs" dxfId="16" priority="162" operator="equal">
       <formula>"User"</formula>
     </cfRule>
@@ -29363,612 +29598,335 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="5" priority="288" operator="equal">
+  <conditionalFormatting sqref="E219">
+    <cfRule type="cellIs" dxfId="5" priority="166" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="178" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="179" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="180" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="181" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="182" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="183" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="306" operator="equal">
+    <cfRule type="cellIs" priority="184" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="185" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="309" operator="equal">
-      <formula>"s16"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsBlanks" dxfId="6" priority="299">
-      <formula>LEN(TRIM(F61))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="9" priority="289" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="290" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="291" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61">
-    <cfRule type="cellIs" dxfId="12" priority="292" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="293" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="294" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M61">
-    <cfRule type="cellIs" dxfId="14" priority="295" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="298" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N61">
-    <cfRule type="cellIs" dxfId="16" priority="296" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="297" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F213">
-    <cfRule type="containsBlanks" dxfId="6" priority="132">
-      <formula>LEN(TRIM(F213))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K213">
-    <cfRule type="cellIs" dxfId="9" priority="122" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="123" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="124" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L213">
-    <cfRule type="cellIs" dxfId="12" priority="125" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="126" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="127" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M213">
-    <cfRule type="cellIs" dxfId="14" priority="128" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="131" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N213">
-    <cfRule type="cellIs" dxfId="16" priority="129" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="130" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E217">
-    <cfRule type="cellIs" dxfId="5" priority="100" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="112" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="113" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="114" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="115" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="116" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="117" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="118" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="119" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="120" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="121" operator="equal">
-      <formula>"s16"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F217">
-    <cfRule type="containsBlanks" dxfId="6" priority="111">
-      <formula>LEN(TRIM(F217))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K217">
-    <cfRule type="cellIs" dxfId="9" priority="101" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="102" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="103" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L217">
-    <cfRule type="cellIs" dxfId="12" priority="104" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="105" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="106" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M217">
-    <cfRule type="cellIs" dxfId="14" priority="107" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="110" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N217">
-    <cfRule type="cellIs" dxfId="16" priority="108" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="109" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218">
-    <cfRule type="cellIs" dxfId="5" priority="78" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="90" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="91" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="92" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="93" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="94" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="95" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="96" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="97" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="99" operator="equal">
-      <formula>"s16"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F218">
-    <cfRule type="containsBlanks" dxfId="6" priority="55">
-      <formula>LEN(TRIM(F218))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K218">
-    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="46" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="47" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L218">
-    <cfRule type="cellIs" dxfId="12" priority="48" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="50" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M218">
-    <cfRule type="cellIs" dxfId="14" priority="51" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="54" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N218">
-    <cfRule type="cellIs" dxfId="16" priority="52" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="53" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E219">
-    <cfRule type="cellIs" dxfId="5" priority="56" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="68" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="69" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="70" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="71" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="72" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="73" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="74" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="75" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="77" operator="equal">
+    <cfRule type="cellIs" priority="187" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F219">
-    <cfRule type="containsBlanks" dxfId="6" priority="67">
+    <cfRule type="containsBlanks" dxfId="6" priority="177">
       <formula>LEN(TRIM(F219))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K219">
-    <cfRule type="cellIs" dxfId="9" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="167" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="168" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="169" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L219">
-    <cfRule type="cellIs" dxfId="12" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="170" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="171" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="172" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M219">
-    <cfRule type="cellIs" dxfId="14" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="173" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="176" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="16" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="174" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="175" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E5 E62:E216 E220:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="514" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="630" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="631" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="638" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="639" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="640" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="641" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="532" operator="equal">
+    <cfRule type="cellIs" priority="642" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="643" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="644" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="535" operator="equal">
+    <cfRule type="cellIs" priority="645" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5 F62:F212 F220:F1048576 F214:F216">
-    <cfRule type="containsBlanks" dxfId="6" priority="449">
+    <cfRule type="containsBlanks" dxfId="6" priority="559">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K5 K62:K212 K220:K1048576 K214:K216">
-    <cfRule type="cellIs" dxfId="9" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="531" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="532" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="533" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L5 L62:L212 L220:L1048576 L214:L216">
-    <cfRule type="cellIs" dxfId="12" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="552" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="553" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="554" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M5 M62:M212 M220:M1048576 M214:M216">
-    <cfRule type="cellIs" dxfId="14" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="555" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="558" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N5 N62:N212 N220:N1048576 N214:N216">
-    <cfRule type="cellIs" dxfId="16" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="556" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="557" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E23 E41:E58 E27:E28 E37 E25 E39 E35 E31 E33">
-    <cfRule type="cellIs" dxfId="5" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="354" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="366" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="367" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="368" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="369" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="370" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="371" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="262" operator="equal">
+    <cfRule type="cellIs" priority="372" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="373" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="374" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="265" operator="equal">
+    <cfRule type="cellIs" priority="375" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F23 F33 F41:F42 F35:F37 F25 F44:F57 F27:F28 F31 F39">
-    <cfRule type="containsBlanks" dxfId="6" priority="255">
+    <cfRule type="containsBlanks" dxfId="6" priority="365">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K23 K33 K41:K42 K35:K37 K25 K44:K57 K27:K28 K31 K39">
-    <cfRule type="cellIs" dxfId="9" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="355" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="356" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="357" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L23 L33 L41:L42 L35:L37 L25 L44:L57 L27:L28 L31 L39">
-    <cfRule type="cellIs" dxfId="12" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="358" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="359" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="360" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M23 M33 M41:M42 M35:M37 M25 M44:M57 M27:M28 M31 M39">
-    <cfRule type="cellIs" dxfId="14" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="361" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="364" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N23 N33 N41:N42 N35:N37 N25 N44:N57 N27:N28 N31 N39">
-    <cfRule type="cellIs" dxfId="16" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="362" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="363" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24 E26 E40 E38 E32 E34 E36 E29">
-    <cfRule type="cellIs" dxfId="5" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="332" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="344" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="345" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="346" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="347" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="348" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="349" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="240" operator="equal">
+    <cfRule type="cellIs" priority="350" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="351" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="352" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="243" operator="equal">
+    <cfRule type="cellIs" priority="353" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26 F40 F32 F29">
-    <cfRule type="containsBlanks" dxfId="6" priority="233">
+    <cfRule type="containsBlanks" dxfId="6" priority="343">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24 K26 K38 K40 K32 K29">
-    <cfRule type="cellIs" dxfId="9" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="333" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="334" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="335" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 L26 L38 L40 L32 L29">
-    <cfRule type="cellIs" dxfId="12" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="336" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="337" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="338" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24 M26 M38 M40 M32 M29">
-    <cfRule type="cellIs" dxfId="14" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="339" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="342" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24 N26 N38 N40 N32 N29">
-    <cfRule type="cellIs" dxfId="16" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="340" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="341" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L58 L59 L60 L61 L62 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L6:L22 L44:L57 L63:L85 L86:L192 L193:L208 L221:L229 L230:L235 L236:L255 L256:L258 L259:L270 L271:L272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E59 E60 E61 E62 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E217 E218 E219 E259 E6:E22 E44:E58 E63:E74 E86:E113 E128:E211 E212:E216 E220:E229 E230:E235 E236:E255 E256:E258 E260:E269">
+      <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N57 N58 N59 N60 N61 N62 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N126 N127 N209 N210 N211 N212 N213 N214 N215 N216 N217 N218 N219 N220 N6:N22 N45:N56 N63:N74 N86:N113 N128:N192 N193:N208 N221:N229 N230:N235 N236:N255 N256:N258 N259:N269">
+      <formula1>"Admin,User,Anyone"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J57 J58 J59 J60 J61 J62 J75 J78 J79 J80 J81 J82 J83 J84 J85 J86 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J219 J220 J256 J257 J258 J6:J22 J45:J56 J63:J74 J76:J77 J87:J102 J103:J104 J105:J112 J130:J138 J139:J154 J155:J186 J187:J192 J193:J208 J221:J229 J230:J235 J236:J255 J259:J269">
+      <formula1>Unit!$A$2:$A$62</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K57 K58 K59 K60 K61 K62 K75 K76 K77 K78 K79 K82 K86 K114 K115 K116 K119 K122 K123 K124 K125 K126 K127 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K152 K153 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K219 K220 K6:K22 K45:K56 K63:K70 K71:K72 K73:K74 K80:K81 K83:K85 K87:K102 K103:K113 K117:K118 K120:K121 K128:K130 K131:K138 K154:K186 K187:K192 K193:K208 K221:K229 K230:K235 K236:K255 K256:K258 K259:K269">
+      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L58 L59 L60 L61 L62 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L6:L22 L44:L57 L63:L85 L86:L192 L193:L208 L221:L229 L230:L235 L236:L255 L256:L258 L259:L269">
       <formula1>"无效,仅上限,仅下限,上下限"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E59 E60 E61 E62 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E217 E218 E219 E259 E6:E22 E44:E58 E63:E74 E86:E113 E128:E211 E212:E216 E220:E229 E230:E235 E236:E255 E256:E258 E260:E270 E271:E272">
-      <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J57 J58 J59 J60 J61 J62 J75 J78 J79 J80 J81 J82 J83 J84 J85 J86 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J219 J220 J256 J257 J258 J6:J22 J45:J56 J63:J74 J76:J77 J87:J102 J103:J104 J105:J112 J130:J138 J139:J154 J155:J186 J187:J192 J193:J208 J221:J229 J230:J235 J236:J255 J259:J270 J271:J272">
-      <formula1>Unit!$A$2:$A$62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K57 K58 K59 K60 K61 K62 K75 K76 K77 K78 K79 K82 K86 K114 K115 K116 K119 K122 K123 K124 K125 K126 K127 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K152 K153 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K219 K220 K6:K22 K45:K56 K63:K70 K71:K72 K73:K74 K80:K81 K83:K85 K87:K102 K103:K113 K117:K118 K120:K121 K128:K130 K131:K138 K154:K186 K187:K192 K193:K208 K221:K229 K230:K235 K236:K255 K256:K258 K259:K270 K271:K272">
-      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N57 N58 N59 N60 N61 N62 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N126 N127 N209 N210 N211 N212 N213 N214 N215 N216 N217 N218 N219 N220 N6:N22 N45:N56 N63:N74 N86:N113 N128:N192 N193:N208 N221:N229 N230:N235 N236:N255 N256:N258 N259:N270 N271:N272">
-      <formula1>"Admin,User,Anyone"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M43 M44 M57 M58 M59 M60 M61 M62 M63 M70 M78 M79 M82 M86 M114 M115 M116 M119 M122 M123 M124 M125 M126 M127 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M152 M153 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M219 M220 M6:M22 M45:M56 M64:M69 M71:M72 M73:M74 M75:M77 M80:M81 M83:M85 M87:M102 M103:M113 M117:M118 M120:M121 M128:M130 M131:M138 M154:M186 M187:M192 M193:M208 M221:M229 M230:M235 M236:M255 M256:M258 M259:M270 M271:M272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M43 M44 M57 M58 M59 M60 M61 M62 M63 M70 M78 M79 M82 M86 M114 M115 M116 M119 M122 M123 M124 M125 M126 M127 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M152 M153 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M219 M220 M6:M22 M45:M56 M64:M69 M71:M72 M73:M74 M75:M77 M80:M81 M83:M85 M87:M102 M103:M113 M117:M118 M120:M121 M128:M130 M131:M138 M154:M186 M187:M192 M193:M208 M221:M229 M230:M235 M236:M255 M256:M258 M259:M269">
       <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29995,7 +29953,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -30003,37 +29961,37 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -30045,31 +30003,31 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -30081,40 +30039,40 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -30123,127 +30081,127 @@
         <v>278</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C35" s="4"/>
     </row>
@@ -30252,166 +30210,166 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>378</v>
+        <v>693</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C57" s="4"/>
     </row>
@@ -30420,22 +30378,22 @@
         <v>288</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C60" s="4"/>
     </row>
@@ -30444,16 +30402,16 @@
         <v>254</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>

--- a/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
+++ b/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10730" activeTab="1"/>
+    <workbookView windowWidth="24910" windowHeight="9430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="3" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$D$1:$Q$253</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Axis!$D$1:$Q$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Axis!$D$1:$Q$317</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5640" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="852">
   <si>
     <r>
       <rPr>
@@ -1439,6 +1439,9 @@
     <t>u16PosLoopFreq</t>
   </si>
   <si>
+    <t>4000</t>
+  </si>
+  <si>
     <t>位置环频率</t>
   </si>
   <si>
@@ -1449,9 +1452,6 @@
   </si>
   <si>
     <t>u16CurLoopFreq</t>
-  </si>
-  <si>
-    <t>4000</t>
   </si>
   <si>
     <t>电流环频率</t>
@@ -2423,6 +2423,27 @@
     <t>多段减速时间15</t>
   </si>
   <si>
+    <t>u16TrqLimSrc</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>转矩限制来源</t>
+  </si>
+  <si>
+    <t>u16TrqLimFwd</t>
+  </si>
+  <si>
+    <t>转矩正向限制</t>
+  </si>
+  <si>
+    <t>u16TrqLimRev</t>
+  </si>
+  <si>
+    <t>转矩反向限制</t>
+  </si>
+  <si>
     <t>s16TrqDigRef00</t>
   </si>
   <si>
@@ -2517,6 +2538,89 @@
   </si>
   <si>
     <t>多段数字转矩指令15</t>
+  </si>
+  <si>
+    <t>u16TrqRefSrc</t>
+  </si>
+  <si>
+    <t>转矩指令来源</t>
+  </si>
+  <si>
+    <r>
+      <t>0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多段数字指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟量输入AI0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟量输入AI1</t>
+    </r>
+  </si>
+  <si>
+    <t>s16TrqDigRef</t>
+  </si>
+  <si>
+    <t>数字转矩指令</t>
   </si>
   <si>
     <t>u16OpenPeriod</t>
@@ -2593,9 +2697,36 @@
     <t>开环Q轴指令</t>
   </si>
   <si>
+    <t>u16TrqMulRefSel</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>多段转矩指令选择</t>
+  </si>
+  <si>
+    <t>u16AiTrqCoeff0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>模拟量AI0转矩系数</t>
+  </si>
+  <si>
+    <t>u16AiTrqCoeff1</t>
+  </si>
+  <si>
+    <t>模拟量AI1转矩系数</t>
+  </si>
+  <si>
     <t>u16EncCmd</t>
   </si>
   <si>
+    <t>编码器指令</t>
+  </si>
+  <si>
     <t>u16EncErrCode</t>
   </si>
   <si>
@@ -2614,6 +2745,171 @@
     <t>轴状态机</t>
   </si>
   <si>
+    <t>u16ElecAngle</t>
+  </si>
+  <si>
+    <t>只读</t>
+  </si>
+  <si>
+    <t>驱动层电角度</t>
+  </si>
+  <si>
+    <t>s16Ud</t>
+  </si>
+  <si>
+    <t>驱动层D轴电压输出</t>
+  </si>
+  <si>
+    <t>s16Uq</t>
+  </si>
+  <si>
+    <t>驱动层Q轴电压输出</t>
+  </si>
+  <si>
+    <t>s16Ualpha</t>
+  </si>
+  <si>
+    <t>驱动层Alpha轴电压输出</t>
+  </si>
+  <si>
+    <t>s16Ubeta</t>
+  </si>
+  <si>
+    <t>驱动层Beta轴电压输出</t>
+  </si>
+  <si>
+    <t>u16Sector</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>驱动层SVPWM矢量扇区</t>
+  </si>
+  <si>
+    <t>u16PwmaComp</t>
+  </si>
+  <si>
+    <t>驱动层A相PWM比较值</t>
+  </si>
+  <si>
+    <t>u16PwmbComp</t>
+  </si>
+  <si>
+    <t>驱动层B相PWM比较值</t>
+  </si>
+  <si>
+    <t>u16PwmcComp</t>
+  </si>
+  <si>
+    <t>驱动层C相PWM比较值</t>
+  </si>
+  <si>
+    <t>u16StopCmd</t>
+  </si>
+  <si>
+    <t>停机指令</t>
+  </si>
+  <si>
+    <t>u16StopMode</t>
+  </si>
+  <si>
+    <t>停机模式</t>
+  </si>
+  <si>
+    <t>u16StopPlanMode</t>
+  </si>
+  <si>
+    <t>u16EmStopTrqDigRef</t>
+  </si>
+  <si>
+    <t>紧急停机转矩</t>
+  </si>
+  <si>
+    <t>s32LogicSpdRef</t>
+  </si>
+  <si>
+    <t>逻辑层速度指令</t>
+  </si>
+  <si>
+    <t>u16LogicSpdAccTime</t>
+  </si>
+  <si>
+    <t>逻辑层加速度时间</t>
+  </si>
+  <si>
+    <t>u16LogicSpdDecTime</t>
+  </si>
+  <si>
+    <t>逻辑层减速度时间</t>
+  </si>
+  <si>
+    <t>u16LogicSpdPlanMode</t>
+  </si>
+  <si>
+    <t>逻辑层速度规划模式</t>
+  </si>
+  <si>
+    <t>s32LogicSpdLimFwd</t>
+  </si>
+  <si>
+    <t>逻辑层正向速度限制</t>
+  </si>
+  <si>
+    <t>s32LogicSpdLimRev</t>
+  </si>
+  <si>
+    <t>逻辑层反向速度限制</t>
+  </si>
+  <si>
+    <t>s16LogicTrqRef</t>
+  </si>
+  <si>
+    <t>逻辑层转矩指令</t>
+  </si>
+  <si>
+    <t>s16LogicTrqLimFwd</t>
+  </si>
+  <si>
+    <t>逻辑层正向转矩限制</t>
+  </si>
+  <si>
+    <t>s16LogicTrqLimRev</t>
+  </si>
+  <si>
+    <t>逻辑层反向转矩限制</t>
+  </si>
+  <si>
+    <t>s64PlanPosRef</t>
+  </si>
+  <si>
+    <t>规划层位置指令</t>
+  </si>
+  <si>
+    <t>s32PlanSpdRef</t>
+  </si>
+  <si>
+    <t>规划层速度指令</t>
+  </si>
+  <si>
+    <t>s16PlanTrqRef</t>
+  </si>
+  <si>
+    <t>规划层转矩指令</t>
+  </si>
+  <si>
+    <t>s64DrvPosRef</t>
+  </si>
+  <si>
+    <t>驱动层位置指令</t>
+  </si>
+  <si>
+    <t>s64DrvPosFb</t>
+  </si>
+  <si>
+    <t>驱动层位置反馈</t>
+  </si>
+  <si>
     <t>s32DrvSpdRef</t>
   </si>
   <si>
@@ -2626,94 +2922,16 @@
     <t>驱动层速度反馈</t>
   </si>
   <si>
-    <t>u16ElecAngle</t>
-  </si>
-  <si>
-    <t>只读</t>
-  </si>
-  <si>
-    <t>驱动层电角度</t>
-  </si>
-  <si>
-    <t>s16Ud</t>
-  </si>
-  <si>
-    <t>驱动层D轴电压输出</t>
-  </si>
-  <si>
-    <t>s16Uq</t>
-  </si>
-  <si>
-    <t>驱动层Q轴电压输出</t>
-  </si>
-  <si>
-    <t>s16Ualpha</t>
-  </si>
-  <si>
-    <t>驱动层Alpha轴电压输出</t>
-  </si>
-  <si>
-    <t>s16Ubeta</t>
-  </si>
-  <si>
-    <t>驱动层Beta轴电压输出</t>
-  </si>
-  <si>
-    <t>u16Sector</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>驱动层SVPWM矢量扇区</t>
-  </si>
-  <si>
-    <t>u16PwmaComp</t>
-  </si>
-  <si>
-    <t>驱动层A相PWM比较值</t>
-  </si>
-  <si>
-    <t>u16PwmbComp</t>
-  </si>
-  <si>
-    <t>驱动层B相PWM比较值</t>
-  </si>
-  <si>
-    <t>u16PwmcComp</t>
-  </si>
-  <si>
-    <t>驱动层C相PWM比较值</t>
-  </si>
-  <si>
-    <t>u16StopCmd</t>
-  </si>
-  <si>
-    <t>停机指令</t>
-  </si>
-  <si>
-    <t>s32LogicSpdRef</t>
-  </si>
-  <si>
-    <t>逻辑层速度指令</t>
-  </si>
-  <si>
-    <t>u16LogicSpdAccTime</t>
-  </si>
-  <si>
-    <t>逻辑层加速度时间</t>
-  </si>
-  <si>
-    <t>u16LogicSpdDecTime</t>
-  </si>
-  <si>
-    <t>逻辑层减速度时间</t>
-  </si>
-  <si>
-    <t>u16LogicSpdPlanMode</t>
-  </si>
-  <si>
-    <t>逻辑层速度规划模式</t>
+    <t>s32DrvTrqRef</t>
+  </si>
+  <si>
+    <t>驱动层转矩指令</t>
+  </si>
+  <si>
+    <t>s32DrvTrqFb</t>
+  </si>
+  <si>
+    <t>驱动层转矩反馈</t>
   </si>
   <si>
     <t>u16JogCmd</t>
@@ -2723,6 +2941,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>bit0-</t>
     </r>
     <r>
@@ -2776,39 +3000,12 @@
     <t>速度规划模式</t>
   </si>
   <si>
-    <t>u16StopPlanMode</t>
-  </si>
-  <si>
-    <t>停机模式</t>
-  </si>
-  <si>
     <t>u16SpdMulRefSel</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>多段速度选择</t>
   </si>
   <si>
-    <t>s32LogicSpdLimFwd</t>
-  </si>
-  <si>
-    <t>逻辑层正向速度限制</t>
-  </si>
-  <si>
-    <t>s32LogicSpdLimRev</t>
-  </si>
-  <si>
-    <t>逻辑层反向速度限制</t>
-  </si>
-  <si>
-    <t>s32PlanSpdRef</t>
-  </si>
-  <si>
-    <t>规划层速度指令</t>
-  </si>
-  <si>
     <t>s16IaFbSi</t>
   </si>
   <si>
@@ -2857,9 +3054,6 @@
     <t>s16UserTrqRef</t>
   </si>
   <si>
-    <t>‰</t>
-  </si>
-  <si>
     <t>用户转矩指令</t>
   </si>
   <si>
@@ -3017,9 +3211,6 @@
   </si>
   <si>
     <t>0.001kg.cm2</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>百分比</t>
@@ -3105,10 +3296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3191,41 +3382,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3244,7 +3404,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3269,7 +3474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3291,21 +3496,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3315,7 +3506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3336,19 +3527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3360,19 +3539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3384,13 +3551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3408,13 +3581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3426,7 +3593,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3438,7 +3629,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3456,49 +3683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3510,13 +3695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3659,17 +3850,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3685,41 +3876,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3747,6 +3903,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3755,10 +3946,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3767,133 +3958,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3998,11 +4189,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -17186,11 +17377,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J31 J38 J45 J83 J84 J85 J86 J87 J88 J89 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J176 J177 J209 J210 J211 J212 J216 J217 J218 J219 J220 J227 J230 J233 J234 J235 J236 J237 J238 J247 J248 J253 J5:J27 J28:J30 J32:J37 J39:J42 J43:J44 J46:J82 J90:J91 J174:J175 J178:J208 J213:J215 J221:J226 J228:J229 J231:J232 J239:J246 J249:J252">
+      <formula1>Unit!$A$2:$A$62</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E9 E28 E31 E38 E45 E83 E84 E85 E86 E87 E88 E89 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E151 E155 E168 E169 E170 E171 E172 E173 E176 E177 E209 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E237 E247 E248 E253 E6:E8 E10:E17 E18:E27 E29:E30 E32:E35 E36:E37 E39:E44 E46:E82 E90:E91 E148:E150 E152:E154 E156:E162 E163:E165 E166:E167 E174:E175 E178:E192 E193:E208 E238:E246 E249:E252">
       <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J31 J38 J45 J83 J84 J85 J86 J87 J88 J89 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J176 J177 J209 J210 J211 J212 J216 J217 J218 J219 J220 J227 J230 J233 J234 J235 J236 J237 J238 J247 J248 J253 J5:J27 J28:J30 J32:J37 J39:J42 J43:J44 J46:J82 J90:J91 J174:J175 J178:J208 J213:J215 J221:J226 J228:J229 J231:J232 J239:J246 J249:J252">
-      <formula1>Unit!$A$2:$A$62</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M31 M38 M50 M83 M84 M85 M86 M87 M88 M89 M92 M93 M94 M95 M96 M97 M98 M99 M100 M101 M102 M103 M104 M105 M106 M107 M108 M109 M110 M111 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M152 M153 M154 M155 M156 M157 M158 M159 M160 M161 M162 M163 M164 M165 M166 M167 M168 M169 M170 M171 M172 M173 M176 M177 M209 M210 M211 M212 M216 M220 M233 M234 M235 M236 M237 M247 M248 M253 M15:M27 M28:M30 M32:M37 M39:M45 M46:M49 M51:M56 M57:M59 M60:M80 M81:M82 M90:M91 M174:M175 M178:M194 M195:M206 M207:M208 M213:M215 M217:M219 M221:M227 M228:M230 M231:M232 M238:M246 M249:M252">
       <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
@@ -17215,10 +17406,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S287"/>
+  <dimension ref="A1:S317"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C255" workbookViewId="0">
-      <selection activeCell="P270" sqref="P270"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="O268" sqref="O268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18821,7 +19012,7 @@
         <v>373</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>24</v>
@@ -18846,7 +19037,7 @@
       </c>
       <c r="O37" s="12"/>
       <c r="P37" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q37" s="18"/>
       <c r="R37" s="27"/>
@@ -18864,7 +19055,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>370</v>
@@ -18892,7 +19083,7 @@
       </c>
       <c r="O38" s="12"/>
       <c r="P38" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q38" s="18"/>
       <c r="R38" s="27"/>
@@ -18910,10 +19101,10 @@
         <v>40</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>24</v>
@@ -23941,7 +24132,7 @@
         <v>24</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>76</v>
@@ -23988,7 +24179,7 @@
         <v>24</v>
       </c>
       <c r="H154" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I154" s="16" t="s">
         <v>76</v>
@@ -24035,7 +24226,7 @@
         <v>24</v>
       </c>
       <c r="H155" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>76</v>
@@ -24082,7 +24273,7 @@
         <v>24</v>
       </c>
       <c r="H156" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I156" s="16" t="s">
         <v>76</v>
@@ -24129,7 +24320,7 @@
         <v>24</v>
       </c>
       <c r="H157" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I157" s="16" t="s">
         <v>76</v>
@@ -24176,7 +24367,7 @@
         <v>24</v>
       </c>
       <c r="H158" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I158" s="16" t="s">
         <v>76</v>
@@ -24223,7 +24414,7 @@
         <v>24</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I159" s="16" t="s">
         <v>76</v>
@@ -24270,7 +24461,7 @@
         <v>24</v>
       </c>
       <c r="H160" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I160" s="16" t="s">
         <v>76</v>
@@ -24317,7 +24508,7 @@
         <v>24</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I161" s="16" t="s">
         <v>76</v>
@@ -24364,7 +24555,7 @@
         <v>24</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I162" s="16" t="s">
         <v>76</v>
@@ -24411,7 +24602,7 @@
         <v>24</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I163" s="16" t="s">
         <v>76</v>
@@ -24458,7 +24649,7 @@
         <v>24</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I164" s="16" t="s">
         <v>76</v>
@@ -24505,7 +24696,7 @@
         <v>24</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I165" s="16" t="s">
         <v>76</v>
@@ -24552,7 +24743,7 @@
         <v>24</v>
       </c>
       <c r="H166" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I166" s="16" t="s">
         <v>76</v>
@@ -24599,7 +24790,7 @@
         <v>24</v>
       </c>
       <c r="H167" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I167" s="16" t="s">
         <v>76</v>
@@ -24646,7 +24837,7 @@
         <v>24</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I168" s="16" t="s">
         <v>76</v>
@@ -24693,7 +24884,7 @@
         <v>24</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I169" s="16" t="s">
         <v>76</v>
@@ -24740,7 +24931,7 @@
         <v>24</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I170" s="16" t="s">
         <v>76</v>
@@ -24787,7 +24978,7 @@
         <v>24</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I171" s="16" t="s">
         <v>76</v>
@@ -24834,7 +25025,7 @@
         <v>24</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I172" s="16" t="s">
         <v>76</v>
@@ -24881,7 +25072,7 @@
         <v>24</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I173" s="16" t="s">
         <v>76</v>
@@ -24928,7 +25119,7 @@
         <v>24</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I174" s="16" t="s">
         <v>76</v>
@@ -24975,7 +25166,7 @@
         <v>24</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I175" s="16" t="s">
         <v>76</v>
@@ -25022,7 +25213,7 @@
         <v>24</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I176" s="16" t="s">
         <v>76</v>
@@ -25069,7 +25260,7 @@
         <v>24</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I177" s="16" t="s">
         <v>76</v>
@@ -25116,7 +25307,7 @@
         <v>24</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I178" s="16" t="s">
         <v>76</v>
@@ -25163,7 +25354,7 @@
         <v>24</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I179" s="16" t="s">
         <v>76</v>
@@ -25210,7 +25401,7 @@
         <v>24</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I180" s="16" t="s">
         <v>76</v>
@@ -25257,7 +25448,7 @@
         <v>24</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I181" s="16" t="s">
         <v>76</v>
@@ -25304,7 +25495,7 @@
         <v>24</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I182" s="16" t="s">
         <v>76</v>
@@ -25351,7 +25542,7 @@
         <v>24</v>
       </c>
       <c r="H183" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I183" s="16" t="s">
         <v>76</v>
@@ -25398,7 +25589,7 @@
         <v>24</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I184" s="16" t="s">
         <v>76</v>
@@ -25479,33 +25670,37 @@
       <c r="E186" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F186" s="20"/>
+      <c r="F186" s="20" t="s">
+        <v>606</v>
+      </c>
       <c r="G186" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H186" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I186" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>25</v>
+        <v>607</v>
       </c>
       <c r="K186" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L186" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M186" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N186" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O186" s="18"/>
-      <c r="P186" s="18"/>
+      <c r="P186" s="33" t="s">
+        <v>608</v>
+      </c>
       <c r="Q186" s="18"/>
       <c r="R186" s="27"/>
     </row>
@@ -25520,33 +25715,37 @@
       <c r="E187" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F187" s="20"/>
+      <c r="F187" s="20" t="s">
+        <v>609</v>
+      </c>
       <c r="G187" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H187" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I187" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>25</v>
+        <v>607</v>
       </c>
       <c r="K187" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L187" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M187" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N187" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O187" s="18"/>
-      <c r="P187" s="18"/>
+      <c r="P187" s="33" t="s">
+        <v>610</v>
+      </c>
       <c r="Q187" s="18"/>
       <c r="R187" s="27"/>
     </row>
@@ -25561,33 +25760,37 @@
       <c r="E188" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F188" s="20"/>
+      <c r="F188" s="20" t="s">
+        <v>611</v>
+      </c>
       <c r="G188" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I188" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>25</v>
+        <v>607</v>
       </c>
       <c r="K188" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L188" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M188" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N188" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O188" s="18"/>
-      <c r="P188" s="18"/>
+      <c r="P188" s="33" t="s">
+        <v>612</v>
+      </c>
       <c r="Q188" s="18"/>
       <c r="R188" s="27"/>
     </row>
@@ -25685,7 +25888,7 @@
         <v>40</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>24</v>
@@ -25713,7 +25916,7 @@
       </c>
       <c r="O191" s="18"/>
       <c r="P191" s="18" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="Q191" s="18"/>
       <c r="R191" s="27"/>
@@ -25730,7 +25933,7 @@
         <v>40</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>24</v>
@@ -25758,7 +25961,7 @@
       </c>
       <c r="O192" s="18"/>
       <c r="P192" s="18" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q192" s="18"/>
       <c r="R192" s="27"/>
@@ -25775,7 +25978,7 @@
         <v>40</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>24</v>
@@ -25803,7 +26006,7 @@
       </c>
       <c r="O193" s="18"/>
       <c r="P193" s="18" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="Q193" s="18"/>
       <c r="R193" s="27"/>
@@ -25820,7 +26023,7 @@
         <v>40</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>24</v>
@@ -25848,7 +26051,7 @@
       </c>
       <c r="O194" s="18"/>
       <c r="P194" s="18" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q194" s="18"/>
       <c r="R194" s="27"/>
@@ -25865,7 +26068,7 @@
         <v>40</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>24</v>
@@ -25893,7 +26096,7 @@
       </c>
       <c r="O195" s="18"/>
       <c r="P195" s="18" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="Q195" s="18"/>
       <c r="R195" s="27"/>
@@ -25910,7 +26113,7 @@
         <v>40</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>24</v>
@@ -25938,7 +26141,7 @@
       </c>
       <c r="O196" s="18"/>
       <c r="P196" s="18" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="Q196" s="18"/>
       <c r="R196" s="27"/>
@@ -25955,7 +26158,7 @@
         <v>40</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>24</v>
@@ -25983,7 +26186,7 @@
       </c>
       <c r="O197" s="18"/>
       <c r="P197" s="18" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="Q197" s="18"/>
       <c r="R197" s="27"/>
@@ -26000,7 +26203,7 @@
         <v>40</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>24</v>
@@ -26028,7 +26231,7 @@
       </c>
       <c r="O198" s="18"/>
       <c r="P198" s="18" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="Q198" s="18"/>
       <c r="R198" s="27"/>
@@ -26045,7 +26248,7 @@
         <v>40</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>24</v>
@@ -26073,7 +26276,7 @@
       </c>
       <c r="O199" s="18"/>
       <c r="P199" s="18" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="Q199" s="18"/>
       <c r="R199" s="27"/>
@@ -26090,7 +26293,7 @@
         <v>40</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>24</v>
@@ -26118,7 +26321,7 @@
       </c>
       <c r="O200" s="18"/>
       <c r="P200" s="18" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="Q200" s="18"/>
       <c r="R200" s="27"/>
@@ -26135,7 +26338,7 @@
         <v>40</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>24</v>
@@ -26163,7 +26366,7 @@
       </c>
       <c r="O201" s="18"/>
       <c r="P201" s="18" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="Q201" s="18"/>
       <c r="R201" s="27"/>
@@ -26180,7 +26383,7 @@
         <v>40</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>24</v>
@@ -26208,7 +26411,7 @@
       </c>
       <c r="O202" s="18"/>
       <c r="P202" s="18" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="Q202" s="18"/>
       <c r="R202" s="27"/>
@@ -26225,7 +26428,7 @@
         <v>40</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>24</v>
@@ -26253,7 +26456,7 @@
       </c>
       <c r="O203" s="18"/>
       <c r="P203" s="18" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="Q203" s="18"/>
       <c r="R203" s="27"/>
@@ -26270,7 +26473,7 @@
         <v>40</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>24</v>
@@ -26298,7 +26501,7 @@
       </c>
       <c r="O204" s="18"/>
       <c r="P204" s="18" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="Q204" s="18"/>
       <c r="R204" s="27"/>
@@ -26315,7 +26518,7 @@
         <v>40</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="G205" s="16" t="s">
         <v>24</v>
@@ -26343,7 +26546,7 @@
       </c>
       <c r="O205" s="18"/>
       <c r="P205" s="18" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="Q205" s="18"/>
       <c r="R205" s="27"/>
@@ -26360,7 +26563,7 @@
         <v>40</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>24</v>
@@ -26388,12 +26591,12 @@
       </c>
       <c r="O206" s="18"/>
       <c r="P206" s="18" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="Q206" s="18"/>
       <c r="R206" s="27"/>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" ht="52" spans="1:18">
       <c r="A207" s="12"/>
       <c r="B207" s="30"/>
       <c r="C207" s="12"/>
@@ -26404,7 +26607,9 @@
       <c r="E207" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F207" s="20"/>
+      <c r="F207" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="G207" s="16" t="s">
         <v>24</v>
       </c>
@@ -26412,26 +26617,30 @@
         <v>24</v>
       </c>
       <c r="I207" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J207" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K207" s="12" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="L207" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M207" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N207" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O207" s="18"/>
-      <c r="P207" s="18"/>
-      <c r="Q207" s="18"/>
+      <c r="P207" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q207" s="26" t="s">
+        <v>647</v>
+      </c>
       <c r="R207" s="27"/>
     </row>
     <row r="208" spans="1:18">
@@ -26443,35 +26652,39 @@
         <v>609</v>
       </c>
       <c r="E208" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F208" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="F208" s="20" t="s">
+        <v>648</v>
+      </c>
       <c r="G208" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="I208" s="16" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="J208" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K208" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L208" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M208" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N208" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O208" s="18"/>
-      <c r="P208" s="18"/>
+      <c r="P208" s="33" t="s">
+        <v>649</v>
+      </c>
       <c r="Q208" s="18"/>
       <c r="R208" s="27"/>
     </row>
@@ -26528,10 +26741,10 @@
         <v>40</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="H210" s="16" t="s">
         <v>75</v>
@@ -26540,7 +26753,7 @@
         <v>76</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="K210" s="12" t="s">
         <v>430</v>
@@ -26556,10 +26769,10 @@
       </c>
       <c r="O210" s="18"/>
       <c r="P210" s="18" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="Q210" s="18" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="R210" s="27"/>
     </row>
@@ -26575,7 +26788,7 @@
         <v>170</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>24</v>
@@ -26587,7 +26800,7 @@
         <v>253</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="K211" s="12" t="s">
         <v>430</v>
@@ -26603,10 +26816,10 @@
       </c>
       <c r="O211" s="18"/>
       <c r="P211" s="18" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="Q211" s="18" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="R211" s="27"/>
     </row>
@@ -26622,16 +26835,16 @@
         <v>170</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="I212" s="16" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="J212" s="12" t="s">
         <v>25</v>
@@ -26650,10 +26863,10 @@
       </c>
       <c r="O212" s="18"/>
       <c r="P212" s="18" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="Q212" s="18" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="R212" s="27"/>
     </row>
@@ -26669,10 +26882,10 @@
         <v>170</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="H213" s="16" t="s">
         <v>252</v>
@@ -26697,10 +26910,10 @@
       </c>
       <c r="O213" s="18"/>
       <c r="P213" s="18" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="Q213" s="18" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="R213" s="27"/>
     </row>
@@ -26716,7 +26929,7 @@
         <v>170</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>24</v>
@@ -26744,10 +26957,10 @@
       </c>
       <c r="O214" s="18"/>
       <c r="P214" s="18" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="Q214" s="18" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="R214" s="27"/>
     </row>
@@ -26762,7 +26975,9 @@
       <c r="E215" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F215" s="20"/>
+      <c r="F215" s="20" t="s">
+        <v>666</v>
+      </c>
       <c r="G215" s="16" t="s">
         <v>24</v>
       </c>
@@ -26770,25 +26985,27 @@
         <v>24</v>
       </c>
       <c r="I215" s="16" t="s">
-        <v>24</v>
+        <v>667</v>
       </c>
       <c r="J215" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K215" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L215" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M215" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N215" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O215" s="18"/>
-      <c r="P215" s="18"/>
+      <c r="P215" s="33" t="s">
+        <v>668</v>
+      </c>
       <c r="Q215" s="18"/>
       <c r="R215" s="27"/>
     </row>
@@ -26803,33 +27020,37 @@
       <c r="E216" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F216" s="20"/>
+      <c r="F216" s="20" t="s">
+        <v>669</v>
+      </c>
       <c r="G216" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="H216" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I216" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J216" s="12" t="s">
-        <v>25</v>
+        <v>670</v>
       </c>
       <c r="K216" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L216" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M216" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N216" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O216" s="18"/>
-      <c r="P216" s="18"/>
+      <c r="P216" s="33" t="s">
+        <v>671</v>
+      </c>
       <c r="Q216" s="18"/>
       <c r="R216" s="27"/>
     </row>
@@ -26844,37 +27065,41 @@
       <c r="E217" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F217" s="20"/>
+      <c r="F217" s="20" t="s">
+        <v>672</v>
+      </c>
       <c r="G217" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I217" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>25</v>
+        <v>670</v>
       </c>
       <c r="K217" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L217" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M217" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N217" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O217" s="18"/>
-      <c r="P217" s="18"/>
+      <c r="P217" s="33" t="s">
+        <v>673</v>
+      </c>
       <c r="Q217" s="18"/>
       <c r="R217" s="27"/>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" s="5" customFormat="1" spans="1:18">
       <c r="A218" s="12"/>
       <c r="B218" s="30"/>
       <c r="C218" s="12"/>
@@ -26927,7 +27152,7 @@
         <v>40</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>24</v>
@@ -26954,7 +27179,9 @@
         <v>29</v>
       </c>
       <c r="O219" s="18"/>
-      <c r="P219" s="18"/>
+      <c r="P219" s="33" t="s">
+        <v>675</v>
+      </c>
       <c r="Q219" s="18"/>
       <c r="R219" s="27"/>
     </row>
@@ -26970,7 +27197,7 @@
         <v>40</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>24</v>
@@ -26998,7 +27225,7 @@
       </c>
       <c r="O220" s="18"/>
       <c r="P220" s="18" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="Q220" s="18"/>
       <c r="R220" s="27"/>
@@ -27015,7 +27242,7 @@
         <v>40</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>24</v>
@@ -27043,7 +27270,7 @@
       </c>
       <c r="O221" s="18"/>
       <c r="P221" s="18" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="Q221" s="18"/>
       <c r="R221" s="27"/>
@@ -27142,7 +27369,7 @@
         <v>40</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>24</v>
@@ -27170,7 +27397,7 @@
       </c>
       <c r="O224" s="18"/>
       <c r="P224" s="18" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="Q224" s="18"/>
       <c r="R224" s="27"/>
@@ -27339,7 +27566,7 @@
       <c r="Q228" s="18"/>
       <c r="R228" s="27"/>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" s="5" customFormat="1" spans="1:18">
       <c r="A229" s="12"/>
       <c r="B229" s="30"/>
       <c r="C229" s="12"/>
@@ -27348,11 +27575,9 @@
         <v>630</v>
       </c>
       <c r="E229" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="F229" s="20" t="s">
-        <v>661</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F229" s="20"/>
       <c r="G229" s="16" t="s">
         <v>24</v>
       </c>
@@ -27363,7 +27588,7 @@
         <v>24</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K229" s="12" t="s">
         <v>26</v>
@@ -27377,27 +27602,23 @@
       <c r="N229" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O229" s="18"/>
-      <c r="P229" s="18" t="s">
-        <v>662</v>
-      </c>
+      <c r="O229" s="28"/>
+      <c r="P229" s="18"/>
       <c r="Q229" s="18"/>
       <c r="R229" s="27"/>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" s="5" customFormat="1" spans="1:18">
       <c r="A230" s="12"/>
       <c r="B230" s="30"/>
       <c r="C230" s="12"/>
       <c r="D230" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="F230" s="20" t="s">
-        <v>663</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F230" s="20"/>
       <c r="G230" s="16" t="s">
         <v>24</v>
       </c>
@@ -27408,7 +27629,7 @@
         <v>24</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K230" s="12" t="s">
         <v>26</v>
@@ -27422,10 +27643,8 @@
       <c r="N230" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O230" s="18"/>
-      <c r="P230" s="18" t="s">
-        <v>664</v>
-      </c>
+      <c r="O230" s="28"/>
+      <c r="P230" s="18"/>
       <c r="Q230" s="18"/>
       <c r="R230" s="27"/>
     </row>
@@ -27435,7 +27654,7 @@
       <c r="C231" s="12"/>
       <c r="D231" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>40</v>
@@ -27476,7 +27695,7 @@
       <c r="C232" s="12"/>
       <c r="D232" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E232" s="14" t="s">
         <v>40</v>
@@ -27517,7 +27736,7 @@
       <c r="C233" s="12"/>
       <c r="D233" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E233" s="14" t="s">
         <v>40</v>
@@ -27558,13 +27777,13 @@
       <c r="C234" s="12"/>
       <c r="D234" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E234" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F234" s="20" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>24</v>
@@ -27578,8 +27797,8 @@
       <c r="J234" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K234" s="33" t="s">
-        <v>666</v>
+      <c r="K234" s="34" t="s">
+        <v>683</v>
       </c>
       <c r="L234" s="14" t="s">
         <v>27</v>
@@ -27592,7 +27811,7 @@
       </c>
       <c r="O234" s="28"/>
       <c r="P234" s="18" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="Q234" s="18"/>
       <c r="R234" s="27"/>
@@ -27603,7 +27822,7 @@
       <c r="C235" s="12"/>
       <c r="D235" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E235" s="14" t="s">
         <v>40</v>
@@ -27644,7 +27863,7 @@
       <c r="C236" s="12"/>
       <c r="D236" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E236" s="14" t="s">
         <v>40</v>
@@ -27685,7 +27904,7 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E237" s="14" t="s">
         <v>40</v>
@@ -27726,7 +27945,7 @@
       <c r="C238" s="12"/>
       <c r="D238" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E238" s="14" t="s">
         <v>40</v>
@@ -27767,13 +27986,13 @@
       <c r="C239" s="12"/>
       <c r="D239" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E239" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>24</v>
@@ -27801,7 +28020,7 @@
       </c>
       <c r="O239" s="28"/>
       <c r="P239" s="18" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="Q239" s="18"/>
       <c r="R239" s="27"/>
@@ -27812,13 +28031,13 @@
       <c r="C240" s="12"/>
       <c r="D240" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E240" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>24</v>
@@ -27846,7 +28065,7 @@
       </c>
       <c r="O240" s="28"/>
       <c r="P240" s="18" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="Q240" s="18"/>
       <c r="R240" s="27"/>
@@ -27857,13 +28076,13 @@
       <c r="C241" s="12"/>
       <c r="D241" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E241" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>24</v>
@@ -27891,7 +28110,7 @@
       </c>
       <c r="O241" s="28"/>
       <c r="P241" s="18" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="Q241" s="18"/>
       <c r="R241" s="27"/>
@@ -27902,13 +28121,13 @@
       <c r="C242" s="12"/>
       <c r="D242" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E242" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>24</v>
@@ -27936,7 +28155,7 @@
       </c>
       <c r="O242" s="28"/>
       <c r="P242" s="18" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="Q242" s="18"/>
       <c r="R242" s="27"/>
@@ -27947,13 +28166,13 @@
       <c r="C243" s="12"/>
       <c r="D243" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E243" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>24</v>
@@ -27962,7 +28181,7 @@
         <v>24</v>
       </c>
       <c r="I243" s="16" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="J243" s="12" t="s">
         <v>25</v>
@@ -27981,7 +28200,7 @@
       </c>
       <c r="O243" s="28"/>
       <c r="P243" s="18" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="Q243" s="18"/>
       <c r="R243" s="27"/>
@@ -27992,13 +28211,13 @@
       <c r="C244" s="12"/>
       <c r="D244" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E244" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>24</v>
@@ -28026,7 +28245,7 @@
       </c>
       <c r="O244" s="28"/>
       <c r="P244" s="18" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="Q244" s="18"/>
       <c r="R244" s="27"/>
@@ -28037,13 +28256,13 @@
       <c r="C245" s="12"/>
       <c r="D245" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E245" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>24</v>
@@ -28071,7 +28290,7 @@
       </c>
       <c r="O245" s="28"/>
       <c r="P245" s="18" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="Q245" s="18"/>
       <c r="R245" s="27"/>
@@ -28082,13 +28301,13 @@
       <c r="C246" s="12"/>
       <c r="D246" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E246" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="G246" s="16" t="s">
         <v>24</v>
@@ -28116,7 +28335,7 @@
       </c>
       <c r="O246" s="28"/>
       <c r="P246" s="18" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="Q246" s="18"/>
       <c r="R246" s="27"/>
@@ -28127,7 +28346,7 @@
       <c r="C247" s="12"/>
       <c r="D247" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E247" s="14" t="s">
         <v>40</v>
@@ -28168,13 +28387,13 @@
       <c r="C248" s="12"/>
       <c r="D248" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E248" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>24</v>
@@ -28202,7 +28421,7 @@
       </c>
       <c r="O248" s="28"/>
       <c r="P248" s="18" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="Q248" s="18"/>
       <c r="R248" s="27"/>
@@ -28212,13 +28431,15 @@
       <c r="B249" s="30"/>
       <c r="C249" s="12"/>
       <c r="D249" s="12">
-        <f t="shared" ref="D249:D270" si="1">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>652</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>650</v>
       </c>
       <c r="E249" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F249" s="20"/>
+      <c r="F249" s="20" t="s">
+        <v>704</v>
+      </c>
       <c r="G249" s="16" t="s">
         <v>24</v>
       </c>
@@ -28232,19 +28453,21 @@
         <v>25</v>
       </c>
       <c r="K249" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L249" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M249" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N249" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O249" s="28"/>
-      <c r="P249" s="18"/>
+      <c r="P249" s="33" t="s">
+        <v>705</v>
+      </c>
       <c r="Q249" s="18"/>
       <c r="R249" s="27"/>
     </row>
@@ -28253,42 +28476,42 @@
       <c r="B250" s="30"/>
       <c r="C250" s="12"/>
       <c r="D250" s="12">
-        <f t="shared" si="1"/>
-        <v>653</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>651</v>
       </c>
       <c r="E250" s="14" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H250" s="16" t="s">
-        <v>509</v>
+        <v>24</v>
       </c>
       <c r="I250" s="16" t="s">
-        <v>510</v>
+        <v>24</v>
       </c>
       <c r="J250" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K250" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L250" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M250" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N250" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O250" s="28"/>
-      <c r="P250" s="18" t="s">
-        <v>688</v>
+      <c r="O250" s="18"/>
+      <c r="P250" s="33" t="s">
+        <v>705</v>
       </c>
       <c r="Q250" s="18"/>
       <c r="R250" s="27"/>
@@ -28298,17 +28521,17 @@
       <c r="B251" s="30"/>
       <c r="C251" s="12"/>
       <c r="D251" s="12">
-        <f t="shared" si="1"/>
-        <v>655</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>652</v>
       </c>
       <c r="E251" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F251" s="20" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="G251" s="16" t="s">
-        <v>24</v>
+        <v>374</v>
       </c>
       <c r="H251" s="16" t="s">
         <v>75</v>
@@ -28317,52 +28540,50 @@
         <v>76</v>
       </c>
       <c r="J251" s="12" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K251" s="12" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="L251" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M251" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N251" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O251" s="28"/>
-      <c r="P251" s="18" t="s">
-        <v>690</v>
+      <c r="O251" s="18"/>
+      <c r="P251" s="33" t="s">
+        <v>708</v>
       </c>
       <c r="Q251" s="18"/>
       <c r="R251" s="27"/>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" s="5" customFormat="1" spans="1:18">
       <c r="A252" s="12"/>
       <c r="B252" s="30"/>
       <c r="C252" s="12"/>
       <c r="D252" s="12">
-        <f t="shared" si="1"/>
-        <v>656</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>653</v>
       </c>
       <c r="E252" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F252" s="20" t="s">
-        <v>691</v>
-      </c>
+      <c r="F252" s="20"/>
       <c r="G252" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H252" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I252" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J252" s="12" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K252" s="12" t="s">
         <v>26</v>
@@ -28376,27 +28597,23 @@
       <c r="N252" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O252" s="28"/>
-      <c r="P252" s="34" t="s">
-        <v>692</v>
-      </c>
+      <c r="O252" s="12"/>
+      <c r="P252" s="18"/>
       <c r="Q252" s="18"/>
       <c r="R252" s="27"/>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" s="5" customFormat="1" spans="1:18">
       <c r="A253" s="12"/>
       <c r="B253" s="30"/>
       <c r="C253" s="12"/>
       <c r="D253" s="12">
-        <f t="shared" si="1"/>
-        <v>657</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>654</v>
       </c>
       <c r="E253" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F253" s="20" t="s">
-        <v>693</v>
-      </c>
+      <c r="F253" s="20"/>
       <c r="G253" s="16" t="s">
         <v>24</v>
       </c>
@@ -28421,27 +28638,23 @@
       <c r="N253" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O253" s="28"/>
-      <c r="P253" s="34" t="s">
-        <v>694</v>
-      </c>
+      <c r="O253" s="12"/>
+      <c r="P253" s="18"/>
       <c r="Q253" s="18"/>
       <c r="R253" s="27"/>
     </row>
-    <row r="254" ht="26" spans="1:18">
+    <row r="254" s="5" customFormat="1" spans="1:18">
       <c r="A254" s="12"/>
       <c r="B254" s="30"/>
       <c r="C254" s="12"/>
       <c r="D254" s="12">
-        <f t="shared" si="1"/>
-        <v>658</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>655</v>
       </c>
       <c r="E254" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F254" s="20" t="s">
-        <v>695</v>
-      </c>
+      <c r="F254" s="20"/>
       <c r="G254" s="16" t="s">
         <v>24</v>
       </c>
@@ -28449,13 +28662,13 @@
         <v>24</v>
       </c>
       <c r="I254" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J254" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K254" s="12" t="s">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="L254" s="14" t="s">
         <v>27</v>
@@ -28466,43 +28679,37 @@
       <c r="N254" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O254" s="28"/>
-      <c r="P254" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q254" s="26" t="s">
-        <v>697</v>
-      </c>
+      <c r="O254" s="12"/>
+      <c r="P254" s="18"/>
+      <c r="Q254" s="18"/>
       <c r="R254" s="27"/>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" s="5" customFormat="1" spans="1:18">
       <c r="A255" s="12"/>
       <c r="B255" s="30"/>
       <c r="C255" s="12"/>
       <c r="D255" s="12">
-        <f t="shared" si="1"/>
-        <v>659</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>656</v>
       </c>
       <c r="E255" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F255" s="20" t="s">
-        <v>698</v>
-      </c>
+      <c r="F255" s="20"/>
       <c r="G255" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H255" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I255" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K255" s="12" t="s">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="L255" s="14" t="s">
         <v>27</v>
@@ -28513,20 +28720,18 @@
       <c r="N255" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O255" s="28"/>
-      <c r="P255" s="18" t="s">
-        <v>490</v>
-      </c>
+      <c r="O255" s="12"/>
+      <c r="P255" s="18"/>
       <c r="Q255" s="18"/>
       <c r="R255" s="27"/>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" s="5" customFormat="1" spans="1:18">
       <c r="A256" s="12"/>
       <c r="B256" s="30"/>
       <c r="C256" s="12"/>
       <c r="D256" s="12">
-        <f t="shared" si="1"/>
-        <v>660</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>657</v>
       </c>
       <c r="E256" s="14" t="s">
         <v>40</v>
@@ -28556,36 +28761,34 @@
       <c r="N256" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O256" s="28"/>
+      <c r="O256" s="12"/>
       <c r="P256" s="18"/>
       <c r="Q256" s="18"/>
       <c r="R256" s="27"/>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" s="5" customFormat="1" spans="1:18">
       <c r="A257" s="12"/>
       <c r="B257" s="30"/>
       <c r="C257" s="12"/>
       <c r="D257" s="12">
-        <f t="shared" si="1"/>
-        <v>661</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>658</v>
       </c>
       <c r="E257" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F257" s="20" t="s">
-        <v>699</v>
-      </c>
+      <c r="F257" s="20"/>
       <c r="G257" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H257" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I257" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K257" s="12" t="s">
         <v>26</v>
@@ -28599,7 +28802,7 @@
       <c r="N257" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O257" s="28"/>
+      <c r="O257" s="12"/>
       <c r="P257" s="18"/>
       <c r="Q257" s="18"/>
       <c r="R257" s="27"/>
@@ -28609,26 +28812,26 @@
       <c r="B258" s="30"/>
       <c r="C258" s="12"/>
       <c r="D258" s="12">
-        <f t="shared" si="1"/>
-        <v>662</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>659</v>
       </c>
       <c r="E258" s="14" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H258" s="16" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
       <c r="I258" s="16" t="s">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>115</v>
+        <v>497</v>
       </c>
       <c r="K258" s="12" t="s">
         <v>26</v>
@@ -28643,7 +28846,9 @@
         <v>29</v>
       </c>
       <c r="O258" s="28"/>
-      <c r="P258" s="18"/>
+      <c r="P258" s="18" t="s">
+        <v>710</v>
+      </c>
       <c r="Q258" s="18"/>
       <c r="R258" s="27"/>
     </row>
@@ -28652,24 +28857,26 @@
       <c r="B259" s="30"/>
       <c r="C259" s="12"/>
       <c r="D259" s="12">
-        <f t="shared" si="1"/>
-        <v>663</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>661</v>
       </c>
       <c r="E259" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F259" s="20"/>
+      <c r="F259" s="20" t="s">
+        <v>711</v>
+      </c>
       <c r="G259" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H259" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I259" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J259" s="12" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="K259" s="12" t="s">
         <v>26</v>
@@ -28684,7 +28891,9 @@
         <v>29</v>
       </c>
       <c r="O259" s="28"/>
-      <c r="P259" s="18"/>
+      <c r="P259" s="18" t="s">
+        <v>712</v>
+      </c>
       <c r="Q259" s="18"/>
       <c r="R259" s="27"/>
     </row>
@@ -28693,29 +28902,29 @@
       <c r="B260" s="30"/>
       <c r="C260" s="12"/>
       <c r="D260" s="12">
-        <f t="shared" si="1"/>
-        <v>664</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>662</v>
       </c>
       <c r="E260" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F260" s="20" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H260" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I260" s="16" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J260" s="12" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="K260" s="12" t="s">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="L260" s="14" t="s">
         <v>27</v>
@@ -28727,8 +28936,8 @@
         <v>29</v>
       </c>
       <c r="O260" s="28"/>
-      <c r="P260" s="34" t="s">
-        <v>702</v>
+      <c r="P260" s="33" t="s">
+        <v>714</v>
       </c>
       <c r="Q260" s="18"/>
       <c r="R260" s="27"/>
@@ -28738,13 +28947,15 @@
       <c r="B261" s="30"/>
       <c r="C261" s="12"/>
       <c r="D261" s="12">
-        <f t="shared" si="1"/>
-        <v>665</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>663</v>
       </c>
       <c r="E261" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F261" s="20"/>
+      <c r="F261" s="20" t="s">
+        <v>715</v>
+      </c>
       <c r="G261" s="16" t="s">
         <v>24</v>
       </c>
@@ -28770,7 +28981,9 @@
         <v>29</v>
       </c>
       <c r="O261" s="28"/>
-      <c r="P261" s="18"/>
+      <c r="P261" s="33" t="s">
+        <v>716</v>
+      </c>
       <c r="Q261" s="18"/>
       <c r="R261" s="27"/>
     </row>
@@ -28779,14 +28992,14 @@
       <c r="B262" s="30"/>
       <c r="C262" s="12"/>
       <c r="D262" s="12">
-        <f t="shared" si="1"/>
-        <v>666</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>664</v>
       </c>
       <c r="E262" s="14" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="F262" s="20" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>24</v>
@@ -28798,23 +29011,23 @@
         <v>24</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
       <c r="K262" s="12" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="L262" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M262" s="12" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="N262" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O262" s="28"/>
-      <c r="P262" s="34" t="s">
-        <v>704</v>
+      <c r="O262" s="12"/>
+      <c r="P262" s="33" t="s">
+        <v>718</v>
       </c>
       <c r="Q262" s="18"/>
       <c r="R262" s="27"/>
@@ -28824,14 +29037,14 @@
       <c r="B263" s="30"/>
       <c r="C263" s="12"/>
       <c r="D263" s="12">
-        <f t="shared" si="1"/>
-        <v>667</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>666</v>
       </c>
       <c r="E263" s="14" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="G263" s="16" t="s">
         <v>24</v>
@@ -28843,41 +29056,39 @@
         <v>24</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
       <c r="K263" s="12" t="s">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="L263" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M263" s="12" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="N263" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O263" s="18"/>
-      <c r="P263" s="34" t="s">
-        <v>706</v>
+      <c r="P263" s="33" t="s">
+        <v>720</v>
       </c>
       <c r="Q263" s="18"/>
       <c r="R263" s="27"/>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" s="5" customFormat="1" spans="1:18">
       <c r="A264" s="12"/>
       <c r="B264" s="30"/>
       <c r="C264" s="12"/>
       <c r="D264" s="12">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
         <v>668</v>
       </c>
       <c r="E264" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F264" s="20" t="s">
-        <v>707</v>
-      </c>
+      <c r="F264" s="20"/>
       <c r="G264" s="16" t="s">
         <v>24</v>
       </c>
@@ -28885,42 +29096,42 @@
         <v>24</v>
       </c>
       <c r="I264" s="16" t="s">
-        <v>708</v>
+        <v>24</v>
       </c>
       <c r="J264" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K264" s="33" t="s">
-        <v>430</v>
+      <c r="K264" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="L264" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M264" s="12" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="N264" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O264" s="12"/>
-      <c r="P264" s="34" t="s">
-        <v>709</v>
-      </c>
+      <c r="P264" s="18"/>
       <c r="Q264" s="18"/>
       <c r="R264" s="27"/>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" s="5" customFormat="1" spans="1:18">
       <c r="A265" s="12"/>
       <c r="B265" s="30"/>
       <c r="C265" s="12"/>
       <c r="D265" s="12">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
         <v>669</v>
       </c>
       <c r="E265" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F265" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="F265" s="20" t="s">
+        <v>721</v>
+      </c>
       <c r="G265" s="16" t="s">
         <v>24</v>
       </c>
@@ -28945,24 +29156,26 @@
       <c r="N265" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O265" s="18"/>
-      <c r="P265" s="18"/>
+      <c r="O265" s="28"/>
+      <c r="P265" s="33" t="s">
+        <v>722</v>
+      </c>
       <c r="Q265" s="18"/>
       <c r="R265" s="27"/>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" s="5" customFormat="1" spans="1:18">
       <c r="A266" s="12"/>
       <c r="B266" s="30"/>
       <c r="C266" s="12"/>
       <c r="D266" s="12">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
         <v>670</v>
       </c>
       <c r="E266" s="14" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="G266" s="16" t="s">
         <v>24</v>
@@ -28974,7 +29187,7 @@
         <v>24</v>
       </c>
       <c r="J266" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K266" s="12" t="s">
         <v>26</v>
@@ -28988,26 +29201,26 @@
       <c r="N266" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O266" s="12"/>
-      <c r="P266" s="34" t="s">
-        <v>711</v>
+      <c r="O266" s="28"/>
+      <c r="P266" s="33" t="s">
+        <v>724</v>
       </c>
       <c r="Q266" s="18"/>
       <c r="R266" s="27"/>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" customFormat="1" spans="1:18">
       <c r="A267" s="12"/>
       <c r="B267" s="30"/>
       <c r="C267" s="12"/>
       <c r="D267" s="12">
-        <f t="shared" si="1"/>
-        <v>672</v>
+        <f t="shared" ref="D267:D284" si="1">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>671</v>
       </c>
       <c r="E267" s="14" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="G267" s="16" t="s">
         <v>24</v>
@@ -29019,7 +29232,7 @@
         <v>24</v>
       </c>
       <c r="J267" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K267" s="12" t="s">
         <v>26</v>
@@ -29033,20 +29246,20 @@
       <c r="N267" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O267" s="18"/>
-      <c r="P267" s="34" t="s">
-        <v>713</v>
+      <c r="O267" s="28"/>
+      <c r="P267" s="33" t="s">
+        <v>726</v>
       </c>
       <c r="Q267" s="18"/>
       <c r="R267" s="27"/>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" customFormat="1" spans="1:18">
       <c r="A268" s="12"/>
       <c r="B268" s="30"/>
       <c r="C268" s="12"/>
       <c r="D268" s="12">
         <f t="shared" si="1"/>
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E268" s="14" t="s">
         <v>40</v>
@@ -29076,25 +29289,23 @@
       <c r="N268" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O268" s="12"/>
+      <c r="O268" s="28"/>
       <c r="P268" s="18"/>
       <c r="Q268" s="18"/>
       <c r="R268" s="27"/>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" customFormat="1" spans="1:18">
       <c r="A269" s="12"/>
       <c r="B269" s="30"/>
       <c r="C269" s="12"/>
       <c r="D269" s="12">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E269" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="F269" s="20" t="s">
-        <v>714</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F269" s="20"/>
       <c r="G269" s="16" t="s">
         <v>24</v>
       </c>
@@ -29105,7 +29316,7 @@
         <v>24</v>
       </c>
       <c r="J269" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K269" s="12" t="s">
         <v>26</v>
@@ -29119,25 +29330,25 @@
       <c r="N269" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O269" s="18"/>
-      <c r="P269" s="34" t="s">
-        <v>715</v>
-      </c>
+      <c r="O269" s="28"/>
+      <c r="P269" s="18"/>
       <c r="Q269" s="18"/>
       <c r="R269" s="27"/>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" customFormat="1" spans="1:18">
       <c r="A270" s="12"/>
       <c r="B270" s="30"/>
       <c r="C270" s="12"/>
       <c r="D270" s="12">
         <f t="shared" si="1"/>
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F270" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="F270" s="20" t="s">
+        <v>727</v>
+      </c>
       <c r="G270" s="16" t="s">
         <v>24</v>
       </c>
@@ -29162,8 +29373,10 @@
       <c r="N270" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O270" s="12"/>
-      <c r="P270" s="18"/>
+      <c r="O270" s="28"/>
+      <c r="P270" s="33" t="s">
+        <v>728</v>
+      </c>
       <c r="Q270" s="18"/>
       <c r="R270" s="27"/>
     </row>
@@ -29176,9 +29389,11 @@
         <v>678</v>
       </c>
       <c r="E271" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F271" s="20"/>
+        <v>361</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>729</v>
+      </c>
       <c r="G271" s="16" t="s">
         <v>24</v>
       </c>
@@ -29189,7 +29404,7 @@
         <v>24</v>
       </c>
       <c r="J271" s="12" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
       <c r="K271" s="12" t="s">
         <v>26</v>
@@ -29203,23 +29418,27 @@
       <c r="N271" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O271" s="12"/>
-      <c r="P271" s="18"/>
+      <c r="O271" s="18"/>
+      <c r="P271" s="33" t="s">
+        <v>730</v>
+      </c>
       <c r="Q271" s="18"/>
       <c r="R271" s="27"/>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" s="5" customFormat="1" spans="1:18">
       <c r="A272" s="12"/>
       <c r="B272" s="30"/>
       <c r="C272" s="12"/>
       <c r="D272" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F272" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="F272" s="20" t="s">
+        <v>731</v>
+      </c>
       <c r="G272" s="16" t="s">
         <v>24</v>
       </c>
@@ -29244,18 +29463,20 @@
       <c r="N272" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O272" s="12"/>
-      <c r="P272" s="18"/>
+      <c r="O272" s="18"/>
+      <c r="P272" s="33" t="s">
+        <v>732</v>
+      </c>
       <c r="Q272" s="18"/>
       <c r="R272" s="27"/>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" customFormat="1" spans="1:18">
       <c r="A273" s="12"/>
       <c r="B273" s="30"/>
       <c r="C273" s="12"/>
       <c r="D273" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>680</v>
+        <f t="shared" si="1"/>
+        <v>681</v>
       </c>
       <c r="E273" s="14" t="s">
         <v>40</v>
@@ -29285,36 +29506,34 @@
       <c r="N273" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O273" s="12"/>
+      <c r="O273" s="28"/>
       <c r="P273" s="18"/>
       <c r="Q273" s="18"/>
       <c r="R273" s="27"/>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" customFormat="1" spans="1:18">
       <c r="A274" s="12"/>
       <c r="B274" s="30"/>
       <c r="C274" s="12"/>
       <c r="D274" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>681</v>
+        <f t="shared" si="1"/>
+        <v>682</v>
       </c>
       <c r="E274" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F274" s="18" t="s">
-        <v>716</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F274" s="20"/>
       <c r="G274" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H274" s="16" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I274" s="16" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="J274" s="12" t="s">
-        <v>717</v>
+        <v>25</v>
       </c>
       <c r="K274" s="12" t="s">
         <v>26</v>
@@ -29328,38 +29547,36 @@
       <c r="N274" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O274" s="12"/>
-      <c r="P274" s="18" t="s">
-        <v>718</v>
-      </c>
+      <c r="O274" s="28"/>
+      <c r="P274" s="18"/>
       <c r="Q274" s="18"/>
       <c r="R274" s="27"/>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" s="5" customFormat="1" spans="1:18">
       <c r="A275" s="12"/>
       <c r="B275" s="30"/>
       <c r="C275" s="12"/>
       <c r="D275" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E275" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F275" s="18" t="s">
-        <v>719</v>
+        <v>284</v>
+      </c>
+      <c r="F275" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="G275" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H275" s="16" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I275" s="16" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="J275" s="12" t="s">
-        <v>717</v>
+        <v>288</v>
       </c>
       <c r="K275" s="12" t="s">
         <v>26</v>
@@ -29373,38 +29590,38 @@
       <c r="N275" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O275" s="12"/>
-      <c r="P275" s="18" t="s">
-        <v>720</v>
+      <c r="O275" s="18"/>
+      <c r="P275" s="33" t="s">
+        <v>734</v>
       </c>
       <c r="Q275" s="18"/>
       <c r="R275" s="27"/>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" s="5" customFormat="1" spans="1:18">
       <c r="A276" s="12"/>
       <c r="B276" s="30"/>
       <c r="C276" s="12"/>
       <c r="D276" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E276" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F276" s="18" t="s">
-        <v>721</v>
+        <v>284</v>
+      </c>
+      <c r="F276" s="20" t="s">
+        <v>735</v>
       </c>
       <c r="G276" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H276" s="16" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I276" s="16" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="J276" s="12" t="s">
-        <v>717</v>
+        <v>288</v>
       </c>
       <c r="K276" s="12" t="s">
         <v>26</v>
@@ -29418,9 +29635,9 @@
       <c r="N276" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O276" s="12"/>
-      <c r="P276" s="18" t="s">
-        <v>722</v>
+      <c r="O276" s="18"/>
+      <c r="P276" s="33" t="s">
+        <v>736</v>
       </c>
       <c r="Q276" s="18"/>
       <c r="R276" s="27"/>
@@ -29431,12 +29648,14 @@
       <c r="C277" s="12"/>
       <c r="D277" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="E277" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F277" s="20"/>
+        <v>361</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>737</v>
+      </c>
       <c r="G277" s="16" t="s">
         <v>24</v>
       </c>
@@ -29447,7 +29666,7 @@
         <v>24</v>
       </c>
       <c r="J277" s="12" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
       <c r="K277" s="12" t="s">
         <v>26</v>
@@ -29461,8 +29680,10 @@
       <c r="N277" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O277" s="12"/>
-      <c r="P277" s="18"/>
+      <c r="O277" s="18"/>
+      <c r="P277" s="18" t="s">
+        <v>738</v>
+      </c>
       <c r="Q277" s="18"/>
       <c r="R277" s="27"/>
     </row>
@@ -29472,13 +29693,13 @@
       <c r="C278" s="12"/>
       <c r="D278" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="E278" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="F278" s="18" t="s">
-        <v>723</v>
+        <v>361</v>
+      </c>
+      <c r="F278" s="20" t="s">
+        <v>739</v>
       </c>
       <c r="G278" s="16" t="s">
         <v>24</v>
@@ -29490,7 +29711,7 @@
         <v>24</v>
       </c>
       <c r="J278" s="12" t="s">
-        <v>288</v>
+        <v>497</v>
       </c>
       <c r="K278" s="12" t="s">
         <v>26</v>
@@ -29504,26 +29725,26 @@
       <c r="N278" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O278" s="12"/>
+      <c r="O278" s="18"/>
       <c r="P278" s="18" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="Q278" s="18"/>
       <c r="R278" s="27"/>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" customFormat="1" spans="1:18">
       <c r="A279" s="12"/>
       <c r="B279" s="30"/>
       <c r="C279" s="12"/>
       <c r="D279" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E279" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="F279" s="18" t="s">
-        <v>725</v>
+        <v>361</v>
+      </c>
+      <c r="F279" s="20" t="s">
+        <v>741</v>
       </c>
       <c r="G279" s="16" t="s">
         <v>24</v>
@@ -29535,7 +29756,7 @@
         <v>24</v>
       </c>
       <c r="J279" s="12" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="K279" s="12" t="s">
         <v>26</v>
@@ -29549,26 +29770,26 @@
       <c r="N279" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O279" s="12"/>
-      <c r="P279" s="18" t="s">
-        <v>726</v>
+      <c r="O279" s="28"/>
+      <c r="P279" s="33" t="s">
+        <v>742</v>
       </c>
       <c r="Q279" s="18"/>
       <c r="R279" s="27"/>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" customFormat="1" spans="1:18">
       <c r="A280" s="12"/>
       <c r="B280" s="30"/>
       <c r="C280" s="12"/>
       <c r="D280" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E280" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="F280" s="18" t="s">
-        <v>727</v>
+      <c r="F280" s="20" t="s">
+        <v>743</v>
       </c>
       <c r="G280" s="16" t="s">
         <v>24</v>
@@ -29580,7 +29801,7 @@
         <v>24</v>
       </c>
       <c r="J280" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K280" s="12" t="s">
         <v>26</v>
@@ -29594,27 +29815,25 @@
       <c r="N280" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O280" s="12"/>
-      <c r="P280" s="18" t="s">
-        <v>728</v>
+      <c r="O280" s="28"/>
+      <c r="P280" s="33" t="s">
+        <v>744</v>
       </c>
       <c r="Q280" s="18"/>
       <c r="R280" s="27"/>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" customFormat="1" spans="1:18">
       <c r="A281" s="12"/>
       <c r="B281" s="30"/>
       <c r="C281" s="12"/>
       <c r="D281" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>695</v>
+        <f t="shared" si="1"/>
+        <v>699</v>
       </c>
       <c r="E281" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="F281" s="18" t="s">
-        <v>729</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F281" s="20"/>
       <c r="G281" s="16" t="s">
         <v>24</v>
       </c>
@@ -29625,7 +29844,7 @@
         <v>24</v>
       </c>
       <c r="J281" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K281" s="12" t="s">
         <v>26</v>
@@ -29639,27 +29858,23 @@
       <c r="N281" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O281" s="12"/>
-      <c r="P281" s="18" t="s">
-        <v>730</v>
-      </c>
+      <c r="O281" s="28"/>
+      <c r="P281" s="18"/>
       <c r="Q281" s="18"/>
       <c r="R281" s="27"/>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" customFormat="1" spans="1:18">
       <c r="A282" s="12"/>
       <c r="B282" s="30"/>
       <c r="C282" s="12"/>
       <c r="D282" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>697</v>
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
       <c r="E282" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F282" s="18" t="s">
-        <v>731</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F282" s="20"/>
       <c r="G282" s="16" t="s">
         <v>24</v>
       </c>
@@ -29670,7 +29885,7 @@
         <v>24</v>
       </c>
       <c r="J282" s="12" t="s">
-        <v>732</v>
+        <v>25</v>
       </c>
       <c r="K282" s="12" t="s">
         <v>26</v>
@@ -29684,27 +29899,23 @@
       <c r="N282" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O282" s="12"/>
-      <c r="P282" s="18" t="s">
-        <v>733</v>
-      </c>
+      <c r="O282" s="28"/>
+      <c r="P282" s="18"/>
       <c r="Q282" s="18"/>
       <c r="R282" s="27"/>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" customFormat="1" spans="1:18">
       <c r="A283" s="12"/>
       <c r="B283" s="30"/>
       <c r="C283" s="12"/>
       <c r="D283" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>698</v>
+        <f t="shared" si="1"/>
+        <v>701</v>
       </c>
       <c r="E283" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F283" s="18" t="s">
-        <v>734</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F283" s="20"/>
       <c r="G283" s="16" t="s">
         <v>24</v>
       </c>
@@ -29715,7 +29926,7 @@
         <v>24</v>
       </c>
       <c r="J283" s="12" t="s">
-        <v>732</v>
+        <v>25</v>
       </c>
       <c r="K283" s="12" t="s">
         <v>26</v>
@@ -29729,20 +29940,18 @@
       <c r="N283" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O283" s="12"/>
-      <c r="P283" s="18" t="s">
-        <v>735</v>
-      </c>
+      <c r="O283" s="28"/>
+      <c r="P283" s="18"/>
       <c r="Q283" s="18"/>
       <c r="R283" s="27"/>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" customFormat="1" spans="1:18">
       <c r="A284" s="12"/>
       <c r="B284" s="30"/>
       <c r="C284" s="12"/>
       <c r="D284" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>699</v>
+        <f t="shared" si="1"/>
+        <v>702</v>
       </c>
       <c r="E284" s="14" t="s">
         <v>40</v>
@@ -29772,18 +29981,18 @@
       <c r="N284" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O284" s="12"/>
+      <c r="O284" s="28"/>
       <c r="P284" s="18"/>
       <c r="Q284" s="18"/>
       <c r="R284" s="27"/>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" s="5" customFormat="1" spans="1:18">
       <c r="A285" s="12"/>
       <c r="B285" s="30"/>
       <c r="C285" s="12"/>
       <c r="D285" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E285" s="14" t="s">
         <v>40</v>
@@ -29813,23 +30022,25 @@
       <c r="N285" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O285" s="12"/>
+      <c r="O285" s="28"/>
       <c r="P285" s="18"/>
       <c r="Q285" s="18"/>
       <c r="R285" s="27"/>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" ht="26" spans="1:18">
       <c r="A286" s="12"/>
       <c r="B286" s="30"/>
       <c r="C286" s="12"/>
       <c r="D286" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>701</v>
+        <f t="shared" ref="D286:D302" si="2">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>704</v>
       </c>
       <c r="E286" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F286" s="20"/>
+      <c r="F286" s="20" t="s">
+        <v>745</v>
+      </c>
       <c r="G286" s="16" t="s">
         <v>24</v>
       </c>
@@ -29837,13 +30048,13 @@
         <v>24</v>
       </c>
       <c r="I286" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J286" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K286" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L286" s="14" t="s">
         <v>27</v>
@@ -29854,9 +30065,13 @@
       <c r="N286" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O286" s="12"/>
-      <c r="P286" s="18"/>
-      <c r="Q286" s="18"/>
+      <c r="O286" s="28"/>
+      <c r="P286" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q286" s="26" t="s">
+        <v>747</v>
+      </c>
       <c r="R286" s="27"/>
     </row>
     <row r="287" spans="1:18">
@@ -29864,27 +30079,29 @@
       <c r="B287" s="30"/>
       <c r="C287" s="12"/>
       <c r="D287" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>702</v>
+        <f t="shared" si="2"/>
+        <v>705</v>
       </c>
       <c r="E287" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F287" s="20"/>
+      <c r="F287" s="20" t="s">
+        <v>748</v>
+      </c>
       <c r="G287" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H287" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I287" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J287" s="12" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
       <c r="K287" s="12" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L287" s="14" t="s">
         <v>27</v>
@@ -29895,10 +30112,1294 @@
       <c r="N287" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O287" s="12"/>
-      <c r="P287" s="18"/>
+      <c r="O287" s="28"/>
+      <c r="P287" s="18" t="s">
+        <v>490</v>
+      </c>
       <c r="Q287" s="18"/>
       <c r="R287" s="27"/>
+    </row>
+    <row r="288" spans="1:18">
+      <c r="A288" s="12"/>
+      <c r="B288" s="30"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12">
+        <f t="shared" si="2"/>
+        <v>706</v>
+      </c>
+      <c r="E288" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F288" s="20"/>
+      <c r="G288" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H288" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I288" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J288" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K288" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L288" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M288" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N288" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O288" s="28"/>
+      <c r="P288" s="18"/>
+      <c r="Q288" s="18"/>
+      <c r="R288" s="27"/>
+    </row>
+    <row r="289" spans="1:18">
+      <c r="A289" s="12"/>
+      <c r="B289" s="30"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12">
+        <f t="shared" si="2"/>
+        <v>707</v>
+      </c>
+      <c r="E289" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F289" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="G289" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H289" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I289" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J289" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K289" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L289" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M289" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N289" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O289" s="28"/>
+      <c r="P289" s="18"/>
+      <c r="Q289" s="18"/>
+      <c r="R289" s="27"/>
+    </row>
+    <row r="290" spans="1:18">
+      <c r="A290" s="12"/>
+      <c r="B290" s="30"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12">
+        <f t="shared" si="2"/>
+        <v>708</v>
+      </c>
+      <c r="E290" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F290" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="G290" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H290" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I290" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J290" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K290" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L290" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M290" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N290" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O290" s="28"/>
+      <c r="P290" s="18"/>
+      <c r="Q290" s="18"/>
+      <c r="R290" s="27"/>
+    </row>
+    <row r="291" spans="1:18">
+      <c r="A291" s="12"/>
+      <c r="B291" s="30"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12">
+        <f t="shared" si="2"/>
+        <v>709</v>
+      </c>
+      <c r="E291" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F291" s="20"/>
+      <c r="G291" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H291" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I291" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J291" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K291" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L291" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M291" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N291" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O291" s="28"/>
+      <c r="P291" s="18"/>
+      <c r="Q291" s="18"/>
+      <c r="R291" s="27"/>
+    </row>
+    <row r="292" spans="1:18">
+      <c r="A292" s="12"/>
+      <c r="B292" s="30"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12">
+        <f t="shared" si="2"/>
+        <v>710</v>
+      </c>
+      <c r="E292" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F292" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="G292" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H292" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I292" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J292" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K292" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="L292" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M292" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N292" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O292" s="28"/>
+      <c r="P292" s="33" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q292" s="18"/>
+      <c r="R292" s="27"/>
+    </row>
+    <row r="293" spans="1:18">
+      <c r="A293" s="12"/>
+      <c r="B293" s="30"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12">
+        <f t="shared" si="2"/>
+        <v>711</v>
+      </c>
+      <c r="E293" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F293" s="20"/>
+      <c r="G293" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H293" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I293" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J293" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K293" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L293" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M293" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N293" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O293" s="28"/>
+      <c r="P293" s="18"/>
+      <c r="Q293" s="18"/>
+      <c r="R293" s="27"/>
+    </row>
+    <row r="294" spans="1:18">
+      <c r="A294" s="12"/>
+      <c r="B294" s="30"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12">
+        <f t="shared" si="2"/>
+        <v>712</v>
+      </c>
+      <c r="E294" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F294" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G294" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H294" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I294" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J294" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K294" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L294" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M294" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N294" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O294" s="28"/>
+      <c r="P294" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q294" s="18"/>
+      <c r="R294" s="27"/>
+    </row>
+    <row r="295" customFormat="1" spans="1:18">
+      <c r="A295" s="12"/>
+      <c r="B295" s="30"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>713</v>
+      </c>
+      <c r="E295" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F295" s="20"/>
+      <c r="G295" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H295" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I295" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J295" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K295" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L295" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M295" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N295" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O295" s="28"/>
+      <c r="P295" s="18"/>
+      <c r="Q295" s="18"/>
+      <c r="R295" s="27"/>
+    </row>
+    <row r="296" spans="1:18">
+      <c r="A296" s="12"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12">
+        <f t="shared" si="2"/>
+        <v>714</v>
+      </c>
+      <c r="E296" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F296" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="G296" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H296" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I296" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="J296" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K296" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="L296" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M296" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N296" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O296" s="12"/>
+      <c r="P296" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q296" s="18"/>
+      <c r="R296" s="27"/>
+    </row>
+    <row r="297" spans="1:18">
+      <c r="A297" s="12"/>
+      <c r="B297" s="30"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12">
+        <f t="shared" si="2"/>
+        <v>715</v>
+      </c>
+      <c r="E297" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F297" s="20"/>
+      <c r="G297" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H297" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I297" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J297" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K297" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L297" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M297" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N297" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O297" s="18"/>
+      <c r="P297" s="18"/>
+      <c r="Q297" s="18"/>
+      <c r="R297" s="27"/>
+    </row>
+    <row r="298" spans="1:18">
+      <c r="A298" s="12"/>
+      <c r="B298" s="30"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>716</v>
+      </c>
+      <c r="E298" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F298" s="20"/>
+      <c r="G298" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H298" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I298" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J298" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K298" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L298" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M298" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N298" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O298" s="12"/>
+      <c r="P298" s="18"/>
+      <c r="Q298" s="18"/>
+      <c r="R298" s="27"/>
+    </row>
+    <row r="299" customFormat="1" spans="1:18">
+      <c r="A299" s="12"/>
+      <c r="B299" s="30"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>717</v>
+      </c>
+      <c r="E299" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F299" s="20"/>
+      <c r="G299" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H299" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I299" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J299" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K299" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L299" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M299" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N299" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O299" s="28"/>
+      <c r="P299" s="18"/>
+      <c r="Q299" s="18"/>
+      <c r="R299" s="27"/>
+    </row>
+    <row r="300" spans="1:18">
+      <c r="A300" s="12"/>
+      <c r="B300" s="30"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>718</v>
+      </c>
+      <c r="E300" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F300" s="20"/>
+      <c r="G300" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H300" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I300" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J300" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K300" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L300" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M300" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N300" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O300" s="12"/>
+      <c r="P300" s="18"/>
+      <c r="Q300" s="18"/>
+      <c r="R300" s="27"/>
+    </row>
+    <row r="301" spans="1:18">
+      <c r="A301" s="12"/>
+      <c r="B301" s="30"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>719</v>
+      </c>
+      <c r="E301" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F301" s="20"/>
+      <c r="G301" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H301" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I301" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J301" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K301" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L301" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M301" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N301" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O301" s="12"/>
+      <c r="P301" s="18"/>
+      <c r="Q301" s="18"/>
+      <c r="R301" s="27"/>
+    </row>
+    <row r="302" spans="1:18">
+      <c r="A302" s="12"/>
+      <c r="B302" s="30"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>720</v>
+      </c>
+      <c r="E302" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F302" s="20"/>
+      <c r="G302" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H302" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J302" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K302" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L302" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M302" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N302" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O302" s="12"/>
+      <c r="P302" s="18"/>
+      <c r="Q302" s="18"/>
+      <c r="R302" s="27"/>
+    </row>
+    <row r="303" spans="1:18">
+      <c r="A303" s="12"/>
+      <c r="B303" s="30"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>721</v>
+      </c>
+      <c r="E303" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F303" s="20"/>
+      <c r="G303" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H303" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I303" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J303" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K303" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L303" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M303" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N303" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O303" s="12"/>
+      <c r="P303" s="18"/>
+      <c r="Q303" s="18"/>
+      <c r="R303" s="27"/>
+    </row>
+    <row r="304" spans="1:18">
+      <c r="A304" s="12"/>
+      <c r="B304" s="30"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>722</v>
+      </c>
+      <c r="E304" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="G304" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H304" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I304" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J304" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="K304" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L304" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M304" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N304" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O304" s="12"/>
+      <c r="P304" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q304" s="18"/>
+      <c r="R304" s="27"/>
+    </row>
+    <row r="305" spans="1:18">
+      <c r="A305" s="12"/>
+      <c r="B305" s="30"/>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>723</v>
+      </c>
+      <c r="E305" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="G305" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H305" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I305" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J305" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="K305" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L305" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M305" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N305" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O305" s="12"/>
+      <c r="P305" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q305" s="18"/>
+      <c r="R305" s="27"/>
+    </row>
+    <row r="306" spans="1:18">
+      <c r="A306" s="12"/>
+      <c r="B306" s="30"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>724</v>
+      </c>
+      <c r="E306" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="G306" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H306" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I306" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J306" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="K306" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L306" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M306" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N306" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O306" s="12"/>
+      <c r="P306" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q306" s="18"/>
+      <c r="R306" s="27"/>
+    </row>
+    <row r="307" spans="1:18">
+      <c r="A307" s="12"/>
+      <c r="B307" s="30"/>
+      <c r="C307" s="12"/>
+      <c r="D307" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>725</v>
+      </c>
+      <c r="E307" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F307" s="20"/>
+      <c r="G307" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H307" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I307" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J307" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K307" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L307" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M307" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N307" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O307" s="12"/>
+      <c r="P307" s="18"/>
+      <c r="Q307" s="18"/>
+      <c r="R307" s="27"/>
+    </row>
+    <row r="308" spans="1:18">
+      <c r="A308" s="12"/>
+      <c r="B308" s="30"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>726</v>
+      </c>
+      <c r="E308" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F308" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="G308" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H308" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I308" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J308" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K308" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L308" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M308" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N308" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O308" s="12"/>
+      <c r="P308" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q308" s="18"/>
+      <c r="R308" s="27"/>
+    </row>
+    <row r="309" spans="1:18">
+      <c r="A309" s="12"/>
+      <c r="B309" s="30"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>730</v>
+      </c>
+      <c r="E309" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F309" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="G309" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H309" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I309" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J309" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K309" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L309" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M309" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N309" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O309" s="12"/>
+      <c r="P309" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q309" s="18"/>
+      <c r="R309" s="27"/>
+    </row>
+    <row r="310" spans="1:18">
+      <c r="A310" s="12"/>
+      <c r="B310" s="30"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>734</v>
+      </c>
+      <c r="E310" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F310" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="G310" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H310" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I310" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J310" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K310" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L310" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M310" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N310" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O310" s="12"/>
+      <c r="P310" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q310" s="18"/>
+      <c r="R310" s="27"/>
+    </row>
+    <row r="311" spans="1:18">
+      <c r="A311" s="12"/>
+      <c r="B311" s="30"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>736</v>
+      </c>
+      <c r="E311" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F311" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="G311" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H311" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I311" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J311" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="K311" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L311" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M311" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N311" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O311" s="12"/>
+      <c r="P311" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q311" s="18"/>
+      <c r="R311" s="27"/>
+    </row>
+    <row r="312" spans="1:18">
+      <c r="A312" s="12"/>
+      <c r="B312" s="30"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>738</v>
+      </c>
+      <c r="E312" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F312" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="G312" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H312" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I312" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J312" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="K312" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L312" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M312" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N312" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O312" s="12"/>
+      <c r="P312" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q312" s="18"/>
+      <c r="R312" s="27"/>
+    </row>
+    <row r="313" spans="1:18">
+      <c r="A313" s="12"/>
+      <c r="B313" s="30"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>739</v>
+      </c>
+      <c r="E313" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F313" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="G313" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H313" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I313" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J313" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="K313" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L313" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M313" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N313" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O313" s="12"/>
+      <c r="P313" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q313" s="18"/>
+      <c r="R313" s="27"/>
+    </row>
+    <row r="314" spans="1:18">
+      <c r="A314" s="12"/>
+      <c r="B314" s="30"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>740</v>
+      </c>
+      <c r="E314" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F314" s="20"/>
+      <c r="G314" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H314" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I314" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J314" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K314" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L314" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M314" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N314" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O314" s="12"/>
+      <c r="P314" s="18"/>
+      <c r="Q314" s="18"/>
+      <c r="R314" s="27"/>
+    </row>
+    <row r="315" spans="1:18">
+      <c r="A315" s="12"/>
+      <c r="B315" s="30"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>741</v>
+      </c>
+      <c r="E315" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F315" s="20"/>
+      <c r="G315" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H315" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I315" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J315" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K315" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L315" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M315" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N315" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O315" s="12"/>
+      <c r="P315" s="18"/>
+      <c r="Q315" s="18"/>
+      <c r="R315" s="27"/>
+    </row>
+    <row r="316" spans="1:18">
+      <c r="A316" s="12"/>
+      <c r="B316" s="30"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>742</v>
+      </c>
+      <c r="E316" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F316" s="20"/>
+      <c r="G316" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H316" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I316" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J316" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K316" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L316" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M316" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N316" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O316" s="12"/>
+      <c r="P316" s="18"/>
+      <c r="Q316" s="18"/>
+      <c r="R316" s="27"/>
+    </row>
+    <row r="317" spans="1:18">
+      <c r="A317" s="12"/>
+      <c r="B317" s="30"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12">
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>743</v>
+      </c>
+      <c r="E317" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F317" s="20"/>
+      <c r="G317" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H317" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I317" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J317" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K317" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L317" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M317" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N317" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O317" s="12"/>
+      <c r="P317" s="18"/>
+      <c r="Q317" s="18"/>
+      <c r="R317" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -29925,1027 +31426,2332 @@
     <mergeCell ref="D1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" priority="210" operator="equal">
+    <cfRule type="cellIs" priority="656" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="655" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="654" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="207" operator="equal">
+    <cfRule type="cellIs" priority="653" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="652" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="651" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="650" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="649" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="648" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="647" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="635" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsBlanks" dxfId="6" priority="200">
+    <cfRule type="containsBlanks" dxfId="6" priority="646">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="7" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="638" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="637" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="636" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="10" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="641" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="640" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="639" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
-    <cfRule type="cellIs" dxfId="13" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="645" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="642" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="15" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="644" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="643" operator="equal">
       <formula>"User"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsBlanks" dxfId="6" priority="354">
+    <cfRule type="containsBlanks" dxfId="6" priority="800">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="9" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="790" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="791" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="792" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="12" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="793" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="794" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="795" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="14" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="796" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="799" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="16" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="797" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="798" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsBlanks" dxfId="6" priority="343">
+    <cfRule type="containsBlanks" dxfId="6" priority="789">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsBlanks" dxfId="6" priority="365">
+    <cfRule type="containsBlanks" dxfId="6" priority="811">
       <formula>LEN(TRIM(F41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="9" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="801" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="802" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="803" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="cellIs" dxfId="12" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="804" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="805" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="806" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41">
-    <cfRule type="cellIs" dxfId="14" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="807" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="810" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
+    <cfRule type="cellIs" dxfId="16" priority="808" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="809" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="containsBlanks" dxfId="6" priority="788">
+      <formula>LEN(TRIM(F56))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="cellIs" dxfId="9" priority="778" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="779" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="780" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="cellIs" dxfId="12" priority="781" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="782" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="783" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56">
+    <cfRule type="cellIs" dxfId="14" priority="784" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="787" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56">
+    <cfRule type="cellIs" dxfId="16" priority="785" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="786" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="5" priority="613" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="625" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="626" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="627" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="628" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="629" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="630" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="631" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="632" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="633" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="634" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsBlanks" dxfId="6" priority="624">
+      <formula>LEN(TRIM(F57))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
+    <cfRule type="cellIs" dxfId="9" priority="614" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="615" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="616" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57">
+    <cfRule type="cellIs" dxfId="12" priority="617" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="618" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="619" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57">
+    <cfRule type="cellIs" dxfId="14" priority="620" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="623" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57">
+    <cfRule type="cellIs" dxfId="16" priority="621" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="622" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="5" priority="878" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="890" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="891" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="892" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="893" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="894" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="895" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="896" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="897" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="898" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="899" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsBlanks" dxfId="6" priority="777">
+      <formula>LEN(TRIM(F58))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="cellIs" dxfId="9" priority="767" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="768" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="769" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58">
+    <cfRule type="cellIs" dxfId="12" priority="770" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="771" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="772" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58">
+    <cfRule type="cellIs" dxfId="14" priority="773" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="776" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58">
+    <cfRule type="cellIs" dxfId="16" priority="774" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="775" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="5" priority="900" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="912" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="913" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="914" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="915" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="916" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="917" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="918" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="919" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="920" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="921" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsBlanks" dxfId="6" priority="911">
+      <formula>LEN(TRIM(F59))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="cellIs" dxfId="9" priority="901" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="902" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="903" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="cellIs" dxfId="12" priority="904" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="905" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="906" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59">
+    <cfRule type="cellIs" dxfId="14" priority="907" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="910" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N59">
+    <cfRule type="cellIs" dxfId="16" priority="908" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="909" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F211">
+    <cfRule type="containsBlanks" dxfId="6" priority="744">
+      <formula>LEN(TRIM(F211))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K211">
+    <cfRule type="cellIs" dxfId="9" priority="734" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="735" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="736" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L211">
+    <cfRule type="cellIs" dxfId="12" priority="737" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="738" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="739" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M211">
+    <cfRule type="cellIs" dxfId="14" priority="740" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="743" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N211">
+    <cfRule type="cellIs" dxfId="16" priority="741" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="742" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E215">
+    <cfRule type="cellIs" dxfId="5" priority="712" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="724" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="725" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="726" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="727" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="728" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="729" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="730" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="731" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="732" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="733" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F215">
+    <cfRule type="containsBlanks" dxfId="6" priority="723">
+      <formula>LEN(TRIM(F215))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K215">
+    <cfRule type="cellIs" dxfId="7" priority="367" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="366" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="365" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L215">
+    <cfRule type="cellIs" dxfId="12" priority="716" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="717" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="718" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M215">
     <cfRule type="cellIs" dxfId="13" priority="364" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
-    <cfRule type="cellIs" dxfId="16" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="363" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N215">
+    <cfRule type="cellIs" dxfId="16" priority="720" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="721" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="containsBlanks" dxfId="6" priority="342">
-      <formula>LEN(TRIM(F56))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
-    <cfRule type="cellIs" dxfId="9" priority="332" operator="equal">
+  <conditionalFormatting sqref="E216">
+    <cfRule type="cellIs" dxfId="5" priority="690" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="702" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="703" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="704" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="705" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="706" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="707" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="708" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="709" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="710" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="711" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F216">
+    <cfRule type="containsBlanks" dxfId="6" priority="667">
+      <formula>LEN(TRIM(F216))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216">
+    <cfRule type="cellIs" dxfId="7" priority="377" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="376" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="375" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="333" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L216">
+    <cfRule type="cellIs" dxfId="12" priority="660" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="661" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="662" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M216">
+    <cfRule type="cellIs" dxfId="13" priority="371" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="370" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N216">
+    <cfRule type="cellIs" dxfId="16" priority="664" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="665" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E217">
+    <cfRule type="cellIs" dxfId="5" priority="668" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="680" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="681" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="682" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="683" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="684" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="685" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="686" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="687" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="688" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="689" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F217">
+    <cfRule type="containsBlanks" dxfId="6" priority="679">
+      <formula>LEN(TRIM(F217))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K217">
+    <cfRule type="cellIs" dxfId="7" priority="374" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="373" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="372" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L217">
+    <cfRule type="cellIs" dxfId="12" priority="672" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="673" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="674" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M217">
+    <cfRule type="cellIs" dxfId="13" priority="369" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="368" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N217">
+    <cfRule type="cellIs" dxfId="16" priority="676" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="677" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218">
+    <cfRule type="cellIs" priority="25" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F218">
+    <cfRule type="containsBlanks" dxfId="6" priority="15">
+      <formula>LEN(TRIM(F218))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
-    <cfRule type="cellIs" dxfId="12" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L218">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="336" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M218">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N218">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P218:Q218">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
+      <formula>LEN(TRIM(P218))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E229">
+    <cfRule type="cellIs" priority="152" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="151" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="150" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="149" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="148" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="147" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="146" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="145" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="144" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="143" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="131" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F229">
+    <cfRule type="containsBlanks" dxfId="6" priority="142">
+      <formula>LEN(TRIM(F229))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K229">
+    <cfRule type="cellIs" dxfId="7" priority="134" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="133" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="132" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L229">
+    <cfRule type="cellIs" dxfId="10" priority="137" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="136" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="135" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M229">
+    <cfRule type="cellIs" dxfId="13" priority="141" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="138" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N229">
+    <cfRule type="cellIs" dxfId="15" priority="140" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="139" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P229:Q229">
+    <cfRule type="containsBlanks" dxfId="6" priority="130">
+      <formula>LEN(TRIM(P229))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E230">
+    <cfRule type="cellIs" priority="129" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="128" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="127" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="126" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="125" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="124" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="123" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="122" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="121" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="120" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="108" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F230">
+    <cfRule type="containsBlanks" dxfId="6" priority="119">
+      <formula>LEN(TRIM(F230))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K230">
+    <cfRule type="cellIs" dxfId="7" priority="111" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="110" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="109" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L230">
+    <cfRule type="cellIs" dxfId="10" priority="114" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
-    <cfRule type="cellIs" dxfId="14" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="113" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="112" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M230">
+    <cfRule type="cellIs" dxfId="13" priority="118" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="115" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="341" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N230">
+    <cfRule type="cellIs" dxfId="15" priority="117" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="116" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P230:Q230">
+    <cfRule type="containsBlanks" dxfId="6" priority="107">
+      <formula>LEN(TRIM(P230))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E264">
+    <cfRule type="cellIs" priority="270" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="269" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="268" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="267" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="266" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="265" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="264" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="263" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="262" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="261" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="249" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F264">
+    <cfRule type="containsBlanks" dxfId="6" priority="260">
+      <formula>LEN(TRIM(F264))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K264">
+    <cfRule type="cellIs" dxfId="7" priority="252" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="251" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="250" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L264">
+    <cfRule type="cellIs" dxfId="10" priority="255" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="254" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="253" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M264">
+    <cfRule type="cellIs" dxfId="13" priority="259" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N56">
-    <cfRule type="cellIs" dxfId="16" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="256" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N264">
+    <cfRule type="cellIs" dxfId="15" priority="258" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="257" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="340" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P264:Q264">
+    <cfRule type="containsBlanks" dxfId="6" priority="248">
+      <formula>LEN(TRIM(P264))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E270">
+    <cfRule type="cellIs" priority="37" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="34" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="32" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="26" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F270">
+    <cfRule type="containsBlanks" dxfId="6" priority="27">
+      <formula>LEN(TRIM(F270))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E272">
+    <cfRule type="cellIs" priority="60" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="57" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="55" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="54" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="53" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="51" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F272">
+    <cfRule type="containsBlanks" dxfId="6" priority="50">
+      <formula>LEN(TRIM(F272))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K272">
+    <cfRule type="cellIs" dxfId="7" priority="42" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="41" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="40" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L272">
+    <cfRule type="cellIs" dxfId="10" priority="45" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="44" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M272">
+    <cfRule type="cellIs" dxfId="13" priority="49" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="46" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N272">
+    <cfRule type="cellIs" dxfId="15" priority="48" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="5" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="47" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P272:Q272">
+    <cfRule type="containsBlanks" dxfId="6" priority="38">
+      <formula>LEN(TRIM(P272))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E275">
+    <cfRule type="cellIs" priority="106" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="103" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="102" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="101" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="100" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="99" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="97" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="85" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275">
+    <cfRule type="containsBlanks" dxfId="6" priority="96">
+      <formula>LEN(TRIM(F275))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K275">
+    <cfRule type="cellIs" dxfId="7" priority="88" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="87" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="86" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L275">
+    <cfRule type="cellIs" dxfId="10" priority="91" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="90" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="89" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M275">
+    <cfRule type="cellIs" dxfId="13" priority="95" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="92" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N275">
+    <cfRule type="cellIs" dxfId="15" priority="94" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="93" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P275:Q275">
+    <cfRule type="containsBlanks" dxfId="6" priority="84">
+      <formula>LEN(TRIM(P275))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E276">
+    <cfRule type="cellIs" priority="83" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="80" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="79" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="78" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="77" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="76" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="75" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="74" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="62" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F276">
+    <cfRule type="containsBlanks" dxfId="6" priority="73">
+      <formula>LEN(TRIM(F276))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K276">
+    <cfRule type="cellIs" dxfId="7" priority="65" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="64" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="63" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L276">
+    <cfRule type="cellIs" dxfId="10" priority="68" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="67" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M276">
+    <cfRule type="cellIs" dxfId="13" priority="72" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="69" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N276">
+    <cfRule type="cellIs" dxfId="15" priority="71" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="70" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P276:Q276">
+    <cfRule type="containsBlanks" dxfId="6" priority="61">
+      <formula>LEN(TRIM(P276))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E279">
+    <cfRule type="cellIs" priority="175" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="174" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="173" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="172" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="171" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="170" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="169" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="168" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="167" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="166" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="154" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F279">
+    <cfRule type="containsBlanks" dxfId="6" priority="165">
+      <formula>LEN(TRIM(F279))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K279">
+    <cfRule type="cellIs" dxfId="7" priority="157" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="156" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L279">
+    <cfRule type="cellIs" dxfId="10" priority="160" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="159" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="158" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M279">
+    <cfRule type="cellIs" dxfId="13" priority="164" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="161" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N279">
+    <cfRule type="cellIs" dxfId="15" priority="163" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="162" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q279">
+    <cfRule type="containsBlanks" dxfId="6" priority="176">
+      <formula>LEN(TRIM(Q279))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E285">
+    <cfRule type="cellIs" dxfId="5" priority="425" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="437" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="438" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="439" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="440" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="441" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="442" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="185" operator="equal">
+    <cfRule type="cellIs" priority="443" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="444" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="445" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="188" operator="equal">
+    <cfRule type="cellIs" priority="446" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsBlanks" dxfId="6" priority="178">
-      <formula>LEN(TRIM(F57))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
-    <cfRule type="cellIs" dxfId="9" priority="168" operator="equal">
+  <conditionalFormatting sqref="F285">
+    <cfRule type="containsBlanks" dxfId="6" priority="436">
+      <formula>LEN(TRIM(F285))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K285">
+    <cfRule type="cellIs" dxfId="9" priority="426" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="427" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="428" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="cellIs" dxfId="12" priority="171" operator="equal">
+  <conditionalFormatting sqref="L285">
+    <cfRule type="cellIs" dxfId="12" priority="429" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="430" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="431" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="14" priority="174" operator="equal">
+  <conditionalFormatting sqref="M285">
+    <cfRule type="cellIs" dxfId="14" priority="432" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="435" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N57">
-    <cfRule type="cellIs" dxfId="16" priority="175" operator="equal">
+  <conditionalFormatting sqref="N285">
+    <cfRule type="cellIs" dxfId="16" priority="433" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="434" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="5" priority="432" operator="equal">
+  <conditionalFormatting sqref="P285:Q285">
+    <cfRule type="containsBlanks" dxfId="6" priority="424">
+      <formula>LEN(TRIM(P285))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F287">
+    <cfRule type="containsBlanks" dxfId="6" priority="458">
+      <formula>LEN(TRIM(F287))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K287">
+    <cfRule type="cellIs" dxfId="9" priority="448" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="449" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="450" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L287">
+    <cfRule type="cellIs" dxfId="12" priority="451" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="452" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="453" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M287">
+    <cfRule type="cellIs" dxfId="14" priority="454" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="457" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N287">
+    <cfRule type="cellIs" dxfId="16" priority="455" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="456" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E295">
+    <cfRule type="cellIs" priority="199" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="198" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="197" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="196" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="195" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="194" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="193" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="192" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="191" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="190" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="178" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F295">
+    <cfRule type="containsBlanks" dxfId="6" priority="189">
+      <formula>LEN(TRIM(F295))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K295">
+    <cfRule type="cellIs" dxfId="7" priority="181" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="180" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="179" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L295">
+    <cfRule type="cellIs" dxfId="10" priority="184" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="183" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="182" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M295">
+    <cfRule type="cellIs" dxfId="13" priority="188" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="185" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N295">
+    <cfRule type="cellIs" dxfId="15" priority="187" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="186" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P295">
+    <cfRule type="containsBlanks" dxfId="6" priority="177">
+      <formula>LEN(TRIM(P295))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q295">
+    <cfRule type="containsBlanks" dxfId="6" priority="200">
+      <formula>LEN(TRIM(Q295))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E299">
+    <cfRule type="cellIs" priority="246" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="245" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="243" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="242" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="241" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="240" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="239" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="238" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="237" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="225" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F299">
+    <cfRule type="containsBlanks" dxfId="6" priority="236">
+      <formula>LEN(TRIM(F299))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K299">
+    <cfRule type="cellIs" dxfId="7" priority="228" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="227" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="226" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299">
+    <cfRule type="cellIs" dxfId="10" priority="231" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="230" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="229" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M299">
+    <cfRule type="cellIs" dxfId="13" priority="235" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="232" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N299">
+    <cfRule type="cellIs" dxfId="15" priority="234" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="233" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P299">
+    <cfRule type="containsBlanks" dxfId="6" priority="224">
+      <formula>LEN(TRIM(P299))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q299">
+    <cfRule type="containsBlanks" dxfId="6" priority="247">
+      <formula>LEN(TRIM(Q299))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E252:E253">
+    <cfRule type="cellIs" dxfId="5" priority="341" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="353" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="354" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="355" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="356" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="357" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="358" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="450" operator="equal">
+    <cfRule type="cellIs" priority="359" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="360" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="361" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="453" operator="equal">
+    <cfRule type="cellIs" priority="362" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsBlanks" dxfId="6" priority="331">
-      <formula>LEN(TRIM(F58))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="9" priority="321" operator="equal">
+  <conditionalFormatting sqref="E254:E257">
+    <cfRule type="cellIs" priority="339" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="338" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="337" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="336" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="335" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="334" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="333" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="332" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="331" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="330" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="318" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F252:F253">
+    <cfRule type="containsBlanks" dxfId="6" priority="352">
+      <formula>LEN(TRIM(F252))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F254:F257">
+    <cfRule type="containsBlanks" dxfId="6" priority="329">
+      <formula>LEN(TRIM(F254))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K252:K253">
+    <cfRule type="cellIs" dxfId="9" priority="342" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="343" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="344" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L58">
-    <cfRule type="cellIs" dxfId="12" priority="324" operator="equal">
+  <conditionalFormatting sqref="K254:K257">
+    <cfRule type="cellIs" dxfId="7" priority="321" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="320" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="319" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L252:L253">
+    <cfRule type="cellIs" dxfId="12" priority="345" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="346" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="347" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58">
-    <cfRule type="cellIs" dxfId="14" priority="327" operator="equal">
+  <conditionalFormatting sqref="L254:L257">
+    <cfRule type="cellIs" dxfId="10" priority="324" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="323" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="322" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M252:M253">
+    <cfRule type="cellIs" dxfId="14" priority="348" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="351" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N58">
-    <cfRule type="cellIs" dxfId="16" priority="328" operator="equal">
+  <conditionalFormatting sqref="M254:M257">
+    <cfRule type="cellIs" dxfId="13" priority="328" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="325" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N252:N253">
+    <cfRule type="cellIs" dxfId="16" priority="349" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="350" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="5" priority="454" operator="equal">
+  <conditionalFormatting sqref="N254:N257">
+    <cfRule type="cellIs" dxfId="15" priority="327" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="326" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P265:P267">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(P265))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P279:P280">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(P279))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E5 E60:E214 E219:E228 E296:E298 E231:E251 E277:E278 E300:E1048576 E271 E258:E263 E286:E294">
+    <cfRule type="cellIs" dxfId="5" priority="1016" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1132" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1133" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1140" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1141" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1142" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1143" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="472" operator="equal">
+    <cfRule type="cellIs" priority="1144" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1145" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1146" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="475" operator="equal">
+    <cfRule type="cellIs" priority="1147" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="containsBlanks" dxfId="6" priority="465">
-      <formula>LEN(TRIM(F59))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="cellIs" dxfId="9" priority="455" operator="equal">
+  <conditionalFormatting sqref="F1:F5 F60:F210 F219:F228 F300:F1048576 F231:F251 F277:F278 F286 F271 F258:F263 F288:F294 F296:F298 F212:F214">
+    <cfRule type="containsBlanks" dxfId="6" priority="1061">
+      <formula>LEN(TRIM(F1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K5 K60:K210 K219:K228 K300:K1048576 K231:K251 K277:K278 K286 K271 K258:K263 K288:K294 K296:K298 K212:K214">
+    <cfRule type="cellIs" dxfId="9" priority="1033" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1034" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1035" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="12" priority="458" operator="equal">
+  <conditionalFormatting sqref="L1:L5 L60:L210 L219:L228 L300:L1048576 L231:L251 L277:L278 L286 L271 L258:L263 L288:L294 L296:L298 L212:L214">
+    <cfRule type="cellIs" dxfId="12" priority="1054" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1055" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1056" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="14" priority="461" operator="equal">
+  <conditionalFormatting sqref="M1:M5 M60:M210 M219:M228 M300:M1048576 M231:M251 M277:M278 M286 M271 M258:M263 M288:M294 M296:M298 M212:M214">
+    <cfRule type="cellIs" dxfId="14" priority="1057" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1060" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N59">
-    <cfRule type="cellIs" dxfId="16" priority="462" operator="equal">
+  <conditionalFormatting sqref="N1:N5 N60:N210 N219:N228 N300:N1048576 N231:N251 N277:N278 N286 N271 N258:N263 N288:N294 N296:N298 N212:N214">
+    <cfRule type="cellIs" dxfId="16" priority="1058" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1059" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F211">
-    <cfRule type="containsBlanks" dxfId="6" priority="298">
-      <formula>LEN(TRIM(F211))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K211">
-    <cfRule type="cellIs" dxfId="9" priority="288" operator="equal">
+  <conditionalFormatting sqref="E6:E23 E33 E31 E27:E28 E37 E25 E39 E35 E41:E56">
+    <cfRule type="cellIs" dxfId="5" priority="856" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="868" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="869" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="870" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="871" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="872" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="873" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="874" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="875" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="876" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="877" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F23 F33 F39 F31 F35:F37 F25 F27:F28 F42:F55">
+    <cfRule type="containsBlanks" dxfId="6" priority="867">
+      <formula>LEN(TRIM(F6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K23 K33 K39 K31 K35:K37 K25 K27:K28 K42:K55">
+    <cfRule type="cellIs" dxfId="9" priority="857" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="858" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="859" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L211">
-    <cfRule type="cellIs" dxfId="12" priority="291" operator="equal">
+  <conditionalFormatting sqref="L6:L23 L33 L39 L31 L35:L37 L25 L27:L28 L42:L55">
+    <cfRule type="cellIs" dxfId="12" priority="860" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="861" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="862" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M211">
-    <cfRule type="cellIs" dxfId="14" priority="294" operator="equal">
+  <conditionalFormatting sqref="M6:M23 M33 M39 M31 M35:M37 M25 M27:M28 M42:M55">
+    <cfRule type="cellIs" dxfId="14" priority="863" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="866" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N211">
-    <cfRule type="cellIs" dxfId="16" priority="295" operator="equal">
+  <conditionalFormatting sqref="N6:N23 N33 N39 N31 N35:N37 N25 N27:N28 N42:N55">
+    <cfRule type="cellIs" dxfId="16" priority="864" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="865" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E215">
-    <cfRule type="cellIs" dxfId="5" priority="266" operator="equal">
+  <conditionalFormatting sqref="P6:Q217 P219:Q228 P296:Q298 P231:Q251 P277:Q278 P300:Q317 P271:Q271 P258:Q263 Q267:Q270 Q273:Q274 Q280:Q284 P286:Q294">
+    <cfRule type="containsBlanks" dxfId="6" priority="447">
+      <formula>LEN(TRIM(P6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 E26 E40 E38 E32 E34 E36 E29">
+    <cfRule type="cellIs" dxfId="5" priority="834" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="846" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="847" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="848" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="849" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="850" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="851" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="284" operator="equal">
+    <cfRule type="cellIs" priority="852" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="853" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="854" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="287" operator="equal">
+    <cfRule type="cellIs" priority="855" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F215">
-    <cfRule type="containsBlanks" dxfId="6" priority="277">
-      <formula>LEN(TRIM(F215))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K215">
-    <cfRule type="cellIs" dxfId="9" priority="267" operator="equal">
+  <conditionalFormatting sqref="F24 F26 F40 F32 F29">
+    <cfRule type="containsBlanks" dxfId="6" priority="845">
+      <formula>LEN(TRIM(F24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24 K26 K38 K40 K32 K29">
+    <cfRule type="cellIs" dxfId="9" priority="835" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="836" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="837" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L215">
-    <cfRule type="cellIs" dxfId="12" priority="270" operator="equal">
+  <conditionalFormatting sqref="L24 L26 L38 L40 L32 L29">
+    <cfRule type="cellIs" dxfId="12" priority="838" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="839" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="840" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M215">
-    <cfRule type="cellIs" dxfId="14" priority="273" operator="equal">
+  <conditionalFormatting sqref="M24 M26 M38 M40 M32 M29">
+    <cfRule type="cellIs" dxfId="14" priority="841" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="844" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N215">
-    <cfRule type="cellIs" dxfId="16" priority="274" operator="equal">
+  <conditionalFormatting sqref="N24 N26 N38 N40 N32 N29">
+    <cfRule type="cellIs" dxfId="16" priority="842" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="843" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E216">
-    <cfRule type="cellIs" dxfId="5" priority="244" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="256" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="257" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="258" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="259" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="260" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="261" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="262" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="263" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="265" operator="equal">
-      <formula>"s16"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F216">
-    <cfRule type="containsBlanks" dxfId="6" priority="221">
-      <formula>LEN(TRIM(F216))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K216">
-    <cfRule type="cellIs" dxfId="9" priority="211" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="212" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="213" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L216">
-    <cfRule type="cellIs" dxfId="12" priority="214" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="215" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="216" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M216">
-    <cfRule type="cellIs" dxfId="14" priority="217" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="220" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N216">
-    <cfRule type="cellIs" dxfId="16" priority="218" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="219" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E217">
-    <cfRule type="cellIs" dxfId="5" priority="222" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="234" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="235" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="236" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="237" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="238" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="239" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="240" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="241" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="242" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="243" operator="equal">
-      <formula>"s16"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F217">
-    <cfRule type="containsBlanks" dxfId="6" priority="233">
-      <formula>LEN(TRIM(F217))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K217">
-    <cfRule type="cellIs" dxfId="9" priority="223" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="224" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="225" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L217">
-    <cfRule type="cellIs" dxfId="12" priority="226" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="227" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="228" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M217">
-    <cfRule type="cellIs" dxfId="14" priority="229" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="232" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N217">
-    <cfRule type="cellIs" dxfId="16" priority="230" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="231" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F255">
-    <cfRule type="containsBlanks" dxfId="6" priority="12">
-      <formula>LEN(TRIM(F255))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K255">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L255">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M255">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N255">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E60:E214 E218:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="570" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="686" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="687" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="694" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="695" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="696" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="697" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="698" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="699" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="700" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="701" operator="equal">
-      <formula>"s16"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F5 F60:F210 F218:F254 F212:F214 F256:F1048576">
-    <cfRule type="containsBlanks" dxfId="6" priority="615">
-      <formula>LEN(TRIM(F1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K5 K60:K210 K218:K254 K212:K214 K256:K1048576">
-    <cfRule type="cellIs" dxfId="9" priority="587" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="588" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="589" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L5 L60:L210 L218:L254 L212:L214 L256:L1048576">
-    <cfRule type="cellIs" dxfId="12" priority="608" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="609" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="610" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M5 M60:M210 M218:M254 M212:M214 M256:M1048576">
-    <cfRule type="cellIs" dxfId="14" priority="611" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="614" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N5 N60:N210 N218:N254 N212:N214 N256:N1048576">
-    <cfRule type="cellIs" dxfId="16" priority="612" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="613" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E23 E33 E31 E27:E28 E37 E25 E39 E35 E41:E56">
-    <cfRule type="cellIs" dxfId="5" priority="410" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="422" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="423" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="424" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="425" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="426" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="427" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="428" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="429" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="430" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="431" operator="equal">
-      <formula>"s16"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F23 F33 F39 F31 F35:F37 F25 F27:F28 F42:F55">
-    <cfRule type="containsBlanks" dxfId="6" priority="421">
-      <formula>LEN(TRIM(F6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K23 K33 K39 K31 K35:K37 K25 K27:K28 K42:K55">
-    <cfRule type="cellIs" dxfId="9" priority="411" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="412" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="413" operator="equal">
-      <formula>"读写 - 停机更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L23 L33 L39 L31 L35:L37 L25 L27:L28 L42:L55">
-    <cfRule type="cellIs" dxfId="12" priority="414" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="415" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="416" operator="equal">
-      <formula>"上下限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M23 M33 M39 M31 M35:M37 M25 M27:M28 M42:M55">
-    <cfRule type="cellIs" dxfId="14" priority="417" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="420" operator="equal">
-      <formula>"允许保存，可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N23 N33 N39 N31 N35:N37 N25 N27:N28 N42:N55">
-    <cfRule type="cellIs" dxfId="16" priority="418" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="419" operator="equal">
-      <formula>"Admin"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:Q287">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
-      <formula>LEN(TRIM(P6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 E26 E40 E38 E32 E34 E36 E29">
-    <cfRule type="cellIs" dxfId="5" priority="388" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="400" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="401" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="P252:Q253">
+    <cfRule type="containsBlanks" dxfId="6" priority="340">
+      <formula>LEN(TRIM(P252))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P254:Q257">
+    <cfRule type="containsBlanks" dxfId="6" priority="317">
+      <formula>LEN(TRIM(P254))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E265 E267 E269 E283 E273 E280:E281">
     <cfRule type="cellIs" dxfId="5" priority="402" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="414" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="415" operator="equal">
       <formula>"f32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="416" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="417" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="418" operator="equal">
       <formula>"u64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="419" operator="equal">
       <formula>"u32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="406" operator="equal">
+    <cfRule type="cellIs" priority="420" operator="equal">
       <formula>"u16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="421" operator="equal">
       <formula>"s64"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="422" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="409" operator="equal">
+    <cfRule type="cellIs" priority="423" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26 F40 F32 F29">
-    <cfRule type="containsBlanks" dxfId="6" priority="399">
-      <formula>LEN(TRIM(F24))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24 K26 K38 K40 K32 K29">
-    <cfRule type="cellIs" dxfId="9" priority="389" operator="equal">
+  <conditionalFormatting sqref="F265 F267 F269 F283 F273 F280:F281">
+    <cfRule type="containsBlanks" dxfId="6" priority="413">
+      <formula>LEN(TRIM(F265))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K265 K267 K269 K283 K273 K280:K281">
+    <cfRule type="cellIs" dxfId="9" priority="403" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="404" operator="equal">
       <formula>"读写 - 立即更改，重启生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="405" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24 L26 L38 L40 L32 L29">
-    <cfRule type="cellIs" dxfId="12" priority="392" operator="equal">
+  <conditionalFormatting sqref="L265 L267 L269 L283 L273 L280:L281">
+    <cfRule type="cellIs" dxfId="12" priority="406" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="407" operator="equal">
       <formula>"仅下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="408" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24 M26 M38 M40 M32 M29">
-    <cfRule type="cellIs" dxfId="14" priority="395" operator="equal">
+  <conditionalFormatting sqref="M265 M267 M269 M283 M273 M280:M281">
+    <cfRule type="cellIs" dxfId="14" priority="409" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="412" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24 N26 N38 N40 N32 N29">
-    <cfRule type="cellIs" dxfId="16" priority="396" operator="equal">
+  <conditionalFormatting sqref="N265 N267 N269 N283 N273 N280:N281">
+    <cfRule type="cellIs" dxfId="16" priority="410" operator="equal">
       <formula>"User"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="411" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q265 P269 P283 P273 P281">
+    <cfRule type="containsBlanks" dxfId="6" priority="401">
+      <formula>LEN(TRIM(P265))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E266 E268 E274 E284 E282">
+    <cfRule type="cellIs" dxfId="5" priority="379" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="391" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="392" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="393" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="394" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="395" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="396" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="397" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="398" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="399" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="400" operator="equal">
+      <formula>"s16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F266 F268 F274 F284 F282">
+    <cfRule type="containsBlanks" dxfId="6" priority="390">
+      <formula>LEN(TRIM(F266))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K266 K268 K270 K274 K284 K282">
+    <cfRule type="cellIs" dxfId="9" priority="380" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="381" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="382" operator="equal">
+      <formula>"读写 - 停机更改，立即生效"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L266 L268 L270 L274 L284 L282">
+    <cfRule type="cellIs" dxfId="12" priority="383" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="384" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="385" operator="equal">
+      <formula>"上下限"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M266 M268 M270 M274 M284 M282">
+    <cfRule type="cellIs" dxfId="14" priority="386" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="389" operator="equal">
+      <formula>"允许保存，可恢复"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N266 N268 N270 N274 N284 N282">
+    <cfRule type="cellIs" dxfId="16" priority="387" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="388" operator="equal">
+      <formula>"Admin"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q266 P268 P270 P274 P284 P282">
+    <cfRule type="containsBlanks" dxfId="6" priority="378">
+      <formula>LEN(TRIM(P266))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E57 E58 E59 E60 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E215 E216 E217 E247 E248 E249 E250 E251 E252 E253 E254 E255 E256 E257 E258 E259 E260 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E277 E6:E22 E42:E56 E61:E72 E84:E111 E126:E209 E210:E214 E218:E227 E228:E233 E234:E246 E271:E273 E274:E276 E278:E287">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J55 J56 J57 J58 J59 J60 J73 J76 J77 J78 J79 J80 J81 J82 J83 J84 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J187 J188 J207 J208 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J228 J229 J230 J247 J248 J249 J250 J251 J254 J258 J259 J260 J261 J262 J263 J264 J265 J266 J267 J268 J269 J270 J271 J272 J273 J274 J275 J276 J277 J278 J279 J280 J281 J282 J283 J284 J285 J286 J287 J288 J289 J290 J291 J292 J293 J294 J295 J296 J297 J298 J299 J300 J304 J305 J306 J6:J22 J43:J54 J61:J72 J74:J75 J85:J100 J101:J102 J103:J110 J128:J136 J137:J152 J153:J184 J185:J186 J189:J190 J191:J206 J219:J227 J231:J233 J234:J246 J252:J253 J255:J257 J301:J303 J307:J317">
+      <formula1>Unit!$A$2:$A$62</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E57 E58 E59 E60 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E215 E216 E217 E218 E228 E229 E230 E247 E248 E249 E250 E251 E254 E258 E259 E260 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E271 E272 E273 E274 E275 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E298 E299 E300 E307 E6:E22 E42:E56 E61:E72 E84:E111 E126:E209 E210:E214 E219:E227 E231:E233 E234:E246 E252:E253 E255:E257 E301:E303 E304:E306 E308:E317">
       <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M55 M56 M57 M58 M59 M60 M61 M68 M76 M77 M80 M84 M112 M113 M114 M117 M120 M121 M122 M123 M124 M125 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M207 M208 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M247 M248 M249 M250 M251 M252 M253 M254 M255 M256 M257 M258 M259 M260 M261 M262 M263 M264 M265 M266 M267 M268 M269 M270 M6:M22 M43:M54 M62:M67 M69:M70 M71:M72 M73:M75 M78:M79 M81:M83 M85:M100 M101:M111 M115:M116 M118:M119 M126:M128 M129:M136 M152:M184 M185:M190 M191:M206 M219:M227 M228:M233 M234:M246 M271:M273 M274:M276 M277:M287">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K55 K56 K57 K58 K59 K60 K73 K74 K75 K76 K77 K80 K84 K112 K113 K114 K117 K120 K121 K122 K123 K124 K125 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K185 K207 K208 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K228 K229 K230 K247 K248 K249 K250 K251 K254 K258 K259 K260 K261 K262 K263 K264 K265 K266 K267 K268 K269 K270 K271 K272 K273 K274 K275 K276 K277 K278 K279 K280 K281 K282 K283 K284 K285 K286 K287 K288 K289 K290 K291 K292 K293 K294 K295 K296 K297 K298 K299 K300 K6:K22 K43:K54 K61:K68 K69:K70 K71:K72 K78:K79 K81:K83 K85:K100 K101:K111 K115:K116 K118:K119 K126:K128 K129:K136 K152:K184 K186:K188 K189:K190 K191:K206 K219:K227 K231:K233 K234:K246 K252:K253 K255:K257 K301:K303 K304:K306 K307:K317">
+      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L56 L57 L58 L59 L60 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L228 L229 L230 L247 L248 L249 L250 L251 L254 L258 L259 L260 L261 L262 L263 L264 L265 L266 L267 L268 L269 L270 L271 L272 L273 L274 L275 L276 L277 L278 L279 L280 L281 L282 L283 L284 L285 L286 L287 L288 L289 L290 L291 L292 L293 L294 L295 L296 L297 L298 L299 L300 L6:L22 L42:L55 L61:L83 L84:L190 L191:L206 L219:L227 L231:L233 L234:L246 L252:L253 L255:L257 L301:L303 L304:L306 L307:L317">
+      <formula1>"无效,仅上限,仅下限,上下限"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M55 M56 M57 M58 M59 M60 M61 M68 M76 M77 M80 M84 M112 M113 M114 M117 M120 M121 M122 M123 M124 M125 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M185 M207 M208 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M228 M229 M230 M247 M248 M249 M250 M251 M254 M258 M259 M260 M261 M262 M263 M264 M265 M266 M267 M268 M269 M270 M271 M272 M273 M274 M275 M276 M277 M278 M279 M280 M281 M282 M283 M284 M285 M286 M287 M288 M289 M290 M291 M292 M293 M294 M295 M296 M297 M298 M299 M300 M6:M22 M43:M54 M62:M67 M69:M70 M71:M72 M73:M75 M78:M79 M81:M83 M85:M100 M101:M111 M115:M116 M118:M119 M126:M128 M129:M136 M152:M184 M186:M188 M189:M190 M191:M206 M219:M227 M231:M233 M234:M246 M252:M253 M255:M257 M301:M303 M304:M306 M307:M317">
       <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J55 J56 J57 J58 J59 J60 J73 J76 J77 J78 J79 J80 J81 J82 J83 J84 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J207 J208 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J247 J248 J249 J250 J251 J252 J253 J254 J255 J256 J257 J258 J259 J260 J261 J262 J263 J264 J265 J266 J267 J268 J269 J270 J274 J275 J276 J6:J22 J43:J54 J61:J72 J74:J75 J85:J100 J101:J102 J103:J110 J128:J136 J137:J152 J153:J184 J185:J190 J191:J206 J219:J227 J228:J233 J234:J246 J271:J273 J277:J287">
-      <formula1>Unit!$A$2:$A$62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K55 K56 K57 K58 K59 K60 K73 K74 K75 K76 K77 K80 K84 K112 K113 K114 K117 K120 K121 K122 K123 K124 K125 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K207 K208 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K247 K248 K249 K250 K251 K252 K253 K254 K255 K256 K257 K258 K259 K260 K261 K262 K263 K264 K265 K266 K267 K268 K269 K270 K6:K22 K43:K54 K61:K68 K69:K70 K71:K72 K78:K79 K81:K83 K85:K100 K101:K111 K115:K116 K118:K119 K126:K128 K129:K136 K152:K184 K185:K190 K191:K206 K219:K227 K228:K233 K234:K246 K271:K273 K274:K276 K277:K287">
-      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L56 L57 L58 L59 L60 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L247 L248 L249 L250 L251 L252 L253 L254 L255 L256 L257 L258 L259 L260 L261 L262 L263 L264 L265 L266 L267 L268 L269 L270 L6:L22 L42:L55 L61:L83 L84:L190 L191:L206 L219:L227 L228:L233 L234:L246 L271:L273 L274:L276 L277:L287">
-      <formula1>"无效,仅上限,仅下限,上下限"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N55 N56 N57 N58 N59 N60 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N207 N208 N209 N210 N211 N212 N213 N214 N215 N216 N217 N218 N247 N248 N249 N250 N251 N252 N253 N254 N255 N256 N257 N258 N259 N260 N261 N262 N263 N264 N265 N266 N267 N268 N269 N270 N6:N22 N43:N54 N61:N72 N84:N111 N126:N190 N191:N206 N219:N227 N228:N233 N234:N246 N271:N273 N274:N276 N277:N287">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N55 N56 N57 N58 N59 N60 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N207 N208 N209 N210 N211 N212 N213 N214 N215 N216 N217 N218 N228 N229 N230 N247 N248 N249 N250 N251 N254 N258 N259 N260 N261 N262 N263 N264 N265 N266 N267 N268 N269 N270 N271 N272 N273 N274 N275 N276 N277 N278 N279 N280 N281 N282 N283 N284 N285 N286 N287 N288 N289 N290 N291 N292 N293 N294 N295 N296 N297 N298 N299 N300 N6:N22 N43:N54 N61:N72 N84:N111 N126:N190 N191:N206 N219:N227 N231:N233 N234:N246 N252:N253 N255:N257 N301:N303 N304:N306 N307:N317">
       <formula1>"Admin,User,Anyone"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30972,7 +33778,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>736</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -30980,37 +33786,37 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>737</v>
+        <v>777</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>742</v>
+        <v>782</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -31022,7 +33828,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>743</v>
+        <v>783</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -31040,13 +33846,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>744</v>
+        <v>784</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -31058,40 +33864,40 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>748</v>
+        <v>788</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>749</v>
+        <v>789</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>751</v>
+        <v>791</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -31100,127 +33906,127 @@
         <v>278</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>755</v>
+        <v>795</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>756</v>
+        <v>796</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>759</v>
+        <v>799</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>761</v>
+        <v>801</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>762</v>
+        <v>802</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>763</v>
+        <v>803</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>764</v>
+        <v>804</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>765</v>
+        <v>805</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>766</v>
+        <v>806</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>767</v>
+        <v>807</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>768</v>
+        <v>808</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>769</v>
+        <v>809</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>771</v>
+        <v>811</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>772</v>
+        <v>812</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>773</v>
+        <v>813</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>774</v>
+        <v>814</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="C35" s="4"/>
     </row>
@@ -31229,166 +34035,166 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>781</v>
+        <v>821</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>782</v>
+        <v>822</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>781</v>
+        <v>821</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>784</v>
+        <v>824</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>785</v>
+        <v>825</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>786</v>
+        <v>670</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>787</v>
+        <v>826</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>732</v>
+        <v>607</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>790</v>
+        <v>829</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>794</v>
+        <v>833</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>799</v>
+        <v>838</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>800</v>
+        <v>839</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>803</v>
+        <v>842</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>805</v>
+        <v>844</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>806</v>
+        <v>845</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
       <c r="C57" s="4"/>
     </row>
@@ -31397,7 +34203,7 @@
         <v>288</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>808</v>
+        <v>847</v>
       </c>
       <c r="C58" s="4"/>
     </row>
@@ -31409,10 +34215,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>809</v>
+        <v>848</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="C60" s="4"/>
     </row>
@@ -31421,16 +34227,16 @@
         <v>254</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
       <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>812</v>
+        <v>851</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
+++ b/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$D$1:$Q$253</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Axis!$D$1:$Q$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Axis!$D$1:$Q$316</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="859">
   <si>
     <r>
       <rPr>
@@ -1460,13 +1460,19 @@
     <t>u16PosLoopKp</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
     <t>位置环增益系数</t>
   </si>
   <si>
     <t>u16PosLoopKi</t>
   </si>
   <si>
-    <t>300</t>
+    <t>30</t>
   </si>
   <si>
     <t>位置环积分系数</t>
@@ -1475,9 +1481,6 @@
     <t>u16PosLoopKd</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>位置环微分系数</t>
   </si>
   <si>
@@ -1536,12 +1539,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>0-</t>
     </r>
     <r>
@@ -1599,18 +1596,18 @@
     <t>控制方法</t>
   </si>
   <si>
-    <t>0-有感矢量控制；
-// 1-无感矢量控制；
-// 2-VF速度开环控制；
-// 3-VF分离开环控制；</t>
-  </si>
-  <si>
-    <t>u16CtrlMode</t>
-  </si>
-  <si>
-    <t>控制模式</t>
-  </si>
-  <si>
+    <r>
+      <t>0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有感矢量控制；</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1618,6 +1615,65 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">
+// 1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无感矢量控制；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+// 2-VF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速度开环控制；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+// 3-VF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分离开环控制；</t>
+    </r>
+  </si>
+  <si>
+    <t>u16CtrlMode</t>
+  </si>
+  <si>
+    <t>控制模式</t>
+  </si>
+  <si>
+    <r>
       <t>0-</t>
     </r>
     <r>
@@ -1741,209 +1797,18 @@
     <t>位置指令来源</t>
   </si>
   <si>
-    <t>0-无限位；
-1-数字正向和反向位置限制；
-2-DI或通信位置限制信号；</t>
-  </si>
-  <si>
-    <t>s64PosLimFwd</t>
-  </si>
-  <si>
-    <t>读写 - 立即更改，立即生效</t>
-  </si>
-  <si>
-    <t>数字位置指令</t>
-  </si>
-  <si>
-    <t>s64PosLimRev</t>
-  </si>
-  <si>
-    <t>位置规划模式</t>
-  </si>
-  <si>
-    <t>u16PosLimSts</t>
-  </si>
-  <si>
-    <t>位置规划状态</t>
-  </si>
-  <si>
-    <t>u32ElecGearNum</t>
-  </si>
-  <si>
-    <t>电子齿轮比分子</t>
-  </si>
-  <si>
-    <t>u32ElecGearDeno</t>
-  </si>
-  <si>
-    <t>电子齿轮比分母</t>
-  </si>
-  <si>
-    <t>u16EncFreqDivDir</t>
-  </si>
-  <si>
-    <t>编码器分频输出脉冲方向</t>
-  </si>
-  <si>
-    <t>u16EncFreqDivNum</t>
-  </si>
-  <si>
-    <t>编码器分频输出分子</t>
-  </si>
-  <si>
-    <t>u16EncFreqDivDeno</t>
-  </si>
-  <si>
-    <t>编码器分频输出分母</t>
-  </si>
-  <si>
-    <t>s64PosDigRef00</t>
-  </si>
-  <si>
-    <t>多段数字位置指令00</t>
-  </si>
-  <si>
-    <t>s64PosDigRef01</t>
-  </si>
-  <si>
-    <t>多段数字位置指令01</t>
-  </si>
-  <si>
-    <t>s64PosDigRef02</t>
-  </si>
-  <si>
-    <t>多段数字位置指令02</t>
-  </si>
-  <si>
-    <t>s64PosDigRef03</t>
-  </si>
-  <si>
-    <t>多段数字位置指令03</t>
-  </si>
-  <si>
-    <t>s64PosDigRef04</t>
-  </si>
-  <si>
-    <t>多段数字位置指令04</t>
-  </si>
-  <si>
-    <t>s64PosDigRef05</t>
-  </si>
-  <si>
-    <t>多段数字位置指令05</t>
-  </si>
-  <si>
-    <t>s64PosDigRef06</t>
-  </si>
-  <si>
-    <t>多段数字位置指令06</t>
-  </si>
-  <si>
-    <t>s64PosDigRef07</t>
-  </si>
-  <si>
-    <t>多段数字位置指令07</t>
-  </si>
-  <si>
-    <t>s64PosDigRef08</t>
-  </si>
-  <si>
-    <t>多段数字位置指令08</t>
-  </si>
-  <si>
-    <t>s64PosDigRef09</t>
-  </si>
-  <si>
-    <t>多段数字位置指令09</t>
-  </si>
-  <si>
-    <t>s64PosDigRef10</t>
-  </si>
-  <si>
-    <t>多段数字位置指令10</t>
-  </si>
-  <si>
-    <t>s64PosDigRef11</t>
-  </si>
-  <si>
-    <t>多段数字位置指令11</t>
-  </si>
-  <si>
-    <t>s64PosDigRef12</t>
-  </si>
-  <si>
-    <t>多段数字位置指令12</t>
-  </si>
-  <si>
-    <t>s64PosDigRef13</t>
-  </si>
-  <si>
-    <t>多段数字位置指令13</t>
-  </si>
-  <si>
-    <t>s64PosDigRef14</t>
-  </si>
-  <si>
-    <t>多段数字位置指令14</t>
-  </si>
-  <si>
-    <t>s64PosDigRef15</t>
-  </si>
-  <si>
-    <t>多段数字位置指令15</t>
-  </si>
-  <si>
-    <t>u16SpdRefSrc</t>
-  </si>
-  <si>
-    <t>速度指令来源</t>
-  </si>
-  <si>
-    <t>s32SpdDigRef</t>
-  </si>
-  <si>
-    <t>rpm</t>
-  </si>
-  <si>
-    <t>数字速度指令</t>
-  </si>
-  <si>
-    <t>u16AccTime</t>
-  </si>
-  <si>
-    <t>加速时间</t>
-  </si>
-  <si>
-    <t>加速至1000rpm所需时间</t>
-  </si>
-  <si>
-    <t>u16DecTime</t>
-  </si>
-  <si>
-    <t>减速时间</t>
-  </si>
-  <si>
-    <t>减速至1000rpm所需时间</t>
-  </si>
-  <si>
-    <t>u16JogDigRef</t>
-  </si>
-  <si>
-    <t>点动速度指令</t>
-  </si>
-  <si>
-    <t>u16JogAccDecTime</t>
-  </si>
-  <si>
-    <t>点动加减速时间</t>
-  </si>
-  <si>
-    <t>u16SpdLimSrc</t>
-  </si>
-  <si>
-    <t>速度限制来源</t>
-  </si>
-  <si>
+    <r>
+      <t>0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无限位；</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1951,6 +1816,250 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">
+1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字正向和反向位置限制；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2-DI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或通信位置限制信号；</t>
+    </r>
+  </si>
+  <si>
+    <t>s64PosLimFwd</t>
+  </si>
+  <si>
+    <t>读写 - 立即更改，立即生效</t>
+  </si>
+  <si>
+    <t>数字位置指令</t>
+  </si>
+  <si>
+    <t>s64PosLimRev</t>
+  </si>
+  <si>
+    <t>位置规划模式</t>
+  </si>
+  <si>
+    <t>u16PosLimSts</t>
+  </si>
+  <si>
+    <t>位置规划状态</t>
+  </si>
+  <si>
+    <t>u32ElecGearNum</t>
+  </si>
+  <si>
+    <t>电子齿轮比分子</t>
+  </si>
+  <si>
+    <t>u32ElecGearDeno</t>
+  </si>
+  <si>
+    <t>电子齿轮比分母</t>
+  </si>
+  <si>
+    <t>u16EncFreqDivDir</t>
+  </si>
+  <si>
+    <t>编码器分频输出脉冲方向</t>
+  </si>
+  <si>
+    <t>u16EncFreqDivNum</t>
+  </si>
+  <si>
+    <t>编码器分频输出分子</t>
+  </si>
+  <si>
+    <t>u16EncFreqDivDeno</t>
+  </si>
+  <si>
+    <t>编码器分频输出分母</t>
+  </si>
+  <si>
+    <t>s64PosDigRef00</t>
+  </si>
+  <si>
+    <t>多段数字位置指令00</t>
+  </si>
+  <si>
+    <t>s64PosDigRef01</t>
+  </si>
+  <si>
+    <t>多段数字位置指令01</t>
+  </si>
+  <si>
+    <t>s64PosDigRef02</t>
+  </si>
+  <si>
+    <t>多段数字位置指令02</t>
+  </si>
+  <si>
+    <t>s64PosDigRef03</t>
+  </si>
+  <si>
+    <t>多段数字位置指令03</t>
+  </si>
+  <si>
+    <t>s64PosDigRef04</t>
+  </si>
+  <si>
+    <t>多段数字位置指令04</t>
+  </si>
+  <si>
+    <t>s64PosDigRef05</t>
+  </si>
+  <si>
+    <t>多段数字位置指令05</t>
+  </si>
+  <si>
+    <t>s64PosDigRef06</t>
+  </si>
+  <si>
+    <t>多段数字位置指令06</t>
+  </si>
+  <si>
+    <t>s64PosDigRef07</t>
+  </si>
+  <si>
+    <t>多段数字位置指令07</t>
+  </si>
+  <si>
+    <t>s64PosDigRef08</t>
+  </si>
+  <si>
+    <t>多段数字位置指令08</t>
+  </si>
+  <si>
+    <t>s64PosDigRef09</t>
+  </si>
+  <si>
+    <t>多段数字位置指令09</t>
+  </si>
+  <si>
+    <t>s64PosDigRef10</t>
+  </si>
+  <si>
+    <t>多段数字位置指令10</t>
+  </si>
+  <si>
+    <t>s64PosDigRef11</t>
+  </si>
+  <si>
+    <t>多段数字位置指令11</t>
+  </si>
+  <si>
+    <t>s64PosDigRef12</t>
+  </si>
+  <si>
+    <t>多段数字位置指令12</t>
+  </si>
+  <si>
+    <t>s64PosDigRef13</t>
+  </si>
+  <si>
+    <t>多段数字位置指令13</t>
+  </si>
+  <si>
+    <t>s64PosDigRef14</t>
+  </si>
+  <si>
+    <t>多段数字位置指令14</t>
+  </si>
+  <si>
+    <t>s64PosDigRef15</t>
+  </si>
+  <si>
+    <t>多段数字位置指令15</t>
+  </si>
+  <si>
+    <t>u16SpdRefSrc</t>
+  </si>
+  <si>
+    <t>速度指令来源</t>
+  </si>
+  <si>
+    <t>s32SpdDigRef</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>-30000</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>0.1rpm</t>
+  </si>
+  <si>
+    <t>数字速度指令</t>
+  </si>
+  <si>
+    <t>u16AccTime</t>
+  </si>
+  <si>
+    <t>加速时间</t>
+  </si>
+  <si>
+    <t>加速至1000rpm所需时间</t>
+  </si>
+  <si>
+    <t>u16DecTime</t>
+  </si>
+  <si>
+    <t>减速时间</t>
+  </si>
+  <si>
+    <t>减速至1000rpm所需时间</t>
+  </si>
+  <si>
+    <t>u16JogDigRef</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>点动速度指令</t>
+  </si>
+  <si>
+    <t>u16JogAccDecTime</t>
+  </si>
+  <si>
+    <t>点动加减速时间</t>
+  </si>
+  <si>
+    <t>u16SpdLimSrc</t>
+  </si>
+  <si>
+    <t>速度限制来源</t>
+  </si>
+  <si>
+    <r>
       <t>0-</t>
     </r>
     <r>
@@ -2041,9 +2150,6 @@
     <t>u16SpdLimFwd</t>
   </si>
   <si>
-    <t>0.1rpm</t>
-  </si>
-  <si>
     <t>正向速度限制</t>
   </si>
   <si>
@@ -2060,12 +2166,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>0-</t>
     </r>
     <r>
@@ -2426,9 +2526,6 @@
     <t>u16TrqLimSrc</t>
   </si>
   <si>
-    <t>‰</t>
-  </si>
-  <si>
     <t>转矩限制来源</t>
   </si>
   <si>
@@ -2547,6 +2644,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>0-</t>
     </r>
     <r>
@@ -2626,7 +2729,7 @@
     <t>u16OpenPeriod</t>
   </si>
   <si>
-    <t>5</t>
+    <t>125</t>
   </si>
   <si>
     <t>us</t>
@@ -2657,9 +2760,6 @@
   </si>
   <si>
     <t>s16OpenUqRef</t>
-  </si>
-  <si>
-    <t>16000</t>
   </si>
   <si>
     <r>
@@ -2745,13 +2845,28 @@
     <t>轴状态机</t>
   </si>
   <si>
-    <t>u16ElecAngle</t>
+    <t>u16ElecAngleRef</t>
   </si>
   <si>
     <t>只读</t>
   </si>
   <si>
-    <t>驱动层电角度</t>
+    <t>驱动层电角度指令</t>
+  </si>
+  <si>
+    <t>u16ElecAngleFb</t>
+  </si>
+  <si>
+    <t>驱动层电角度反馈</t>
+  </si>
+  <si>
+    <t>u32EncPosOffset</t>
+  </si>
+  <si>
+    <t>机械角度偏置</t>
+  </si>
+  <si>
+    <t>电角度度偏置</t>
   </si>
   <si>
     <t>s16Ud</t>
@@ -3297,8 +3412,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3376,6 +3491,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3390,14 +3512,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3418,31 +3549,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3453,6 +3570,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3472,43 +3612,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3527,7 +3642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3539,13 +3678,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3557,7 +3714,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,43 +3792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3624,90 +3823,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,15 +3956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3865,17 +3971,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3883,8 +3989,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3906,15 +4012,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3924,17 +4021,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3946,10 +4061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3958,133 +4073,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17377,14 +17492,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J31 J38 J45 J83 J84 J85 J86 J87 J88 J89 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J176 J177 J209 J210 J211 J212 J216 J217 J218 J219 J220 J227 J230 J233 J234 J235 J236 J237 J238 J247 J248 J253 J5:J27 J28:J30 J32:J37 J39:J42 J43:J44 J46:J82 J90:J91 J174:J175 J178:J208 J213:J215 J221:J226 J228:J229 J231:J232 J239:J246 J249:J252">
-      <formula1>Unit!$A$2:$A$62</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E9 E28 E31 E38 E45 E83 E84 E85 E86 E87 E88 E89 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E151 E155 E168 E169 E170 E171 E172 E173 E176 E177 E209 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E237 E247 E248 E253 E6:E8 E10:E17 E18:E27 E29:E30 E32:E35 E36:E37 E39:E44 E46:E82 E90:E91 E148:E150 E152:E154 E156:E162 E163:E165 E166:E167 E174:E175 E178:E192 E193:E208 E238:E246 E249:E252">
       <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M31 M38 M50 M83 M84 M85 M86 M87 M88 M89 M92 M93 M94 M95 M96 M97 M98 M99 M100 M101 M102 M103 M104 M105 M106 M107 M108 M109 M110 M111 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M152 M153 M154 M155 M156 M157 M158 M159 M160 M161 M162 M163 M164 M165 M166 M167 M168 M169 M170 M171 M172 M173 M176 M177 M209 M210 M211 M212 M216 M220 M233 M234 M235 M236 M237 M247 M248 M253 M15:M27 M28:M30 M32:M37 M39:M45 M46:M49 M51:M56 M57:M59 M60:M80 M81:M82 M90:M91 M174:M175 M178:M194 M195:M206 M207:M208 M213:M215 M217:M219 M221:M227 M228:M230 M231:M232 M238:M246 M249:M252">
       <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J31 J38 J45 J83 J84 J85 J86 J87 J88 J89 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J176 J177 J209 J210 J211 J212 J216 J217 J218 J219 J220 J227 J230 J233 J234 J235 J236 J237 J238 J247 J248 J253 J5:J27 J28:J30 J32:J37 J39:J42 J43:J44 J46:J82 J90:J91 J174:J175 J178:J208 J213:J215 J221:J226 J228:J229 J231:J232 J239:J246 J249:J252">
+      <formula1>Unit!$A$2:$A$62</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31 K38 K45 K83 K84 K85 K86 K87 K88 K89 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K152 K153 K154 K155 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K170 K171 K172 K173 K176 K177 K209 K210 K211 K212 K216 K220 K233 K234 K235 K236 K237 K247 K248 K253 K5:K27 K28:K30 K32:K37 K39:K41 K42:K44 K46:K59 K60:K80 K81:K82 K90:K91 K174:K175 K178:K208 K213:K215 K217:K219 K221:K227 K228:K230 K231:K232 K238:K246 K249:K252">
       <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
@@ -17406,10 +17521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S317"/>
+  <dimension ref="A1:S316"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="O268" sqref="O268"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C208" workbookViewId="0">
+      <selection activeCell="K210" sqref="K210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -19275,7 +19390,7 @@
         <v>380</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>130</v>
+        <v>381</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>75</v>
@@ -19284,7 +19399,7 @@
         <v>76</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>77</v>
@@ -19300,7 +19415,7 @@
       </c>
       <c r="O43" s="12"/>
       <c r="P43" s="18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q43" s="18"/>
       <c r="R43" s="27"/>
@@ -19317,10 +19432,10 @@
         <v>40</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>75</v>
@@ -19329,7 +19444,7 @@
         <v>76</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>77</v>
@@ -19345,7 +19460,7 @@
       </c>
       <c r="O44" s="12"/>
       <c r="P44" s="18" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q44" s="18"/>
       <c r="R44" s="27"/>
@@ -19362,10 +19477,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>75</v>
@@ -19374,7 +19489,7 @@
         <v>76</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>77</v>
@@ -19390,7 +19505,7 @@
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q45" s="18"/>
       <c r="R45" s="27"/>
@@ -19407,10 +19522,10 @@
         <v>40</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>130</v>
+        <v>381</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>75</v>
@@ -19419,7 +19534,7 @@
         <v>76</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>77</v>
@@ -19435,7 +19550,7 @@
       </c>
       <c r="O46" s="12"/>
       <c r="P46" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q46" s="18"/>
       <c r="R46" s="27"/>
@@ -19452,10 +19567,10 @@
         <v>40</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>75</v>
@@ -19464,7 +19579,7 @@
         <v>76</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>77</v>
@@ -19480,7 +19595,7 @@
       </c>
       <c r="O47" s="12"/>
       <c r="P47" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q47" s="18"/>
       <c r="R47" s="27"/>
@@ -19497,10 +19612,10 @@
         <v>40</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>75</v>
@@ -19509,7 +19624,7 @@
         <v>76</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>77</v>
@@ -19525,7 +19640,7 @@
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q48" s="18"/>
       <c r="R48" s="27"/>
@@ -19542,10 +19657,10 @@
         <v>40</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>130</v>
+        <v>381</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>75</v>
@@ -19554,7 +19669,7 @@
         <v>76</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>77</v>
@@ -19570,7 +19685,7 @@
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q49" s="18"/>
       <c r="R49" s="27"/>
@@ -19587,10 +19702,10 @@
         <v>40</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>75</v>
@@ -19599,7 +19714,7 @@
         <v>76</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>77</v>
@@ -19615,7 +19730,7 @@
       </c>
       <c r="O50" s="12"/>
       <c r="P50" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q50" s="18"/>
       <c r="R50" s="27"/>
@@ -19632,10 +19747,10 @@
         <v>40</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>75</v>
@@ -19644,7 +19759,7 @@
         <v>76</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>77</v>
@@ -19660,7 +19775,7 @@
       </c>
       <c r="O51" s="18"/>
       <c r="P51" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q51" s="18"/>
       <c r="R51" s="27"/>
@@ -19677,10 +19792,10 @@
         <v>40</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>130</v>
+        <v>381</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>75</v>
@@ -19689,7 +19804,7 @@
         <v>76</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>77</v>
@@ -19705,7 +19820,7 @@
       </c>
       <c r="O52" s="18"/>
       <c r="P52" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q52" s="18"/>
       <c r="R52" s="27"/>
@@ -19722,10 +19837,10 @@
         <v>40</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>75</v>
@@ -19734,7 +19849,7 @@
         <v>76</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>77</v>
@@ -19750,7 +19865,7 @@
       </c>
       <c r="O53" s="18"/>
       <c r="P53" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q53" s="18"/>
       <c r="R53" s="27"/>
@@ -19767,10 +19882,10 @@
         <v>40</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>75</v>
@@ -19779,7 +19894,7 @@
         <v>76</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>77</v>
@@ -19795,7 +19910,7 @@
       </c>
       <c r="O54" s="18"/>
       <c r="P54" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q54" s="18"/>
       <c r="R54" s="27"/>
@@ -20087,7 +20202,7 @@
       <c r="Q61" s="18"/>
       <c r="R61" s="27"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" ht="39" spans="1:18">
       <c r="A62" s="12"/>
       <c r="B62" s="23"/>
       <c r="C62" s="17"/>
@@ -20099,7 +20214,7 @@
         <v>40</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>24</v>
@@ -20127,14 +20242,14 @@
       </c>
       <c r="O62" s="26"/>
       <c r="P62" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q62" s="18" t="s">
         <v>406</v>
       </c>
+      <c r="Q62" s="26" t="s">
+        <v>407</v>
+      </c>
       <c r="R62" s="27"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" ht="52" spans="1:18">
       <c r="A63" s="12"/>
       <c r="B63" s="23"/>
       <c r="C63" s="17"/>
@@ -20146,7 +20261,7 @@
         <v>40</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>24</v>
@@ -20174,14 +20289,14 @@
       </c>
       <c r="O63" s="26"/>
       <c r="P63" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q63" s="18" t="s">
         <v>409</v>
       </c>
+      <c r="Q63" s="26" t="s">
+        <v>410</v>
+      </c>
       <c r="R63" s="27"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" ht="52" spans="1:18">
       <c r="A64" s="12"/>
       <c r="B64" s="23"/>
       <c r="C64" s="17"/>
@@ -20193,7 +20308,7 @@
         <v>40</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>42</v>
@@ -20221,10 +20336,10 @@
       </c>
       <c r="O64" s="26"/>
       <c r="P64" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q64" s="18" t="s">
         <v>412</v>
+      </c>
+      <c r="Q64" s="26" t="s">
+        <v>413</v>
       </c>
       <c r="R64" s="27"/>
     </row>
@@ -20240,7 +20355,7 @@
         <v>40</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>24</v>
@@ -20268,7 +20383,7 @@
       </c>
       <c r="O65" s="26"/>
       <c r="P65" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q65" s="18"/>
       <c r="R65" s="27"/>
@@ -20285,7 +20400,7 @@
         <v>40</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>24</v>
@@ -20309,11 +20424,11 @@
         <v>101</v>
       </c>
       <c r="N66" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O66" s="26"/>
       <c r="P66" s="18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q66" s="18"/>
       <c r="R66" s="27"/>
@@ -20330,13 +20445,13 @@
         <v>22</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>319</v>
@@ -20358,10 +20473,10 @@
       </c>
       <c r="O67" s="26"/>
       <c r="P67" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R67" s="27"/>
     </row>
@@ -20418,7 +20533,7 @@
         <v>40</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>24</v>
@@ -20446,7 +20561,7 @@
       </c>
       <c r="O69" s="12"/>
       <c r="P69" s="18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q69" s="18"/>
       <c r="R69" s="27"/>
@@ -20463,7 +20578,7 @@
         <v>40</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>24</v>
@@ -20491,7 +20606,7 @@
       </c>
       <c r="O70" s="12"/>
       <c r="P70" s="18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q70" s="18"/>
       <c r="R70" s="27"/>
@@ -20578,7 +20693,7 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="27"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" ht="39" spans="1:18">
       <c r="A73" s="12"/>
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
@@ -20590,7 +20705,7 @@
         <v>40</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>24</v>
@@ -20618,10 +20733,10 @@
       </c>
       <c r="O73" s="12"/>
       <c r="P73" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q73" s="18" t="s">
         <v>428</v>
+      </c>
+      <c r="Q73" s="26" t="s">
+        <v>429</v>
       </c>
       <c r="R73" s="27"/>
     </row>
@@ -20637,7 +20752,7 @@
         <v>284</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>24</v>
@@ -20652,7 +20767,7 @@
         <v>288</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L74" s="14" t="s">
         <v>27</v>
@@ -20665,7 +20780,7 @@
       </c>
       <c r="O74" s="12"/>
       <c r="P74" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q74" s="18"/>
       <c r="R74" s="27"/>
@@ -20682,7 +20797,7 @@
         <v>284</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>24</v>
@@ -20697,7 +20812,7 @@
         <v>288</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L75" s="14" t="s">
         <v>27</v>
@@ -20710,7 +20825,7 @@
       </c>
       <c r="O75" s="12"/>
       <c r="P75" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q75" s="18"/>
       <c r="R75" s="27"/>
@@ -20727,7 +20842,7 @@
         <v>40</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>24</v>
@@ -20755,7 +20870,7 @@
       </c>
       <c r="O76" s="12"/>
       <c r="P76" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q76" s="18"/>
       <c r="R76" s="27"/>
@@ -20813,7 +20928,7 @@
         <v>22</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>24</v>
@@ -20828,7 +20943,7 @@
         <v>25</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L78" s="14" t="s">
         <v>27</v>
@@ -20841,7 +20956,7 @@
       </c>
       <c r="O78" s="12"/>
       <c r="P78" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q78" s="18"/>
       <c r="R78" s="27"/>
@@ -20858,7 +20973,7 @@
         <v>22</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>24</v>
@@ -20873,7 +20988,7 @@
         <v>25</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L79" s="14" t="s">
         <v>27</v>
@@ -20886,7 +21001,7 @@
       </c>
       <c r="O79" s="12"/>
       <c r="P79" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q79" s="18"/>
       <c r="R79" s="27"/>
@@ -20944,7 +21059,7 @@
         <v>40</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>24</v>
@@ -20959,7 +21074,7 @@
         <v>25</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L81" s="14" t="s">
         <v>27</v>
@@ -20972,7 +21087,7 @@
       </c>
       <c r="O81" s="12"/>
       <c r="P81" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q81" s="18"/>
       <c r="R81" s="27"/>
@@ -20989,7 +21104,7 @@
         <v>40</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>24</v>
@@ -21004,7 +21119,7 @@
         <v>25</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L82" s="14" t="s">
         <v>27</v>
@@ -21017,7 +21132,7 @@
       </c>
       <c r="O82" s="12"/>
       <c r="P82" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q82" s="18"/>
       <c r="R82" s="27"/>
@@ -21034,7 +21149,7 @@
         <v>40</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>24</v>
@@ -21049,7 +21164,7 @@
         <v>25</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L83" s="14" t="s">
         <v>27</v>
@@ -21062,7 +21177,7 @@
       </c>
       <c r="O83" s="12"/>
       <c r="P83" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q83" s="18"/>
       <c r="R83" s="27"/>
@@ -21120,7 +21235,7 @@
         <v>284</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>24</v>
@@ -21148,7 +21263,7 @@
       </c>
       <c r="O85" s="12"/>
       <c r="P85" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q85" s="18"/>
       <c r="R85" s="27"/>
@@ -21165,7 +21280,7 @@
         <v>284</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>24</v>
@@ -21193,7 +21308,7 @@
       </c>
       <c r="O86" s="12"/>
       <c r="P86" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q86" s="18"/>
       <c r="R86" s="27"/>
@@ -21210,7 +21325,7 @@
         <v>284</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>24</v>
@@ -21238,7 +21353,7 @@
       </c>
       <c r="O87" s="12"/>
       <c r="P87" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q87" s="18"/>
       <c r="R87" s="27"/>
@@ -21255,7 +21370,7 @@
         <v>284</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>24</v>
@@ -21283,7 +21398,7 @@
       </c>
       <c r="O88" s="12"/>
       <c r="P88" s="18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q88" s="18"/>
       <c r="R88" s="27"/>
@@ -21300,7 +21415,7 @@
         <v>284</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>24</v>
@@ -21328,7 +21443,7 @@
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q89" s="18"/>
       <c r="R89" s="27"/>
@@ -21345,7 +21460,7 @@
         <v>284</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>24</v>
@@ -21373,7 +21488,7 @@
       </c>
       <c r="O90" s="12"/>
       <c r="P90" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q90" s="18"/>
       <c r="R90" s="27"/>
@@ -21390,7 +21505,7 @@
         <v>284</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>24</v>
@@ -21418,7 +21533,7 @@
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q91" s="18"/>
       <c r="R91" s="27"/>
@@ -21435,7 +21550,7 @@
         <v>284</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G92" s="16" t="s">
         <v>24</v>
@@ -21463,7 +21578,7 @@
       </c>
       <c r="O92" s="12"/>
       <c r="P92" s="18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q92" s="18"/>
       <c r="R92" s="27"/>
@@ -21480,7 +21595,7 @@
         <v>284</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>24</v>
@@ -21508,7 +21623,7 @@
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q93" s="18"/>
       <c r="R93" s="27"/>
@@ -21525,7 +21640,7 @@
         <v>284</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>24</v>
@@ -21553,7 +21668,7 @@
       </c>
       <c r="O94" s="12"/>
       <c r="P94" s="18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q94" s="18"/>
       <c r="R94" s="27"/>
@@ -21570,7 +21685,7 @@
         <v>284</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>24</v>
@@ -21598,7 +21713,7 @@
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q95" s="18"/>
       <c r="R95" s="27"/>
@@ -21615,7 +21730,7 @@
         <v>284</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>24</v>
@@ -21643,7 +21758,7 @@
       </c>
       <c r="O96" s="12"/>
       <c r="P96" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q96" s="18"/>
       <c r="R96" s="27"/>
@@ -21660,7 +21775,7 @@
         <v>284</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>24</v>
@@ -21688,7 +21803,7 @@
       </c>
       <c r="O97" s="12"/>
       <c r="P97" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q97" s="18"/>
       <c r="R97" s="27"/>
@@ -21705,7 +21820,7 @@
         <v>284</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>24</v>
@@ -21733,7 +21848,7 @@
       </c>
       <c r="O98" s="12"/>
       <c r="P98" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q98" s="18"/>
       <c r="R98" s="27"/>
@@ -21750,7 +21865,7 @@
         <v>284</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>24</v>
@@ -21778,7 +21893,7 @@
       </c>
       <c r="O99" s="12"/>
       <c r="P99" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q99" s="18"/>
       <c r="R99" s="27"/>
@@ -21795,7 +21910,7 @@
         <v>284</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>24</v>
@@ -21823,7 +21938,7 @@
       </c>
       <c r="O100" s="12"/>
       <c r="P100" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q100" s="18"/>
       <c r="R100" s="27"/>
@@ -22327,7 +22442,7 @@
         <v>40</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>24</v>
@@ -22355,7 +22470,7 @@
       </c>
       <c r="O112" s="18"/>
       <c r="P112" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q112" s="18"/>
       <c r="R112" s="27"/>
@@ -22372,22 +22487,22 @@
         <v>361</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>24</v>
+        <v>482</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>24</v>
+        <v>483</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>24</v>
+        <v>484</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L113" s="14" t="s">
         <v>27</v>
@@ -22400,7 +22515,7 @@
       </c>
       <c r="O113" s="18"/>
       <c r="P113" s="18" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q113" s="18"/>
       <c r="R113" s="27"/>
@@ -22458,16 +22573,16 @@
         <v>40</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J115" s="12" t="s">
         <v>115</v>
@@ -22486,10 +22601,10 @@
       </c>
       <c r="O115" s="18"/>
       <c r="P115" s="18" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q115" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R115" s="27"/>
     </row>
@@ -22505,16 +22620,16 @@
         <v>40</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J116" s="12" t="s">
         <v>115</v>
@@ -22533,10 +22648,10 @@
       </c>
       <c r="O116" s="18"/>
       <c r="P116" s="18" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q116" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R116" s="27"/>
     </row>
@@ -22593,22 +22708,22 @@
         <v>40</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>24</v>
+        <v>483</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>24</v>
+        <v>484</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L118" s="14" t="s">
         <v>27</v>
@@ -22621,7 +22736,7 @@
       </c>
       <c r="O118" s="18"/>
       <c r="P118" s="18" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Q118" s="18"/>
       <c r="R118" s="27"/>
@@ -22638,22 +22753,22 @@
         <v>40</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G119" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J119" s="12" t="s">
         <v>115</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L119" s="14" t="s">
         <v>27</v>
@@ -22666,7 +22781,7 @@
       </c>
       <c r="O119" s="18"/>
       <c r="P119" s="18" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="Q119" s="18"/>
       <c r="R119" s="27"/>
@@ -22712,7 +22827,7 @@
       <c r="Q120" s="18"/>
       <c r="R120" s="27"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" ht="39" spans="1:18">
       <c r="A121" s="12"/>
       <c r="B121" s="30"/>
       <c r="C121" s="12"/>
@@ -22724,7 +22839,7 @@
         <v>40</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>24</v>
@@ -22752,10 +22867,10 @@
       </c>
       <c r="O121" s="18"/>
       <c r="P121" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q121" s="18" t="s">
-        <v>495</v>
+        <v>499</v>
+      </c>
+      <c r="Q121" s="26" t="s">
+        <v>500</v>
       </c>
       <c r="R121" s="27"/>
     </row>
@@ -22771,7 +22886,7 @@
         <v>40</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>24</v>
@@ -22783,7 +22898,7 @@
         <v>24</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K122" s="12" t="s">
         <v>26</v>
@@ -22799,7 +22914,7 @@
       </c>
       <c r="O122" s="18"/>
       <c r="P122" s="18" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="Q122" s="18"/>
       <c r="R122" s="27"/>
@@ -22816,7 +22931,7 @@
         <v>40</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>24</v>
@@ -22828,7 +22943,7 @@
         <v>24</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K123" s="12" t="s">
         <v>26</v>
@@ -22844,12 +22959,12 @@
       </c>
       <c r="O123" s="18"/>
       <c r="P123" s="18" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Q123" s="18"/>
       <c r="R123" s="27"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" ht="39" spans="1:18">
       <c r="A124" s="12"/>
       <c r="B124" s="30"/>
       <c r="C124" s="12"/>
@@ -22861,7 +22976,7 @@
         <v>40</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>24</v>
@@ -22889,10 +23004,10 @@
       </c>
       <c r="O124" s="18"/>
       <c r="P124" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q124" s="18" t="s">
-        <v>503</v>
+        <v>506</v>
+      </c>
+      <c r="Q124" s="26" t="s">
+        <v>507</v>
       </c>
       <c r="R124" s="27"/>
     </row>
@@ -22949,7 +23064,7 @@
         <v>40</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>24</v>
@@ -22961,10 +23076,10 @@
         <v>24</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L126" s="14" t="s">
         <v>27</v>
@@ -22992,7 +23107,7 @@
         <v>40</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G127" s="16" t="s">
         <v>24</v>
@@ -23004,10 +23119,10 @@
         <v>24</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L127" s="14" t="s">
         <v>27</v>
@@ -23035,7 +23150,7 @@
         <v>40</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>24</v>
@@ -23047,10 +23162,10 @@
         <v>24</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L128" s="14" t="s">
         <v>27</v>
@@ -23406,19 +23521,19 @@
         <v>361</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G137" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K137" s="12" t="s">
         <v>77</v>
@@ -23434,7 +23549,7 @@
       </c>
       <c r="O137" s="18"/>
       <c r="P137" s="18" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="Q137" s="18"/>
       <c r="R137" s="27"/>
@@ -23451,19 +23566,19 @@
         <v>361</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G138" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H138" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K138" s="12" t="s">
         <v>77</v>
@@ -23479,7 +23594,7 @@
       </c>
       <c r="O138" s="18"/>
       <c r="P138" s="18" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q138" s="18"/>
       <c r="R138" s="27"/>
@@ -23496,19 +23611,19 @@
         <v>361</v>
       </c>
       <c r="F139" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="I139" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="G139" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H139" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="I139" s="16" t="s">
-        <v>510</v>
-      </c>
       <c r="J139" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K139" s="12" t="s">
         <v>77</v>
@@ -23524,7 +23639,7 @@
       </c>
       <c r="O139" s="18"/>
       <c r="P139" s="18" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="Q139" s="18"/>
       <c r="R139" s="27"/>
@@ -23541,19 +23656,19 @@
         <v>361</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K140" s="12" t="s">
         <v>77</v>
@@ -23569,7 +23684,7 @@
       </c>
       <c r="O140" s="18"/>
       <c r="P140" s="18" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q140" s="18"/>
       <c r="R140" s="27"/>
@@ -23586,19 +23701,19 @@
         <v>361</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G141" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H141" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I141" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>77</v>
@@ -23614,7 +23729,7 @@
       </c>
       <c r="O141" s="18"/>
       <c r="P141" s="18" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q141" s="18"/>
       <c r="R141" s="27"/>
@@ -23631,19 +23746,19 @@
         <v>361</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K142" s="12" t="s">
         <v>77</v>
@@ -23659,7 +23774,7 @@
       </c>
       <c r="O142" s="18"/>
       <c r="P142" s="18" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="Q142" s="18"/>
       <c r="R142" s="27"/>
@@ -23676,19 +23791,19 @@
         <v>361</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K143" s="12" t="s">
         <v>77</v>
@@ -23704,7 +23819,7 @@
       </c>
       <c r="O143" s="18"/>
       <c r="P143" s="18" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q143" s="18"/>
       <c r="R143" s="27"/>
@@ -23721,19 +23836,19 @@
         <v>361</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G144" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K144" s="12" t="s">
         <v>77</v>
@@ -23749,7 +23864,7 @@
       </c>
       <c r="O144" s="18"/>
       <c r="P144" s="18" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="Q144" s="18"/>
       <c r="R144" s="27"/>
@@ -23766,19 +23881,19 @@
         <v>361</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K145" s="12" t="s">
         <v>77</v>
@@ -23794,7 +23909,7 @@
       </c>
       <c r="O145" s="18"/>
       <c r="P145" s="18" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="Q145" s="18"/>
       <c r="R145" s="27"/>
@@ -23811,19 +23926,19 @@
         <v>361</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G146" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H146" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K146" s="12" t="s">
         <v>77</v>
@@ -23839,7 +23954,7 @@
       </c>
       <c r="O146" s="18"/>
       <c r="P146" s="18" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q146" s="18"/>
       <c r="R146" s="27"/>
@@ -23856,19 +23971,19 @@
         <v>361</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G147" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H147" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K147" s="12" t="s">
         <v>77</v>
@@ -23884,7 +23999,7 @@
       </c>
       <c r="O147" s="18"/>
       <c r="P147" s="18" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Q147" s="18"/>
       <c r="R147" s="27"/>
@@ -23901,19 +24016,19 @@
         <v>361</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G148" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K148" s="12" t="s">
         <v>77</v>
@@ -23929,7 +24044,7 @@
       </c>
       <c r="O148" s="18"/>
       <c r="P148" s="18" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q148" s="18"/>
       <c r="R148" s="27"/>
@@ -23946,19 +24061,19 @@
         <v>361</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G149" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H149" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K149" s="12" t="s">
         <v>77</v>
@@ -23974,7 +24089,7 @@
       </c>
       <c r="O149" s="18"/>
       <c r="P149" s="18" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q149" s="18"/>
       <c r="R149" s="27"/>
@@ -23991,19 +24106,19 @@
         <v>361</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G150" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H150" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K150" s="12" t="s">
         <v>77</v>
@@ -24019,7 +24134,7 @@
       </c>
       <c r="O150" s="18"/>
       <c r="P150" s="18" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q150" s="18"/>
       <c r="R150" s="27"/>
@@ -24036,19 +24151,19 @@
         <v>361</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G151" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K151" s="12" t="s">
         <v>77</v>
@@ -24064,7 +24179,7 @@
       </c>
       <c r="O151" s="18"/>
       <c r="P151" s="18" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Q151" s="18"/>
       <c r="R151" s="27"/>
@@ -24081,19 +24196,19 @@
         <v>361</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G152" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K152" s="12" t="s">
         <v>77</v>
@@ -24109,7 +24224,7 @@
       </c>
       <c r="O152" s="18"/>
       <c r="P152" s="18" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Q152" s="18"/>
       <c r="R152" s="27"/>
@@ -24126,7 +24241,7 @@
         <v>40</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G153" s="16" t="s">
         <v>24</v>
@@ -24154,10 +24269,10 @@
       </c>
       <c r="O153" s="18"/>
       <c r="P153" s="18" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Q153" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R153" s="27"/>
     </row>
@@ -24173,7 +24288,7 @@
         <v>40</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G154" s="16" t="s">
         <v>24</v>
@@ -24201,10 +24316,10 @@
       </c>
       <c r="O154" s="18"/>
       <c r="P154" s="18" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="Q154" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R154" s="27"/>
     </row>
@@ -24220,7 +24335,7 @@
         <v>40</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G155" s="16" t="s">
         <v>24</v>
@@ -24248,10 +24363,10 @@
       </c>
       <c r="O155" s="18"/>
       <c r="P155" s="18" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q155" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R155" s="27"/>
     </row>
@@ -24267,7 +24382,7 @@
         <v>40</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>24</v>
@@ -24295,10 +24410,10 @@
       </c>
       <c r="O156" s="18"/>
       <c r="P156" s="18" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="Q156" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R156" s="27"/>
     </row>
@@ -24314,7 +24429,7 @@
         <v>40</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G157" s="16" t="s">
         <v>24</v>
@@ -24342,10 +24457,10 @@
       </c>
       <c r="O157" s="18"/>
       <c r="P157" s="18" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q157" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R157" s="27"/>
     </row>
@@ -24361,7 +24476,7 @@
         <v>40</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G158" s="16" t="s">
         <v>24</v>
@@ -24389,10 +24504,10 @@
       </c>
       <c r="O158" s="18"/>
       <c r="P158" s="18" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Q158" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R158" s="27"/>
     </row>
@@ -24408,7 +24523,7 @@
         <v>40</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>24</v>
@@ -24436,10 +24551,10 @@
       </c>
       <c r="O159" s="18"/>
       <c r="P159" s="18" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q159" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R159" s="27"/>
     </row>
@@ -24455,7 +24570,7 @@
         <v>40</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>24</v>
@@ -24483,10 +24598,10 @@
       </c>
       <c r="O160" s="18"/>
       <c r="P160" s="18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q160" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R160" s="27"/>
     </row>
@@ -24502,7 +24617,7 @@
         <v>40</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>24</v>
@@ -24530,10 +24645,10 @@
       </c>
       <c r="O161" s="18"/>
       <c r="P161" s="18" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Q161" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R161" s="27"/>
     </row>
@@ -24549,7 +24664,7 @@
         <v>40</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>24</v>
@@ -24577,10 +24692,10 @@
       </c>
       <c r="O162" s="18"/>
       <c r="P162" s="18" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="Q162" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R162" s="27"/>
     </row>
@@ -24596,7 +24711,7 @@
         <v>40</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>24</v>
@@ -24624,10 +24739,10 @@
       </c>
       <c r="O163" s="18"/>
       <c r="P163" s="18" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Q163" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R163" s="27"/>
     </row>
@@ -24643,7 +24758,7 @@
         <v>40</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>24</v>
@@ -24671,10 +24786,10 @@
       </c>
       <c r="O164" s="18"/>
       <c r="P164" s="18" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q164" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R164" s="27"/>
     </row>
@@ -24690,7 +24805,7 @@
         <v>40</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G165" s="16" t="s">
         <v>24</v>
@@ -24718,10 +24833,10 @@
       </c>
       <c r="O165" s="18"/>
       <c r="P165" s="18" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Q165" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R165" s="27"/>
     </row>
@@ -24737,7 +24852,7 @@
         <v>40</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>24</v>
@@ -24765,10 +24880,10 @@
       </c>
       <c r="O166" s="18"/>
       <c r="P166" s="18" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Q166" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R166" s="27"/>
     </row>
@@ -24784,7 +24899,7 @@
         <v>40</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G167" s="16" t="s">
         <v>24</v>
@@ -24812,10 +24927,10 @@
       </c>
       <c r="O167" s="18"/>
       <c r="P167" s="18" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q167" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R167" s="27"/>
     </row>
@@ -24831,7 +24946,7 @@
         <v>40</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>24</v>
@@ -24859,10 +24974,10 @@
       </c>
       <c r="O168" s="18"/>
       <c r="P168" s="18" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q168" s="18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="R168" s="27"/>
     </row>
@@ -24878,7 +24993,7 @@
         <v>40</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>24</v>
@@ -24906,10 +25021,10 @@
       </c>
       <c r="O169" s="18"/>
       <c r="P169" s="18" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q169" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R169" s="27"/>
     </row>
@@ -24925,7 +25040,7 @@
         <v>40</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>24</v>
@@ -24953,10 +25068,10 @@
       </c>
       <c r="O170" s="18"/>
       <c r="P170" s="18" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q170" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R170" s="27"/>
     </row>
@@ -24972,7 +25087,7 @@
         <v>40</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>24</v>
@@ -25000,10 +25115,10 @@
       </c>
       <c r="O171" s="18"/>
       <c r="P171" s="18" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q171" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R171" s="27"/>
     </row>
@@ -25019,7 +25134,7 @@
         <v>40</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G172" s="16" t="s">
         <v>24</v>
@@ -25047,10 +25162,10 @@
       </c>
       <c r="O172" s="18"/>
       <c r="P172" s="18" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q172" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R172" s="27"/>
     </row>
@@ -25066,7 +25181,7 @@
         <v>40</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>24</v>
@@ -25094,10 +25209,10 @@
       </c>
       <c r="O173" s="18"/>
       <c r="P173" s="18" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q173" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R173" s="27"/>
     </row>
@@ -25113,7 +25228,7 @@
         <v>40</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G174" s="16" t="s">
         <v>24</v>
@@ -25141,10 +25256,10 @@
       </c>
       <c r="O174" s="18"/>
       <c r="P174" s="18" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="Q174" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R174" s="27"/>
     </row>
@@ -25160,7 +25275,7 @@
         <v>40</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G175" s="16" t="s">
         <v>24</v>
@@ -25188,10 +25303,10 @@
       </c>
       <c r="O175" s="18"/>
       <c r="P175" s="18" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Q175" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R175" s="27"/>
     </row>
@@ -25207,7 +25322,7 @@
         <v>40</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G176" s="16" t="s">
         <v>24</v>
@@ -25235,10 +25350,10 @@
       </c>
       <c r="O176" s="18"/>
       <c r="P176" s="18" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q176" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R176" s="27"/>
     </row>
@@ -25254,7 +25369,7 @@
         <v>40</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G177" s="16" t="s">
         <v>24</v>
@@ -25282,10 +25397,10 @@
       </c>
       <c r="O177" s="18"/>
       <c r="P177" s="18" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Q177" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R177" s="27"/>
     </row>
@@ -25301,7 +25416,7 @@
         <v>40</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G178" s="16" t="s">
         <v>24</v>
@@ -25329,10 +25444,10 @@
       </c>
       <c r="O178" s="18"/>
       <c r="P178" s="18" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="Q178" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R178" s="27"/>
     </row>
@@ -25348,7 +25463,7 @@
         <v>40</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="G179" s="16" t="s">
         <v>24</v>
@@ -25376,10 +25491,10 @@
       </c>
       <c r="O179" s="18"/>
       <c r="P179" s="18" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Q179" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R179" s="27"/>
     </row>
@@ -25395,7 +25510,7 @@
         <v>40</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>24</v>
@@ -25423,10 +25538,10 @@
       </c>
       <c r="O180" s="18"/>
       <c r="P180" s="18" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="Q180" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R180" s="27"/>
     </row>
@@ -25442,7 +25557,7 @@
         <v>40</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>24</v>
@@ -25470,10 +25585,10 @@
       </c>
       <c r="O181" s="18"/>
       <c r="P181" s="18" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Q181" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R181" s="27"/>
     </row>
@@ -25489,7 +25604,7 @@
         <v>40</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>24</v>
@@ -25517,10 +25632,10 @@
       </c>
       <c r="O182" s="18"/>
       <c r="P182" s="18" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="Q182" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R182" s="27"/>
     </row>
@@ -25536,7 +25651,7 @@
         <v>40</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>24</v>
@@ -25564,10 +25679,10 @@
       </c>
       <c r="O183" s="18"/>
       <c r="P183" s="18" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="Q183" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R183" s="27"/>
     </row>
@@ -25583,7 +25698,7 @@
         <v>40</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>24</v>
@@ -25611,10 +25726,10 @@
       </c>
       <c r="O184" s="18"/>
       <c r="P184" s="18" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="Q184" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R184" s="27"/>
     </row>
@@ -25671,7 +25786,7 @@
         <v>40</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G186" s="16" t="s">
         <v>24</v>
@@ -25683,10 +25798,10 @@
         <v>76</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>607</v>
+        <v>382</v>
       </c>
       <c r="K186" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L186" s="14" t="s">
         <v>27</v>
@@ -25699,7 +25814,7 @@
       </c>
       <c r="O186" s="18"/>
       <c r="P186" s="33" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="Q186" s="18"/>
       <c r="R186" s="27"/>
@@ -25716,7 +25831,7 @@
         <v>40</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G187" s="16" t="s">
         <v>24</v>
@@ -25728,10 +25843,10 @@
         <v>76</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>607</v>
+        <v>382</v>
       </c>
       <c r="K187" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L187" s="14" t="s">
         <v>27</v>
@@ -25744,7 +25859,7 @@
       </c>
       <c r="O187" s="18"/>
       <c r="P187" s="33" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="Q187" s="18"/>
       <c r="R187" s="27"/>
@@ -25761,7 +25876,7 @@
         <v>40</v>
       </c>
       <c r="F188" s="20" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>24</v>
@@ -25773,10 +25888,10 @@
         <v>76</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>607</v>
+        <v>382</v>
       </c>
       <c r="K188" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L188" s="14" t="s">
         <v>27</v>
@@ -25789,7 +25904,7 @@
       </c>
       <c r="O188" s="18"/>
       <c r="P188" s="33" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q188" s="18"/>
       <c r="R188" s="27"/>
@@ -25888,7 +26003,7 @@
         <v>40</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>24</v>
@@ -25916,7 +26031,7 @@
       </c>
       <c r="O191" s="18"/>
       <c r="P191" s="18" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Q191" s="18"/>
       <c r="R191" s="27"/>
@@ -25933,7 +26048,7 @@
         <v>40</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>24</v>
@@ -25961,7 +26076,7 @@
       </c>
       <c r="O192" s="18"/>
       <c r="P192" s="18" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q192" s="18"/>
       <c r="R192" s="27"/>
@@ -25978,7 +26093,7 @@
         <v>40</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>24</v>
@@ -26006,7 +26121,7 @@
       </c>
       <c r="O193" s="18"/>
       <c r="P193" s="18" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="Q193" s="18"/>
       <c r="R193" s="27"/>
@@ -26023,7 +26138,7 @@
         <v>40</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>24</v>
@@ -26051,7 +26166,7 @@
       </c>
       <c r="O194" s="18"/>
       <c r="P194" s="18" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Q194" s="18"/>
       <c r="R194" s="27"/>
@@ -26068,7 +26183,7 @@
         <v>40</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>24</v>
@@ -26096,7 +26211,7 @@
       </c>
       <c r="O195" s="18"/>
       <c r="P195" s="18" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Q195" s="18"/>
       <c r="R195" s="27"/>
@@ -26113,7 +26228,7 @@
         <v>40</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>24</v>
@@ -26141,7 +26256,7 @@
       </c>
       <c r="O196" s="18"/>
       <c r="P196" s="18" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="Q196" s="18"/>
       <c r="R196" s="27"/>
@@ -26158,7 +26273,7 @@
         <v>40</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>24</v>
@@ -26186,7 +26301,7 @@
       </c>
       <c r="O197" s="18"/>
       <c r="P197" s="18" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="Q197" s="18"/>
       <c r="R197" s="27"/>
@@ -26203,7 +26318,7 @@
         <v>40</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>24</v>
@@ -26231,7 +26346,7 @@
       </c>
       <c r="O198" s="18"/>
       <c r="P198" s="18" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Q198" s="18"/>
       <c r="R198" s="27"/>
@@ -26248,7 +26363,7 @@
         <v>40</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>24</v>
@@ -26276,7 +26391,7 @@
       </c>
       <c r="O199" s="18"/>
       <c r="P199" s="18" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Q199" s="18"/>
       <c r="R199" s="27"/>
@@ -26293,7 +26408,7 @@
         <v>40</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>24</v>
@@ -26321,7 +26436,7 @@
       </c>
       <c r="O200" s="18"/>
       <c r="P200" s="18" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q200" s="18"/>
       <c r="R200" s="27"/>
@@ -26338,7 +26453,7 @@
         <v>40</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>24</v>
@@ -26366,7 +26481,7 @@
       </c>
       <c r="O201" s="18"/>
       <c r="P201" s="18" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Q201" s="18"/>
       <c r="R201" s="27"/>
@@ -26383,7 +26498,7 @@
         <v>40</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>24</v>
@@ -26411,7 +26526,7 @@
       </c>
       <c r="O202" s="18"/>
       <c r="P202" s="18" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="Q202" s="18"/>
       <c r="R202" s="27"/>
@@ -26428,7 +26543,7 @@
         <v>40</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>24</v>
@@ -26456,7 +26571,7 @@
       </c>
       <c r="O203" s="18"/>
       <c r="P203" s="18" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="Q203" s="18"/>
       <c r="R203" s="27"/>
@@ -26473,7 +26588,7 @@
         <v>40</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>24</v>
@@ -26501,7 +26616,7 @@
       </c>
       <c r="O204" s="18"/>
       <c r="P204" s="18" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="Q204" s="18"/>
       <c r="R204" s="27"/>
@@ -26518,7 +26633,7 @@
         <v>40</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G205" s="16" t="s">
         <v>24</v>
@@ -26546,7 +26661,7 @@
       </c>
       <c r="O205" s="18"/>
       <c r="P205" s="18" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="Q205" s="18"/>
       <c r="R205" s="27"/>
@@ -26563,7 +26678,7 @@
         <v>40</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>24</v>
@@ -26591,7 +26706,7 @@
       </c>
       <c r="O206" s="18"/>
       <c r="P206" s="18" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="Q206" s="18"/>
       <c r="R206" s="27"/>
@@ -26608,7 +26723,7 @@
         <v>40</v>
       </c>
       <c r="F207" s="20" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>24</v>
@@ -26636,10 +26751,10 @@
       </c>
       <c r="O207" s="18"/>
       <c r="P207" s="33" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="Q207" s="26" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="R207" s="27"/>
     </row>
@@ -26655,7 +26770,7 @@
         <v>170</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>24</v>
@@ -26670,7 +26785,7 @@
         <v>25</v>
       </c>
       <c r="K208" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L208" s="14" t="s">
         <v>27</v>
@@ -26683,7 +26798,7 @@
       </c>
       <c r="O208" s="18"/>
       <c r="P208" s="33" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="Q208" s="18"/>
       <c r="R208" s="27"/>
@@ -26741,10 +26856,10 @@
         <v>40</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H210" s="16" t="s">
         <v>75</v>
@@ -26753,10 +26868,10 @@
         <v>76</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K210" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L210" s="14" t="s">
         <v>27</v>
@@ -26769,10 +26884,10 @@
       </c>
       <c r="O210" s="18"/>
       <c r="P210" s="18" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="Q210" s="18" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="R210" s="27"/>
     </row>
@@ -26788,7 +26903,7 @@
         <v>170</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>24</v>
@@ -26800,10 +26915,10 @@
         <v>253</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K211" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L211" s="14" t="s">
         <v>27</v>
@@ -26816,10 +26931,10 @@
       </c>
       <c r="O211" s="18"/>
       <c r="P211" s="18" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="Q211" s="18" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="R211" s="27"/>
     </row>
@@ -26835,22 +26950,22 @@
         <v>170</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="I212" s="16" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J212" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K212" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L212" s="14" t="s">
         <v>27</v>
@@ -26863,10 +26978,10 @@
       </c>
       <c r="O212" s="18"/>
       <c r="P212" s="18" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="Q212" s="18" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="R212" s="27"/>
     </row>
@@ -26882,10 +26997,10 @@
         <v>170</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>662</v>
+        <v>370</v>
       </c>
       <c r="H213" s="16" t="s">
         <v>252</v>
@@ -26897,7 +27012,7 @@
         <v>254</v>
       </c>
       <c r="K213" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L213" s="14" t="s">
         <v>27</v>
@@ -26910,10 +27025,10 @@
       </c>
       <c r="O213" s="18"/>
       <c r="P213" s="18" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="Q213" s="18" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="R213" s="27"/>
     </row>
@@ -26929,7 +27044,7 @@
         <v>170</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>24</v>
@@ -26944,7 +27059,7 @@
         <v>254</v>
       </c>
       <c r="K214" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L214" s="14" t="s">
         <v>27</v>
@@ -26957,10 +27072,10 @@
       </c>
       <c r="O214" s="18"/>
       <c r="P214" s="18" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Q214" s="18" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="R214" s="27"/>
     </row>
@@ -26976,7 +27091,7 @@
         <v>40</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>24</v>
@@ -26985,13 +27100,13 @@
         <v>24</v>
       </c>
       <c r="I215" s="16" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="J215" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K215" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L215" s="14" t="s">
         <v>27</v>
@@ -27004,7 +27119,7 @@
       </c>
       <c r="O215" s="18"/>
       <c r="P215" s="33" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="Q215" s="18"/>
       <c r="R215" s="27"/>
@@ -27021,7 +27136,7 @@
         <v>40</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>125</v>
@@ -27033,10 +27148,10 @@
         <v>76</v>
       </c>
       <c r="J216" s="12" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K216" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L216" s="14" t="s">
         <v>27</v>
@@ -27049,7 +27164,7 @@
       </c>
       <c r="O216" s="18"/>
       <c r="P216" s="33" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Q216" s="18"/>
       <c r="R216" s="27"/>
@@ -27066,7 +27181,7 @@
         <v>40</v>
       </c>
       <c r="F217" s="20" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>125</v>
@@ -27078,10 +27193,10 @@
         <v>76</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K217" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L217" s="14" t="s">
         <v>27</v>
@@ -27094,7 +27209,7 @@
       </c>
       <c r="O217" s="18"/>
       <c r="P217" s="33" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="Q217" s="18"/>
       <c r="R217" s="27"/>
@@ -27152,7 +27267,7 @@
         <v>40</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>24</v>
@@ -27167,7 +27282,7 @@
         <v>25</v>
       </c>
       <c r="K219" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L219" s="14" t="s">
         <v>27</v>
@@ -27180,7 +27295,7 @@
       </c>
       <c r="O219" s="18"/>
       <c r="P219" s="33" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="Q219" s="18"/>
       <c r="R219" s="27"/>
@@ -27197,7 +27312,7 @@
         <v>40</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>24</v>
@@ -27225,7 +27340,7 @@
       </c>
       <c r="O220" s="18"/>
       <c r="P220" s="18" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="Q220" s="18"/>
       <c r="R220" s="27"/>
@@ -27242,7 +27357,7 @@
         <v>40</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>24</v>
@@ -27270,7 +27385,7 @@
       </c>
       <c r="O221" s="18"/>
       <c r="P221" s="18" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="Q221" s="18"/>
       <c r="R221" s="27"/>
@@ -27369,7 +27484,7 @@
         <v>40</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>24</v>
@@ -27397,7 +27512,7 @@
       </c>
       <c r="O224" s="18"/>
       <c r="P224" s="18" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Q224" s="18"/>
       <c r="R224" s="27"/>
@@ -27741,21 +27856,23 @@
       <c r="E233" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F233" s="20"/>
+      <c r="F233" s="20" t="s">
+        <v>684</v>
+      </c>
       <c r="G233" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H233" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I233" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J233" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K233" s="12" t="s">
-        <v>26</v>
+      <c r="K233" s="34" t="s">
+        <v>685</v>
       </c>
       <c r="L233" s="14" t="s">
         <v>27</v>
@@ -27766,8 +27883,10 @@
       <c r="N233" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O233" s="18"/>
-      <c r="P233" s="18"/>
+      <c r="O233" s="28"/>
+      <c r="P233" s="33" t="s">
+        <v>686</v>
+      </c>
       <c r="Q233" s="18"/>
       <c r="R233" s="27"/>
     </row>
@@ -27783,22 +27902,22 @@
         <v>40</v>
       </c>
       <c r="F234" s="20" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H234" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I234" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J234" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K234" s="34" t="s">
-        <v>683</v>
+      <c r="K234" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="L234" s="14" t="s">
         <v>27</v>
@@ -27810,8 +27929,8 @@
         <v>29</v>
       </c>
       <c r="O234" s="28"/>
-      <c r="P234" s="18" t="s">
-        <v>684</v>
+      <c r="P234" s="33" t="s">
+        <v>688</v>
       </c>
       <c r="Q234" s="18"/>
       <c r="R234" s="27"/>
@@ -27825,36 +27944,42 @@
         <v>636</v>
       </c>
       <c r="E235" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F235" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="F235" s="20" t="s">
+        <v>689</v>
+      </c>
       <c r="G235" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H235" s="16" t="s">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="I235" s="16" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="J235" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K235" s="12" t="s">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="L235" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M235" s="12" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="N235" s="14" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="O235" s="28"/>
-      <c r="P235" s="18"/>
-      <c r="Q235" s="18"/>
+      <c r="P235" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q235" s="33" t="s">
+        <v>691</v>
+      </c>
       <c r="R235" s="27"/>
     </row>
     <row r="236" spans="1:18">
@@ -27863,7 +27988,7 @@
       <c r="C236" s="12"/>
       <c r="D236" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E236" s="14" t="s">
         <v>40</v>
@@ -27904,7 +28029,7 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E237" s="14" t="s">
         <v>40</v>
@@ -27945,26 +28070,28 @@
       <c r="C238" s="12"/>
       <c r="D238" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E238" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F238" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="F238" s="20" t="s">
+        <v>692</v>
+      </c>
       <c r="G238" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H238" s="16" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="I238" s="16" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="J238" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K238" s="12" t="s">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="L238" s="14" t="s">
         <v>27</v>
@@ -27976,7 +28103,9 @@
         <v>29</v>
       </c>
       <c r="O238" s="28"/>
-      <c r="P238" s="18"/>
+      <c r="P238" s="18" t="s">
+        <v>693</v>
+      </c>
       <c r="Q238" s="18"/>
       <c r="R238" s="27"/>
     </row>
@@ -27986,13 +28115,13 @@
       <c r="C239" s="12"/>
       <c r="D239" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E239" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>24</v>
@@ -28007,7 +28136,7 @@
         <v>25</v>
       </c>
       <c r="K239" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L239" s="14" t="s">
         <v>27</v>
@@ -28020,7 +28149,7 @@
       </c>
       <c r="O239" s="28"/>
       <c r="P239" s="18" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="Q239" s="18"/>
       <c r="R239" s="27"/>
@@ -28031,13 +28160,13 @@
       <c r="C240" s="12"/>
       <c r="D240" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E240" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>24</v>
@@ -28052,7 +28181,7 @@
         <v>25</v>
       </c>
       <c r="K240" s="12" t="s">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="L240" s="14" t="s">
         <v>27</v>
@@ -28065,7 +28194,7 @@
       </c>
       <c r="O240" s="28"/>
       <c r="P240" s="18" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="Q240" s="18"/>
       <c r="R240" s="27"/>
@@ -28076,13 +28205,13 @@
       <c r="C241" s="12"/>
       <c r="D241" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E241" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>24</v>
@@ -28110,7 +28239,7 @@
       </c>
       <c r="O241" s="28"/>
       <c r="P241" s="18" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="Q241" s="18"/>
       <c r="R241" s="27"/>
@@ -28121,22 +28250,22 @@
       <c r="C242" s="12"/>
       <c r="D242" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E242" s="14" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I242" s="16" t="s">
-        <v>253</v>
+        <v>701</v>
       </c>
       <c r="J242" s="12" t="s">
         <v>25</v>
@@ -28155,7 +28284,7 @@
       </c>
       <c r="O242" s="28"/>
       <c r="P242" s="18" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="Q242" s="18"/>
       <c r="R242" s="27"/>
@@ -28166,13 +28295,13 @@
       <c r="C243" s="12"/>
       <c r="D243" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E243" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>24</v>
@@ -28181,7 +28310,7 @@
         <v>24</v>
       </c>
       <c r="I243" s="16" t="s">
-        <v>694</v>
+        <v>24</v>
       </c>
       <c r="J243" s="12" t="s">
         <v>25</v>
@@ -28200,7 +28329,7 @@
       </c>
       <c r="O243" s="28"/>
       <c r="P243" s="18" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="Q243" s="18"/>
       <c r="R243" s="27"/>
@@ -28211,13 +28340,13 @@
       <c r="C244" s="12"/>
       <c r="D244" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E244" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>24</v>
@@ -28245,7 +28374,7 @@
       </c>
       <c r="O244" s="28"/>
       <c r="P244" s="18" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="Q244" s="18"/>
       <c r="R244" s="27"/>
@@ -28256,13 +28385,13 @@
       <c r="C245" s="12"/>
       <c r="D245" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E245" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>24</v>
@@ -28290,7 +28419,7 @@
       </c>
       <c r="O245" s="28"/>
       <c r="P245" s="18" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="Q245" s="18"/>
       <c r="R245" s="27"/>
@@ -28301,14 +28430,12 @@
       <c r="C246" s="12"/>
       <c r="D246" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E246" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F246" s="20" t="s">
-        <v>700</v>
-      </c>
+      <c r="F246" s="20"/>
       <c r="G246" s="16" t="s">
         <v>24</v>
       </c>
@@ -28334,9 +28461,7 @@
         <v>29</v>
       </c>
       <c r="O246" s="28"/>
-      <c r="P246" s="18" t="s">
-        <v>701</v>
-      </c>
+      <c r="P246" s="18"/>
       <c r="Q246" s="18"/>
       <c r="R246" s="27"/>
     </row>
@@ -28346,12 +28471,14 @@
       <c r="C247" s="12"/>
       <c r="D247" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E247" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F247" s="20"/>
+      <c r="F247" s="20" t="s">
+        <v>709</v>
+      </c>
       <c r="G247" s="16" t="s">
         <v>24</v>
       </c>
@@ -28359,13 +28486,13 @@
         <v>24</v>
       </c>
       <c r="I247" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J247" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K247" s="12" t="s">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="L247" s="14" t="s">
         <v>27</v>
@@ -28377,7 +28504,9 @@
         <v>29</v>
       </c>
       <c r="O247" s="28"/>
-      <c r="P247" s="18"/>
+      <c r="P247" s="18" t="s">
+        <v>710</v>
+      </c>
       <c r="Q247" s="18"/>
       <c r="R247" s="27"/>
     </row>
@@ -28387,13 +28516,13 @@
       <c r="C248" s="12"/>
       <c r="D248" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E248" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>24</v>
@@ -28402,26 +28531,26 @@
         <v>24</v>
       </c>
       <c r="I248" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J248" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K248" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L248" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M248" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N248" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O248" s="28"/>
-      <c r="P248" s="18" t="s">
-        <v>703</v>
+      <c r="P248" s="33" t="s">
+        <v>712</v>
       </c>
       <c r="Q248" s="18"/>
       <c r="R248" s="27"/>
@@ -28432,13 +28561,13 @@
       <c r="C249" s="12"/>
       <c r="D249" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E249" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>24</v>
@@ -28453,7 +28582,7 @@
         <v>25</v>
       </c>
       <c r="K249" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L249" s="14" t="s">
         <v>27</v>
@@ -28464,9 +28593,9 @@
       <c r="N249" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O249" s="28"/>
+      <c r="O249" s="18"/>
       <c r="P249" s="33" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="Q249" s="18"/>
       <c r="R249" s="27"/>
@@ -28477,28 +28606,28 @@
       <c r="C250" s="12"/>
       <c r="D250" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E250" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="G250" s="16" t="s">
-        <v>24</v>
+        <v>374</v>
       </c>
       <c r="H250" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I250" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J250" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K250" s="12" t="s">
-        <v>430</v>
+        <v>346</v>
       </c>
       <c r="L250" s="14" t="s">
         <v>27</v>
@@ -28511,53 +28640,49 @@
       </c>
       <c r="O250" s="18"/>
       <c r="P250" s="33" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="Q250" s="18"/>
       <c r="R250" s="27"/>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" s="5" customFormat="1" spans="1:18">
       <c r="A251" s="12"/>
       <c r="B251" s="30"/>
       <c r="C251" s="12"/>
       <c r="D251" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E251" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F251" s="20" t="s">
-        <v>707</v>
-      </c>
+      <c r="F251" s="20"/>
       <c r="G251" s="16" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="H251" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I251" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J251" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K251" s="12" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="L251" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M251" s="12" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="N251" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O251" s="18"/>
-      <c r="P251" s="33" t="s">
-        <v>708</v>
-      </c>
+      <c r="O251" s="12"/>
+      <c r="P251" s="18"/>
       <c r="Q251" s="18"/>
       <c r="R251" s="27"/>
     </row>
@@ -28567,7 +28692,7 @@
       <c r="C252" s="12"/>
       <c r="D252" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E252" s="14" t="s">
         <v>40</v>
@@ -28608,7 +28733,7 @@
       <c r="C253" s="12"/>
       <c r="D253" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E253" s="14" t="s">
         <v>40</v>
@@ -28649,7 +28774,7 @@
       <c r="C254" s="12"/>
       <c r="D254" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E254" s="14" t="s">
         <v>40</v>
@@ -28690,7 +28815,7 @@
       <c r="C255" s="12"/>
       <c r="D255" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E255" s="14" t="s">
         <v>40</v>
@@ -28731,7 +28856,7 @@
       <c r="C256" s="12"/>
       <c r="D256" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E256" s="14" t="s">
         <v>40</v>
@@ -28766,29 +28891,31 @@
       <c r="Q256" s="18"/>
       <c r="R256" s="27"/>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:18">
+    <row r="257" spans="1:18">
       <c r="A257" s="12"/>
       <c r="B257" s="30"/>
       <c r="C257" s="12"/>
       <c r="D257" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E257" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F257" s="20"/>
+        <v>361</v>
+      </c>
+      <c r="F257" s="20" t="s">
+        <v>716</v>
+      </c>
       <c r="G257" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H257" s="16" t="s">
-        <v>24</v>
+        <v>513</v>
       </c>
       <c r="I257" s="16" t="s">
-        <v>24</v>
+        <v>514</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>25</v>
+        <v>485</v>
       </c>
       <c r="K257" s="12" t="s">
         <v>26</v>
@@ -28802,8 +28929,10 @@
       <c r="N257" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O257" s="12"/>
-      <c r="P257" s="18"/>
+      <c r="O257" s="28"/>
+      <c r="P257" s="18" t="s">
+        <v>717</v>
+      </c>
       <c r="Q257" s="18"/>
       <c r="R257" s="27"/>
     </row>
@@ -28813,25 +28942,25 @@
       <c r="C258" s="12"/>
       <c r="D258" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E258" s="14" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H258" s="16" t="s">
-        <v>509</v>
+        <v>75</v>
       </c>
       <c r="I258" s="16" t="s">
-        <v>510</v>
+        <v>76</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>497</v>
+        <v>115</v>
       </c>
       <c r="K258" s="12" t="s">
         <v>26</v>
@@ -28847,7 +28976,7 @@
       </c>
       <c r="O258" s="28"/>
       <c r="P258" s="18" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="Q258" s="18"/>
       <c r="R258" s="27"/>
@@ -28858,13 +28987,13 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E259" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="G259" s="16" t="s">
         <v>24</v>
@@ -28891,8 +29020,8 @@
         <v>29</v>
       </c>
       <c r="O259" s="28"/>
-      <c r="P259" s="18" t="s">
-        <v>712</v>
+      <c r="P259" s="33" t="s">
+        <v>721</v>
       </c>
       <c r="Q259" s="18"/>
       <c r="R259" s="27"/>
@@ -28903,25 +29032,25 @@
       <c r="C260" s="12"/>
       <c r="D260" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E260" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F260" s="20" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H260" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I260" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J260" s="12" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K260" s="12" t="s">
         <v>26</v>
@@ -28937,7 +29066,7 @@
       </c>
       <c r="O260" s="28"/>
       <c r="P260" s="33" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="Q260" s="18"/>
       <c r="R260" s="27"/>
@@ -28948,13 +29077,13 @@
       <c r="C261" s="12"/>
       <c r="D261" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E261" s="14" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="F261" s="20" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>24</v>
@@ -28966,7 +29095,7 @@
         <v>24</v>
       </c>
       <c r="J261" s="12" t="s">
-        <v>25</v>
+        <v>485</v>
       </c>
       <c r="K261" s="12" t="s">
         <v>26</v>
@@ -28980,9 +29109,9 @@
       <c r="N261" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O261" s="28"/>
+      <c r="O261" s="12"/>
       <c r="P261" s="33" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="Q261" s="18"/>
       <c r="R261" s="27"/>
@@ -28993,13 +29122,13 @@
       <c r="C262" s="12"/>
       <c r="D262" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E262" s="14" t="s">
         <v>361</v>
       </c>
       <c r="F262" s="20" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>24</v>
@@ -29011,7 +29140,7 @@
         <v>24</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K262" s="12" t="s">
         <v>26</v>
@@ -29025,27 +29154,25 @@
       <c r="N262" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O262" s="12"/>
+      <c r="O262" s="18"/>
       <c r="P262" s="33" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="Q262" s="18"/>
       <c r="R262" s="27"/>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" s="5" customFormat="1" spans="1:18">
       <c r="A263" s="12"/>
       <c r="B263" s="30"/>
       <c r="C263" s="12"/>
       <c r="D263" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E263" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>719</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F263" s="20"/>
       <c r="G263" s="16" t="s">
         <v>24</v>
       </c>
@@ -29056,7 +29183,7 @@
         <v>24</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K263" s="12" t="s">
         <v>26</v>
@@ -29070,10 +29197,8 @@
       <c r="N263" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O263" s="18"/>
-      <c r="P263" s="33" t="s">
-        <v>720</v>
-      </c>
+      <c r="O263" s="12"/>
+      <c r="P263" s="18"/>
       <c r="Q263" s="18"/>
       <c r="R263" s="27"/>
     </row>
@@ -29083,12 +29208,14 @@
       <c r="C264" s="12"/>
       <c r="D264" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E264" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F264" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="F264" s="20" t="s">
+        <v>728</v>
+      </c>
       <c r="G264" s="16" t="s">
         <v>24</v>
       </c>
@@ -29113,8 +29240,10 @@
       <c r="N264" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O264" s="12"/>
-      <c r="P264" s="18"/>
+      <c r="O264" s="28"/>
+      <c r="P264" s="33" t="s">
+        <v>729</v>
+      </c>
       <c r="Q264" s="18"/>
       <c r="R264" s="27"/>
     </row>
@@ -29124,13 +29253,13 @@
       <c r="C265" s="12"/>
       <c r="D265" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E265" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="G265" s="16" t="s">
         <v>24</v>
@@ -29158,24 +29287,24 @@
       </c>
       <c r="O265" s="28"/>
       <c r="P265" s="33" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="Q265" s="18"/>
       <c r="R265" s="27"/>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:18">
+    <row r="266" customFormat="1" spans="1:18">
       <c r="A266" s="12"/>
       <c r="B266" s="30"/>
       <c r="C266" s="12"/>
       <c r="D266" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>670</v>
+        <f t="shared" ref="D266:D283" si="1">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>671</v>
       </c>
       <c r="E266" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="G266" s="16" t="s">
         <v>24</v>
@@ -29203,7 +29332,7 @@
       </c>
       <c r="O266" s="28"/>
       <c r="P266" s="33" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="Q266" s="18"/>
       <c r="R266" s="27"/>
@@ -29213,15 +29342,13 @@
       <c r="B267" s="30"/>
       <c r="C267" s="12"/>
       <c r="D267" s="12">
-        <f t="shared" ref="D267:D284" si="1">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>671</v>
+        <f t="shared" si="1"/>
+        <v>672</v>
       </c>
       <c r="E267" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F267" s="20" t="s">
-        <v>725</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F267" s="20"/>
       <c r="G267" s="16" t="s">
         <v>24</v>
       </c>
@@ -29247,9 +29374,7 @@
         <v>29</v>
       </c>
       <c r="O267" s="28"/>
-      <c r="P267" s="33" t="s">
-        <v>726</v>
-      </c>
+      <c r="P267" s="18"/>
       <c r="Q267" s="18"/>
       <c r="R267" s="27"/>
     </row>
@@ -29259,7 +29384,7 @@
       <c r="C268" s="12"/>
       <c r="D268" s="12">
         <f t="shared" si="1"/>
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E268" s="14" t="s">
         <v>40</v>
@@ -29300,12 +29425,14 @@
       <c r="C269" s="12"/>
       <c r="D269" s="12">
         <f t="shared" si="1"/>
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E269" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F269" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>734</v>
+      </c>
       <c r="G269" s="16" t="s">
         <v>24</v>
       </c>
@@ -29331,23 +29458,25 @@
         <v>29</v>
       </c>
       <c r="O269" s="28"/>
-      <c r="P269" s="18"/>
+      <c r="P269" s="33" t="s">
+        <v>735</v>
+      </c>
       <c r="Q269" s="18"/>
       <c r="R269" s="27"/>
     </row>
-    <row r="270" customFormat="1" spans="1:18">
+    <row r="270" spans="1:18">
       <c r="A270" s="12"/>
       <c r="B270" s="30"/>
       <c r="C270" s="12"/>
       <c r="D270" s="12">
-        <f t="shared" si="1"/>
-        <v>674</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>678</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="G270" s="16" t="s">
         <v>24</v>
@@ -29359,7 +29488,7 @@
         <v>24</v>
       </c>
       <c r="J270" s="12" t="s">
-        <v>25</v>
+        <v>485</v>
       </c>
       <c r="K270" s="12" t="s">
         <v>26</v>
@@ -29373,26 +29502,26 @@
       <c r="N270" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O270" s="28"/>
+      <c r="O270" s="18"/>
       <c r="P270" s="33" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="Q270" s="18"/>
       <c r="R270" s="27"/>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" s="5" customFormat="1" spans="1:18">
       <c r="A271" s="12"/>
       <c r="B271" s="30"/>
       <c r="C271" s="12"/>
       <c r="D271" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E271" s="14" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="G271" s="16" t="s">
         <v>24</v>
@@ -29404,7 +29533,7 @@
         <v>24</v>
       </c>
       <c r="J271" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K271" s="12" t="s">
         <v>26</v>
@@ -29420,25 +29549,23 @@
       </c>
       <c r="O271" s="18"/>
       <c r="P271" s="33" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="Q271" s="18"/>
       <c r="R271" s="27"/>
     </row>
-    <row r="272" s="5" customFormat="1" spans="1:18">
+    <row r="272" customFormat="1" spans="1:18">
       <c r="A272" s="12"/>
       <c r="B272" s="30"/>
       <c r="C272" s="12"/>
       <c r="D272" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>680</v>
+        <f t="shared" si="1"/>
+        <v>681</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F272" s="20" t="s">
-        <v>731</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F272" s="20"/>
       <c r="G272" s="16" t="s">
         <v>24</v>
       </c>
@@ -29463,10 +29590,8 @@
       <c r="N272" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O272" s="18"/>
-      <c r="P272" s="33" t="s">
-        <v>732</v>
-      </c>
+      <c r="O272" s="28"/>
+      <c r="P272" s="18"/>
       <c r="Q272" s="18"/>
       <c r="R272" s="27"/>
     </row>
@@ -29476,7 +29601,7 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12">
         <f t="shared" si="1"/>
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E273" s="14" t="s">
         <v>40</v>
@@ -29511,18 +29636,20 @@
       <c r="Q273" s="18"/>
       <c r="R273" s="27"/>
     </row>
-    <row r="274" customFormat="1" spans="1:18">
+    <row r="274" s="5" customFormat="1" spans="1:18">
       <c r="A274" s="12"/>
       <c r="B274" s="30"/>
       <c r="C274" s="12"/>
       <c r="D274" s="12">
-        <f t="shared" si="1"/>
-        <v>682</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>683</v>
       </c>
       <c r="E274" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F274" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="F274" s="20" t="s">
+        <v>740</v>
+      </c>
       <c r="G274" s="16" t="s">
         <v>24</v>
       </c>
@@ -29533,7 +29660,7 @@
         <v>24</v>
       </c>
       <c r="J274" s="12" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="K274" s="12" t="s">
         <v>26</v>
@@ -29547,8 +29674,10 @@
       <c r="N274" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O274" s="28"/>
-      <c r="P274" s="18"/>
+      <c r="O274" s="18"/>
+      <c r="P274" s="33" t="s">
+        <v>741</v>
+      </c>
       <c r="Q274" s="18"/>
       <c r="R274" s="27"/>
     </row>
@@ -29558,13 +29687,13 @@
       <c r="C275" s="12"/>
       <c r="D275" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E275" s="14" t="s">
         <v>284</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="G275" s="16" t="s">
         <v>24</v>
@@ -29592,24 +29721,24 @@
       </c>
       <c r="O275" s="18"/>
       <c r="P275" s="33" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="Q275" s="18"/>
       <c r="R275" s="27"/>
     </row>
-    <row r="276" s="5" customFormat="1" spans="1:18">
+    <row r="276" spans="1:18">
       <c r="A276" s="12"/>
       <c r="B276" s="30"/>
       <c r="C276" s="12"/>
       <c r="D276" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E276" s="14" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="F276" s="20" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="G276" s="16" t="s">
         <v>24</v>
@@ -29621,7 +29750,7 @@
         <v>24</v>
       </c>
       <c r="J276" s="12" t="s">
-        <v>288</v>
+        <v>485</v>
       </c>
       <c r="K276" s="12" t="s">
         <v>26</v>
@@ -29636,8 +29765,8 @@
         <v>29</v>
       </c>
       <c r="O276" s="18"/>
-      <c r="P276" s="33" t="s">
-        <v>736</v>
+      <c r="P276" s="18" t="s">
+        <v>745</v>
       </c>
       <c r="Q276" s="18"/>
       <c r="R276" s="27"/>
@@ -29648,13 +29777,13 @@
       <c r="C277" s="12"/>
       <c r="D277" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E277" s="14" t="s">
         <v>361</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="G277" s="16" t="s">
         <v>24</v>
@@ -29666,7 +29795,7 @@
         <v>24</v>
       </c>
       <c r="J277" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K277" s="12" t="s">
         <v>26</v>
@@ -29682,24 +29811,24 @@
       </c>
       <c r="O277" s="18"/>
       <c r="P277" s="18" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="Q277" s="18"/>
       <c r="R277" s="27"/>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" customFormat="1" spans="1:18">
       <c r="A278" s="12"/>
       <c r="B278" s="30"/>
       <c r="C278" s="12"/>
       <c r="D278" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E278" s="14" t="s">
         <v>361</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="G278" s="16" t="s">
         <v>24</v>
@@ -29711,7 +29840,7 @@
         <v>24</v>
       </c>
       <c r="J278" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K278" s="12" t="s">
         <v>26</v>
@@ -29725,9 +29854,9 @@
       <c r="N278" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O278" s="18"/>
-      <c r="P278" s="18" t="s">
-        <v>740</v>
+      <c r="O278" s="28"/>
+      <c r="P278" s="33" t="s">
+        <v>749</v>
       </c>
       <c r="Q278" s="18"/>
       <c r="R278" s="27"/>
@@ -29738,13 +29867,13 @@
       <c r="C279" s="12"/>
       <c r="D279" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E279" s="14" t="s">
         <v>361</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="G279" s="16" t="s">
         <v>24</v>
@@ -29772,7 +29901,7 @@
       </c>
       <c r="O279" s="28"/>
       <c r="P279" s="33" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="Q279" s="18"/>
       <c r="R279" s="27"/>
@@ -29782,15 +29911,13 @@
       <c r="B280" s="30"/>
       <c r="C280" s="12"/>
       <c r="D280" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>697</v>
+        <f t="shared" si="1"/>
+        <v>699</v>
       </c>
       <c r="E280" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="F280" s="20" t="s">
-        <v>743</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F280" s="20"/>
       <c r="G280" s="16" t="s">
         <v>24</v>
       </c>
@@ -29816,9 +29943,7 @@
         <v>29</v>
       </c>
       <c r="O280" s="28"/>
-      <c r="P280" s="33" t="s">
-        <v>744</v>
-      </c>
+      <c r="P280" s="18"/>
       <c r="Q280" s="18"/>
       <c r="R280" s="27"/>
     </row>
@@ -29828,7 +29953,7 @@
       <c r="C281" s="12"/>
       <c r="D281" s="12">
         <f t="shared" si="1"/>
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E281" s="14" t="s">
         <v>40</v>
@@ -29869,7 +29994,7 @@
       <c r="C282" s="12"/>
       <c r="D282" s="12">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E282" s="14" t="s">
         <v>40</v>
@@ -29910,7 +30035,7 @@
       <c r="C283" s="12"/>
       <c r="D283" s="12">
         <f t="shared" si="1"/>
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E283" s="14" t="s">
         <v>40</v>
@@ -29945,13 +30070,13 @@
       <c r="Q283" s="18"/>
       <c r="R283" s="27"/>
     </row>
-    <row r="284" customFormat="1" spans="1:18">
+    <row r="284" s="5" customFormat="1" spans="1:18">
       <c r="A284" s="12"/>
       <c r="B284" s="30"/>
       <c r="C284" s="12"/>
       <c r="D284" s="12">
-        <f t="shared" si="1"/>
-        <v>702</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>703</v>
       </c>
       <c r="E284" s="14" t="s">
         <v>40</v>
@@ -29986,18 +30111,20 @@
       <c r="Q284" s="18"/>
       <c r="R284" s="27"/>
     </row>
-    <row r="285" s="5" customFormat="1" spans="1:18">
+    <row r="285" ht="26" spans="1:18">
       <c r="A285" s="12"/>
       <c r="B285" s="30"/>
       <c r="C285" s="12"/>
       <c r="D285" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>703</v>
+        <f t="shared" ref="D285:D301" si="2">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>704</v>
       </c>
       <c r="E285" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F285" s="20"/>
+      <c r="F285" s="20" t="s">
+        <v>752</v>
+      </c>
       <c r="G285" s="16" t="s">
         <v>24</v>
       </c>
@@ -30005,13 +30132,13 @@
         <v>24</v>
       </c>
       <c r="I285" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J285" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K285" s="12" t="s">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="L285" s="14" t="s">
         <v>27</v>
@@ -30023,38 +30150,42 @@
         <v>29</v>
       </c>
       <c r="O285" s="28"/>
-      <c r="P285" s="18"/>
-      <c r="Q285" s="18"/>
+      <c r="P285" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q285" s="26" t="s">
+        <v>754</v>
+      </c>
       <c r="R285" s="27"/>
     </row>
-    <row r="286" ht="26" spans="1:18">
+    <row r="286" spans="1:18">
       <c r="A286" s="12"/>
       <c r="B286" s="30"/>
       <c r="C286" s="12"/>
       <c r="D286" s="12">
-        <f t="shared" ref="D286:D302" si="2">INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>704</v>
+        <f t="shared" si="2"/>
+        <v>705</v>
       </c>
       <c r="E286" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="G286" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H286" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I286" s="16" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J286" s="12" t="s">
-        <v>25</v>
+        <v>485</v>
       </c>
       <c r="K286" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L286" s="14" t="s">
         <v>27</v>
@@ -30067,11 +30198,9 @@
       </c>
       <c r="O286" s="28"/>
       <c r="P286" s="18" t="s">
-        <v>746</v>
-      </c>
-      <c r="Q286" s="26" t="s">
-        <v>747</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="Q286" s="18"/>
       <c r="R286" s="27"/>
     </row>
     <row r="287" spans="1:18">
@@ -30080,28 +30209,26 @@
       <c r="C287" s="12"/>
       <c r="D287" s="12">
         <f t="shared" si="2"/>
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E287" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F287" s="20" t="s">
-        <v>748</v>
-      </c>
+      <c r="F287" s="20"/>
       <c r="G287" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H287" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I287" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J287" s="12" t="s">
-        <v>497</v>
+        <v>25</v>
       </c>
       <c r="K287" s="12" t="s">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="L287" s="14" t="s">
         <v>27</v>
@@ -30113,9 +30240,7 @@
         <v>29</v>
       </c>
       <c r="O287" s="28"/>
-      <c r="P287" s="18" t="s">
-        <v>490</v>
-      </c>
+      <c r="P287" s="18"/>
       <c r="Q287" s="18"/>
       <c r="R287" s="27"/>
     </row>
@@ -30125,23 +30250,25 @@
       <c r="C288" s="12"/>
       <c r="D288" s="12">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E288" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F288" s="20"/>
+      <c r="F288" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="G288" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H288" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I288" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J288" s="12" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="K288" s="12" t="s">
         <v>26</v>
@@ -30166,13 +30293,13 @@
       <c r="C289" s="12"/>
       <c r="D289" s="12">
         <f t="shared" si="2"/>
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E289" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="G289" s="16" t="s">
         <v>24</v>
@@ -30209,25 +30336,23 @@
       <c r="C290" s="12"/>
       <c r="D290" s="12">
         <f t="shared" si="2"/>
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E290" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F290" s="20" t="s">
-        <v>750</v>
-      </c>
+      <c r="F290" s="20"/>
       <c r="G290" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H290" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I290" s="16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J290" s="12" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K290" s="12" t="s">
         <v>26</v>
@@ -30252,12 +30377,14 @@
       <c r="C291" s="12"/>
       <c r="D291" s="12">
         <f t="shared" si="2"/>
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E291" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F291" s="20"/>
+      <c r="F291" s="20" t="s">
+        <v>758</v>
+      </c>
       <c r="G291" s="16" t="s">
         <v>24</v>
       </c>
@@ -30265,13 +30392,13 @@
         <v>24</v>
       </c>
       <c r="I291" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J291" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K291" s="12" t="s">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="L291" s="14" t="s">
         <v>27</v>
@@ -30283,7 +30410,9 @@
         <v>29</v>
       </c>
       <c r="O291" s="28"/>
-      <c r="P291" s="18"/>
+      <c r="P291" s="33" t="s">
+        <v>759</v>
+      </c>
       <c r="Q291" s="18"/>
       <c r="R291" s="27"/>
     </row>
@@ -30293,14 +30422,12 @@
       <c r="C292" s="12"/>
       <c r="D292" s="12">
         <f t="shared" si="2"/>
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E292" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F292" s="20" t="s">
-        <v>751</v>
-      </c>
+      <c r="F292" s="20"/>
       <c r="G292" s="16" t="s">
         <v>24</v>
       </c>
@@ -30308,13 +30435,13 @@
         <v>24</v>
       </c>
       <c r="I292" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J292" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K292" s="12" t="s">
-        <v>430</v>
+        <v>26</v>
       </c>
       <c r="L292" s="14" t="s">
         <v>27</v>
@@ -30326,9 +30453,7 @@
         <v>29</v>
       </c>
       <c r="O292" s="28"/>
-      <c r="P292" s="33" t="s">
-        <v>752</v>
-      </c>
+      <c r="P292" s="18"/>
       <c r="Q292" s="18"/>
       <c r="R292" s="27"/>
     </row>
@@ -30338,12 +30463,14 @@
       <c r="C293" s="12"/>
       <c r="D293" s="12">
         <f t="shared" si="2"/>
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E293" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F293" s="20"/>
+      <c r="F293" s="20" t="s">
+        <v>760</v>
+      </c>
       <c r="G293" s="16" t="s">
         <v>24</v>
       </c>
@@ -30357,36 +30484,36 @@
         <v>25</v>
       </c>
       <c r="K293" s="12" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="L293" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M293" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N293" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O293" s="28"/>
-      <c r="P293" s="18"/>
+      <c r="P293" s="33" t="s">
+        <v>761</v>
+      </c>
       <c r="Q293" s="18"/>
       <c r="R293" s="27"/>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" customFormat="1" spans="1:18">
       <c r="A294" s="12"/>
       <c r="B294" s="30"/>
       <c r="C294" s="12"/>
       <c r="D294" s="12">
-        <f t="shared" si="2"/>
-        <v>712</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>713</v>
       </c>
       <c r="E294" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F294" s="20" t="s">
-        <v>753</v>
-      </c>
+      <c r="F294" s="20"/>
       <c r="G294" s="16" t="s">
         <v>24</v>
       </c>
@@ -30400,36 +30527,36 @@
         <v>25</v>
       </c>
       <c r="K294" s="12" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="L294" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M294" s="12" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="N294" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O294" s="28"/>
-      <c r="P294" s="33" t="s">
-        <v>754</v>
-      </c>
+      <c r="P294" s="18"/>
       <c r="Q294" s="18"/>
       <c r="R294" s="27"/>
     </row>
-    <row r="295" customFormat="1" spans="1:18">
+    <row r="295" spans="1:18">
       <c r="A295" s="12"/>
       <c r="B295" s="30"/>
       <c r="C295" s="12"/>
       <c r="D295" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>713</v>
+        <f t="shared" si="2"/>
+        <v>714</v>
       </c>
       <c r="E295" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F295" s="20"/>
+      <c r="F295" s="20" t="s">
+        <v>762</v>
+      </c>
       <c r="G295" s="16" t="s">
         <v>24</v>
       </c>
@@ -30437,25 +30564,27 @@
         <v>24</v>
       </c>
       <c r="I295" s="16" t="s">
-        <v>24</v>
+        <v>669</v>
       </c>
       <c r="J295" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K295" s="12" t="s">
-        <v>26</v>
+      <c r="K295" s="34" t="s">
+        <v>431</v>
       </c>
       <c r="L295" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M295" s="12" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N295" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O295" s="28"/>
-      <c r="P295" s="18"/>
+      <c r="O295" s="12"/>
+      <c r="P295" s="33" t="s">
+        <v>763</v>
+      </c>
       <c r="Q295" s="18"/>
       <c r="R295" s="27"/>
     </row>
@@ -30465,14 +30594,12 @@
       <c r="C296" s="12"/>
       <c r="D296" s="12">
         <f t="shared" si="2"/>
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E296" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F296" s="20" t="s">
-        <v>755</v>
-      </c>
+      <c r="F296" s="20"/>
       <c r="G296" s="16" t="s">
         <v>24</v>
       </c>
@@ -30480,27 +30607,25 @@
         <v>24</v>
       </c>
       <c r="I296" s="16" t="s">
-        <v>667</v>
+        <v>24</v>
       </c>
       <c r="J296" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K296" s="34" t="s">
-        <v>430</v>
+      <c r="K296" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="L296" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M296" s="12" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="N296" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O296" s="12"/>
-      <c r="P296" s="33" t="s">
-        <v>756</v>
-      </c>
+      <c r="O296" s="18"/>
+      <c r="P296" s="18"/>
       <c r="Q296" s="18"/>
       <c r="R296" s="27"/>
     </row>
@@ -30509,8 +30634,8 @@
       <c r="B297" s="30"/>
       <c r="C297" s="12"/>
       <c r="D297" s="12">
-        <f t="shared" si="2"/>
-        <v>715</v>
+        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
+        <v>716</v>
       </c>
       <c r="E297" s="14" t="s">
         <v>40</v>
@@ -30540,18 +30665,18 @@
       <c r="N297" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O297" s="18"/>
+      <c r="O297" s="12"/>
       <c r="P297" s="18"/>
       <c r="Q297" s="18"/>
       <c r="R297" s="27"/>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" customFormat="1" spans="1:18">
       <c r="A298" s="12"/>
       <c r="B298" s="30"/>
       <c r="C298" s="12"/>
       <c r="D298" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E298" s="14" t="s">
         <v>40</v>
@@ -30581,18 +30706,18 @@
       <c r="N298" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O298" s="12"/>
+      <c r="O298" s="28"/>
       <c r="P298" s="18"/>
       <c r="Q298" s="18"/>
       <c r="R298" s="27"/>
     </row>
-    <row r="299" customFormat="1" spans="1:18">
+    <row r="299" spans="1:18">
       <c r="A299" s="12"/>
       <c r="B299" s="30"/>
       <c r="C299" s="12"/>
       <c r="D299" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E299" s="14" t="s">
         <v>40</v>
@@ -30622,7 +30747,7 @@
       <c r="N299" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O299" s="28"/>
+      <c r="O299" s="12"/>
       <c r="P299" s="18"/>
       <c r="Q299" s="18"/>
       <c r="R299" s="27"/>
@@ -30633,7 +30758,7 @@
       <c r="C300" s="12"/>
       <c r="D300" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E300" s="14" t="s">
         <v>40</v>
@@ -30674,7 +30799,7 @@
       <c r="C301" s="12"/>
       <c r="D301" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E301" s="14" t="s">
         <v>40</v>
@@ -30715,7 +30840,7 @@
       <c r="C302" s="12"/>
       <c r="D302" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E302" s="14" t="s">
         <v>40</v>
@@ -30756,23 +30881,25 @@
       <c r="C303" s="12"/>
       <c r="D303" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E303" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F303" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>764</v>
+      </c>
       <c r="G303" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H303" s="16" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="I303" s="16" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="J303" s="12" t="s">
-        <v>25</v>
+        <v>765</v>
       </c>
       <c r="K303" s="12" t="s">
         <v>26</v>
@@ -30787,7 +30914,9 @@
         <v>29</v>
       </c>
       <c r="O303" s="12"/>
-      <c r="P303" s="18"/>
+      <c r="P303" s="18" t="s">
+        <v>766</v>
+      </c>
       <c r="Q303" s="18"/>
       <c r="R303" s="27"/>
     </row>
@@ -30797,13 +30926,13 @@
       <c r="C304" s="12"/>
       <c r="D304" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E304" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F304" s="18" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="G304" s="16" t="s">
         <v>24</v>
@@ -30815,7 +30944,7 @@
         <v>253</v>
       </c>
       <c r="J304" s="12" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="K304" s="12" t="s">
         <v>26</v>
@@ -30831,7 +30960,7 @@
       </c>
       <c r="O304" s="12"/>
       <c r="P304" s="18" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="Q304" s="18"/>
       <c r="R304" s="27"/>
@@ -30842,13 +30971,13 @@
       <c r="C305" s="12"/>
       <c r="D305" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E305" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F305" s="18" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="G305" s="16" t="s">
         <v>24</v>
@@ -30860,7 +30989,7 @@
         <v>253</v>
       </c>
       <c r="J305" s="12" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="K305" s="12" t="s">
         <v>26</v>
@@ -30876,7 +31005,7 @@
       </c>
       <c r="O305" s="12"/>
       <c r="P305" s="18" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="Q305" s="18"/>
       <c r="R305" s="27"/>
@@ -30887,25 +31016,23 @@
       <c r="C306" s="12"/>
       <c r="D306" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E306" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F306" s="18" t="s">
-        <v>762</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F306" s="20"/>
       <c r="G306" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H306" s="16" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I306" s="16" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="J306" s="12" t="s">
-        <v>758</v>
+        <v>25</v>
       </c>
       <c r="K306" s="12" t="s">
         <v>26</v>
@@ -30920,9 +31047,7 @@
         <v>29</v>
       </c>
       <c r="O306" s="12"/>
-      <c r="P306" s="18" t="s">
-        <v>763</v>
-      </c>
+      <c r="P306" s="18"/>
       <c r="Q306" s="18"/>
       <c r="R306" s="27"/>
     </row>
@@ -30932,12 +31057,14 @@
       <c r="C307" s="12"/>
       <c r="D307" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E307" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F307" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>771</v>
+      </c>
       <c r="G307" s="16" t="s">
         <v>24</v>
       </c>
@@ -30948,7 +31075,7 @@
         <v>24</v>
       </c>
       <c r="J307" s="12" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="K307" s="12" t="s">
         <v>26</v>
@@ -30963,7 +31090,9 @@
         <v>29</v>
       </c>
       <c r="O307" s="12"/>
-      <c r="P307" s="18"/>
+      <c r="P307" s="18" t="s">
+        <v>772</v>
+      </c>
       <c r="Q307" s="18"/>
       <c r="R307" s="27"/>
     </row>
@@ -30973,13 +31102,13 @@
       <c r="C308" s="12"/>
       <c r="D308" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E308" s="14" t="s">
         <v>284</v>
       </c>
       <c r="F308" s="18" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="G308" s="16" t="s">
         <v>24</v>
@@ -31007,7 +31136,7 @@
       </c>
       <c r="O308" s="12"/>
       <c r="P308" s="18" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="Q308" s="18"/>
       <c r="R308" s="27"/>
@@ -31018,13 +31147,13 @@
       <c r="C309" s="12"/>
       <c r="D309" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E309" s="14" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="F309" s="18" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="G309" s="16" t="s">
         <v>24</v>
@@ -31036,7 +31165,7 @@
         <v>24</v>
       </c>
       <c r="J309" s="12" t="s">
-        <v>288</v>
+        <v>485</v>
       </c>
       <c r="K309" s="12" t="s">
         <v>26</v>
@@ -31052,7 +31181,7 @@
       </c>
       <c r="O309" s="12"/>
       <c r="P309" s="18" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="Q309" s="18"/>
       <c r="R309" s="27"/>
@@ -31063,13 +31192,13 @@
       <c r="C310" s="12"/>
       <c r="D310" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E310" s="14" t="s">
         <v>361</v>
       </c>
       <c r="F310" s="18" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="G310" s="16" t="s">
         <v>24</v>
@@ -31081,7 +31210,7 @@
         <v>24</v>
       </c>
       <c r="J310" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K310" s="12" t="s">
         <v>26</v>
@@ -31097,7 +31226,7 @@
       </c>
       <c r="O310" s="12"/>
       <c r="P310" s="18" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="Q310" s="18"/>
       <c r="R310" s="27"/>
@@ -31108,13 +31237,13 @@
       <c r="C311" s="12"/>
       <c r="D311" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E311" s="14" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="F311" s="18" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="G311" s="16" t="s">
         <v>24</v>
@@ -31126,7 +31255,7 @@
         <v>24</v>
       </c>
       <c r="J311" s="12" t="s">
-        <v>497</v>
+        <v>382</v>
       </c>
       <c r="K311" s="12" t="s">
         <v>26</v>
@@ -31142,7 +31271,7 @@
       </c>
       <c r="O311" s="12"/>
       <c r="P311" s="18" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="Q311" s="18"/>
       <c r="R311" s="27"/>
@@ -31153,13 +31282,13 @@
       <c r="C312" s="12"/>
       <c r="D312" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E312" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F312" s="18" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="G312" s="16" t="s">
         <v>24</v>
@@ -31171,7 +31300,7 @@
         <v>24</v>
       </c>
       <c r="J312" s="12" t="s">
-        <v>607</v>
+        <v>382</v>
       </c>
       <c r="K312" s="12" t="s">
         <v>26</v>
@@ -31187,7 +31316,7 @@
       </c>
       <c r="O312" s="12"/>
       <c r="P312" s="18" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="Q312" s="18"/>
       <c r="R312" s="27"/>
@@ -31198,14 +31327,12 @@
       <c r="C313" s="12"/>
       <c r="D313" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E313" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F313" s="18" t="s">
-        <v>774</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F313" s="20"/>
       <c r="G313" s="16" t="s">
         <v>24</v>
       </c>
@@ -31216,7 +31343,7 @@
         <v>24</v>
       </c>
       <c r="J313" s="12" t="s">
-        <v>607</v>
+        <v>25</v>
       </c>
       <c r="K313" s="12" t="s">
         <v>26</v>
@@ -31231,9 +31358,7 @@
         <v>29</v>
       </c>
       <c r="O313" s="12"/>
-      <c r="P313" s="18" t="s">
-        <v>775</v>
-      </c>
+      <c r="P313" s="18"/>
       <c r="Q313" s="18"/>
       <c r="R313" s="27"/>
     </row>
@@ -31243,7 +31368,7 @@
       <c r="C314" s="12"/>
       <c r="D314" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E314" s="14" t="s">
         <v>40</v>
@@ -31284,7 +31409,7 @@
       <c r="C315" s="12"/>
       <c r="D315" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E315" s="14" t="s">
         <v>40</v>
@@ -31325,7 +31450,7 @@
       <c r="C316" s="12"/>
       <c r="D316" s="12">
         <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E316" s="14" t="s">
         <v>40</v>
@@ -31359,47 +31484,6 @@
       <c r="P316" s="18"/>
       <c r="Q316" s="18"/>
       <c r="R316" s="27"/>
-    </row>
-    <row r="317" spans="1:18">
-      <c r="A317" s="12"/>
-      <c r="B317" s="30"/>
-      <c r="C317" s="12"/>
-      <c r="D317" s="12">
-        <f>INDEX(D:D,ROW()-1)+_xlfn.IFS(INDEX(E:E,ROW()-1)="s16",1,INDEX(E:E,ROW()-1)="s32",2,INDEX(E:E,ROW()-1)="s64",4,INDEX(E:E,ROW()-1)="u16",1,INDEX(E:E,ROW()-1)="u32",2,INDEX(E:E,ROW()-1)="u64",4,INDEX(E:E,ROW()-1)="f32",2,INDEX(E:E,ROW()-1)="f64",4)</f>
-        <v>743</v>
-      </c>
-      <c r="E317" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F317" s="20"/>
-      <c r="G317" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H317" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I317" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J317" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K317" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L317" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M317" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N317" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O317" s="12"/>
-      <c r="P317" s="18"/>
-      <c r="Q317" s="18"/>
-      <c r="R317" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -32397,462 +32481,462 @@
       <formula>LEN(TRIM(P230))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E264">
+  <conditionalFormatting sqref="E263">
+    <cfRule type="cellIs" dxfId="5" priority="249" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="261" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="262" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="263" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="264" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="265" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="266" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="267" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="268" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="269" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="270" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="269" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="268" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="267" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="266" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="265" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="264" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="263" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="262" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="261" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="249" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263">
     <cfRule type="containsBlanks" dxfId="6" priority="260">
-      <formula>LEN(TRIM(F264))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K264">
+      <formula>LEN(TRIM(F263))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K263">
+    <cfRule type="cellIs" dxfId="9" priority="250" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="251" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="252" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="251" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="250" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L264">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L263">
+    <cfRule type="cellIs" dxfId="12" priority="253" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="254" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="255" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="254" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="253" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M264">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M263">
+    <cfRule type="cellIs" dxfId="14" priority="256" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="259" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="256" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N264">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N263">
+    <cfRule type="cellIs" dxfId="16" priority="257" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="258" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="257" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P264:Q264">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P263:Q263">
     <cfRule type="containsBlanks" dxfId="6" priority="248">
-      <formula>LEN(TRIM(P264))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E270">
+      <formula>LEN(TRIM(P263))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E269">
+    <cfRule type="cellIs" dxfId="5" priority="26" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="32" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="34" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="37" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F269">
+    <cfRule type="containsBlanks" dxfId="6" priority="27">
+      <formula>LEN(TRIM(F269))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E271">
+    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="51" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="53" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="54" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="55" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="57" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
       <formula>"s32"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="34" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="32" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="28" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F270">
-    <cfRule type="containsBlanks" dxfId="6" priority="27">
-      <formula>LEN(TRIM(F270))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E272">
     <cfRule type="cellIs" priority="60" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="57" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="55" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="54" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="53" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="51" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F272">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F271">
     <cfRule type="containsBlanks" dxfId="6" priority="50">
-      <formula>LEN(TRIM(F272))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K272">
+      <formula>LEN(TRIM(F271))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K271">
+    <cfRule type="cellIs" dxfId="9" priority="40" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="41" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="42" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="41" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="40" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L272">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L271">
+    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="44" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="45" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="44" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M272">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M271">
+    <cfRule type="cellIs" dxfId="14" priority="46" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="49" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="46" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N272">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N271">
+    <cfRule type="cellIs" dxfId="16" priority="47" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="48" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="47" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P272:Q272">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P271:Q271">
     <cfRule type="containsBlanks" dxfId="6" priority="38">
-      <formula>LEN(TRIM(P272))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E275">
+      <formula>LEN(TRIM(P271))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E274">
+    <cfRule type="cellIs" dxfId="5" priority="85" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="97" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="99" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="100" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="101" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="102" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="103" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="106" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="103" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="102" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="101" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="100" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="99" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="97" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="85" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F275">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274">
     <cfRule type="containsBlanks" dxfId="6" priority="96">
-      <formula>LEN(TRIM(F275))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K275">
+      <formula>LEN(TRIM(F274))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K274">
+    <cfRule type="cellIs" dxfId="9" priority="86" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="87" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="88" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="87" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="86" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L275">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L274">
+    <cfRule type="cellIs" dxfId="12" priority="89" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="90" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="91" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="90" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="89" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M275">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M274">
+    <cfRule type="cellIs" dxfId="14" priority="92" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="95" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="92" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N275">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N274">
+    <cfRule type="cellIs" dxfId="16" priority="93" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="94" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="93" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P275:Q275">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P274:Q274">
     <cfRule type="containsBlanks" dxfId="6" priority="84">
-      <formula>LEN(TRIM(P275))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E276">
+      <formula>LEN(TRIM(P274))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E275">
+    <cfRule type="cellIs" dxfId="5" priority="62" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="74" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="75" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="76" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="77" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="78" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="79" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="80" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="83" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="80" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="79" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="78" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="77" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="76" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="75" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="74" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="62" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F276">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275">
     <cfRule type="containsBlanks" dxfId="6" priority="73">
-      <formula>LEN(TRIM(F276))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K276">
+      <formula>LEN(TRIM(F275))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K275">
+    <cfRule type="cellIs" dxfId="9" priority="63" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="64" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="65" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="64" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="63" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L276">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L275">
+    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="67" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="68" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="67" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M276">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M275">
+    <cfRule type="cellIs" dxfId="14" priority="69" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="72" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="69" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N276">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N275">
+    <cfRule type="cellIs" dxfId="16" priority="70" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="71" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="70" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P276:Q276">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P275:Q275">
     <cfRule type="containsBlanks" dxfId="6" priority="61">
-      <formula>LEN(TRIM(P276))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E279">
+      <formula>LEN(TRIM(P275))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E278">
+    <cfRule type="cellIs" dxfId="5" priority="154" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="166" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="167" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="168" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="169" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="170" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="171" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="172" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="173" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="174" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="175" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="174" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="173" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="172" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="171" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="170" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="169" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="168" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="167" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="166" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="154" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F279">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F278">
     <cfRule type="containsBlanks" dxfId="6" priority="165">
-      <formula>LEN(TRIM(F279))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K279">
+      <formula>LEN(TRIM(F278))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K278">
+    <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="156" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="157" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="156" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L279">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L278">
+    <cfRule type="cellIs" dxfId="12" priority="158" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="159" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="160" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="159" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="158" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M279">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M278">
+    <cfRule type="cellIs" dxfId="14" priority="161" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="164" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="161" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N279">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N278">
+    <cfRule type="cellIs" dxfId="16" priority="162" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="163" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="162" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q279">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q278">
     <cfRule type="containsBlanks" dxfId="6" priority="176">
-      <formula>LEN(TRIM(Q279))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E285">
+      <formula>LEN(TRIM(Q278))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E284">
     <cfRule type="cellIs" dxfId="5" priority="425" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
@@ -32887,12 +32971,12 @@
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F285">
+  <conditionalFormatting sqref="F284">
     <cfRule type="containsBlanks" dxfId="6" priority="436">
-      <formula>LEN(TRIM(F285))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K285">
+      <formula>LEN(TRIM(F284))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K284">
     <cfRule type="cellIs" dxfId="9" priority="426" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
@@ -32903,7 +32987,7 @@
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L285">
+  <conditionalFormatting sqref="L284">
     <cfRule type="cellIs" dxfId="12" priority="429" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
@@ -32914,7 +32998,7 @@
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M285">
+  <conditionalFormatting sqref="M284">
     <cfRule type="cellIs" dxfId="14" priority="432" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
@@ -32922,7 +33006,7 @@
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N285">
+  <conditionalFormatting sqref="N284">
     <cfRule type="cellIs" dxfId="16" priority="433" operator="equal">
       <formula>"User"</formula>
     </cfRule>
@@ -32930,17 +33014,17 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P285:Q285">
+  <conditionalFormatting sqref="P284:Q284">
     <cfRule type="containsBlanks" dxfId="6" priority="424">
-      <formula>LEN(TRIM(P285))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
+      <formula>LEN(TRIM(P284))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F286">
     <cfRule type="containsBlanks" dxfId="6" priority="458">
-      <formula>LEN(TRIM(F287))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K287">
+      <formula>LEN(TRIM(F286))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K286">
     <cfRule type="cellIs" dxfId="9" priority="448" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
@@ -32951,7 +33035,7 @@
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L287">
+  <conditionalFormatting sqref="L286">
     <cfRule type="cellIs" dxfId="12" priority="451" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
@@ -32962,7 +33046,7 @@
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M287">
+  <conditionalFormatting sqref="M286">
     <cfRule type="cellIs" dxfId="14" priority="454" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
@@ -32970,7 +33054,7 @@
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N287">
+  <conditionalFormatting sqref="N286">
     <cfRule type="cellIs" dxfId="16" priority="455" operator="equal">
       <formula>"User"</formula>
     </cfRule>
@@ -32978,183 +33062,183 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E295">
+  <conditionalFormatting sqref="E294">
+    <cfRule type="cellIs" dxfId="5" priority="178" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="190" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="191" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="192" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="193" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="194" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="195" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="196" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="197" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="198" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="199" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="198" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="197" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="196" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="195" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="194" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="193" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="192" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="191" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="190" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="178" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F295">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F294">
     <cfRule type="containsBlanks" dxfId="6" priority="189">
-      <formula>LEN(TRIM(F295))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K295">
+      <formula>LEN(TRIM(F294))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K294">
+    <cfRule type="cellIs" dxfId="9" priority="179" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="180" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="181" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="180" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="179" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L295">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L294">
+    <cfRule type="cellIs" dxfId="12" priority="182" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="183" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="184" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="183" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="182" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M295">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M294">
+    <cfRule type="cellIs" dxfId="14" priority="185" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="188" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="185" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N295">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N294">
+    <cfRule type="cellIs" dxfId="16" priority="186" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="187" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="186" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P295">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P294">
     <cfRule type="containsBlanks" dxfId="6" priority="177">
-      <formula>LEN(TRIM(P295))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q295">
+      <formula>LEN(TRIM(P294))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q294">
     <cfRule type="containsBlanks" dxfId="6" priority="200">
-      <formula>LEN(TRIM(Q295))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E299">
+      <formula>LEN(TRIM(Q294))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E298">
+    <cfRule type="cellIs" dxfId="5" priority="225" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="237" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="238" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="239" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="240" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="241" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="242" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="243" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="245" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="246" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="245" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="243" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="242" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="241" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="240" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="239" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="238" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="237" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="225" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F299">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F298">
     <cfRule type="containsBlanks" dxfId="6" priority="236">
-      <formula>LEN(TRIM(F299))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K299">
+      <formula>LEN(TRIM(F298))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K298">
+    <cfRule type="cellIs" dxfId="9" priority="226" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="227" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="228" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="227" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="226" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L299">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298">
+    <cfRule type="cellIs" dxfId="12" priority="229" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="230" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="231" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="230" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="229" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M299">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M298">
+    <cfRule type="cellIs" dxfId="14" priority="232" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="235" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="232" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N299">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N298">
+    <cfRule type="cellIs" dxfId="16" priority="233" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="234" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="233" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P299">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P298">
     <cfRule type="containsBlanks" dxfId="6" priority="224">
-      <formula>LEN(TRIM(P299))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q299">
+      <formula>LEN(TRIM(P298))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q298">
     <cfRule type="containsBlanks" dxfId="6" priority="247">
-      <formula>LEN(TRIM(Q299))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E252:E253">
+      <formula>LEN(TRIM(Q298))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E251:E252">
     <cfRule type="cellIs" dxfId="5" priority="341" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
@@ -33189,52 +33273,52 @@
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E254:E257">
+  <conditionalFormatting sqref="E253:E256">
+    <cfRule type="cellIs" dxfId="5" priority="318" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="330" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="331" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="332" operator="equal">
+      <formula>"f64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="333" operator="equal">
+      <formula>"f32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="334" operator="equal">
+      <formula>"u64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="335" operator="equal">
+      <formula>"u32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="336" operator="equal">
+      <formula>"u16"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="337" operator="equal">
+      <formula>"s64"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="338" operator="equal">
+      <formula>"s32"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="339" operator="equal">
       <formula>"s16"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="338" operator="equal">
-      <formula>"s32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="337" operator="equal">
-      <formula>"s64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="336" operator="equal">
-      <formula>"u16"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="335" operator="equal">
-      <formula>"u32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="334" operator="equal">
-      <formula>"u64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="333" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="332" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="331" operator="equal">
-      <formula>"f32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="330" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="318" operator="equal">
-      <formula>"f64"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F252:F253">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F251:F252">
     <cfRule type="containsBlanks" dxfId="6" priority="352">
-      <formula>LEN(TRIM(F252))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F254:F257">
+      <formula>LEN(TRIM(F251))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F253:F256">
     <cfRule type="containsBlanks" dxfId="6" priority="329">
-      <formula>LEN(TRIM(F254))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K252:K253">
+      <formula>LEN(TRIM(F253))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K251:K252">
     <cfRule type="cellIs" dxfId="9" priority="342" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
@@ -33245,18 +33329,18 @@
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K254:K257">
+  <conditionalFormatting sqref="K253:K256">
+    <cfRule type="cellIs" dxfId="9" priority="319" operator="equal">
+      <formula>"读写 - 立即更改，立即生效"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="320" operator="equal">
+      <formula>"读写 - 立即更改，重启生效"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="321" operator="equal">
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="320" operator="equal">
-      <formula>"读写 - 立即更改，重启生效"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="319" operator="equal">
-      <formula>"读写 - 立即更改，立即生效"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L252:L253">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L251:L252">
     <cfRule type="cellIs" dxfId="12" priority="345" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
@@ -33267,18 +33351,18 @@
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L254:L257">
+  <conditionalFormatting sqref="L253:L256">
+    <cfRule type="cellIs" dxfId="12" priority="322" operator="equal">
+      <formula>"仅上限"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="323" operator="equal">
+      <formula>"仅下限"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="324" operator="equal">
       <formula>"上下限"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="323" operator="equal">
-      <formula>"仅下限"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="322" operator="equal">
-      <formula>"仅上限"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M252:M253">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M251:M252">
     <cfRule type="cellIs" dxfId="14" priority="348" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
@@ -33286,15 +33370,15 @@
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M254:M257">
+  <conditionalFormatting sqref="M253:M256">
+    <cfRule type="cellIs" dxfId="14" priority="325" operator="equal">
+      <formula>"允许保存，不可恢复"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="328" operator="equal">
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="325" operator="equal">
-      <formula>"允许保存，不可恢复"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N252:N253">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N251:N252">
     <cfRule type="cellIs" dxfId="16" priority="349" operator="equal">
       <formula>"User"</formula>
     </cfRule>
@@ -33302,25 +33386,25 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N254:N257">
+  <conditionalFormatting sqref="N253:N256">
+    <cfRule type="cellIs" dxfId="16" priority="326" operator="equal">
+      <formula>"User"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="327" operator="equal">
       <formula>"Admin"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="326" operator="equal">
-      <formula>"User"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P265:P267">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P264:P266">
     <cfRule type="containsBlanks" dxfId="6" priority="1">
-      <formula>LEN(TRIM(P265))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P279:P280">
+      <formula>LEN(TRIM(P264))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P278:P279">
     <cfRule type="containsBlanks" dxfId="6" priority="2">
-      <formula>LEN(TRIM(P279))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E60:E214 E219:E228 E296:E298 E231:E251 E277:E278 E300:E1048576 E271 E258:E263 E286:E294">
+      <formula>LEN(TRIM(P278))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E5 E60:E214 E219:E228 E231:E250 E295:E297 E285:E293 E257:E262 E270 E299:E1048576 E276:E277">
     <cfRule type="cellIs" dxfId="5" priority="1016" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
@@ -33355,12 +33439,12 @@
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F5 F60:F210 F219:F228 F300:F1048576 F231:F251 F277:F278 F286 F271 F258:F263 F288:F294 F296:F298 F212:F214">
+  <conditionalFormatting sqref="F1:F5 F60:F210 F219:F228 F212:F214 F231:F250 F299:F1048576 F295:F297 F287:F293 F257:F262 F270 F285 F276:F277">
     <cfRule type="containsBlanks" dxfId="6" priority="1061">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K5 K60:K210 K219:K228 K300:K1048576 K231:K251 K277:K278 K286 K271 K258:K263 K288:K294 K296:K298 K212:K214">
+  <conditionalFormatting sqref="K1:K5 K60:K210 K219:K228 K212:K214 K231:K250 K299:K1048576 K295:K297 K287:K293 K257:K262 K270 K285 K276:K277">
     <cfRule type="cellIs" dxfId="9" priority="1033" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
@@ -33371,7 +33455,7 @@
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L5 L60:L210 L219:L228 L300:L1048576 L231:L251 L277:L278 L286 L271 L258:L263 L288:L294 L296:L298 L212:L214">
+  <conditionalFormatting sqref="L1:L5 L60:L210 L219:L228 L212:L214 L231:L250 L299:L1048576 L295:L297 L287:L293 L257:L262 L270 L285 L276:L277">
     <cfRule type="cellIs" dxfId="12" priority="1054" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
@@ -33382,7 +33466,7 @@
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M5 M60:M210 M219:M228 M300:M1048576 M231:M251 M277:M278 M286 M271 M258:M263 M288:M294 M296:M298 M212:M214">
+  <conditionalFormatting sqref="M1:M5 M60:M210 M219:M228 M212:M214 M231:M250 M299:M1048576 M295:M297 M287:M293 M257:M262 M270 M285 M276:M277">
     <cfRule type="cellIs" dxfId="14" priority="1057" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
@@ -33390,7 +33474,7 @@
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N5 N60:N210 N219:N228 N300:N1048576 N231:N251 N277:N278 N286 N271 N258:N263 N288:N294 N296:N298 N212:N214">
+  <conditionalFormatting sqref="N1:N5 N60:N210 N219:N228 N212:N214 N231:N250 N299:N1048576 N295:N297 N287:N293 N257:N262 N270 N285 N276:N277">
     <cfRule type="cellIs" dxfId="16" priority="1058" operator="equal">
       <formula>"User"</formula>
     </cfRule>
@@ -33476,7 +33560,7 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:Q217 P219:Q228 P296:Q298 P231:Q251 P277:Q278 P300:Q317 P271:Q271 P258:Q263 Q267:Q270 Q273:Q274 Q280:Q284 P286:Q294">
+  <conditionalFormatting sqref="P6:Q217 P219:Q228 P231:Q250 P295:Q297 P285:Q293 Q279:Q283 Q272:Q273 Q266:Q269 P257:Q262 P270:Q270 P299:Q316 P276:Q277">
     <cfRule type="containsBlanks" dxfId="6" priority="447">
       <formula>LEN(TRIM(P6))=0</formula>
     </cfRule>
@@ -33559,17 +33643,17 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P252:Q253">
+  <conditionalFormatting sqref="P251:Q252">
     <cfRule type="containsBlanks" dxfId="6" priority="340">
-      <formula>LEN(TRIM(P252))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P254:Q257">
+      <formula>LEN(TRIM(P251))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P253:Q256">
     <cfRule type="containsBlanks" dxfId="6" priority="317">
-      <formula>LEN(TRIM(P254))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E265 E267 E269 E283 E273 E280:E281">
+      <formula>LEN(TRIM(P253))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E264 E279:E280 E272 E282 E268 E266">
     <cfRule type="cellIs" dxfId="5" priority="402" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
@@ -33604,12 +33688,12 @@
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265 F267 F269 F283 F273 F280:F281">
+  <conditionalFormatting sqref="F264 F279:F280 F272 F282 F268 F266">
     <cfRule type="containsBlanks" dxfId="6" priority="413">
-      <formula>LEN(TRIM(F265))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K265 K267 K269 K283 K273 K280:K281">
+      <formula>LEN(TRIM(F264))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K264 K279:K280 K272 K282 K268 K266">
     <cfRule type="cellIs" dxfId="9" priority="403" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
@@ -33620,7 +33704,7 @@
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L265 L267 L269 L283 L273 L280:L281">
+  <conditionalFormatting sqref="L264 L279:L280 L272 L282 L268 L266">
     <cfRule type="cellIs" dxfId="12" priority="406" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
@@ -33631,7 +33715,7 @@
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M265 M267 M269 M283 M273 M280:M281">
+  <conditionalFormatting sqref="M264 M279:M280 M272 M282 M268 M266">
     <cfRule type="cellIs" dxfId="14" priority="409" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
@@ -33639,7 +33723,7 @@
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N265 N267 N269 N283 N273 N280:N281">
+  <conditionalFormatting sqref="N264 N279:N280 N272 N282 N268 N266">
     <cfRule type="cellIs" dxfId="16" priority="410" operator="equal">
       <formula>"User"</formula>
     </cfRule>
@@ -33647,12 +33731,12 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q265 P269 P283 P273 P281">
+  <conditionalFormatting sqref="Q264 P280 P272 P282 P268">
     <cfRule type="containsBlanks" dxfId="6" priority="401">
-      <formula>LEN(TRIM(P265))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E266 E268 E274 E284 E282">
+      <formula>LEN(TRIM(P264))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E265 E281 E283 E273 E267">
     <cfRule type="cellIs" dxfId="5" priority="379" operator="equal">
       <formula>"f64"</formula>
     </cfRule>
@@ -33687,12 +33771,12 @@
       <formula>"s16"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266 F268 F274 F284 F282">
+  <conditionalFormatting sqref="F265 F281 F283 F273 F267">
     <cfRule type="containsBlanks" dxfId="6" priority="390">
-      <formula>LEN(TRIM(F266))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K266 K268 K270 K274 K284 K282">
+      <formula>LEN(TRIM(F265))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K265 K281 K283 K273 K269 K267">
     <cfRule type="cellIs" dxfId="9" priority="380" operator="equal">
       <formula>"读写 - 立即更改，立即生效"</formula>
     </cfRule>
@@ -33703,7 +33787,7 @@
       <formula>"读写 - 停机更改，立即生效"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L266 L268 L270 L274 L284 L282">
+  <conditionalFormatting sqref="L265 L281 L283 L273 L269 L267">
     <cfRule type="cellIs" dxfId="12" priority="383" operator="equal">
       <formula>"仅上限"</formula>
     </cfRule>
@@ -33714,7 +33798,7 @@
       <formula>"上下限"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M266 M268 M270 M274 M284 M282">
+  <conditionalFormatting sqref="M265 M281 M283 M273 M269 M267">
     <cfRule type="cellIs" dxfId="14" priority="386" operator="equal">
       <formula>"允许保存，不可恢复"</formula>
     </cfRule>
@@ -33722,7 +33806,7 @@
       <formula>"允许保存，可恢复"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N266 N268 N270 N274 N284 N282">
+  <conditionalFormatting sqref="N265 N281 N283 N273 N269 N267">
     <cfRule type="cellIs" dxfId="16" priority="387" operator="equal">
       <formula>"User"</formula>
     </cfRule>
@@ -33730,28 +33814,28 @@
       <formula>"Admin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q266 P268 P270 P274 P284 P282">
+  <conditionalFormatting sqref="Q265 P281 P283 P273 P269 P267">
     <cfRule type="containsBlanks" dxfId="6" priority="378">
-      <formula>LEN(TRIM(P266))=0</formula>
+      <formula>LEN(TRIM(P265))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J55 J56 J57 J58 J59 J60 J73 J76 J77 J78 J79 J80 J81 J82 J83 J84 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J187 J188 J207 J208 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J228 J229 J230 J247 J248 J249 J250 J251 J254 J258 J259 J260 J261 J262 J263 J264 J265 J266 J267 J268 J269 J270 J271 J272 J273 J274 J275 J276 J277 J278 J279 J280 J281 J282 J283 J284 J285 J286 J287 J288 J289 J290 J291 J292 J293 J294 J295 J296 J297 J298 J299 J300 J304 J305 J306 J6:J22 J43:J54 J61:J72 J74:J75 J85:J100 J101:J102 J103:J110 J128:J136 J137:J152 J153:J184 J185:J186 J189:J190 J191:J206 J219:J227 J231:J233 J234:J246 J252:J253 J255:J257 J301:J303 J307:J317">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E57 E58 E59 E60 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E215 E216 E217 E218 E228 E229 E230 E246 E247 E248 E249 E250 E253 E257 E258 E259 E260 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E271 E272 E273 E274 E275 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E298 E299 E306 E6:E22 E42:E56 E61:E72 E84:E111 E126:E209 E210:E214 E219:E227 E231:E232 E233:E245 E251:E252 E254:E256 E300:E302 E303:E305 E307:E316">
+      <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J55 J56 J57 J58 J59 J60 J73 J76 J77 J78 J79 J80 J81 J82 J83 J84 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J187 J188 J207 J208 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J228 J229 J230 J246 J247 J248 J249 J250 J253 J257 J258 J259 J260 J261 J262 J263 J264 J265 J266 J267 J268 J269 J270 J271 J272 J273 J274 J275 J276 J277 J278 J279 J280 J281 J282 J283 J284 J285 J286 J287 J288 J289 J290 J291 J292 J293 J294 J295 J296 J297 J298 J299 J303 J304 J305 J6:J22 J43:J54 J61:J72 J74:J75 J85:J100 J101:J102 J103:J110 J128:J136 J137:J152 J153:J184 J185:J186 J189:J190 J191:J206 J219:J227 J231:J232 J233:J245 J251:J252 J254:J256 J300:J302 J306:J316">
       <formula1>Unit!$A$2:$A$62</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E57 E58 E59 E60 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E215 E216 E217 E218 E228 E229 E230 E247 E248 E249 E250 E251 E254 E258 E259 E260 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E271 E272 E273 E274 E275 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E298 E299 E300 E307 E6:E22 E42:E56 E61:E72 E84:E111 E126:E209 E210:E214 E219:E227 E231:E233 E234:E246 E252:E253 E255:E257 E301:E303 E304:E306 E308:E317">
-      <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K55 K56 K57 K58 K59 K60 K73 K74 K75 K76 K77 K80 K84 K112 K113 K114 K117 K120 K121 K122 K123 K124 K125 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K185 K207 K208 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K228 K229 K230 K247 K248 K249 K250 K251 K254 K258 K259 K260 K261 K262 K263 K264 K265 K266 K267 K268 K269 K270 K271 K272 K273 K274 K275 K276 K277 K278 K279 K280 K281 K282 K283 K284 K285 K286 K287 K288 K289 K290 K291 K292 K293 K294 K295 K296 K297 K298 K299 K300 K6:K22 K43:K54 K61:K68 K69:K70 K71:K72 K78:K79 K81:K83 K85:K100 K101:K111 K115:K116 K118:K119 K126:K128 K129:K136 K152:K184 K186:K188 K189:K190 K191:K206 K219:K227 K231:K233 K234:K246 K252:K253 K255:K257 K301:K303 K304:K306 K307:K317">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K55 K56 K57 K58 K59 K60 K73 K74 K75 K76 K77 K80 K84 K112 K113 K114 K117 K120 K121 K122 K123 K124 K125 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K185 K207 K208 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K228 K229 K230 K246 K247 K248 K249 K250 K253 K257 K258 K259 K260 K261 K262 K263 K264 K265 K266 K267 K268 K269 K270 K271 K272 K273 K274 K275 K276 K277 K278 K279 K280 K281 K282 K283 K284 K285 K286 K287 K288 K289 K290 K291 K292 K293 K294 K295 K296 K297 K298 K299 K6:K22 K43:K54 K61:K68 K69:K70 K71:K72 K78:K79 K81:K83 K85:K100 K101:K111 K115:K116 K118:K119 K126:K128 K129:K136 K152:K184 K186:K188 K189:K190 K191:K206 K219:K227 K231:K232 K233:K245 K251:K252 K254:K256 K300:K302 K303:K305 K306:K316">
       <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L56 L57 L58 L59 L60 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L228 L229 L230 L247 L248 L249 L250 L251 L254 L258 L259 L260 L261 L262 L263 L264 L265 L266 L267 L268 L269 L270 L271 L272 L273 L274 L275 L276 L277 L278 L279 L280 L281 L282 L283 L284 L285 L286 L287 L288 L289 L290 L291 L292 L293 L294 L295 L296 L297 L298 L299 L300 L6:L22 L42:L55 L61:L83 L84:L190 L191:L206 L219:L227 L231:L233 L234:L246 L252:L253 L255:L257 L301:L303 L304:L306 L307:L317">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L56 L57 L58 L59 L60 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L228 L229 L230 L246 L247 L248 L249 L250 L253 L257 L258 L259 L260 L261 L262 L263 L264 L265 L266 L267 L268 L269 L270 L271 L272 L273 L274 L275 L276 L277 L278 L279 L280 L281 L282 L283 L284 L285 L286 L287 L288 L289 L290 L291 L292 L293 L294 L295 L296 L297 L298 L299 L6:L22 L42:L55 L61:L83 L84:L190 L191:L206 L219:L227 L231:L232 L233:L245 L251:L252 L254:L256 L300:L302 L303:L305 L306:L316">
       <formula1>"无效,仅上限,仅下限,上下限"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M55 M56 M57 M58 M59 M60 M61 M68 M76 M77 M80 M84 M112 M113 M114 M117 M120 M121 M122 M123 M124 M125 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M185 M207 M208 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M228 M229 M230 M247 M248 M249 M250 M251 M254 M258 M259 M260 M261 M262 M263 M264 M265 M266 M267 M268 M269 M270 M271 M272 M273 M274 M275 M276 M277 M278 M279 M280 M281 M282 M283 M284 M285 M286 M287 M288 M289 M290 M291 M292 M293 M294 M295 M296 M297 M298 M299 M300 M6:M22 M43:M54 M62:M67 M69:M70 M71:M72 M73:M75 M78:M79 M81:M83 M85:M100 M101:M111 M115:M116 M118:M119 M126:M128 M129:M136 M152:M184 M186:M188 M189:M190 M191:M206 M219:M227 M231:M233 M234:M246 M252:M253 M255:M257 M301:M303 M304:M306 M307:M317">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M55 M56 M57 M58 M59 M60 M61 M68 M76 M77 M80 M84 M112 M113 M114 M117 M120 M121 M122 M123 M124 M125 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M185 M207 M208 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M228 M229 M230 M246 M247 M248 M249 M250 M253 M257 M258 M259 M260 M261 M262 M263 M264 M265 M266 M267 M268 M269 M270 M271 M272 M273 M274 M275 M276 M277 M278 M279 M280 M281 M282 M283 M284 M285 M286 M287 M288 M289 M290 M291 M292 M293 M294 M295 M296 M297 M298 M299 M6:M22 M43:M54 M62:M67 M69:M70 M71:M72 M73:M75 M78:M79 M81:M83 M85:M100 M101:M111 M115:M116 M118:M119 M126:M128 M129:M136 M152:M184 M186:M188 M189:M190 M191:M206 M219:M227 M231:M232 M233:M245 M251:M252 M254:M256 M300:M302 M303:M305 M306:M316">
       <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N55 N56 N57 N58 N59 N60 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N207 N208 N209 N210 N211 N212 N213 N214 N215 N216 N217 N218 N228 N229 N230 N247 N248 N249 N250 N251 N254 N258 N259 N260 N261 N262 N263 N264 N265 N266 N267 N268 N269 N270 N271 N272 N273 N274 N275 N276 N277 N278 N279 N280 N281 N282 N283 N284 N285 N286 N287 N288 N289 N290 N291 N292 N293 N294 N295 N296 N297 N298 N299 N300 N6:N22 N43:N54 N61:N72 N84:N111 N126:N190 N191:N206 N219:N227 N231:N233 N234:N246 N252:N253 N255:N257 N301:N303 N304:N306 N307:N317">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N55 N56 N57 N58 N59 N60 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N207 N208 N209 N210 N211 N212 N213 N214 N215 N216 N217 N218 N228 N229 N230 N246 N247 N248 N249 N250 N253 N257 N258 N259 N260 N261 N262 N263 N264 N265 N266 N267 N268 N269 N270 N271 N272 N273 N274 N275 N276 N277 N278 N279 N280 N281 N282 N283 N284 N285 N286 N287 N288 N289 N290 N291 N292 N293 N294 N295 N296 N297 N298 N299 N6:N22 N43:N54 N61:N72 N84:N111 N126:N190 N191:N206 N219:N227 N231:N232 N233:N245 N251:N252 N254:N256 N300:N302 N303:N305 N306:N316">
       <formula1>"Admin,User,Anyone"</formula1>
     </dataValidation>
   </dataValidations>
@@ -33778,7 +33862,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -33786,37 +33870,37 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -33828,31 +33912,31 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -33864,40 +33948,40 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -33906,127 +33990,127 @@
         <v>278</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C35" s="4"/>
     </row>
@@ -34035,166 +34119,166 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>607</v>
+        <v>382</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="C57" s="4"/>
     </row>
@@ -34203,22 +34287,22 @@
         <v>288</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="C60" s="4"/>
     </row>
@@ -34227,16 +34311,16 @@
         <v>254</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>

--- a/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
+++ b/examples/stm32hal_g070rb_Servo/Database/paratbl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12180" windowHeight="9430" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="10730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="3" r:id="rId1"/>
@@ -1460,19 +1460,19 @@
     <t>u16PosLoopKp</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>‰</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>0.1Hz</t>
   </si>
   <si>
     <t>位置环增益系数</t>
   </si>
   <si>
     <t>u16PosLoopKi</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
   <si>
     <t>位置环积分系数</t>
@@ -2562,6 +2562,9 @@
     <t>u16TrqLimSrc</t>
   </si>
   <si>
+    <t>‰</t>
+  </si>
+  <si>
     <t>转矩限制来源</t>
   </si>
   <si>
@@ -2796,6 +2799,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>开环测试.</t>
     </r>
     <r>
@@ -2822,6 +2831,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>开环测试</t>
     </r>
     <r>
@@ -2856,8 +2871,9 @@
     <t>电机编码器辨识.方向匹配状态</t>
   </si>
   <si>
-    <t>0-电机旋转方向和电角度递增方向相同
-1-电机旋转方向和电角度递增方向相反</t>
+    <t>0-待测定
+1-电机旋转方向与电角度递增方向相同(电机相序正常)
+2-电机旋转方向与电角度递增方向相反(电机相序异常)</t>
   </si>
   <si>
     <t>u16MotEncIdentPolePairs</t>
@@ -2882,6 +2898,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机编码器辨识</t>
     </r>
     <r>
@@ -2911,7 +2933,7 @@
 4-电机电角度回初阶段；
 5-电机正向旋转（给定电角度自增）；
 6-电机反向旋转（给定电角度自减）；
-7-结果计算；
+7-计算编码器安装偏置；
 8-错误处理；
 9-辨识完成；</t>
   </si>
@@ -2920,6 +2942,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机编码器辨识</t>
     </r>
     <r>
@@ -3351,9 +3379,6 @@
   </si>
   <si>
     <t>0.1kHz</t>
-  </si>
-  <si>
-    <t>0.1Hz</t>
   </si>
   <si>
     <t>rad/s</t>
@@ -3628,6 +3653,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3642,62 +3705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3719,8 +3728,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3734,39 +3781,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3787,7 +3812,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3799,19 +3896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3823,19 +3908,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3847,127 +3992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4118,19 +4143,34 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4175,26 +4215,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4206,10 +4231,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4218,133 +4243,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17640,11 +17665,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31 K38 K45 K83 K84 K85 K86 K87 K88 K89 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K152 K153 K154 K155 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K170 K171 K172 K173 K176 K177 K209 K210 K211 K212 K216 K220 K233 K234 K235 K236 K237 K247 K248 K253 K5:K27 K28:K30 K32:K37 K39:K41 K42:K44 K46:K59 K60:K80 K81:K82 K90:K91 K174:K175 K178:K208 K213:K215 K217:K219 K221:K227 K228:K230 K231:K232 K238:K246 K249:K252">
+      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E9 E28 E31 E38 E45 E83 E84 E85 E86 E87 E88 E89 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E151 E155 E168 E169 E170 E171 E172 E173 E176 E177 E209 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E237 E247 E248 E253 E6:E8 E10:E17 E18:E27 E29:E30 E32:E35 E36:E37 E39:E44 E46:E82 E90:E91 E148:E150 E152:E154 E156:E162 E163:E165 E166:E167 E174:E175 E178:E192 E193:E208 E238:E246 E249:E252">
       <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N31 N38 N83 N84 N85 N86 N87 N88 N89 N92 N93 N94 N95 N96 N97 N98 N99 N100 N101 N102 N103 N104 N105 N106 N107 N108 N109 N110 N111 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N126 N127 N128 N129 N130 N131 N132 N133 N134 N135 N136 N137 N138 N139 N140 N141 N142 N143 N144 N145 N146 N147 N148 N149 N150 N151 N152 N153 N154 N155 N156 N157 N158 N159 N160 N161 N162 N163 N164 N165 N166 N167 N168 N169 N170 N171 N172 N173 N176 N177 N209 N210 N211 N212 N216 N220 N233 N234 N235 N236 N237 N247 N248 N253 N5:N21 N22:N27 N28:N30 N32:N37 N39:N45 N46:N50 N51:N82 N90:N91 N174:N175 N178:N208 N213:N215 N217:N219 N221:N227 N228:N230 N231:N232 N238:N246 N249:N252">
-      <formula1>"Admin,User,Anyone"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M31 M38 M50 M83 M84 M85 M86 M87 M88 M89 M92 M93 M94 M95 M96 M97 M98 M99 M100 M101 M102 M103 M104 M105 M106 M107 M108 M109 M110 M111 M112 M113 M114 M115 M116 M117 M118 M119 M120 M121 M122 M123 M124 M125 M126 M127 M128 M129 M130 M131 M132 M133 M134 M135 M136 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M152 M153 M154 M155 M156 M157 M158 M159 M160 M161 M162 M163 M164 M165 M166 M167 M168 M169 M170 M171 M172 M173 M176 M177 M209 M210 M211 M212 M216 M220 M233 M234 M235 M236 M237 M247 M248 M253 M15:M27 M28:M30 M32:M37 M39:M45 M46:M49 M51:M56 M57:M59 M60:M80 M81:M82 M90:M91 M174:M175 M178:M194 M195:M206 M207:M208 M213:M215 M217:M219 M221:M227 M228:M230 M231:M232 M238:M246 M249:M252">
       <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
@@ -17652,11 +17677,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J31 J38 J45 J83 J84 J85 J86 J87 J88 J89 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101 J102 J103 J104 J105 J106 J107 J108 J109 J110 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J128 J129 J130 J131 J132 J133 J134 J135 J136 J137 J138 J139 J140 J141 J142 J143 J144 J145 J146 J147 J148 J149 J150 J151 J152 J153 J154 J155 J156 J157 J158 J159 J160 J161 J162 J163 J164 J165 J166 J167 J168 J169 J170 J171 J172 J173 J176 J177 J209 J210 J211 J212 J216 J217 J218 J219 J220 J227 J230 J233 J234 J235 J236 J237 J238 J247 J248 J253 J5:J27 J28:J30 J32:J37 J39:J42 J43:J44 J46:J82 J90:J91 J174:J175 J178:J208 J213:J215 J221:J226 J228:J229 J231:J232 J239:J246 J249:J252">
       <formula1>Unit!$A$2:$A$62</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31 K38 K45 K83 K84 K85 K86 K87 K88 K89 K92 K93 K94 K95 K96 K97 K98 K99 K100 K101 K102 K103 K104 K105 K106 K107 K108 K109 K110 K111 K112 K113 K114 K115 K116 K117 K118 K119 K120 K121 K122 K123 K124 K125 K126 K127 K128 K129 K130 K131 K132 K133 K134 K135 K136 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K152 K153 K154 K155 K156 K157 K158 K159 K160 K161 K162 K163 K164 K165 K166 K167 K168 K169 K170 K171 K172 K173 K176 K177 K209 K210 K211 K212 K216 K220 K233 K234 K235 K236 K237 K247 K248 K253 K5:K27 K28:K30 K32:K37 K39:K41 K42:K44 K46:K59 K60:K80 K81:K82 K90:K91 K174:K175 K178:K208 K213:K215 K217:K219 K221:K227 K228:K230 K231:K232 K238:K246 K249:K252">
-      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L31 L38 L83 L84 L85 L86 L87 L88 L89 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L176 L177 L209 L210 L211 L212 L233 L234 L235 L236 L237 L247 L248 L253 L5:L27 L28:L30 L32:L37 L39:L45 L46:L82 L90:L91 L174:L175 L178:L208 L213:L227 L228:L230 L231:L232 L238:L246 L249:L252">
       <formula1>"无效,仅上限,仅下限,上下限"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N31 N38 N83 N84 N85 N86 N87 N88 N89 N92 N93 N94 N95 N96 N97 N98 N99 N100 N101 N102 N103 N104 N105 N106 N107 N108 N109 N110 N111 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N126 N127 N128 N129 N130 N131 N132 N133 N134 N135 N136 N137 N138 N139 N140 N141 N142 N143 N144 N145 N146 N147 N148 N149 N150 N151 N152 N153 N154 N155 N156 N157 N158 N159 N160 N161 N162 N163 N164 N165 N166 N167 N168 N169 N170 N171 N172 N173 N176 N177 N209 N210 N211 N212 N216 N220 N233 N234 N235 N236 N237 N247 N248 N253 N5:N21 N22:N27 N28:N30 N32:N37 N39:N45 N46:N50 N51:N82 N90:N91 N174:N175 N178:N208 N213:N215 N217:N219 N221:N227 N228:N230 N231:N232 N238:N246 N249:N252">
+      <formula1>"Admin,User,Anyone"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17671,8 +17696,8 @@
   </sheetPr>
   <dimension ref="A1:S326"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D203" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17692,7 +17717,8 @@
     <col min="14" max="14" width="20.5454545454545" style="5" customWidth="1"/>
     <col min="15" max="15" width="17.9181818181818" style="5" customWidth="1"/>
     <col min="16" max="16" width="32" style="6" customWidth="1"/>
-    <col min="17" max="18" width="37.6363636363636" style="5" customWidth="1"/>
+    <col min="17" max="17" width="48.3363636363636" style="5" customWidth="1"/>
+    <col min="18" max="18" width="37.6363636363636" style="5" customWidth="1"/>
     <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -19541,13 +19567,13 @@
         <v>381</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>77</v>
@@ -19563,7 +19589,7 @@
       </c>
       <c r="O43" s="12"/>
       <c r="P43" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q43" s="18"/>
       <c r="R43" s="27"/>
@@ -19580,19 +19606,19 @@
         <v>40</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>77</v>
@@ -19628,16 +19654,16 @@
         <v>387</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>77</v>
@@ -19676,13 +19702,13 @@
         <v>381</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>77</v>
@@ -19718,16 +19744,16 @@
         <v>391</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>77</v>
@@ -19763,16 +19789,16 @@
         <v>393</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>77</v>
@@ -19811,13 +19837,13 @@
         <v>381</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>77</v>
@@ -19853,16 +19879,16 @@
         <v>397</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>77</v>
@@ -19898,16 +19924,16 @@
         <v>399</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>77</v>
@@ -19946,13 +19972,13 @@
         <v>381</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>77</v>
@@ -19988,16 +20014,16 @@
         <v>402</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>77</v>
@@ -20033,16 +20059,16 @@
         <v>404</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>77</v>
@@ -25946,7 +25972,7 @@
         <v>76</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="K186" s="12" t="s">
         <v>431</v>
@@ -25962,7 +25988,7 @@
       </c>
       <c r="O186" s="18"/>
       <c r="P186" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q186" s="18"/>
       <c r="R186" s="27"/>
@@ -25979,7 +26005,7 @@
         <v>40</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G187" s="16" t="s">
         <v>24</v>
@@ -25991,7 +26017,7 @@
         <v>76</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="K187" s="12" t="s">
         <v>431</v>
@@ -26007,7 +26033,7 @@
       </c>
       <c r="O187" s="18"/>
       <c r="P187" s="33" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q187" s="18"/>
       <c r="R187" s="27"/>
@@ -26024,7 +26050,7 @@
         <v>40</v>
       </c>
       <c r="F188" s="20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>24</v>
@@ -26036,7 +26062,7 @@
         <v>76</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="K188" s="12" t="s">
         <v>431</v>
@@ -26052,7 +26078,7 @@
       </c>
       <c r="O188" s="18"/>
       <c r="P188" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q188" s="18"/>
       <c r="R188" s="27"/>
@@ -26151,7 +26177,7 @@
         <v>40</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>24</v>
@@ -26179,7 +26205,7 @@
       </c>
       <c r="O191" s="18"/>
       <c r="P191" s="18" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q191" s="18"/>
       <c r="R191" s="27"/>
@@ -26196,7 +26222,7 @@
         <v>40</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>24</v>
@@ -26224,7 +26250,7 @@
       </c>
       <c r="O192" s="18"/>
       <c r="P192" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q192" s="18"/>
       <c r="R192" s="27"/>
@@ -26241,7 +26267,7 @@
         <v>40</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>24</v>
@@ -26269,7 +26295,7 @@
       </c>
       <c r="O193" s="18"/>
       <c r="P193" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q193" s="18"/>
       <c r="R193" s="27"/>
@@ -26286,7 +26312,7 @@
         <v>40</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>24</v>
@@ -26314,7 +26340,7 @@
       </c>
       <c r="O194" s="18"/>
       <c r="P194" s="18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q194" s="18"/>
       <c r="R194" s="27"/>
@@ -26331,7 +26357,7 @@
         <v>40</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>24</v>
@@ -26359,7 +26385,7 @@
       </c>
       <c r="O195" s="18"/>
       <c r="P195" s="18" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q195" s="18"/>
       <c r="R195" s="27"/>
@@ -26376,7 +26402,7 @@
         <v>40</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>24</v>
@@ -26404,7 +26430,7 @@
       </c>
       <c r="O196" s="18"/>
       <c r="P196" s="18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q196" s="18"/>
       <c r="R196" s="27"/>
@@ -26421,7 +26447,7 @@
         <v>40</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>24</v>
@@ -26449,7 +26475,7 @@
       </c>
       <c r="O197" s="18"/>
       <c r="P197" s="18" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q197" s="18"/>
       <c r="R197" s="27"/>
@@ -26466,7 +26492,7 @@
         <v>40</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>24</v>
@@ -26494,7 +26520,7 @@
       </c>
       <c r="O198" s="18"/>
       <c r="P198" s="18" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q198" s="18"/>
       <c r="R198" s="27"/>
@@ -26511,7 +26537,7 @@
         <v>40</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>24</v>
@@ -26539,7 +26565,7 @@
       </c>
       <c r="O199" s="18"/>
       <c r="P199" s="18" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q199" s="18"/>
       <c r="R199" s="27"/>
@@ -26556,7 +26582,7 @@
         <v>40</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>24</v>
@@ -26584,7 +26610,7 @@
       </c>
       <c r="O200" s="18"/>
       <c r="P200" s="18" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q200" s="18"/>
       <c r="R200" s="27"/>
@@ -26601,7 +26627,7 @@
         <v>40</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>24</v>
@@ -26629,7 +26655,7 @@
       </c>
       <c r="O201" s="18"/>
       <c r="P201" s="18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Q201" s="18"/>
       <c r="R201" s="27"/>
@@ -26646,7 +26672,7 @@
         <v>40</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>24</v>
@@ -26674,7 +26700,7 @@
       </c>
       <c r="O202" s="18"/>
       <c r="P202" s="18" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Q202" s="18"/>
       <c r="R202" s="27"/>
@@ -26691,7 +26717,7 @@
         <v>40</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>24</v>
@@ -26719,7 +26745,7 @@
       </c>
       <c r="O203" s="18"/>
       <c r="P203" s="18" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q203" s="18"/>
       <c r="R203" s="27"/>
@@ -26736,7 +26762,7 @@
         <v>40</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>24</v>
@@ -26764,7 +26790,7 @@
       </c>
       <c r="O204" s="18"/>
       <c r="P204" s="18" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q204" s="18"/>
       <c r="R204" s="27"/>
@@ -26781,7 +26807,7 @@
         <v>40</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G205" s="16" t="s">
         <v>24</v>
@@ -26809,7 +26835,7 @@
       </c>
       <c r="O205" s="18"/>
       <c r="P205" s="18" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q205" s="18"/>
       <c r="R205" s="27"/>
@@ -26826,7 +26852,7 @@
         <v>40</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>24</v>
@@ -26854,7 +26880,7 @@
       </c>
       <c r="O206" s="18"/>
       <c r="P206" s="18" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q206" s="18"/>
       <c r="R206" s="27"/>
@@ -26871,7 +26897,7 @@
         <v>40</v>
       </c>
       <c r="F207" s="20" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>24</v>
@@ -26899,10 +26925,10 @@
       </c>
       <c r="O207" s="18"/>
       <c r="P207" s="33" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q207" s="26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R207" s="27"/>
     </row>
@@ -26918,7 +26944,7 @@
         <v>170</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>24</v>
@@ -26946,7 +26972,7 @@
       </c>
       <c r="O208" s="18"/>
       <c r="P208" s="33" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q208" s="18"/>
       <c r="R208" s="27"/>
@@ -27004,10 +27030,10 @@
         <v>40</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H210" s="16" t="s">
         <v>75</v>
@@ -27016,7 +27042,7 @@
         <v>76</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K210" s="12" t="s">
         <v>431</v>
@@ -27032,7 +27058,7 @@
       </c>
       <c r="O210" s="18"/>
       <c r="P210" s="33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q210" s="18"/>
       <c r="R210" s="27"/>
@@ -27049,7 +27075,7 @@
         <v>170</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>24</v>
@@ -27061,7 +27087,7 @@
         <v>253</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K211" s="12" t="s">
         <v>431</v>
@@ -27077,7 +27103,7 @@
       </c>
       <c r="O211" s="18"/>
       <c r="P211" s="33" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q211" s="18"/>
       <c r="R211" s="27"/>
@@ -27094,16 +27120,16 @@
         <v>170</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I212" s="16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J212" s="12" t="s">
         <v>25</v>
@@ -27122,7 +27148,7 @@
       </c>
       <c r="O212" s="18"/>
       <c r="P212" s="33" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q212" s="18"/>
       <c r="R212" s="27"/>
@@ -27139,7 +27165,7 @@
         <v>170</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>370</v>
@@ -27167,7 +27193,7 @@
       </c>
       <c r="O213" s="18"/>
       <c r="P213" s="33" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Q213" s="18"/>
       <c r="R213" s="27"/>
@@ -27184,7 +27210,7 @@
         <v>170</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>24</v>
@@ -27212,7 +27238,7 @@
       </c>
       <c r="O214" s="18"/>
       <c r="P214" s="33" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q214" s="18"/>
       <c r="R214" s="27"/>
@@ -27270,7 +27296,7 @@
         <v>40</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>24</v>
@@ -27279,7 +27305,7 @@
         <v>24</v>
       </c>
       <c r="I216" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J216" s="12" t="s">
         <v>25</v>
@@ -27298,12 +27324,12 @@
       </c>
       <c r="O216" s="18"/>
       <c r="P216" s="33" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Q216" s="33"/>
       <c r="R216" s="27"/>
     </row>
-    <row r="217" ht="26" spans="1:18">
+    <row r="217" ht="39" spans="1:18">
       <c r="A217" s="12"/>
       <c r="B217" s="30"/>
       <c r="C217" s="12"/>
@@ -27315,7 +27341,7 @@
         <v>40</v>
       </c>
       <c r="F217" s="20" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>24</v>
@@ -27343,10 +27369,10 @@
       </c>
       <c r="O217" s="18"/>
       <c r="P217" s="33" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q217" s="34" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="R217" s="27"/>
     </row>
@@ -27362,7 +27388,7 @@
         <v>40</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>24</v>
@@ -27390,7 +27416,7 @@
       </c>
       <c r="O218" s="18"/>
       <c r="P218" s="34" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q218" s="34"/>
       <c r="R218" s="27"/>
@@ -27407,7 +27433,7 @@
         <v>22</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>24</v>
@@ -27435,7 +27461,7 @@
       </c>
       <c r="O219" s="18"/>
       <c r="P219" s="34" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Q219" s="34"/>
       <c r="R219" s="27"/>
@@ -27452,7 +27478,7 @@
         <v>22</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>24</v>
@@ -27480,7 +27506,7 @@
       </c>
       <c r="O220" s="18"/>
       <c r="P220" s="34" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q220" s="34"/>
       <c r="R220" s="27"/>
@@ -27497,7 +27523,7 @@
         <v>40</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>24</v>
@@ -27525,10 +27551,10 @@
       </c>
       <c r="O221" s="18"/>
       <c r="P221" s="34" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q221" s="34" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="R221" s="27"/>
     </row>
@@ -27544,7 +27570,7 @@
         <v>40</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>24</v>
@@ -27572,7 +27598,7 @@
       </c>
       <c r="O222" s="18"/>
       <c r="P222" s="34" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q222" s="34"/>
       <c r="R222" s="27"/>
@@ -27671,7 +27697,7 @@
         <v>40</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>24</v>
@@ -27680,7 +27706,7 @@
         <v>24</v>
       </c>
       <c r="I225" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J225" s="12" t="s">
         <v>25</v>
@@ -27699,7 +27725,7 @@
       </c>
       <c r="O225" s="18"/>
       <c r="P225" s="33" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q225" s="18"/>
       <c r="R225" s="27"/>
@@ -27716,7 +27742,7 @@
         <v>40</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>125</v>
@@ -27728,7 +27754,7 @@
         <v>76</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K226" s="12" t="s">
         <v>431</v>
@@ -27744,7 +27770,7 @@
       </c>
       <c r="O226" s="18"/>
       <c r="P226" s="33" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q226" s="18"/>
       <c r="R226" s="27"/>
@@ -27761,7 +27787,7 @@
         <v>40</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>125</v>
@@ -27773,7 +27799,7 @@
         <v>76</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K227" s="12" t="s">
         <v>431</v>
@@ -27789,7 +27815,7 @@
       </c>
       <c r="O227" s="18"/>
       <c r="P227" s="33" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Q227" s="18"/>
       <c r="R227" s="27"/>
@@ -27847,7 +27873,7 @@
         <v>40</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>24</v>
@@ -27875,7 +27901,7 @@
       </c>
       <c r="O229" s="18"/>
       <c r="P229" s="33" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Q229" s="18"/>
       <c r="R229" s="27"/>
@@ -27892,7 +27918,7 @@
         <v>40</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>24</v>
@@ -27920,7 +27946,7 @@
       </c>
       <c r="O230" s="18"/>
       <c r="P230" s="18" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q230" s="18"/>
       <c r="R230" s="27"/>
@@ -27937,7 +27963,7 @@
         <v>40</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>24</v>
@@ -27965,7 +27991,7 @@
       </c>
       <c r="O231" s="18"/>
       <c r="P231" s="18" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Q231" s="18"/>
       <c r="R231" s="27"/>
@@ -28064,7 +28090,7 @@
         <v>40</v>
       </c>
       <c r="F234" s="20" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>24</v>
@@ -28092,7 +28118,7 @@
       </c>
       <c r="O234" s="18"/>
       <c r="P234" s="18" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q234" s="18"/>
       <c r="R234" s="27"/>
@@ -28437,7 +28463,7 @@
         <v>40</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>24</v>
@@ -28452,7 +28478,7 @@
         <v>25</v>
       </c>
       <c r="K243" s="35" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L243" s="14" t="s">
         <v>27</v>
@@ -28465,7 +28491,7 @@
       </c>
       <c r="O243" s="28"/>
       <c r="P243" s="33" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Q243" s="18"/>
       <c r="R243" s="27"/>
@@ -28482,7 +28508,7 @@
         <v>40</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>24</v>
@@ -28510,7 +28536,7 @@
       </c>
       <c r="O244" s="28"/>
       <c r="P244" s="33" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q244" s="18"/>
       <c r="R244" s="27"/>
@@ -28527,7 +28553,7 @@
         <v>22</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>24</v>
@@ -28555,10 +28581,10 @@
       </c>
       <c r="O245" s="28"/>
       <c r="P245" s="33" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q245" s="33" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="R245" s="27"/>
     </row>
@@ -28656,7 +28682,7 @@
         <v>170</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>24</v>
@@ -28684,7 +28710,7 @@
       </c>
       <c r="O248" s="28"/>
       <c r="P248" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q248" s="18"/>
       <c r="R248" s="27"/>
@@ -28701,7 +28727,7 @@
         <v>170</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>24</v>
@@ -28729,7 +28755,7 @@
       </c>
       <c r="O249" s="28"/>
       <c r="P249" s="18" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Q249" s="18"/>
       <c r="R249" s="27"/>
@@ -28746,7 +28772,7 @@
         <v>170</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>24</v>
@@ -28774,7 +28800,7 @@
       </c>
       <c r="O250" s="28"/>
       <c r="P250" s="18" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Q250" s="18"/>
       <c r="R250" s="27"/>
@@ -28791,7 +28817,7 @@
         <v>170</v>
       </c>
       <c r="F251" s="20" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G251" s="16" t="s">
         <v>24</v>
@@ -28819,7 +28845,7 @@
       </c>
       <c r="O251" s="28"/>
       <c r="P251" s="18" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q251" s="18"/>
       <c r="R251" s="27"/>
@@ -28836,7 +28862,7 @@
         <v>40</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G252" s="16" t="s">
         <v>24</v>
@@ -28845,7 +28871,7 @@
         <v>24</v>
       </c>
       <c r="I252" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J252" s="12" t="s">
         <v>25</v>
@@ -28864,7 +28890,7 @@
       </c>
       <c r="O252" s="28"/>
       <c r="P252" s="18" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q252" s="18"/>
       <c r="R252" s="27"/>
@@ -28881,7 +28907,7 @@
         <v>40</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>24</v>
@@ -28909,7 +28935,7 @@
       </c>
       <c r="O253" s="28"/>
       <c r="P253" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Q253" s="18"/>
       <c r="R253" s="27"/>
@@ -28926,7 +28952,7 @@
         <v>40</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G254" s="16" t="s">
         <v>24</v>
@@ -28954,7 +28980,7 @@
       </c>
       <c r="O254" s="28"/>
       <c r="P254" s="18" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Q254" s="18"/>
       <c r="R254" s="27"/>
@@ -28971,7 +28997,7 @@
         <v>40</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G255" s="16" t="s">
         <v>24</v>
@@ -28999,7 +29025,7 @@
       </c>
       <c r="O255" s="28"/>
       <c r="P255" s="18" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Q255" s="18"/>
       <c r="R255" s="27"/>
@@ -29057,7 +29083,7 @@
         <v>40</v>
       </c>
       <c r="F257" s="20" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G257" s="16" t="s">
         <v>24</v>
@@ -29085,7 +29111,7 @@
       </c>
       <c r="O257" s="28"/>
       <c r="P257" s="18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Q257" s="18"/>
       <c r="R257" s="27"/>
@@ -29102,7 +29128,7 @@
         <v>40</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>24</v>
@@ -29130,7 +29156,7 @@
       </c>
       <c r="O258" s="28"/>
       <c r="P258" s="33" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q258" s="18"/>
       <c r="R258" s="27"/>
@@ -29147,7 +29173,7 @@
         <v>40</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G259" s="16" t="s">
         <v>24</v>
@@ -29175,7 +29201,7 @@
       </c>
       <c r="O259" s="18"/>
       <c r="P259" s="33" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q259" s="18"/>
       <c r="R259" s="27"/>
@@ -29192,7 +29218,7 @@
         <v>40</v>
       </c>
       <c r="F260" s="20" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>374</v>
@@ -29220,7 +29246,7 @@
       </c>
       <c r="O260" s="18"/>
       <c r="P260" s="33" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q260" s="18"/>
       <c r="R260" s="27"/>
@@ -29483,7 +29509,7 @@
         <v>361</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G267" s="16" t="s">
         <v>24</v>
@@ -29511,7 +29537,7 @@
       </c>
       <c r="O267" s="28"/>
       <c r="P267" s="18" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Q267" s="18"/>
       <c r="R267" s="27"/>
@@ -29528,7 +29554,7 @@
         <v>40</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G268" s="16" t="s">
         <v>24</v>
@@ -29556,7 +29582,7 @@
       </c>
       <c r="O268" s="28"/>
       <c r="P268" s="18" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q268" s="18"/>
       <c r="R268" s="27"/>
@@ -29573,7 +29599,7 @@
         <v>40</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G269" s="16" t="s">
         <v>24</v>
@@ -29601,7 +29627,7 @@
       </c>
       <c r="O269" s="28"/>
       <c r="P269" s="33" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Q269" s="18"/>
       <c r="R269" s="27"/>
@@ -29618,7 +29644,7 @@
         <v>40</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G270" s="16" t="s">
         <v>24</v>
@@ -29646,7 +29672,7 @@
       </c>
       <c r="O270" s="28"/>
       <c r="P270" s="33" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q270" s="18"/>
       <c r="R270" s="27"/>
@@ -29663,7 +29689,7 @@
         <v>361</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G271" s="16" t="s">
         <v>24</v>
@@ -29691,7 +29717,7 @@
       </c>
       <c r="O271" s="12"/>
       <c r="P271" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Q271" s="18"/>
       <c r="R271" s="27"/>
@@ -29708,7 +29734,7 @@
         <v>361</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G272" s="16" t="s">
         <v>24</v>
@@ -29736,7 +29762,7 @@
       </c>
       <c r="O272" s="18"/>
       <c r="P272" s="33" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q272" s="18"/>
       <c r="R272" s="27"/>
@@ -29794,7 +29820,7 @@
         <v>170</v>
       </c>
       <c r="F274" s="20" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G274" s="16" t="s">
         <v>24</v>
@@ -29822,7 +29848,7 @@
       </c>
       <c r="O274" s="28"/>
       <c r="P274" s="33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Q274" s="18"/>
       <c r="R274" s="27"/>
@@ -29839,7 +29865,7 @@
         <v>170</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G275" s="16" t="s">
         <v>24</v>
@@ -29867,7 +29893,7 @@
       </c>
       <c r="O275" s="28"/>
       <c r="P275" s="33" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Q275" s="18"/>
       <c r="R275" s="27"/>
@@ -29884,7 +29910,7 @@
         <v>170</v>
       </c>
       <c r="F276" s="20" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G276" s="16" t="s">
         <v>24</v>
@@ -29912,7 +29938,7 @@
       </c>
       <c r="O276" s="28"/>
       <c r="P276" s="33" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Q276" s="18"/>
       <c r="R276" s="27"/>
@@ -30011,7 +30037,7 @@
         <v>284</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G279" s="16" t="s">
         <v>24</v>
@@ -30039,7 +30065,7 @@
       </c>
       <c r="O279" s="28"/>
       <c r="P279" s="33" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q279" s="18"/>
       <c r="R279" s="27"/>
@@ -30056,7 +30082,7 @@
         <v>361</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G280" s="16" t="s">
         <v>24</v>
@@ -30084,7 +30110,7 @@
       </c>
       <c r="O280" s="18"/>
       <c r="P280" s="33" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Q280" s="18"/>
       <c r="R280" s="27"/>
@@ -30101,7 +30127,7 @@
         <v>170</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G281" s="16" t="s">
         <v>24</v>
@@ -30129,7 +30155,7 @@
       </c>
       <c r="O281" s="18"/>
       <c r="P281" s="33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Q281" s="18"/>
       <c r="R281" s="27"/>
@@ -30228,7 +30254,7 @@
         <v>284</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G284" s="16" t="s">
         <v>24</v>
@@ -30256,7 +30282,7 @@
       </c>
       <c r="O284" s="18"/>
       <c r="P284" s="33" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Q284" s="18"/>
       <c r="R284" s="27"/>
@@ -30273,7 +30299,7 @@
         <v>284</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G285" s="16" t="s">
         <v>24</v>
@@ -30301,7 +30327,7 @@
       </c>
       <c r="O285" s="18"/>
       <c r="P285" s="33" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Q285" s="18"/>
       <c r="R285" s="27"/>
@@ -30318,7 +30344,7 @@
         <v>361</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G286" s="16" t="s">
         <v>24</v>
@@ -30346,7 +30372,7 @@
       </c>
       <c r="O286" s="18"/>
       <c r="P286" s="18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Q286" s="18"/>
       <c r="R286" s="27"/>
@@ -30363,7 +30389,7 @@
         <v>361</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G287" s="16" t="s">
         <v>24</v>
@@ -30391,7 +30417,7 @@
       </c>
       <c r="O287" s="18"/>
       <c r="P287" s="18" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Q287" s="18"/>
       <c r="R287" s="27"/>
@@ -30408,7 +30434,7 @@
         <v>361</v>
       </c>
       <c r="F288" s="20" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G288" s="16" t="s">
         <v>24</v>
@@ -30436,7 +30462,7 @@
       </c>
       <c r="O288" s="28"/>
       <c r="P288" s="33" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q288" s="18"/>
       <c r="R288" s="27"/>
@@ -30453,7 +30479,7 @@
         <v>361</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G289" s="16" t="s">
         <v>24</v>
@@ -30481,7 +30507,7 @@
       </c>
       <c r="O289" s="28"/>
       <c r="P289" s="33" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Q289" s="18"/>
       <c r="R289" s="27"/>
@@ -30703,7 +30729,7 @@
         <v>40</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G295" s="16" t="s">
         <v>24</v>
@@ -30731,10 +30757,10 @@
       </c>
       <c r="O295" s="28"/>
       <c r="P295" s="18" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Q295" s="26" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="R295" s="27"/>
     </row>
@@ -30750,7 +30776,7 @@
         <v>40</v>
       </c>
       <c r="F296" s="20" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G296" s="16" t="s">
         <v>24</v>
@@ -30836,7 +30862,7 @@
         <v>40</v>
       </c>
       <c r="F298" s="20" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G298" s="16" t="s">
         <v>24</v>
@@ -30879,7 +30905,7 @@
         <v>40</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G299" s="16" t="s">
         <v>24</v>
@@ -30963,7 +30989,7 @@
         <v>40</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G301" s="16" t="s">
         <v>24</v>
@@ -30991,7 +31017,7 @@
       </c>
       <c r="O301" s="28"/>
       <c r="P301" s="33" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Q301" s="18"/>
       <c r="R301" s="27"/>
@@ -31049,7 +31075,7 @@
         <v>40</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G303" s="16" t="s">
         <v>24</v>
@@ -31077,7 +31103,7 @@
       </c>
       <c r="O303" s="28"/>
       <c r="P303" s="33" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Q303" s="18"/>
       <c r="R303" s="27"/>
@@ -31135,7 +31161,7 @@
         <v>40</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G305" s="16" t="s">
         <v>24</v>
@@ -31144,7 +31170,7 @@
         <v>24</v>
       </c>
       <c r="I305" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J305" s="12" t="s">
         <v>25</v>
@@ -31163,7 +31189,7 @@
       </c>
       <c r="O305" s="12"/>
       <c r="P305" s="33" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q305" s="18"/>
       <c r="R305" s="27"/>
@@ -31467,7 +31493,7 @@
         <v>170</v>
       </c>
       <c r="F313" s="18" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G313" s="16" t="s">
         <v>24</v>
@@ -31479,7 +31505,7 @@
         <v>253</v>
       </c>
       <c r="J313" s="12" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K313" s="12" t="s">
         <v>26</v>
@@ -31495,7 +31521,7 @@
       </c>
       <c r="O313" s="12"/>
       <c r="P313" s="18" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Q313" s="18"/>
       <c r="R313" s="27"/>
@@ -31512,7 +31538,7 @@
         <v>170</v>
       </c>
       <c r="F314" s="18" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G314" s="16" t="s">
         <v>24</v>
@@ -31524,7 +31550,7 @@
         <v>253</v>
       </c>
       <c r="J314" s="12" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K314" s="12" t="s">
         <v>26</v>
@@ -31540,7 +31566,7 @@
       </c>
       <c r="O314" s="12"/>
       <c r="P314" s="18" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Q314" s="18"/>
       <c r="R314" s="27"/>
@@ -31557,7 +31583,7 @@
         <v>170</v>
       </c>
       <c r="F315" s="18" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G315" s="16" t="s">
         <v>24</v>
@@ -31569,7 +31595,7 @@
         <v>253</v>
       </c>
       <c r="J315" s="12" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K315" s="12" t="s">
         <v>26</v>
@@ -31585,7 +31611,7 @@
       </c>
       <c r="O315" s="12"/>
       <c r="P315" s="18" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Q315" s="18"/>
       <c r="R315" s="27"/>
@@ -31643,7 +31669,7 @@
         <v>284</v>
       </c>
       <c r="F317" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G317" s="16" t="s">
         <v>24</v>
@@ -31671,7 +31697,7 @@
       </c>
       <c r="O317" s="12"/>
       <c r="P317" s="18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="Q317" s="18"/>
       <c r="R317" s="27"/>
@@ -31688,7 +31714,7 @@
         <v>284</v>
       </c>
       <c r="F318" s="18" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G318" s="16" t="s">
         <v>24</v>
@@ -31716,7 +31742,7 @@
       </c>
       <c r="O318" s="12"/>
       <c r="P318" s="18" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="Q318" s="18"/>
       <c r="R318" s="27"/>
@@ -31733,7 +31759,7 @@
         <v>361</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G319" s="16" t="s">
         <v>24</v>
@@ -31761,7 +31787,7 @@
       </c>
       <c r="O319" s="12"/>
       <c r="P319" s="18" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Q319" s="18"/>
       <c r="R319" s="27"/>
@@ -31778,7 +31804,7 @@
         <v>361</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G320" s="16" t="s">
         <v>24</v>
@@ -31806,7 +31832,7 @@
       </c>
       <c r="O320" s="12"/>
       <c r="P320" s="18" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="Q320" s="18"/>
       <c r="R320" s="27"/>
@@ -31823,7 +31849,7 @@
         <v>170</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G321" s="16" t="s">
         <v>24</v>
@@ -31835,7 +31861,7 @@
         <v>24</v>
       </c>
       <c r="J321" s="12" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="K321" s="12" t="s">
         <v>26</v>
@@ -31851,7 +31877,7 @@
       </c>
       <c r="O321" s="12"/>
       <c r="P321" s="18" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q321" s="18"/>
       <c r="R321" s="27"/>
@@ -31868,7 +31894,7 @@
         <v>170</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G322" s="16" t="s">
         <v>24</v>
@@ -31880,7 +31906,7 @@
         <v>24</v>
       </c>
       <c r="J322" s="12" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="K322" s="12" t="s">
         <v>26</v>
@@ -31896,7 +31922,7 @@
       </c>
       <c r="O322" s="12"/>
       <c r="P322" s="18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Q322" s="18"/>
       <c r="R322" s="27"/>
@@ -34576,23 +34602,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K55 K56 K57 K58 K59 K60 K73 K74 K75 K76 K77 K80 K84 K112 K113 K114 K117 K120 K121 K122 K123 K124 K125 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K185 K207 K208 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K219 K220 K221 K222 K223 K224 K225 K226 K227 K228 K238 K239 K240 K256 K257 K258 K259 K260 K263 K267 K268 K269 K270 K271 K272 K273 K274 K275 K276 K277 K278 K279 K280 K281 K282 K283 K284 K285 K286 K287 K288 K289 K290 K291 K292 K293 K294 K295 K296 K297 K298 K299 K300 K301 K302 K303 K304 K305 K306 K307 K308 K309 K6:K22 K43:K54 K61:K68 K69:K70 K71:K72 K78:K79 K81:K83 K85:K100 K101:K111 K115:K116 K118:K119 K126:K128 K129:K136 K152:K184 K186:K188 K189:K190 K191:K206 K229:K237 K241:K242 K243:K255 K261:K262 K264:K266 K310:K312 K313:K315 K316:K326">
+      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E57 E58 E59 E60 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E238 E239 E240 E256 E257 E258 E259 E260 E263 E267 E268 E269 E270 E271 E272 E273 E274 E275 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E298 E299 E300 E301 E302 E303 E304 E305 E306 E307 E308 E309 E316 E6:E22 E42:E56 E61:E72 E84:E111 E126:E209 E210:E214 E229:E237 E241:E242 E243:E255 E261:E262 E264:E266 E310:E312 E313:E315 E317:E326">
       <formula1>"s16,u16,s32,u32,s64,u64,f32,f64"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J55 J56 J57 J58 J59 J60 J73 J76 J77 J78 J79 J80 J81 J82 J83 J84 J111 J112 J113 J114 J115 J116 J117 J118 J119 J120 J121 J122 J123 J124 J125 J126 J127 J187 J188 J207 J208 J209 J210 J211 J212 J213 J214 J215 J216 J217 J218 J219 J220 J221 J222 J223 J224 J225 J226 J227 J228 J238 J239 J240 J256 J257 J258 J259 J260 J263 J267 J268 J269 J270 J271 J272 J273 J274 J275 J276 J277 J278 J279 J280 J281 J282 J283 J284 J285 J286 J287 J288 J289 J290 J291 J292 J293 J294 J295 J296 J297 J298 J299 J300 J301 J302 J303 J304 J305 J306 J307 J308 J309 J313 J314 J315 J6:J22 J43:J54 J61:J72 J74:J75 J85:J100 J101:J102 J103:J110 J128:J136 J137:J152 J153:J184 J185:J186 J189:J190 J191:J206 J229:J237 J241:J242 J243:J255 J261:J262 J264:J266 J310:J312 J316:J326">
       <formula1>Unit!$A$2:$A$62</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K55 K56 K57 K58 K59 K60 K73 K74 K75 K76 K77 K80 K84 K112 K113 K114 K117 K120 K121 K122 K123 K124 K125 K137 K138 K139 K140 K141 K142 K143 K144 K145 K146 K147 K148 K149 K150 K151 K185 K207 K208 K209 K210 K211 K212 K213 K214 K215 K216 K217 K218 K219 K220 K221 K222 K223 K224 K225 K226 K227 K228 K238 K239 K240 K256 K257 K258 K259 K260 K263 K267 K268 K269 K270 K271 K272 K273 K274 K275 K276 K277 K278 K279 K280 K281 K282 K283 K284 K285 K286 K287 K288 K289 K290 K291 K292 K293 K294 K295 K296 K297 K298 K299 K300 K301 K302 K303 K304 K305 K306 K307 K308 K309 K6:K22 K43:K54 K61:K68 K69:K70 K71:K72 K78:K79 K81:K83 K85:K100 K101:K111 K115:K116 K118:K119 K126:K128 K129:K136 K152:K184 K186:K188 K189:K190 K191:K206 K229:K237 K241:K242 K243:K255 K261:K262 K264:K266 K310:K312 K313:K315 K316:K326">
-      <formula1>"只读,读写 - 立即更改，立即生效,读写 - 立即更改，重启生效,读写 - 停机更改，立即生效"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L56 L57 L58 L59 L60 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221 L222 L223 L224 L225 L226 L227 L228 L238 L239 L240 L256 L257 L258 L259 L260 L263 L267 L268 L269 L270 L271 L272 L273 L274 L275 L276 L277 L278 L279 L280 L281 L282 L283 L284 L285 L286 L287 L288 L289 L290 L291 L292 L293 L294 L295 L296 L297 L298 L299 L300 L301 L302 L303 L304 L305 L306 L307 L308 L309 L6:L22 L42:L55 L61:L83 L84:L190 L191:L206 L229:L237 L241:L242 L243:L255 L261:L262 L264:L266 L310:L312 L313:L315 L316:L326">
       <formula1>"无效,仅上限,仅下限,上下限"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M55 M56 M57 M58 M59 M60 M61 M68 M76 M77 M80 M84 M112 M113 M114 M117 M120 M121 M122 M123 M124 M125 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M185 M207 M208 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M219 M220 M221 M222 M223 M224 M225 M226 M227 M228 M238 M239 M240 M256 M257 M258 M259 M260 M263 M267 M268 M269 M270 M271 M272 M273 M274 M275 M276 M277 M278 M279 M280 M281 M282 M283 M284 M285 M286 M287 M288 M289 M290 M291 M292 M293 M294 M295 M296 M297 M298 M299 M300 M301 M302 M303 M304 M305 M306 M307 M308 M309 M6:M22 M43:M54 M62:M67 M69:M70 M71:M72 M73:M75 M78:M79 M81:M83 M85:M100 M101:M111 M115:M116 M118:M119 M126:M128 M129:M136 M152:M184 M186:M188 M189:M190 M191:M206 M229:M237 M241:M242 M243:M255 M261:M262 M264:M266 M310:M312 M313:M315 M316:M326">
+      <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N55 N56 N57 N58 N59 N60 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N112 N113 N114 N115 N116 N117 N118 N119 N120 N121 N122 N123 N124 N125 N207 N208 N209 N210 N211 N212 N213 N214 N215 N216 N217 N218 N219 N220 N221 N222 N223 N224 N225 N226 N227 N228 N238 N239 N240 N256 N257 N258 N259 N260 N263 N267 N268 N269 N270 N271 N272 N273 N274 N275 N276 N277 N278 N279 N280 N281 N282 N283 N284 N285 N286 N287 N288 N289 N290 N291 N292 N293 N294 N295 N296 N297 N298 N299 N300 N301 N302 N303 N304 N305 N306 N307 N308 N309 N6:N22 N43:N54 N61:N72 N84:N111 N126:N190 N191:N206 N229:N237 N241:N242 N243:N255 N261:N262 N264:N266 N310:N312 N313:N315 N316:N326">
       <formula1>"Admin,User,Anyone"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M23 M24 M25 M26 M27 M28 M29 M30 M31 M32 M33 M34 M35 M36 M37 M38 M39 M40 M41 M42 M55 M56 M57 M58 M59 M60 M61 M68 M76 M77 M80 M84 M112 M113 M114 M117 M120 M121 M122 M123 M124 M125 M137 M138 M139 M140 M141 M142 M143 M144 M145 M146 M147 M148 M149 M150 M151 M185 M207 M208 M209 M210 M211 M212 M213 M214 M215 M216 M217 M218 M219 M220 M221 M222 M223 M224 M225 M226 M227 M228 M238 M239 M240 M256 M257 M258 M259 M260 M263 M267 M268 M269 M270 M271 M272 M273 M274 M275 M276 M277 M278 M279 M280 M281 M282 M283 M284 M285 M286 M287 M288 M289 M290 M291 M292 M293 M294 M295 M296 M297 M298 M299 M300 M301 M302 M303 M304 M305 M306 M307 M308 M309 M6:M22 M43:M54 M62:M67 M69:M70 M71:M72 M73:M75 M78:M79 M81:M83 M85:M100 M101:M111 M115:M116 M118:M119 M126:M128 M129:M136 M152:M184 M186:M188 M189:M190 M191:M206 M229:M237 M241:M242 M243:M255 M261:M262 M264:M266 M310:M312 M313:M315 M316:M326">
-      <formula1>"允许保存，可恢复,允许保存，不可恢复,不允许保存，不可恢复"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
@@ -34618,7 +34644,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -34626,37 +34652,37 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -34668,7 +34694,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -34686,13 +34712,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -34704,7 +34730,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>808</v>
+        <v>383</v>
       </c>
       <c r="C14" s="4"/>
     </row>
@@ -34893,7 +34919,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>843</v>
@@ -34926,7 +34952,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>848</v>
@@ -34935,7 +34961,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>849</v>
